--- a/King Happy Hour San Diego.xlsx
+++ b/King Happy Hour San Diego.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,17 +451,37 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Bussiness Hours</t>
+          <t>Sunday</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Happy Hours</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Happy Hours Deals</t>
+          <t>Tuesday</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Wednesday</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Thursday</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Friday</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Saturday</t>
         </is>
       </c>
     </row>
@@ -486,17 +506,37 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>8:00 AM -  4:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3:00 PM -  4:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>$10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -521,17 +561,37 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3:00 PM -  8:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3:00 PM -  8:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>$2 Off The Entire Menu - MUST use code: NEIGHBOR when ordering.</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -556,17 +616,37 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11:00 AM - 12:00 AM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4:00 PM -  6:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">$2 Off Cocktails / $5 House Beer / $6 Well Wine </t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -591,17 +671,37 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3:00 PM -  1:00 AM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4:00 PM -  9:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>$10 Patron or Cazadores Margaritas</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -626,17 +726,37 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11:00 AM -  9:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3:00 PM -  7:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>$1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -661,17 +781,37 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11:00 AM -  9:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4:00 PM -  6:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>$2 Off All Draft Beer, Draft Cocktails, Sangria, Vodka, Rum, Bourbon &amp; Well Drinks / $3 Off All Craft Cocktails</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -696,17 +836,37 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11:00 AM - 12:00 AM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4:00 PM -  6:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>$1 Off All Drafts, Wells &amp; House Wines</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -731,17 +891,37 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11:30 AM -  9:30 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3:00 PM -  6:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>$3 Off Wines By The Glass / $4 Select Bottled Greek Beers / $6 Draft Beer, Well Cocktails / $9 Premium Drinks (+$2 upgrade to Specialty)</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -766,17 +946,37 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Closed</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Close</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Closed</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -801,17 +1001,37 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11:00 AM -  9:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>3:00 PM -  6:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>$5.50 14oz. Draft Beers (+$1 Sculpin), Well Drinks, Fireball Shots / $6.50 Jameson Shot, House Margaritas: Lime, Strawberry, Mango, Red Raspberry / $7.50 Tito's Vodka, Wine by the Glass, Jack Daniels, 25oz. Draft Beer (+$1.50 Sculpin) / $8.50 Moscow Mule, Mai Tai, Tropical Sangria, Long Island Tea</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -836,17 +1056,37 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>7:00 AM -  9:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3:30 PM -  7:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>$2 Off Glasses Of Wine / $5 Beers</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -871,17 +1111,37 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3:00 PM -  2:00 AM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>3:00 PM -  8:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1/2 Off All Drinks, Draft &amp; Bottled Beers</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -906,18 +1166,37 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11:00 AM -  8:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>3:00 PM -  6:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>$4 Non-Alcoholic Beer / $6 Draft Pints / $7 Draft Kombucha Pints, Draft Cider Pints / $9 Glass of Wine on
-Tap / $20 Draft Pitchers / $20 Carafes of Wine</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -942,17 +1221,37 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11:00 AM -  8:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3:00 PM -  6:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>$2 Off All Beer / $7 Glass of House White or Red, Well Drinks</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -977,17 +1276,37 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11:00 AM - 12:00 AM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3:00 PM -  7:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t xml:space="preserve">$2 Off Specialty Cocktails / $6 Select 20oz. Draft Beer, House Wines &amp; Well Cocktails </t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -1012,17 +1331,37 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11:00 AM - 10:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3:00 PM -  5:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>$1 Off All Pints</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -1047,17 +1386,37 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11:30 AM -  9:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>3:30 PM -  5:30 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>$6 Select Draft &amp; Bottled Beer / $10 House Red or White Wine by the Glass, Signature Cocktails</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1441,37 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11:30 AM -  9:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>4:00 PM -  7:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>$7 House Wine, Well Drinks, Draft Beer</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -1117,17 +1496,37 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5:00 PM -  9:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>3:30 PM -  5:30 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>$5 Bud Light / $6 Select Local Craft Beer / $10 Select Libations</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -1152,17 +1551,37 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>3:00 PM -  9:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>3:00 PM -  6:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>$2 Off All Specialty Cocktails / $7 Well Drinks, Select Draft Beer, 26oz. Pacific Social Blonde Ale / $8 House Wines / $9 Frosé 4 Days</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -1187,17 +1606,37 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11:00 AM -  9:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>3:00 PM -  6:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t xml:space="preserve">$5 House Margarita on the Rocks, Select Draft Pints / $18 Select Draft Pitchers / $21 Margarita on the Rocks Pitcher </t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -1222,17 +1661,37 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11:30 AM -  2:00 AM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>3:00 PM -  7:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t xml:space="preserve">$2 Off All Well Cocktails, Draft Beer, Wine &amp; Champagne </t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -1257,17 +1716,37 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>4:00 PM -  9:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>4:00 PM -  6:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>$1 Off Any Glass of Wine / $4 Sapporo Draft Beer / $5 Large Hot Sake or Large Bottle Beer / $9 Lg Hot Sake + Lg Beer Combo / $13.50 Sapporo Pitcher / $16 Lg Hot Sake + Sapporo Pitcher Combo</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -1292,17 +1771,37 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4:00 PM -  2:00 AM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4:00 PM -  6:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1/2 Off Select Drafts &amp; Most Spirits / $3 Skrewball Shots, Tully Shots / $4 Well Drinks / $5 Beer &amp; Shot / $15 Off Towers</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -1327,17 +1826,37 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7:00 AM -  8:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3:00 PM -  5:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>$6 Draft Beer / $9 House Made Sangria, Select Wine by the Glass / $12 Select Signature Cocktails</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -1362,17 +1881,37 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4:00 PM -  2:00 AM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>4:00 PM -  7:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>$3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -1397,17 +1936,37 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>3:00 PM - 10:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>3:00 PM -  5:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>$5 Draft Beers / $6 House Wines / $7 Well Cocktails</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -1432,17 +1991,37 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>4:00 PM -  8:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4:00 PM -  6:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>$5 Well Cocktails &amp; House Wines / $6 Select Drafts</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -1467,17 +2046,37 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4:00 PM -  9:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>4:00 PM -  6:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>$5 Draft Beer / $8 Well Cocktails, Wine by the Glass (Select Red, White &amp; Sparkling)</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -1502,17 +2101,37 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10:00 AM -  9:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3:00 PM -  6:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>$7 Craft Beer / $10 Craft Cocktails</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -1537,17 +2156,37 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4:00 PM -  9:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>4:00 PM -  5:30 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>$6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -1572,17 +2211,37 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4:00 PM -  9:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>4:00 PM -  5:30 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>$6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -1607,17 +2266,37 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11:00 AM - 10:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>3:10 PM -  6:19 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>$3.99 Crazee Fries / $4.49 Sweet Potato Fries / $4.99 Frings (1/2 fries + 1/2 onion rings), Springs (1/2 sweet potato + 1/2 onion rings), Winders (thick curly fries) / $8.99 Burger: Signature, Turkey or Veggie</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -1642,17 +2321,37 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11:00 AM - 10:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>3:00 PM -  6:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>$2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -1677,17 +2376,37 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>3:00 PM -  9:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>3:00 PM -  6:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>$2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -1712,17 +2431,37 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11:00 AM - 10:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>3:00 PM -  6:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>$3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -1747,17 +2486,37 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>3:00 PM -  1:00 AM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>4:00 PM -  9:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>$10 Patron or Cazadores Margaritas</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -1782,17 +2541,37 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>3:00 PM -  2:00 AM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>3:00 PM -  8:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1/2 Off All Drinks, Draft &amp; Bottled Beers</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -1802,32 +2581,52 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>710 Beach Club</t>
+          <t>Chili's Grill &amp; Bar</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>710 Garnet Ave. San Diego, CA 92109</t>
+          <t>2627 Vista Way Oceanside, CA 92054</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>(858) 483-7844</t>
+          <t>(760) 967-1064</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>11:30 AM -  2:00 AM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>1:30 PM -  9:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>$7.10 Any Two Tacos</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -1837,32 +2636,52 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Pacific Beach Shore Club</t>
+          <t>710 Beach Club</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>4343 Ocean Blvd. San Diego, CA 92109</t>
+          <t>710 Garnet Ave. San Diego, CA 92109</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>(858) 272-7873</t>
+          <t>(858) 483-7844</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10:00 AM - 12:00 AM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>4:00 PM -  9:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t xml:space="preserve">$3 Hot Dogs </t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -1872,32 +2691,52 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Chili's Grill &amp; Bar</t>
+          <t>Pacific Beach Shore Club</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2627 Vista Way Oceanside, CA 92054</t>
+          <t>4343 Ocean Blvd. San Diego, CA 92109</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>(760) 967-1064</t>
+          <t>(858) 272-7873</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>11:00 AM - 10:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>3:00 PM -  6:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>$3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -1907,32 +2746,52 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Duke's La Jolla</t>
+          <t>Bub's at the Beach</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1216 Prospect St. La Jolla, CA 92037</t>
+          <t>1030 Garnet Ave. San Diego, CA 92109</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>(858) 454-5888</t>
+          <t>(858) 270-7269</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>11:00 AM -  9:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>3:00 PM -  9:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>$5 Pacifico / $8 Duke's Margaritas</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -1942,32 +2801,52 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Bub's at the Beach</t>
+          <t>Duke's La Jolla</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1030 Garnet Ave. San Diego, CA 92109</t>
+          <t>1216 Prospect St. La Jolla, CA 92037</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>(858) 270-7269</t>
+          <t>(858) 454-5888</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>12:00 PM - 11:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>3:00 PM - 11:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>$5 Chips &amp; Salsa, Taco (no substitutions/additions): The Woody, Fish, Buffalo Chicken or Shrimp</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -1977,32 +2856,52 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>The Local Pacific Beach</t>
+          <t>Dunedin</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>809 Thomas Ave. San Diego, CA 92109</t>
+          <t>3501 30th St. San Diego, CA 92104</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>(858) 263-7475</t>
+          <t>(619) 255-8566</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>4:00 PM - 10:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>4:00 PM -  8:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>$6 Wells, Drafts &amp; House Wine Glasses</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -2012,32 +2911,52 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>King and Queen Cantina</t>
+          <t>Yard House</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>1490 Kettner Blvd. San Diego, CA 92101</t>
+          <t>1640 Camino del Rio North San Diego, CA 92108</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>(619) 756-7864</t>
+          <t>(619) 574-0468</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>11:00 AM - 12:00 AM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>11:00 AM -  6:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>$5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice)</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -2047,32 +2966,52 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Yard House</t>
+          <t>The Local Pacific Beach</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>1640 Camino del Rio North San Diego, CA 92108</t>
+          <t>809 Thomas Ave. San Diego, CA 92109</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>(619) 574-0468</t>
+          <t>(858) 263-7475</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>11:00 AM - 11:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>3:00 PM -  6:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>$2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -2082,32 +3021,52 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>American Junkie</t>
+          <t>South Beach Bar &amp; Grille</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>628 Fifth Ave. San Diego, CA 92101</t>
+          <t>5059 Newport Ave. San Diego, CA 92107</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>(619) 255-1981</t>
+          <t>(619) 226-4577</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>5:00 PM -  2:00 AM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>5:00 PM -  7:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t xml:space="preserve">$4 Draft Coors Light, XX or Pacifico / $7 Cadillac Margarita, Not So Old Fashioned / $8 Frozen Drinks / $9 Junkie Cup &amp; Coco Mango Cup </t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -2117,32 +3076,52 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Nolita Hall</t>
+          <t>American Junkie</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2305 India St. San Diego, CA 92101</t>
+          <t>628 Fifth Ave. San Diego, CA 92101</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>(619) 255-8000</t>
+          <t>(619) 255-1981</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4:00 PM - 10:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>4:00 PM -  5:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>$10 Featured Red &amp; White Wines / $12 Select Signature Drinks</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -2152,32 +3131,52 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Dunedin</t>
+          <t>Garage Kitchen + Bar</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>3501 30th St. San Diego, CA 92104</t>
+          <t>655 Fourth Ave. San Diego, CA 92101</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>(619) 255-8566</t>
+          <t>(619) 231-6700</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>11:00 AM - 10:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>3:00 PM -  6:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>$7 Draft Beer &amp; House Wine (red, white or rosé) / $9 Margarita, Moscow Mule, Old Fashioned</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -2187,32 +3186,52 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Garage Kitchen + Bar</t>
+          <t>King and Queen Cantina</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>655 Fourth Ave. San Diego, CA 92101</t>
+          <t>1490 Kettner Blvd. San Diego, CA 92101</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>(619) 231-6700</t>
+          <t>(619) 756-7864</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>11:00 AM -  9:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>4:00 PM -  6:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>51% Off All Drinks [excludes top shelf and specialty cocktails]</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -2222,32 +3241,52 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>insideOUT</t>
+          <t>Nolita Hall</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>1642 University Ave. #100 San Diego, CA 92103</t>
+          <t>2305 India St. San Diego, CA 92101</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>(619) 888-8623</t>
+          <t>(619) 255-8000</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4:00 PM - 10:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>4:00 PM -  6:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t xml:space="preserve">$6 - $7 Select Wines by the Glass / $8.50 - $10.50 Select Signature Cocktails </t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -2257,32 +3296,52 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Las Tres Catrinas</t>
+          <t>insideOUT</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>555 Broadway Suite 1084 Chula Vista, CA 91910</t>
+          <t>1642 University Ave. #100 San Diego, CA 92103</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>(619) 595-6096</t>
+          <t>(619) 888-8623</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>11:00 AM -  9:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>3:00 PM -  7:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>$1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -2307,17 +3366,37 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4:00 PM -  2:00 AM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>4:00 PM -  6:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>1/2 Off Select Drafts &amp; Most Spirits / $3 Skrewball Shots, Tully Shots / $4 Well Drinks / $5 Beer &amp; Shot / $15 Off Towers</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -2327,32 +3406,52 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>South Beach Bar &amp; Grille</t>
+          <t>Las Tres Catrinas</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>5059 Newport Ave. San Diego, CA 92107</t>
+          <t>555 Broadway Suite 1084 Chula Vista, CA 91910</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>(619) 226-4577</t>
+          <t>(619) 595-6096</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>12:00 PM - 10:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>3:00 PM -  6:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>$2 Fresh Cut Fries / $3.50 Clam Strips / $4 Guacamole w/Chips &amp; Salsa / $4.50 Jalapeño Poppers / $6 Peel &amp; Eat Shrimp / $6.50 Fried Calamari Strips, Chicken Nachos, Carne Asada Fries</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -2377,17 +3476,37 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4:00 PM - 10:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>4:00 PM -  6:30 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>$5 Peroni Beer / $6 House White or Red Wine By The Glass / $8 Cocktail of the Month / $9 Aperol Spritz</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -2397,32 +3516,52 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>BJ's Restaurant and Brewery</t>
+          <t>Wheat &amp; Water</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>5500 Grossmont Center Dr. La Mesa, CA 91941</t>
+          <t>5737 La Jolla Blvd. La Jolla, CA 92037</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>(619) 589-7222</t>
+          <t>(858) 291-8690</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>11:00 AM - 12:00 AM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>9:00 PM - 12:00 AM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>$1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -2432,32 +3571,52 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>BJ's Restaurant &amp; Brewery</t>
+          <t>Pacific Beach Shore Club</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>8785 Villa La Jolla Dr. La Jolla, CA 92037</t>
+          <t>4343 Ocean Blvd. San Diego, CA 92109</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>(858) 257-3640</t>
+          <t>(858) 272-7873</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>11:00 AM - 12:00 AM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>9:00 PM - 12:00 AM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>$1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -2467,32 +3626,52 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Village Pizzeria</t>
+          <t>BJ's Restaurant &amp; Brewery</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1206 Orange Ave. Coronado, CA 92118</t>
+          <t>1370 Frazee Rd. San Diego, CA 92108</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>(619) 522-0449</t>
+          <t>(619) 814-6350</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>11:00 AM -  9:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>6:00 PM -  9:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>$3 Domestic Pints / $5 Craft Pints / $5.50 Select Wines by the Glass / $12 Domestic Pitchers / $20 Craft Pitchers</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -2502,32 +3681,52 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>BJ's Restaurant and Brewery</t>
+          <t>Khan's Cave Asian Tavern &amp; Grill</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>555 Broadway, Ste 1019 Chula Vista, CA 91910</t>
+          <t>9350 Clairemont Mesa Blvd., Ste F San Diego, CA 92123</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>(619) 591-2490</t>
+          <t>(858) 279-9799</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>11:00 AM - 12:00 AM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>9:00 PM - 12:00 AM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>$1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -2537,32 +3736,52 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Dirty Birds</t>
+          <t>BJ's Restaurant and Brewery</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2970 Truxtun Rd. #9 San Diego, CA 92106</t>
+          <t>5500 Grossmont Center Dr. La Mesa, CA 91941</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>(619) 756-7576</t>
+          <t>(619) 589-7222</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>11:00 AM - 10:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>6:00 PM - 10:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>1/2 Priced Select Pitchers</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -2572,32 +3791,52 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Wheat &amp; Water</t>
+          <t>BullsEye Bar @ Black Angus Steakhouse</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>5737 La Jolla Blvd. La Jolla, CA 92037</t>
+          <t>296 E. Via Rancho Parkway Escondido, CA 92025</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>(858) 291-8690</t>
+          <t>(760) 489-8420</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>4:00 PM -  9:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>8:00 PM -  9:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>$10 Lavender Vodka Mule, Cucumber Gimlet, Mai Tai, Signature Spicy Margarita or Strawberry Whiskey Smash</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -2607,32 +3846,52 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Dirty Birds</t>
+          <t>Yard House</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>6499 El Cajon Blvd. San Diego, CA 92115</t>
+          <t>1640 Camino del Rio North San Diego, CA 92108</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>(619) 265-2086</t>
+          <t>(619) 574-0468</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>11:00 AM - 10:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>6:00 PM - 10:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>1/2 Priced Select Pitchers</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -2642,32 +3901,52 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BullsEye Bar @ Black Angus Steakhouse</t>
+          <t xml:space="preserve">Break Point Bar &amp; Restaurant </t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>707 E St. Chula Vista, CA 91910</t>
+          <t>945 Garnet Ave. San Diego, CA 92109</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">(619) 426-9200 </t>
+          <t>(858) 274-4018</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>11:00 AM - 10:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>8:00 PM - 10:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>$2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -2692,17 +3971,37 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>8:00 AM -  2:00 AM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>10:00 PM - 12:00 AM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>$1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -2712,32 +4011,52 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Baja Beach Cafe</t>
+          <t>Redwing Bar &amp; Grill</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>701 Thomas Ave. San Diego, CA 92109</t>
+          <t>4012 30th Street San Diego, CA 92104</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>(858) 230-6315</t>
+          <t>(619) 281-8700</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>8:00 AM - 12:30 AM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>10:30 PM - 12:30 AM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>2 for 1 Drinks</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -2747,32 +4066,52 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>On The Border</t>
+          <t>Mr. Peabody's</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>10789 Westview Parkway San Diego, CA 92126</t>
+          <t>136 Encinitas Blvd. Encinitas, CA 92024</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>(858) 530-1130</t>
+          <t>(760) 753-7192</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>11:00 AM - 10:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>9:00 PM - 10:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>$4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -2782,32 +4121,52 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Romesco Mexiterranean Bistro</t>
+          <t>BJ's Restaurant and Brewery</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>4346 Bonita Road Bonita, CA 91902</t>
+          <t>555 Broadway, Ste 1019 Chula Vista, CA 91910</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>(619) 475-8627</t>
+          <t>(619) 591-2490</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3:00 PM -  9:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>7:00 PM -  9:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>$2 Off House Wine &amp; Beer / $7 Tequila or Mezcal Shot / $9 House Margaritas &amp; Martinis, Sangria</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -2817,32 +4176,52 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Dirty Birds</t>
+          <t>BJ's Restaurant &amp; Brewery</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>4656 Mission Blvd. San Diego, CA 92109</t>
+          <t>204 E. Via Rancho Pkwy Escondido, CA 92025</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>(858) 274-2473</t>
+          <t xml:space="preserve">(760) 466-0700 </t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>11:00 AM - 10:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>6:00 PM - 10:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>1/2 Priced Select Pitchers</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -2852,32 +4231,52 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BJ's Restaurant &amp; Brewery</t>
+          <t>BullsEye Bar @ Black Angus Steakhouse</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>5613 Paseo Del Norte Carlsbad, CA 92008</t>
+          <t>1000 Graves Ave. El Cajon, CA 92021</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>(760) 579-4440</t>
+          <t>(619) 440-5055</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>11:00 AM - 12:00 AM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>9:00 PM - 12:00 AM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>$1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -2887,32 +4286,52 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Bolt Brewery</t>
+          <t>Steamy Piggy</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>1971 India St. San Diego, CA 92101</t>
+          <t>4681 Convoy St. San Diego, CA 92111</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>(619) 795-3012</t>
+          <t>(858) 492-0401</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>11:00 AM - 11:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>6:00 PM - 11:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>$5.50 Coors Light, Pacifico, Peroni, Seltzers / $6 - $6.50 Bolt Taps / $6.50 Classic Margarita, Well Drinks, Prosecco or Champagne Split, Sangria / $7 House Red or White Wine by the Glass</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -2922,32 +4341,52 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BullsEye Bar @ Black Angus Steakhouse</t>
+          <t>On The Border</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>296 E. Via Rancho Parkway Escondido, CA 92025</t>
+          <t>10789 Westview Parkway San Diego, CA 92126</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>(760) 489-8420</t>
+          <t>(858) 530-1130</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>3:00 PM -  9:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>8:00 PM -  9:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>$2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -2957,32 +4396,52 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Pacific Beach Shore Club</t>
+          <t>Hooters</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>4343 Ocean Blvd. San Diego, CA 92109</t>
+          <t>775 Center Drive San Marcos, CA 92069</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>(858) 272-7873</t>
+          <t>(858) 451-6000</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10:00 AM - 12:00 AM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>4:00 PM - 12:00 AM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>$3 All Drafts / $5 Ketel One &amp; Crown Royal</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -2992,32 +4451,52 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Dirty Birds</t>
+          <t>Harley Gray Kitchen &amp; Bar</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1929 Cable St. San Diego, CA 92107</t>
+          <t>902 W. Washington St. San Diego, CA 92103</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>(619) 241-2922</t>
+          <t>(619) 955-8451</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>12:00 PM - 10:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>6:00 PM - 10:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>1/2 Priced Select Pitchers</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -3027,32 +4506,52 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Taste &amp; Thirst</t>
+          <t>King and Queen Cantina</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>715 Fourth Ave. San Diego, CA 92101</t>
+          <t>1490 Kettner Blvd. San Diego, CA 92101</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>(619) 955-5995</t>
+          <t>(619) 756-7864</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>3:00 PM -  2:00 AM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>8:00 PM - 12:00 AM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>$5 Seltzer Of The Month / $6 Fireball, Beer of The Month, Jameson / $7 Goose Island IPA, Skyy Vodka / $8 Don Julio Blanco, Green Tea Shot / $9 Long Island, AMF / $30 Select Pitchers</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -3062,32 +4561,52 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Steamy Piggy</t>
+          <t>Baja Beach Cafe</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>4681 Convoy St. San Diego, CA 92111</t>
+          <t>701 Thomas Ave. San Diego, CA 92109</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>(858) 492-0401</t>
+          <t>(858) 230-6315</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>11:00 AM -  9:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>8:00 PM -  9:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>$4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -3097,32 +4616,52 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>King and Queen Cantina</t>
+          <t>BJ's Restaurant &amp; Brewery</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1490 Kettner Blvd. San Diego, CA 92101</t>
+          <t>8785 Villa La Jolla Dr. La Jolla, CA 92037</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>(619) 756-7864</t>
+          <t>(858) 257-3640</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>11:00 AM - 12:00 AM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>9:00 PM - 12:00 AM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>$5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice)</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -3132,32 +4671,52 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Jose's Court Room</t>
+          <t>BullsEye Bar @ Black Angus Steakhouse</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1037 Prospect St. La Jolla, CA 92037</t>
+          <t>707 E St. Chula Vista, CA 91910</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>(858) 454-7655</t>
+          <t xml:space="preserve">(619) 426-9200 </t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>11:00 AM -  9:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>6:00 PM -  9:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t xml:space="preserve">$5 House Margarita on the Rocks, Select Draft Pints / $18 Select Draft Pitchers / $21 Margarita on the Rocks Pitcher </t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -3167,32 +4726,52 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>West Coast Tavern</t>
+          <t>Yard House</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2895 University Ave. San Diego, CA 92104</t>
+          <t>2525 El Camino Real #210 Carlsbad, CA 92008</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>(619) 295-1688</t>
+          <t>(760) 434-1009</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Closed</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>11:00 PM - 12:00 AM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>$4 Well Drinks, Select Draft Beers &amp; House Wines / $7 Mules, Margaritas, Old Fashioned Spritzers</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -3202,32 +4781,52 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Hooters</t>
+          <t>Taste &amp; Thirst</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>1400 Camino De La Reina San Diego, CA 92108</t>
+          <t>715 Fourth Ave. San Diego, CA 92101</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>(619) 299-4668</t>
+          <t>(619) 955-5995</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>11:00 AM - 12:00 AM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>10:00 PM - 12:00 AM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>$4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -3237,32 +4836,52 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>BJ's Restaurant &amp; Brewery</t>
+          <t>Hooters</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1370 Frazee Rd. San Diego, CA 92108</t>
+          <t>1400 Camino De La Reina San Diego, CA 92108</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>(619) 814-6350</t>
+          <t>(619) 299-4668</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>11:00 AM - 12:00 AM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>9:00 PM - 12:00 AM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t xml:space="preserve">$1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks </t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -3272,32 +4891,52 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Village Pizzeria Bayside</t>
+          <t>BJ's Restaurant &amp; Brewery</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1201 1st St. Coronado, CA 92118</t>
+          <t>5613 Paseo Del Norte Carlsbad, CA 92008</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>(619) 437-0650</t>
+          <t>(760) 579-4440</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>10:30 AM -  8:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>6:00 PM -  8:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>$3 Domestic Pints / $5 Craft Pints / $5.50 Select Wines by the Glass / $12 Domestic Pitcher / $20 Craft Beer Pitchers</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -3307,32 +4946,52 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>On The Border</t>
+          <t>West Coast Tavern</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>298 East Via Rancho Pkwy Escondido, CA 92025</t>
+          <t>2895 University Ave. San Diego, CA 92104</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>(760) 233-9777</t>
+          <t>(619) 295-1688</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>11:00 AM - 10:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>9:00 PM - 10:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>$4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -3342,242 +5001,52 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BullsEye Bar @ Black Angus Steakhouse</t>
+          <t>On The Border</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1000 Graves Ave. El Cajon, CA 92021</t>
+          <t>298 East Via Rancho Pkwy Escondido, CA 92025</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>(619) 440-5055</t>
+          <t>(760) 233-9777</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>11:00 AM - 10:00 PM</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>8:00 PM - 10:00 PM</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>$2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Dirty Birds</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>9500 Gilman Dr., Price Center #1420 La Jolla, CA 92093</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>(858) 750-2121</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>10:00 AM -  9:00 PM</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>6:00 PM -  9:00 PM</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>$1 Off All Draft Beers</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>BJ's Restaurant &amp; Brewery</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>204 E. Via Rancho Pkwy Escondido, CA 92025</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t xml:space="preserve">(760) 466-0700 </t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>11:00 AM - 12:00 AM</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>9:00 PM - 12:00 AM</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>$1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Yard House</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>2525 El Camino Real #210 Carlsbad, CA 92008</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>(760) 434-1009</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>11:00 AM - 11:00 PM</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>10:00 PM - 11:00 PM</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>$2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>Yard House</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>1640 Camino del Rio North San Diego, CA 92108</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>(619) 574-0468</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>11:00 AM - 11:00 PM</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>10:00 PM - 11:00 PM</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>$2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>Charles &amp; Dinorah</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>1410 Rosecrans St. San Diego, CA 92106</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>(619) 226-6100</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>4:00 PM - 10:00 PM</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>6:00 PM - 10:00 PM</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>$5 Beer / $7 House Wine by the Glass / $12 Cocktails</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>Hooters</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>775 Center Drive San Marcos, CA 92069</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>(858) 451-6000</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>11:00 AM - 12:00 AM</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>10:00 PM - 12:00 AM</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>$4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>

--- a/King Happy Hour San Diego.xlsx
+++ b/King Happy Hour San Diego.xlsx
@@ -506,37 +506,37 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 7 Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -561,37 +561,37 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 2 Happy hour: 2:00 PM -  8:00 PM Today deal: $2 Off The Entire Menu - MUST use code: NEIGHBOR when ordering.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 4:00 PM -  9:00 PM Today deal: $2 Off The Entire Menu - MUST use code: NEIGHBOR when ordering.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  8:00 PM Today deal: $2 Off The Entire Menu - MUST use code: NEIGHBOR when ordering.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  8:00 PM Today deal: $2 Off The Entire Menu - MUST use code: NEIGHBOR when ordering.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  8:00 PM Today deal: $2 Off The Entire Menu - MUST use code: NEIGHBOR when ordering.</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 3:00 PM -  8:30 PM Today deal: $2 Off The Entire Menu - MUST use code: NEIGHBOR when ordering.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: 2:00 PM -  8:30 PM Today deal: $2 Off The Entire Menu - MUST use code: NEIGHBOR when ordering.</t>
         </is>
       </c>
     </row>
@@ -616,37 +616,37 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t xml:space="preserve">Bussines hour: : Happy hour: 4:00 PM -  6:00 PM Today deal: $2 Off Cocktails / $5 House Beer / $6 Well Wine  $6 Fried Goat Cheese, Truffle Fries / $7 Pretzel Bites / $8 Mac &amp; Cheese / $9 Sausage Flatbread </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t xml:space="preserve">Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: $2 Off Cocktails / $5 House Beer / $6 Well Wine  $6 Fried Goat Cheese, Truffle Fries / $7 Pretzel Bites / $8 Mac &amp; Cheese / $9 Sausage Flatbread </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t xml:space="preserve">Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: $2 Off Cocktails / $5 House Beer / $6 Well Wine  $6 Fried Goat Cheese, Truffle Fries / $7 Pretzel Bites / $8 Mac &amp; Cheese / $9 Sausage Flatbread </t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t xml:space="preserve">Bussines hour:   Happy hour: 4:00 PM -  6:00 PM Today deal: $2 Off Cocktails / $5 House Beer / $6 Well Wine  $6 Fried Goat Cheese, Truffle Fries / $7 Pretzel Bites / $8 Mac &amp; Cheese / $9 Sausage Flatbread </t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t xml:space="preserve">Bussines hour: A Happy hour: Not Happy Hour Today deal: $2 Off Cocktails / $5 House Beer / $6 Well Wine  $6 Fried Goat Cheese, Truffle Fries / $7 Pretzel Bites / $8 Mac &amp; Cheese / $9 Sausage Flatbread </t>
         </is>
       </c>
     </row>
@@ -671,37 +671,39 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 3 Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 4:00 PM -  9:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t xml:space="preserve">Bussines hour: 0 Happy hour: 4:00 PM -  9:00 PM Today deal: $5 Mexican Beers, Cazadores &amp; Patron Shots 1/2 Off All Cazadores Margaritas: Blood Orange, Call Her Rita, Carona- Rita, The Caddy Daddy, Fruit Cart or Watermelon </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t xml:space="preserve">Bussines hour: 0 Happy hour: Not Happy Hour Today deal: $5 Mexican Beers, Cazadores &amp; Patron Shots 1/2 Off All Cazadores Margaritas: Blood Orange, Call Her Rita, Carona- Rita, The Caddy Daddy, Fruit Cart or Watermelon </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t xml:space="preserve">Bussines hour:   Happy hour: Not Happy Hour Today deal: $5 Mexican Beers, Cazadores &amp; Patron Shots 1/2 Off All Cazadores Margaritas: Blood Orange, Call Her Rita, Carona- Rita, The Caddy Daddy, Fruit Cart or Watermelon </t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: Not Happy Hour Today deal: $10 Patron or Cazadores Margaritas 4:00 PM - 9:00 PM
+$3 Taco: Chicken, Carnitas or Fish / $4 Taco: Shrimp or Veggie</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: Not Happy Hour Today deal: $10 Patron or Cazadores Margaritas 4:00 PM - 9:00 PM
+$3 Taco: Chicken, Carnitas or Fish / $4 Taco: Shrimp or Veggie</t>
         </is>
       </c>
     </row>
@@ -726,37 +728,37 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower Free Chips &amp; Salsa / $3 Quesadilla La Diva / $4 Elote Ribs, Queso Dip / $6 Rolled Tacos, Catrinas' Guacamole, Empanadas, Queso Fundido, Catrinas' Kitchen Sink</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower Free Chips &amp; Salsa / $3 Quesadilla La Diva / $4 Elote Ribs, Queso Dip / $6 Rolled Tacos, Catrinas' Guacamole, Empanadas, Queso Fundido, Catrinas' Kitchen Sink</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower Free Chips &amp; Salsa / $3 Quesadilla La Diva / $4 Elote Ribs, Queso Dip / $6 Rolled Tacos, Catrinas' Guacamole, Empanadas, Queso Fundido, Catrinas' Kitchen Sink</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower Free Chips &amp; Salsa / $3 Quesadilla La Diva / $4 Elote Ribs, Queso Dip / $6 Rolled Tacos, Catrinas' Guacamole, Empanadas, Queso Fundido, Catrinas' Kitchen Sink</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: Not Happy Hour Today deal: $1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower Free Chips &amp; Salsa / $3 Quesadilla La Diva / $4 Elote Ribs, Queso Dip / $6 Rolled Tacos, Catrinas' Guacamole, Empanadas, Queso Fundido, Catrinas' Kitchen Sink</t>
         </is>
       </c>
     </row>
@@ -781,37 +783,37 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 2 Happy hour: 4:00 PM -  6:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 4:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Draft Cocktails, Sangria, Vodka, Rum, Bourbon &amp; Well Drinks / $3 Off All Craft Cocktails $8 Ballpark Burger (1/3 lb. Wagyu Beef Patty, American Cheese, Onion Ring, BBQ Sauce on a Brioche Bun), Thai Cashew Wings (Five Tempura Battered Wings, Cajun Spice, Garlic, Thai Chili Glaze, topped w/Roasted Cashews, served w/side of Ranch), Birria Street Tacos (Two Braised Tri-Tip Tacos w/Cilantro, Onion, Limes &amp; Salsa Verde), BBQ Flatbread (House Flatbread, Carnitas, Sausage, BBQ Sauce, Jack Cheese, Ranch Drizzle) / $10 Liberty Call Poutine (Hand Cut Fries, Queso Blanco Sauce, Demi-Glace, Cilantro, topped w/Choice of Birria or Carnitas)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Draft Cocktails, Sangria, Vodka, Rum, Bourbon &amp; Well Drinks / $3 Off All Craft Cocktails $8 Ballpark Burger (1/3 lb. Wagyu Beef Patty, American Cheese, Onion Ring, BBQ Sauce on a Brioche Bun), Thai Cashew Wings (Five Tempura Battered Wings, Cajun Spice, Garlic, Thai Chili Glaze, topped w/Roasted Cashews, served w/side of Ranch), Birria Street Tacos (Two Braised Tri-Tip Tacos w/Cilantro, Onion, Limes &amp; Salsa Verde), BBQ Flatbread (House Flatbread, Carnitas, Sausage, BBQ Sauce, Jack Cheese, Ranch Drizzle) / $10 Liberty Call Poutine (Hand Cut Fries, Queso Blanco Sauce, Demi-Glace, Cilantro, topped w/Choice of Birria or Carnitas)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Draft Cocktails, Sangria, Vodka, Rum, Bourbon &amp; Well Drinks / $3 Off All Craft Cocktails $8 Ballpark Burger (1/3 lb. Wagyu Beef Patty, American Cheese, Onion Ring, BBQ Sauce on a Brioche Bun), Thai Cashew Wings (Five Tempura Battered Wings, Cajun Spice, Garlic, Thai Chili Glaze, topped w/Roasted Cashews, served w/side of Ranch), Birria Street Tacos (Two Braised Tri-Tip Tacos w/Cilantro, Onion, Limes &amp; Salsa Verde), BBQ Flatbread (House Flatbread, Carnitas, Sausage, BBQ Sauce, Jack Cheese, Ranch Drizzle) / $10 Liberty Call Poutine (Hand Cut Fries, Queso Blanco Sauce, Demi-Glace, Cilantro, topped w/Choice of Birria or Carnitas)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 4:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Draft Cocktails, Sangria, Vodka, Rum, Bourbon &amp; Well Drinks / $3 Off All Craft Cocktails $8 Ballpark Burger (1/3 lb. Wagyu Beef Patty, American Cheese, Onion Ring, BBQ Sauce on a Brioche Bun), Thai Cashew Wings (Five Tempura Battered Wings, Cajun Spice, Garlic, Thai Chili Glaze, topped w/Roasted Cashews, served w/side of Ranch), Birria Street Tacos (Two Braised Tri-Tip Tacos w/Cilantro, Onion, Limes &amp; Salsa Verde), BBQ Flatbread (House Flatbread, Carnitas, Sausage, BBQ Sauce, Jack Cheese, Ranch Drizzle) / $10 Liberty Call Poutine (Hand Cut Fries, Queso Blanco Sauce, Demi-Glace, Cilantro, topped w/Choice of Birria or Carnitas)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: Not Happy Hour Today deal: $2 Off All Draft Beer, Draft Cocktails, Sangria, Vodka, Rum, Bourbon &amp; Well Drinks / $3 Off All Craft Cocktails $8 Ballpark Burger (1/3 lb. Wagyu Beef Patty, American Cheese, Onion Ring, BBQ Sauce on a Brioche Bun), Thai Cashew Wings (Five Tempura Battered Wings, Cajun Spice, Garlic, Thai Chili Glaze, topped w/Roasted Cashews, served w/side of Ranch), Birria Street Tacos (Two Braised Tri-Tip Tacos w/Cilantro, Onion, Limes &amp; Salsa Verde), BBQ Flatbread (House Flatbread, Carnitas, Sausage, BBQ Sauce, Jack Cheese, Ranch Drizzle) / $10 Liberty Call Poutine (Hand Cut Fries, Queso Blanco Sauce, Demi-Glace, Cilantro, topped w/Choice of Birria or Carnitas)</t>
         </is>
       </c>
     </row>
@@ -836,37 +838,37 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 9 Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 4:00 PM -  6:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: $1 Off All Drafts, Wells &amp; House Wines $8 Select Appetizers</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: $1 Off All Drafts, Wells &amp; House Wines $8 Select Appetizers</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 4:00 PM -  6:00 PM Today deal: $1 Off All Drafts, Wells &amp; House Wines $8 Select Appetizers</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 4:00 PM -  6:00 PM Today deal: $1 Off All Drafts, Wells &amp; House Wines $8 Select Appetizers</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: Not Happy Hour Today deal: $1 Off All Drafts, Wells &amp; House Wines $8 Select Appetizers</t>
         </is>
       </c>
     </row>
@@ -891,37 +893,37 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 3:00 PM -  6:00 PM Today deal: $3 Off Wines By The Glass / $4 Select Bottled Greek Beers / $6 Draft Beer, Well Cocktails / $9 Premium Drinks (+$2 upgrade to Specialty) $6 Spreads w/Warm Pita Bread (Hummus, Tomato Basil Hummus, Cilantro Jalapeño Hummus, Baba Ghanoush, Tzatziki, Fiery Feta), Small Greek Salad / $7 Meze Fries, Meatballs, Falafel, Dolma (veg) / $8 Fiery Feta Mac &amp; Cheese (+$2 add bacon), Spanakopita, Two Greek Taco Combo (Chicken, Gyro, Steak, Lamb or Falafel  | +$1 add grecamole)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 3:00 PM -  6:00 PM Today deal: $3 Off Wines By The Glass / $4 Select Bottled Greek Beers / $6 Draft Beer, Well Cocktails / $9 Premium Drinks (+$2 upgrade to Specialty) $6 Spreads w/Warm Pita Bread (Hummus, Tomato Basil Hummus, Cilantro Jalapeño Hummus, Baba Ghanoush, Tzatziki, Fiery Feta), Small Greek Salad / $7 Meze Fries, Meatballs, Falafel, Dolma (veg) / $8 Fiery Feta Mac &amp; Cheese (+$2 add bacon), Spanakopita, Two Greek Taco Combo (Chicken, Gyro, Steak, Lamb or Falafel  | +$1 add grecamole)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $3 Off Wines By The Glass / $4 Select Bottled Greek Beers / $6 Draft Beer, Well Cocktails / $9 Premium Drinks (+$2 upgrade to Specialty) $6 Spreads w/Warm Pita Bread (Hummus, Tomato Basil Hummus, Cilantro Jalapeño Hummus, Baba Ghanoush, Tzatziki, Fiery Feta), Small Greek Salad / $7 Meze Fries, Meatballs, Falafel, Dolma (veg) / $8 Fiery Feta Mac &amp; Cheese (+$2 add bacon), Spanakopita, Two Greek Taco Combo (Chicken, Gyro, Steak, Lamb or Falafel  | +$1 add grecamole)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 3 Happy hour: 3:00 PM -  6:00 PM Today deal: $3 Off Wines By The Glass / $4 Select Bottled Greek Beers / $6 Draft Beer, Well Cocktails / $9 Premium Drinks (+$2 upgrade to Specialty) $6 Spreads w/Warm Pita Bread (Hummus, Tomato Basil Hummus, Cilantro Jalapeño Hummus, Baba Ghanoush, Tzatziki, Fiery Feta), Small Greek Salad / $7 Meze Fries, Meatballs, Falafel, Dolma (veg) / $8 Fiery Feta Mac &amp; Cheese (+$2 add bacon), Spanakopita, Two Greek Taco Combo (Chicken, Gyro, Steak, Lamb or Falafel  | +$1 add grecamole)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $3 Off Wines By The Glass / $4 Select Bottled Greek Beers / $6 Draft Beer, Well Cocktails / $9 Premium Drinks (+$2 upgrade to Specialty) $6 Spreads w/Warm Pita Bread (Hummus, Tomato Basil Hummus, Cilantro Jalapeño Hummus, Baba Ghanoush, Tzatziki, Fiery Feta), Small Greek Salad / $7 Meze Fries, Meatballs, Falafel, Dolma (veg) / $8 Fiery Feta Mac &amp; Cheese (+$2 add bacon), Spanakopita, Two Greek Taco Combo (Chicken, Gyro, Steak, Lamb or Falafel  | +$1 add grecamole)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $3 Off Wines By The Glass / $4 Select Bottled Greek Beers / $6 Draft Beer, Well Cocktails / $9 Premium Drinks (+$2 upgrade to Specialty) $6 Spreads w/Warm Pita Bread (Hummus, Tomato Basil Hummus, Cilantro Jalapeño Hummus, Baba Ghanoush, Tzatziki, Fiery Feta), Small Greek Salad / $7 Meze Fries, Meatballs, Falafel, Dolma (veg) / $8 Fiery Feta Mac &amp; Cheese (+$2 add bacon), Spanakopita, Two Greek Taco Combo (Chicken, Gyro, Steak, Lamb or Falafel  | +$1 add grecamole)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: Not Happy Hour Today deal: $3 Off Wines By The Glass / $4 Select Bottled Greek Beers / $6 Draft Beer, Well Cocktails / $9 Premium Drinks (+$2 upgrade to Specialty) $6 Spreads w/Warm Pita Bread (Hummus, Tomato Basil Hummus, Cilantro Jalapeño Hummus, Baba Ghanoush, Tzatziki, Fiery Feta), Small Greek Salad / $7 Meze Fries, Meatballs, Falafel, Dolma (veg) / $8 Fiery Feta Mac &amp; Cheese (+$2 add bacon), Spanakopita, Two Greek Taco Combo (Chicken, Gyro, Steak, Lamb or Falafel  | +$1 add grecamole)</t>
         </is>
       </c>
     </row>
@@ -946,37 +948,37 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 4:00 PM -  5:30 PM Today deal: $4 Housemade Chips &amp; Salsa / $5 Basket Of Fries / $8 Stacked Nachos, Cheesy Bacon Fries, Quesadilla, Petite A La Fresca Salad / $10 Beer-BQ Bird Dog / $11 Brew House Burger (1/3 lb)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 2 Happy hour: Closed Today deal: $4 Housemade Chips &amp; Salsa / $5 Basket Of Fries / $8 Stacked Nachos, Cheesy Bacon Fries, Quesadilla, Petite A La Fresca Salad / $10 Beer-BQ Bird Dog / $11 Brew House Burger (1/3 lb)</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: Closed Today deal: Closed</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  5:30 PM Today deal: Closed</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  5:30 PM Today deal: $4 Housemade Chips &amp; Salsa / $5 Basket Of Fries / $8 Stacked Nachos, Cheesy Bacon Fries, Quesadilla, Petite A La Fresca Salad / $10 Beer-BQ Bird Dog / $11 Brew House Burger (1/3 lb)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 4:00 PM -  5:30 PM Today deal: $4 Housemade Chips &amp; Salsa / $5 Basket Of Fries / $8 Stacked Nachos, Cheesy Bacon Fries, Quesadilla, Petite A La Fresca Salad / $10 Beer-BQ Bird Dog / $11 Brew House Burger (1/3 lb)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 4:00 PM -  5:30 PM Today deal: $4 Housemade Chips &amp; Salsa / $5 Basket Of Fries / $8 Stacked Nachos, Cheesy Bacon Fries, Quesadilla, Petite A La Fresca Salad / $10 Beer-BQ Bird Dog / $11 Brew House Burger (1/3 lb)</t>
         </is>
       </c>
     </row>
@@ -1001,37 +1003,37 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 11:00 AM -  9:00 PM Today deal: $10 Tropical Sangria</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 3:00 PM -  6:00 PM Today deal: $10 Tropical Sangria</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $5.50 14oz. Draft Beers (+$1 Sculpin), Well Drinks, Fireball Shots / $6.50 Jameson Shot, House Margaritas: Lime, Strawberry, Mango, Red Raspberry / $7.50 Tito's Vodka, Wine by the Glass, Jack Daniels, 25oz. Draft Beer (+$1.50 Sculpin) / $8.50 Moscow Mule, Mai Tai, Tropical Sangria, Long Island Tea $5.50 Mexican Street Corn, Chili Lime Fries, Taco: Blackened Fish, Chingones or Short Rib / $6.50 Quesadilla Reyados, Guacamole &amp; Chips, Street Tacos (4): Carne Asada, Grilled Chicken or Shredded Pork / $7.50 Nashville Hot Cauliflower, Queso Fundido, Cheese Quesadilla Especial / $8.50 Ahi Tuna Tostada, Tequila Lime Shrimp, Steamed Mussels w/Garlic Toast / $9.50 Bacon Wrapped Shrimp, Rockin' Works Burger &amp; Fries, Lobster &amp; Shrimp Bites, Carne Asada Fries, Crispy Calamari</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $5.50 14oz. Draft Beers (+$1 Sculpin), Well Drinks, Fireball Shots / $6.50 Jameson Shot, House Margaritas: Lime, Strawberry, Mango, Red Raspberry / $7.50 Tito's Vodka, Wine by the Glass, Jack Daniels, 25oz. Draft Beer (+$1.50 Sculpin) / $8.50 Moscow Mule, Mai Tai, Tropical Sangria, Long Island Tea $5.50 Mexican Street Corn, Chili Lime Fries, Taco: Blackened Fish, Chingones or Short Rib / $6.50 Quesadilla Reyados, Guacamole &amp; Chips, Street Tacos (4): Carne Asada, Grilled Chicken or Shredded Pork / $7.50 Nashville Hot Cauliflower, Queso Fundido, Cheese Quesadilla Especial / $8.50 Ahi Tuna Tostada, Tequila Lime Shrimp, Steamed Mussels w/Garlic Toast / $9.50 Bacon Wrapped Shrimp, Rockin' Works Burger &amp; Fries, Lobster &amp; Shrimp Bites, Carne Asada Fries, Crispy Calamari</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $5.50 14oz. Draft Beers (+$1 Sculpin), Well Drinks, Fireball Shots / $6.50 Jameson Shot, House Margaritas: Lime, Strawberry, Mango, Red Raspberry / $7.50 Tito's Vodka, Wine by the Glass, Jack Daniels, 25oz. Draft Beer (+$1.50 Sculpin) / $8.50 Moscow Mule, Mai Tai, Tropical Sangria, Long Island Tea $5.50 Mexican Street Corn, Chili Lime Fries, Taco: Blackened Fish, Chingones or Short Rib / $6.50 Quesadilla Reyados, Guacamole &amp; Chips, Street Tacos (4): Carne Asada, Grilled Chicken or Shredded Pork / $7.50 Nashville Hot Cauliflower, Queso Fundido, Cheese Quesadilla Especial / $8.50 Ahi Tuna Tostada, Tequila Lime Shrimp, Steamed Mussels w/Garlic Toast / $9.50 Bacon Wrapped Shrimp, Rockin' Works Burger &amp; Fries, Lobster &amp; Shrimp Bites, Carne Asada Fries, Crispy Calamari</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $5.50 14oz. Draft Beers (+$1 Sculpin), Well Drinks, Fireball Shots / $6.50 Jameson Shot, House Margaritas: Lime, Strawberry, Mango, Red Raspberry / $7.50 Tito's Vodka, Wine by the Glass, Jack Daniels, 25oz. Draft Beer (+$1.50 Sculpin) / $8.50 Moscow Mule, Mai Tai, Tropical Sangria, Long Island Tea $5.50 Mexican Street Corn, Chili Lime Fries, Taco: Blackened Fish, Chingones or Short Rib / $6.50 Quesadilla Reyados, Guacamole &amp; Chips, Street Tacos (4): Carne Asada, Grilled Chicken or Shredded Pork / $7.50 Nashville Hot Cauliflower, Queso Fundido, Cheese Quesadilla Especial / $8.50 Ahi Tuna Tostada, Tequila Lime Shrimp, Steamed Mussels w/Garlic Toast / $9.50 Bacon Wrapped Shrimp, Rockin' Works Burger &amp; Fries, Lobster &amp; Shrimp Bites, Carne Asada Fries, Crispy Calamari</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 9:00 PM - 10:00 PM Today deal: $5.50 14oz. Draft Beers (+$1 Sculpin), Well Drinks, Fireball Shots / $6.50 Jameson Shot, House Margaritas: Lime, Strawberry, Mango, Red Raspberry / $7.50 Tito's Vodka, Wine by the Glass, Jack Daniels, 25oz. Draft Beer (+$1.50 Sculpin) / $8.50 Moscow Mule, Mai Tai, Tropical Sangria, Long Island Tea $5.50 Mexican Street Corn, Chili Lime Fries, Taco: Blackened Fish, Chingones or Short Rib / $6.50 Quesadilla Reyados, Guacamole &amp; Chips, Street Tacos (4): Carne Asada, Grilled Chicken or Shredded Pork / $7.50 Nashville Hot Cauliflower, Queso Fundido, Cheese Quesadilla Especial / $8.50 Ahi Tuna Tostada, Tequila Lime Shrimp, Steamed Mussels w/Garlic Toast / $9.50 Bacon Wrapped Shrimp, Rockin' Works Burger &amp; Fries, Lobster &amp; Shrimp Bites, Carne Asada Fries, Crispy Calamari</t>
         </is>
       </c>
     </row>
@@ -1056,37 +1058,37 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 3 Happy hour: 3:30 PM -  7:00 PM Today deal: $2 Off Glasses Of Wine / $5 Beers $4.48 Onion Rings, Farm Fries, Fried Pickles, Mozzarella Sticks / $4.98 Curds / $5.48 Chicken Strips / $6.98 Sliders / $8.48 Wings (12) / $9.45 Wings (15)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: Not Happy Hour Today deal: $2 Off Glasses Of Wine / $5 Beers $4.48 Onion Rings, Farm Fries, Fried Pickles, Mozzarella Sticks / $4.98 Curds / $5.48 Chicken Strips / $6.98 Sliders / $8.48 Wings (12) / $9.45 Wings (15)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:30 PM -  7:00 PM Today deal: $2 Off Glasses Of Wine / $5 Beers $4.48 Onion Rings, Farm Fries, Fried Pickles, Mozzarella Sticks / $4.98 Curds / $5.48 Chicken Strips / $6.98 Sliders / $8.48 Wings (12) / $9.45 Wings (15)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:30 PM -  7:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:30 PM -  7:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 3:30 PM -  7:00 PM Today deal: $2 Off Glasses Of Wine / $5 Beers $4.48 Onion Rings, Farm Fries, Fried Pickles, Mozzarella Sticks / $4.98 Curds / $5.48 Chicken Strips / $6.98 Sliders / $8.48 Wings (12) / $9.45 Wings (15)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: 3:30 PM -  7:00 PM Today deal: $2 Off Glasses Of Wine / $5 Beers $4.48 Onion Rings, Farm Fries, Fried Pickles, Mozzarella Sticks / $4.98 Curds / $5.48 Chicken Strips / $6.98 Sliders / $8.48 Wings (12) / $9.45 Wings (15)</t>
         </is>
       </c>
     </row>
@@ -1111,37 +1113,37 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 9 Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 3 Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
     </row>
@@ -1166,37 +1168,42 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Non-Alcoholic Beer / $6 Draft Pints / $7 Draft Kombucha Pints, Draft Cider Pints / $9 Glass of Wine on
+Tap / $20 Draft Pitchers / $20 Carafes of Wine $2 Homemade Chips / $8 6-Piece Wings / $10 Sandwiches</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Non-Alcoholic Beer / $6 Draft Pints / $7 Draft Kombucha Pints, Draft Cider Pints / $9 Glass of Wine on
+Tap / $20 Draft Pitchers / $20 Carafes of Wine $2 Homemade Chips / $8 6-Piece Wings / $10 Sandwiches</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Non-Alcoholic Beer / $6 Draft Pints / $7 Draft Kombucha Pints, Draft Cider Pints / $9 Glass of Wine on
+Tap / $20 Draft Pitchers / $20 Carafes of Wine $2 Homemade Chips / $8 6-Piece Wings / $10 Sandwiches</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Non-Alcoholic Beer / $6 Draft Pints / $7 Draft Kombucha Pints, Draft Cider Pints / $9 Glass of Wine on
+Tap / $20 Draft Pitchers / $20 Carafes of Wine $2 Homemade Chips / $8 6-Piece Wings / $10 Sandwiches</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: Not Happy Hour Today deal: $4 Non-Alcoholic Beer / $6 Draft Pints / $7 Draft Kombucha Pints, Draft Cider Pints / $9 Glass of Wine on
+Tap / $20 Draft Pitchers / $20 Carafes of Wine $2 Homemade Chips / $8 6-Piece Wings / $10 Sandwiches</t>
         </is>
       </c>
     </row>
@@ -1221,37 +1228,37 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 3 Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: Closed Today deal: No Specials</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 3 Happy hour: 3:00 PM -  6:00 PM Today deal: Closed</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Beer / $7 Glass of House White or Red, Well Drinks $7 Truffle Parmesan Fries, Parmesan Cheese Bread / $9 Beef Tenderloin Street Tacos (3) w/Chipotle Crema, Pickled Red Onions &amp; Micro Cilantro / $10 Potato Skins w/Ranch Dressing / $13 Crispy Calamari w/Spicy Marinara &amp; Aioli / $15 Artichoke Crab Cakes w/Roasted Red Bell Pepper Aioli, Steamed Mussels w/Lemon Thyme Cream / $20 Charbroiled Oysters On The Half Shell (6)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Beer / $7 Glass of House White or Red, Well Drinks $7 Truffle Parmesan Fries, Parmesan Cheese Bread / $9 Beef Tenderloin Street Tacos (3) w/Chipotle Crema, Pickled Red Onions &amp; Micro Cilantro / $10 Potato Skins w/Ranch Dressing / $13 Crispy Calamari w/Spicy Marinara &amp; Aioli / $15 Artichoke Crab Cakes w/Roasted Red Bell Pepper Aioli, Steamed Mussels w/Lemon Thyme Cream / $20 Charbroiled Oysters On The Half Shell (6)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Beer / $7 Glass of House White or Red, Well Drinks $7 Truffle Parmesan Fries, Parmesan Cheese Bread / $9 Beef Tenderloin Street Tacos (3) w/Chipotle Crema, Pickled Red Onions &amp; Micro Cilantro / $10 Potato Skins w/Ranch Dressing / $13 Crispy Calamari w/Spicy Marinara &amp; Aioli / $15 Artichoke Crab Cakes w/Roasted Red Bell Pepper Aioli, Steamed Mussels w/Lemon Thyme Cream / $20 Charbroiled Oysters On The Half Shell (6)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: Not Happy Hour Today deal: $2 Off All Beer / $7 Glass of House White or Red, Well Drinks $7 Truffle Parmesan Fries, Parmesan Cheese Bread / $9 Beef Tenderloin Street Tacos (3) w/Chipotle Crema, Pickled Red Onions &amp; Micro Cilantro / $10 Potato Skins w/Ranch Dressing / $13 Crispy Calamari w/Spicy Marinara &amp; Aioli / $15 Artichoke Crab Cakes w/Roasted Red Bell Pepper Aioli, Steamed Mussels w/Lemon Thyme Cream / $20 Charbroiled Oysters On The Half Shell (6)</t>
         </is>
       </c>
     </row>
@@ -1276,37 +1283,37 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 3 Happy hour: 9:00 AM -  3:00 PM Today deal: $8 Mimosa (OJ, Cranberry or Ribena) / $10 - $12 Signature Brunch Drinks / $20 Bottomless Mimosa $14 - $22 Brunch Menu</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  7:00 PM Today deal: $8 Mimosa (OJ, Cranberry or Ribena) / $10 - $12 Signature Brunch Drinks / $20 Bottomless Mimosa $14 - $22 Brunch Menu</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $8 Mimosa (OJ, Cranberry or Ribena) / $10 - $12 Signature Brunch Drinks / $20 Bottomless Mimosa $14 - $22 Brunch Menu</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off Specialty Cocktails / $6 Select 20oz. Draft Beer, House Wines &amp; Well Cocktails  $3 Black &amp; Blue Slider, Pub Burger Slider / $6 Curry Fries / $7 Irish Potato Skins / $15 Combo Platter: Irish Skins, Crispy Onion Rings, House Chips, Chicken Tenders</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off Specialty Cocktails / $6 Select 20oz. Draft Beer, House Wines &amp; Well Cocktails  $3 Black &amp; Blue Slider, Pub Burger Slider / $6 Curry Fries / $7 Irish Potato Skins / $15 Combo Platter: Irish Skins, Crispy Onion Rings, House Chips, Chicken Tenders</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off Specialty Cocktails / $6 Select 20oz. Draft Beer, House Wines &amp; Well Cocktails  $3 Black &amp; Blue Slider, Pub Burger Slider / $6 Curry Fries / $7 Irish Potato Skins / $15 Combo Platter: Irish Skins, Crispy Onion Rings, House Chips, Chicken Tenders</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: 9:00 AM -  3:00 PM Today deal: $2 Off Specialty Cocktails / $6 Select 20oz. Draft Beer, House Wines &amp; Well Cocktails  $3 Black &amp; Blue Slider, Pub Burger Slider / $6 Curry Fries / $7 Irish Potato Skins / $15 Combo Platter: Irish Skins, Crispy Onion Rings, House Chips, Chicken Tenders</t>
         </is>
       </c>
     </row>
@@ -1331,37 +1338,37 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 3 Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  5:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  5:00 PM Today deal: $1 Off All Pints</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  5:00 PM Today deal: $1 Off All Pints</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  5:00 PM Today deal: $1 Off All Pints $4+ Craft Tacos</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 3:00 PM -  5:00 PM Today deal: $1 Off All Pints $4+ Craft Tacos</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: Not Happy Hour Today deal: $1 Off All Pints $4+ Craft Tacos</t>
         </is>
       </c>
     </row>
@@ -1386,37 +1393,37 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 3:30 PM -  5:30 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 3:30 PM -  5:30 PM Today deal: $6 Select Draft &amp; Bottled Beer / $10 House Red or White Wine by the Glass, Signature Cocktails $10 Appetizers: Caesar Salad, Coasterra Guacamole, Potato Flautas, Crispy Masa Calamari, Ceviche Clasico</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 3 Happy hour: 3:30 PM -  5:30 PM Today deal: $6 Select Draft &amp; Bottled Beer / $10 House Red or White Wine by the Glass, Signature Cocktails $10 Appetizers: Caesar Salad, Coasterra Guacamole, Potato Flautas, Crispy Masa Calamari, Ceviche Clasico</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:30 PM -  5:30 PM Today deal: $6 Select Draft &amp; Bottled Beer / $10 House Red or White Wine by the Glass, Signature Cocktails $10 Appetizers: Caesar Salad, Coasterra Guacamole, Potato Flautas, Crispy Masa Calamari, Ceviche Clasico</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:30 PM -  5:30 PM Today deal: $6 Select Draft &amp; Bottled Beer / $10 House Red or White Wine by the Glass, Signature Cocktails $10 Appetizers: Caesar Salad, Coasterra Guacamole, Potato Flautas, Crispy Masa Calamari, Ceviche Clasico</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: Not Happy Hour Today deal: $6 Select Draft &amp; Bottled Beer / $10 House Red or White Wine by the Glass, Signature Cocktails $10 Appetizers: Caesar Salad, Coasterra Guacamole, Potato Flautas, Crispy Masa Calamari, Ceviche Clasico</t>
         </is>
       </c>
     </row>
@@ -1441,37 +1448,37 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 3 Happy hour: Closed Today deal: Closed</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 4:00 PM -  7:00 PM Today deal: $7 House Wine, Well Drinks, Draft Beer $8 Dobson’s Mussel Bisque en Croûte / $10 BBQ Wings Chops, Fresh Mozzarella Tempura Croquettes, Green Hummus Verde, Guacamole and Brie Bruschetta / $12 Dobson’s Bar Room Burger w/Fries, Pizza on the Bar, Les Escargots a’ la Bourguignonne / $14 Brie en Croute- Dry Fruits, Carne Cruda (Beef Tartare) / $15 Steamed Mediterranean Mussels / $16 Charcuterie Plate, L’ Assiette De Fromages</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  7:00 PM Today deal: $7 House Wine, Well Drinks, Draft Beer $8 Dobson’s Mussel Bisque en Croûte / $10 BBQ Wings Chops, Fresh Mozzarella Tempura Croquettes, Green Hummus Verde, Guacamole and Brie Bruschetta / $12 Dobson’s Bar Room Burger w/Fries, Pizza on the Bar, Les Escargots a’ la Bourguignonne / $14 Brie en Croute- Dry Fruits, Carne Cruda (Beef Tartare) / $15 Steamed Mediterranean Mussels / $16 Charcuterie Plate, L’ Assiette De Fromages</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  7:00 PM Today deal: $7 House Wine, Well Drinks, Draft Beer $8 Dobson’s Mussel Bisque en Croûte / $10 BBQ Wings Chops, Fresh Mozzarella Tempura Croquettes, Green Hummus Verde, Guacamole and Brie Bruschetta / $12 Dobson’s Bar Room Burger w/Fries, Pizza on the Bar, Les Escargots a’ la Bourguignonne / $14 Brie en Croute- Dry Fruits, Carne Cruda (Beef Tartare) / $15 Steamed Mediterranean Mussels / $16 Charcuterie Plate, L’ Assiette De Fromages</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 4:00 PM -  7:00 PM Today deal: $7 House Wine, Well Drinks, Draft Beer $8 Dobson’s Mussel Bisque en Croûte / $10 BBQ Wings Chops, Fresh Mozzarella Tempura Croquettes, Green Hummus Verde, Guacamole and Brie Bruschetta / $12 Dobson’s Bar Room Burger w/Fries, Pizza on the Bar, Les Escargots a’ la Bourguignonne / $14 Brie en Croute- Dry Fruits, Carne Cruda (Beef Tartare) / $15 Steamed Mediterranean Mussels / $16 Charcuterie Plate, L’ Assiette De Fromages</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 4:00 PM -  7:00 PM Today deal: $7 House Wine, Well Drinks, Draft Beer $8 Dobson’s Mussel Bisque en Croûte / $10 BBQ Wings Chops, Fresh Mozzarella Tempura Croquettes, Green Hummus Verde, Guacamole and Brie Bruschetta / $12 Dobson’s Bar Room Burger w/Fries, Pizza on the Bar, Les Escargots a’ la Bourguignonne / $14 Brie en Croute- Dry Fruits, Carne Cruda (Beef Tartare) / $15 Steamed Mediterranean Mussels / $16 Charcuterie Plate, L’ Assiette De Fromages</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: Not Happy Hour Today deal: $7 House Wine, Well Drinks, Draft Beer $8 Dobson’s Mussel Bisque en Croûte / $10 BBQ Wings Chops, Fresh Mozzarella Tempura Croquettes, Green Hummus Verde, Guacamole and Brie Bruschetta / $12 Dobson’s Bar Room Burger w/Fries, Pizza on the Bar, Les Escargots a’ la Bourguignonne / $14 Brie en Croute- Dry Fruits, Carne Cruda (Beef Tartare) / $15 Steamed Mediterranean Mussels / $16 Charcuterie Plate, L’ Assiette De Fromages</t>
         </is>
       </c>
     </row>
@@ -1496,37 +1503,37 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 4 Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: Closed Today deal: No Specials</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:30 PM -  5:30 PM Today deal: Closed</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:30 PM -  5:30 PM Today deal: $5 Bud Light / $6 Select Local Craft Beer / $10 Select Libations $10 Bites: Chicken Pot Stickers, Crispy Calamari, Coconut Shrimp, Steamed Mussels, Chef Deborah's Pepita &amp; Sesame Crusted Brie, C-Level Caesar Salad</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:30 PM -  5:30 PM Today deal: $5 Bud Light / $6 Select Local Craft Beer / $10 Select Libations $10 Bites: Chicken Pot Stickers, Crispy Calamari, Coconut Shrimp, Steamed Mussels, Chef Deborah's Pepita &amp; Sesame Crusted Brie, C-Level Caesar Salad</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 3:30 PM -  5:30 PM Today deal: $5 Bud Light / $6 Select Local Craft Beer / $10 Select Libations $10 Bites: Chicken Pot Stickers, Crispy Calamari, Coconut Shrimp, Steamed Mussels, Chef Deborah's Pepita &amp; Sesame Crusted Brie, C-Level Caesar Salad</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: Not Happy Hour Today deal: $5 Bud Light / $6 Select Local Craft Beer / $10 Select Libations $10 Bites: Chicken Pot Stickers, Crispy Calamari, Coconut Shrimp, Steamed Mussels, Chef Deborah's Pepita &amp; Sesame Crusted Brie, C-Level Caesar Salad</t>
         </is>
       </c>
     </row>
@@ -1551,37 +1558,37 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 4 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Specialty Cocktails / $7 Well Drinks, Select Draft Beer, 26oz. Pacific Social Blonde Ale / $8 House Wines / $9 Frosé 4 Days $9 Fish Taco Duo, Brussels Sprouts, Crispy Asparagus / $10 Soft Pretzel Sticks w/Rouleur Beer Cheese, Chef's Flatbread, Marinated Grilled Artichoke</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: Closed Today deal: $2 Off All Specialty Cocktails / $7 Well Drinks, Select Draft Beer, 26oz. Pacific Social Blonde Ale / $8 House Wines / $9 Frosé 4 Days $9 Fish Taco Duo, Brussels Sprouts, Crispy Asparagus / $10 Soft Pretzel Sticks w/Rouleur Beer Cheese, Chef's Flatbread, Marinated Grilled Artichoke</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 3 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Specialty Cocktails / $7 Well Drinks, Select Draft Beer, 26oz. Pacific Social Blonde Ale / $8 House Wines / $9 Frosé 4 Days $9 Fish Taco Duo, Brussels Sprouts, Crispy Asparagus / $10 Soft Pretzel Sticks w/Rouleur Beer Cheese, Chef's Flatbread, Marinated Grilled Artichoke</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Specialty Cocktails / $7 Well Drinks, Select Draft Beer, 26oz. Pacific Social Blonde Ale / $8 House Wines / $9 Frosé 4 Days $9 Fish Taco Duo, Brussels Sprouts, Crispy Asparagus / $10 Soft Pretzel Sticks w/Rouleur Beer Cheese, Chef's Flatbread, Marinated Grilled Artichoke</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Specialty Cocktails / $7 Well Drinks, Select Draft Beer, 26oz. Pacific Social Blonde Ale / $8 House Wines / $9 Frosé 4 Days $9 Fish Taco Duo, Brussels Sprouts, Crispy Asparagus / $10 Soft Pretzel Sticks w/Rouleur Beer Cheese, Chef's Flatbread, Marinated Grilled Artichoke</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Specialty Cocktails / $7 Well Drinks, Select Draft Beer, 26oz. Pacific Social Blonde Ale / $8 House Wines / $9 Frosé 4 Days $9 Fish Taco Duo, Brussels Sprouts, Crispy Asparagus / $10 Soft Pretzel Sticks w/Rouleur Beer Cheese, Chef's Flatbread, Marinated Grilled Artichoke</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Specialty Cocktails / $7 Well Drinks, Select Draft Beer, 26oz. Pacific Social Blonde Ale / $8 House Wines / $9 Frosé 4 Days $9 Fish Taco Duo, Brussels Sprouts, Crispy Asparagus / $10 Soft Pretzel Sticks w/Rouleur Beer Cheese, Chef's Flatbread, Marinated Grilled Artichoke</t>
         </is>
       </c>
     </row>
@@ -1606,37 +1613,37 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $5 House Margarita on the Rocks, Select Draft Pints / $18 Select Draft Pitchers / $21 Margarita on the Rocks Pitcher  20% Off All Appetizers (Reg. Price $12.49 - $16.49): Guacamole, Queso Dip, Eloté Dip, Chicken Taquitos, Nachos, Dip Trio, Shrimp Ceviche</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $5 House Margarita on the Rocks, Select Draft Pints / $18 Select Draft Pitchers / $21 Margarita on the Rocks Pitcher  20% Off All Appetizers (Reg. Price $12.49 - $16.49): Guacamole, Queso Dip, Eloté Dip, Chicken Taquitos, Nachos, Dip Trio, Shrimp Ceviche</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $5 House Margarita on the Rocks, Select Draft Pints / $18 Select Draft Pitchers / $21 Margarita on the Rocks Pitcher  20% Off All Appetizers (Reg. Price $12.49 - $16.49): Guacamole, Queso Dip, Eloté Dip, Chicken Taquitos, Nachos, Dip Trio, Shrimp Ceviche</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: Not Happy Hour Today deal: $5 House Margarita on the Rocks, Select Draft Pints / $18 Select Draft Pitchers / $21 Margarita on the Rocks Pitcher  20% Off All Appetizers (Reg. Price $12.49 - $16.49): Guacamole, Queso Dip, Eloté Dip, Chicken Taquitos, Nachos, Dip Trio, Shrimp Ceviche</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: Not Happy Hour Today deal: $5 House Margarita on the Rocks, Select Draft Pints / $18 Select Draft Pitchers / $21 Margarita on the Rocks Pitcher  $3 Street Taco</t>
         </is>
       </c>
     </row>
@@ -1661,37 +1668,37 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off All Well Cocktails, Draft Beer, Wine &amp; Champagne  $4.95 Classic Corn Dog, Buttered Soft Pretzel / $6.95 Basket of Fries or Tots: Regular or Garlic / $10.95 Cheese Quesadilla / $11.95 Chicken Tenders / $12.95 Chicken Caesar Salad</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off All Well Cocktails, Draft Beer, Wine &amp; Champagne  $4.95 Classic Corn Dog, Buttered Soft Pretzel / $6.95 Basket of Fries or Tots: Regular or Garlic / $10.95 Cheese Quesadilla / $11.95 Chicken Tenders / $12.95 Chicken Caesar Salad</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off All Well Cocktails, Draft Beer, Wine &amp; Champagne  $4.95 Classic Corn Dog, Buttered Soft Pretzel / $6.95 Basket of Fries or Tots: Regular or Garlic / $10.95 Cheese Quesadilla / $11.95 Chicken Tenders / $12.95 Chicken Caesar Salad</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 3 Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off All Well Cocktails, Draft Beer, Wine &amp; Champagne  $4.95 Classic Corn Dog, Buttered Soft Pretzel / $6.95 Basket of Fries or Tots: Regular or Garlic / $10.95 Cheese Quesadilla / $11.95 Chicken Tenders / $12.95 Chicken Caesar Salad</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off All Well Cocktails, Draft Beer, Wine &amp; Champagne  $4.95 Classic Corn Dog, Buttered Soft Pretzel / $6.95 Basket of Fries or Tots: Regular or Garlic / $10.95 Cheese Quesadilla / $11.95 Chicken Tenders / $12.95 Chicken Caesar Salad</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off All Well Cocktails, Draft Beer, Wine &amp; Champagne  $4.95 Classic Corn Dog, Buttered Soft Pretzel / $6.95 Basket of Fries or Tots: Regular or Garlic / $10.95 Cheese Quesadilla / $11.95 Chicken Tenders / $12.95 Chicken Caesar Salad</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off All Well Cocktails, Draft Beer, Wine &amp; Champagne  $4.95 Classic Corn Dog, Buttered Soft Pretzel / $6.95 Basket of Fries or Tots: Regular or Garlic / $10.95 Cheese Quesadilla / $11.95 Chicken Tenders / $12.95 Chicken Caesar Salad</t>
         </is>
       </c>
     </row>
@@ -1716,37 +1723,37 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 4 Happy hour: 4:00 PM -  6:00 PM Today deal: $1 Off Any Glass of Wine / $4 Sapporo Draft Beer / $5 Large Hot Sake or Large Bottle Beer / $9 Lg Hot Sake + Lg Beer Combo / $13.50 Sapporo Pitcher / $16 Lg Hot Sake + Sapporo Pitcher Combo $4 Miso &amp; Green Salad Combo, Edamame / $5 Gyoza (pan or deep fried), Shishito Pepper, Select Sushi: Yellowtail, Salmon, Albacore, Shrimp, Tamago, Masago / $5.50 Garlic Edamame, Homemade Chicken Eggrolls / $6 Shrimp Shumai (pan or deep fried), Hand Roll: Spicy Yellowtail, Salmon Skin, Salmon Avocado, California, Spicy Scallop, Spicy Tuna / $6.50 California Roll / $7 Mix Tempura Appetizer, Spicy Tuna Nachos (4pc), Firecracker or Salmon Skin Roll / $7.50 Spicy Tuna Roll / $8 Rolls: Spicy Salmon Avocado, Monkey Stick, Shrimp Tempura, Crunchy Shrimp / $10 Maui Wowie, Yoga Master Roll, Chef Choice Nigiri Sushi (4pc) / $12 Roll: Luv' Tuna, Rainbow or Fantasy / $15 Chef Choice Hand Roll Trio</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 4:00 PM -  6:00 PM Today deal: $1 Off Any Glass of Wine / $4 Sapporo Draft Beer / $5 Large Hot Sake or Large Bottle Beer / $9 Lg Hot Sake + Lg Beer Combo / $13.50 Sapporo Pitcher / $16 Lg Hot Sake + Sapporo Pitcher Combo $4 Miso &amp; Green Salad Combo, Edamame / $5 Gyoza (pan or deep fried), Shishito Pepper, Select Sushi: Yellowtail, Salmon, Albacore, Shrimp, Tamago, Masago / $5.50 Garlic Edamame, Homemade Chicken Eggrolls / $6 Shrimp Shumai (pan or deep fried), Hand Roll: Spicy Yellowtail, Salmon Skin, Salmon Avocado, California, Spicy Scallop, Spicy Tuna / $6.50 California Roll / $7 Mix Tempura Appetizer, Spicy Tuna Nachos (4pc), Firecracker or Salmon Skin Roll / $7.50 Spicy Tuna Roll / $8 Rolls: Spicy Salmon Avocado, Monkey Stick, Shrimp Tempura, Crunchy Shrimp / $10 Maui Wowie, Yoga Master Roll, Chef Choice Nigiri Sushi (4pc) / $12 Roll: Luv' Tuna, Rainbow or Fantasy / $15 Chef Choice Hand Roll Trio</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: $1 Off Any Glass of Wine / $4 Sapporo Draft Beer / $5 Large Hot Sake or Large Bottle Beer / $9 Lg Hot Sake + Lg Beer Combo / $13.50 Sapporo Pitcher / $16 Lg Hot Sake + Sapporo Pitcher Combo $4 Miso &amp; Green Salad Combo, Edamame / $5 Gyoza (pan or deep fried), Shishito Pepper, Select Sushi: Yellowtail, Salmon, Albacore, Shrimp, Tamago, Masago / $5.50 Garlic Edamame, Homemade Chicken Eggrolls / $6 Shrimp Shumai (pan or deep fried), Hand Roll: Spicy Yellowtail, Salmon Skin, Salmon Avocado, California, Spicy Scallop, Spicy Tuna / $6.50 California Roll / $7 Mix Tempura Appetizer, Spicy Tuna Nachos (4pc), Firecracker or Salmon Skin Roll / $7.50 Spicy Tuna Roll / $8 Rolls: Spicy Salmon Avocado, Monkey Stick, Shrimp Tempura, Crunchy Shrimp / $10 Maui Wowie, Yoga Master Roll, Chef Choice Nigiri Sushi (4pc) / $12 Roll: Luv' Tuna, Rainbow or Fantasy / $15 Chef Choice Hand Roll Trio</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: $1 Off Any Glass of Wine / $4 Sapporo Draft Beer / $5 Large Hot Sake or Large Bottle Beer / $9 Lg Hot Sake + Lg Beer Combo / $13.50 Sapporo Pitcher / $16 Lg Hot Sake + Sapporo Pitcher Combo $4 Miso &amp; Green Salad Combo, Edamame / $5 Gyoza (pan or deep fried), Shishito Pepper, Select Sushi: Yellowtail, Salmon, Albacore, Shrimp, Tamago, Masago / $5.50 Garlic Edamame, Homemade Chicken Eggrolls / $6 Shrimp Shumai (pan or deep fried), Hand Roll: Spicy Yellowtail, Salmon Skin, Salmon Avocado, California, Spicy Scallop, Spicy Tuna / $6.50 California Roll / $7 Mix Tempura Appetizer, Spicy Tuna Nachos (4pc), Firecracker or Salmon Skin Roll / $7.50 Spicy Tuna Roll / $8 Rolls: Spicy Salmon Avocado, Monkey Stick, Shrimp Tempura, Crunchy Shrimp / $10 Maui Wowie, Yoga Master Roll, Chef Choice Nigiri Sushi (4pc) / $12 Roll: Luv' Tuna, Rainbow or Fantasy / $15 Chef Choice Hand Roll Trio</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 4:00 PM -  6:00 PM Today deal: $1 Off Any Glass of Wine / $4 Sapporo Draft Beer / $5 Large Hot Sake or Large Bottle Beer / $9 Lg Hot Sake + Lg Beer Combo / $13.50 Sapporo Pitcher / $16 Lg Hot Sake + Sapporo Pitcher Combo $4 Miso &amp; Green Salad Combo, Edamame / $5 Gyoza (pan or deep fried), Shishito Pepper, Select Sushi: Yellowtail, Salmon, Albacore, Shrimp, Tamago, Masago / $5.50 Garlic Edamame, Homemade Chicken Eggrolls / $6 Shrimp Shumai (pan or deep fried), Hand Roll: Spicy Yellowtail, Salmon Skin, Salmon Avocado, California, Spicy Scallop, Spicy Tuna / $6.50 California Roll / $7 Mix Tempura Appetizer, Spicy Tuna Nachos (4pc), Firecracker or Salmon Skin Roll / $7.50 Spicy Tuna Roll / $8 Rolls: Spicy Salmon Avocado, Monkey Stick, Shrimp Tempura, Crunchy Shrimp / $10 Maui Wowie, Yoga Master Roll, Chef Choice Nigiri Sushi (4pc) / $12 Roll: Luv' Tuna, Rainbow or Fantasy / $15 Chef Choice Hand Roll Trio</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: Not Happy Hour Today deal: $1 Off Any Glass of Wine / $4 Sapporo Draft Beer / $5 Large Hot Sake or Large Bottle Beer / $9 Lg Hot Sake + Lg Beer Combo / $13.50 Sapporo Pitcher / $16 Lg Hot Sake + Sapporo Pitcher Combo $4 Miso &amp; Green Salad Combo, Edamame / $5 Gyoza (pan or deep fried), Shishito Pepper, Select Sushi: Yellowtail, Salmon, Albacore, Shrimp, Tamago, Masago / $5.50 Garlic Edamame, Homemade Chicken Eggrolls / $6 Shrimp Shumai (pan or deep fried), Hand Roll: Spicy Yellowtail, Salmon Skin, Salmon Avocado, California, Spicy Scallop, Spicy Tuna / $6.50 California Roll / $7 Mix Tempura Appetizer, Spicy Tuna Nachos (4pc), Firecracker or Salmon Skin Roll / $7.50 Spicy Tuna Roll / $8 Rolls: Spicy Salmon Avocado, Monkey Stick, Shrimp Tempura, Crunchy Shrimp / $10 Maui Wowie, Yoga Master Roll, Chef Choice Nigiri Sushi (4pc) / $12 Roll: Luv' Tuna, Rainbow or Fantasy / $15 Chef Choice Hand Roll Trio</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: Not Happy Hour Today deal: $1 Off Any Glass of Wine / $4 Sapporo Draft Beer / $5 Large Hot Sake or Large Bottle Beer / $9 Lg Hot Sake + Lg Beer Combo / $13.50 Sapporo Pitcher / $16 Lg Hot Sake + Sapporo Pitcher Combo $4 Miso &amp; Green Salad Combo, Edamame / $5 Gyoza (pan or deep fried), Shishito Pepper, Select Sushi: Yellowtail, Salmon, Albacore, Shrimp, Tamago, Masago / $5.50 Garlic Edamame, Homemade Chicken Eggrolls / $6 Shrimp Shumai (pan or deep fried), Hand Roll: Spicy Yellowtail, Salmon Skin, Salmon Avocado, California, Spicy Scallop, Spicy Tuna / $6.50 California Roll / $7 Mix Tempura Appetizer, Spicy Tuna Nachos (4pc), Firecracker or Salmon Skin Roll / $7.50 Spicy Tuna Roll / $8 Rolls: Spicy Salmon Avocado, Monkey Stick, Shrimp Tempura, Crunchy Shrimp / $10 Maui Wowie, Yoga Master Roll, Chef Choice Nigiri Sushi (4pc) / $12 Roll: Luv' Tuna, Rainbow or Fantasy / $15 Chef Choice Hand Roll Trio</t>
         </is>
       </c>
     </row>
@@ -1771,37 +1778,37 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 10:00 AM -  3:00 PM Today deal: $5 Peanut Butter Whiskey / $8 THC Mimosa (Classic, Watermelon, Passionfruit or Guava) / $10 House Bloody Mary or Morning Screw / $12 Loaded Bloody Mary, Breakfast Drink, Irish Coffee / $15 House Champagne Bottle $8 - $20 Brunch Menu</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 0 Happy hour: Closed Today deal: $5 Peanut Butter Whiskey / $8 THC Mimosa (Classic, Watermelon, Passionfruit or Guava) / $10 House Bloody Mary or Morning Screw / $12 Loaded Bloody Mary, Breakfast Drink, Irish Coffee / $15 House Champagne Bottle $8 - $20 Brunch Menu</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Peanut Butter Whiskey / $8 THC Mimosa (Classic, Watermelon, Passionfruit or Guava) / $10 House Bloody Mary or Morning Screw / $12 Loaded Bloody Mary, Breakfast Drink, Irish Coffee / $15 House Champagne Bottle $8 - $20 Brunch Menu</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: Closed</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: 1/2 Off Select Drafts &amp; Most Spirits / $3 Skrewball Shots, Tully Shots / $4 Well Drinks / $5 Beer &amp; Shot / $15 Off Towers 30% Off Entire Food Menu</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 4:00 PM -  6:00 PM Today deal: 1/2 Off Select Drafts &amp; Most Spirits / $3 Skrewball Shots, Tully Shots / $4 Well Drinks / $5 Beer &amp; Shot / $15 Off Towers 30% Off Entire Food Menu</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 10:00 AM -  3:00 PM Today deal: 1/2 Off Select Drafts &amp; Most Spirits / $3 Skrewball Shots, Tully Shots / $4 Well Drinks / $5 Beer &amp; Shot / $15 Off Towers 30% Off Entire Food Menu</t>
         </is>
       </c>
     </row>
@@ -1826,37 +1833,37 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 7 Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Draft Beer / $9 House Made Sangria, Select Wine by the Glass / $12 Select Signature Cocktails $9 Chicken Tortilla Soup / $10 Guacamole &amp; Chips, Cheese Flatbread / $11 Clam Chowder / $15 Chicken Caesar Salad, Ceviche, Fish Tacos / $19 1/2lb. Wagyu Bacon Burger w/Fries</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Draft Beer / $9 House Made Sangria, Select Wine by the Glass / $12 Select Signature Cocktails $9 Chicken Tortilla Soup / $10 Guacamole &amp; Chips, Cheese Flatbread / $11 Clam Chowder / $15 Chicken Caesar Salad, Ceviche, Fish Tacos / $19 1/2lb. Wagyu Bacon Burger w/Fries</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Draft Beer / $9 House Made Sangria, Select Wine by the Glass / $12 Select Signature Cocktails $9 Chicken Tortilla Soup / $10 Guacamole &amp; Chips, Cheese Flatbread / $11 Clam Chowder / $15 Chicken Caesar Salad, Ceviche, Fish Tacos / $19 1/2lb. Wagyu Bacon Burger w/Fries</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Draft Beer / $9 House Made Sangria, Select Wine by the Glass / $12 Select Signature Cocktails $9 Chicken Tortilla Soup / $10 Guacamole &amp; Chips, Cheese Flatbread / $11 Clam Chowder / $15 Chicken Caesar Salad, Ceviche, Fish Tacos / $19 1/2lb. Wagyu Bacon Burger w/Fries</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Draft Beer / $9 House Made Sangria, Select Wine by the Glass / $12 Select Signature Cocktails $9 Chicken Tortilla Soup / $10 Guacamole &amp; Chips, Cheese Flatbread / $11 Clam Chowder / $15 Chicken Caesar Salad, Ceviche, Fish Tacos / $19 1/2lb. Wagyu Bacon Burger w/Fries</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Draft Beer / $9 House Made Sangria, Select Wine by the Glass / $12 Select Signature Cocktails $9 Chicken Tortilla Soup / $10 Guacamole &amp; Chips, Cheese Flatbread / $11 Clam Chowder / $15 Chicken Caesar Salad, Ceviche, Fish Tacos / $19 1/2lb. Wagyu Bacon Burger w/Fries</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Draft Beer / $9 House Made Sangria, Select Wine by the Glass / $12 Select Signature Cocktails $9 Chicken Tortilla Soup / $10 Guacamole &amp; Chips, Cheese Flatbread / $11 Clam Chowder / $15 Chicken Caesar Salad, Ceviche, Fish Tacos / $19 1/2lb. Wagyu Bacon Burger w/Fries</t>
         </is>
       </c>
     </row>
@@ -1881,37 +1888,37 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 4 Happy hour: 4:00 PM -  7:00 PM Today deal: $3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 4:00 PM -  7:00 PM Today deal: $3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  7:00 PM Today deal: $3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher $3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  7:00 PM Today deal: $3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher $3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 4:00 PM -  7:00 PM Today deal: $3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher $3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 4:00 PM -  7:00 PM Today deal: $3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: 4:00 PM -  7:00 PM Today deal: $3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher</t>
         </is>
       </c>
     </row>
@@ -1936,37 +1943,37 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 3 Happy hour: 10:00 AM -  2:00 PM Today deal: $25 Bottle of Campo Viejo &amp; OJ Carafe $7 - $37 Brunch Menu</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  5:00 PM Today deal: $25 Bottle of Campo Viejo &amp; OJ Carafe $7 - $37 Brunch Menu</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  5:00 PM Today deal: $25 Bottle of Campo Viejo &amp; OJ Carafe $7 - $37 Brunch Menu</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  5:00 PM Today deal: $5 Draft Beers / $6 House Wines / $7 Well Cocktails $7 Animal Style Tots, Jalapeño Popper Cream Cheese Wonton (3), Chips &amp; Guacamole, Carnitas Nachos</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  5:00 PM Today deal: $5 Draft Beers / $6 House Wines / $7 Well Cocktails $7 Animal Style Tots, Jalapeño Popper Cream Cheese Wonton (3), Chips &amp; Guacamole, Carnitas Nachos</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 3:00 PM -  5:00 PM Today deal: $5 Draft Beers / $6 House Wines / $7 Well Cocktails $7 Animal Style Tots, Jalapeño Popper Cream Cheese Wonton (3), Chips &amp; Guacamole, Carnitas Nachos</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: 10:00 AM -  2:00 PM Today deal: $5 Draft Beers / $6 House Wines / $7 Well Cocktails $7 Animal Style Tots, Jalapeño Popper Cream Cheese Wonton (3), Chips &amp; Guacamole, Carnitas Nachos</t>
         </is>
       </c>
     </row>
@@ -1991,37 +1998,37 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 12:00 PM -  8:00 PM Today deal: $12 Tall Boy + Shot of Jack / $17 Bottle of Bubbles [A 5% surcharge will be added to all Guest checks to help cover increasing costs in employee wages / benefits.]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 2 Happy hour: 4:00 PM -  8:00 PM Today deal: $12 Tall Boy + Shot of Jack / $17 Bottle of Bubbles [A 5% surcharge will be added to all Guest checks to help cover increasing costs in employee wages / benefits.]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 4:00 PM -  6:00 PM Today deal: $12 Tall Boy + Shot of Jack / $17 Bottle of Bubbles [A 5% surcharge will be added to all Guest checks to help cover increasing costs in employee wages / benefits.]</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Well Cocktails &amp; House Wines / $6 Select Drafts $8 Frito Pie / $9 Best Mac &amp; Cheese, BBQ Pulled Pork Sliders (2), Chicken &amp; Waffles / $15 Classic Burger w/Fries + a Draft Beer (add cheese +$1)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Well Cocktails &amp; House Wines / $6 Select Drafts $8 Frito Pie / $9 Best Mac &amp; Cheese, BBQ Pulled Pork Sliders (2), Chicken &amp; Waffles / $15 Classic Burger w/Fries + a Draft Beer (add cheese +$1)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Well Cocktails &amp; House Wines / $6 Select Drafts $8 Frito Pie / $9 Best Mac &amp; Cheese, BBQ Pulled Pork Sliders (2), Chicken &amp; Waffles / $15 Classic Burger w/Fries + a Draft Beer (add cheese +$1)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 12:00 PM -  9:00 PM Today deal: $5 Well Cocktails &amp; House Wines / $6 Select Drafts $8 Frito Pie / $9 Best Mac &amp; Cheese, BBQ Pulled Pork Sliders (2), Chicken &amp; Waffles / $15 Classic Burger w/Fries + a Draft Beer (add cheese +$1)</t>
         </is>
       </c>
     </row>
@@ -2046,37 +2053,37 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Draft Beer / $8 Well Cocktails, Wine by the Glass (Select Red, White &amp; Sparkling) $9 Gnocchi Alla Romana, Polpette Vegane, Ciliegine de Mozzarella Alla Caprese / $11 Polenta Aqua Mare, Fritturina All'Italiana, Pinsa Dello Chef / $13 Carciofi Alla Romana (grilled Roman-style artichokes), Melanzane Alla Parmigiana (eggplant parmigiana) / $15 Calamari Fritti</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Draft Beer / $8 Well Cocktails, Wine by the Glass (Select Red, White &amp; Sparkling) $9 Gnocchi Alla Romana, Polpette Vegane, Ciliegine de Mozzarella Alla Caprese / $11 Polenta Aqua Mare, Fritturina All'Italiana, Pinsa Dello Chef / $13 Carciofi Alla Romana (grilled Roman-style artichokes), Melanzane Alla Parmigiana (eggplant parmigiana) / $15 Calamari Fritti</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Draft Beer / $8 Well Cocktails, Wine by the Glass (Select Red, White &amp; Sparkling) $9 Gnocchi Alla Romana, Polpette Vegane, Ciliegine de Mozzarella Alla Caprese / $11 Polenta Aqua Mare, Fritturina All'Italiana, Pinsa Dello Chef / $13 Carciofi Alla Romana (grilled Roman-style artichokes), Melanzane Alla Parmigiana (eggplant parmigiana) / $15 Calamari Fritti</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 3 Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Draft Beer / $8 Well Cocktails, Wine by the Glass (Select Red, White &amp; Sparkling) $9 Gnocchi Alla Romana, Polpette Vegane, Ciliegine de Mozzarella Alla Caprese / $11 Polenta Aqua Mare, Fritturina All'Italiana, Pinsa Dello Chef / $13 Carciofi Alla Romana (grilled Roman-style artichokes), Melanzane Alla Parmigiana (eggplant parmigiana) / $15 Calamari Fritti</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Draft Beer / $8 Well Cocktails, Wine by the Glass (Select Red, White &amp; Sparkling) $9 Gnocchi Alla Romana, Polpette Vegane, Ciliegine de Mozzarella Alla Caprese / $11 Polenta Aqua Mare, Fritturina All'Italiana, Pinsa Dello Chef / $13 Carciofi Alla Romana (grilled Roman-style artichokes), Melanzane Alla Parmigiana (eggplant parmigiana) / $15 Calamari Fritti</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Draft Beer / $8 Well Cocktails, Wine by the Glass (Select Red, White &amp; Sparkling) $9 Gnocchi Alla Romana, Polpette Vegane, Ciliegine de Mozzarella Alla Caprese / $11 Polenta Aqua Mare, Fritturina All'Italiana, Pinsa Dello Chef / $13 Carciofi Alla Romana (grilled Roman-style artichokes), Melanzane Alla Parmigiana (eggplant parmigiana) / $15 Calamari Fritti</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Draft Beer / $8 Well Cocktails, Wine by the Glass (Select Red, White &amp; Sparkling) $9 Gnocchi Alla Romana, Polpette Vegane, Ciliegine de Mozzarella Alla Caprese / $11 Polenta Aqua Mare, Fritturina All'Italiana, Pinsa Dello Chef / $13 Carciofi Alla Romana (grilled Roman-style artichokes), Melanzane Alla Parmigiana (eggplant parmigiana) / $15 Calamari Fritti</t>
         </is>
       </c>
     </row>
@@ -2101,37 +2108,37 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 10:00 AM -  9:00 PM Today deal: $4 Mimosas / $10 Bloody Marys or Micheladas</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Mimosas / $10 Bloody Marys or Micheladas</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Craft Beer / $10 Craft Cocktails $7 Sliders: Meso Tasty, QTown Fave, Black Bean Kiwilango, Bare Lil Lamb / $9 Hummus &amp; Veggies, Shrimp Skewers, Hot Young Tenders, Soft Pretzel</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Craft Beer / $10 Craft Cocktails $7 Sliders: Meso Tasty, QTown Fave, Black Bean Kiwilango, Bare Lil Lamb / $9 Hummus &amp; Veggies, Shrimp Skewers, Hot Young Tenders, Soft Pretzel</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Craft Beer / $10 Craft Cocktails $7 Sliders: Meso Tasty, QTown Fave, Black Bean Kiwilango, Bare Lil Lamb / $9 Hummus &amp; Veggies, Shrimp Skewers, Hot Young Tenders, Soft Pretzel</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Craft Beer / $10 Craft Cocktails $7 Sliders: Meso Tasty, QTown Fave, Black Bean Kiwilango, Bare Lil Lamb / $9 Hummus &amp; Veggies, Shrimp Skewers, Hot Young Tenders, Soft Pretzel</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 10:00 AM - 10:00 PM Today deal: $7 Craft Beer / $10 Craft Cocktails $7 Sliders: Meso Tasty, QTown Fave, Black Bean Kiwilango, Bare Lil Lamb / $9 Hummus &amp; Veggies, Shrimp Skewers, Hot Young Tenders, Soft Pretzel</t>
         </is>
       </c>
     </row>
@@ -2156,37 +2163,37 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 3 Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
         </is>
       </c>
     </row>
@@ -2211,37 +2218,37 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 4 Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
         </is>
       </c>
     </row>
@@ -2266,37 +2273,37 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 3:10 PM -  6:19 PM Today deal: $3.99 Crazee Fries / $4.49 Sweet Potato Fries / $4.99 Frings (1/2 fries + 1/2 onion rings), Springs (1/2 sweet potato + 1/2 onion rings), Winders (thick curly fries) / $8.99 Burger: Signature, Turkey or Veggie $15.49 Chicken Sandwich &amp; Onion Rings - Served with a fountain drink. Substitute your fountain drink for a beer +$2.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 3:10 PM -  6:19 PM Today deal: $3.99 Crazee Fries / $4.49 Sweet Potato Fries / $4.99 Frings (1/2 fries + 1/2 onion rings), Springs (1/2 sweet potato + 1/2 onion rings), Winders (thick curly fries) / $8.99 Burger: Signature, Turkey or Veggie $15.49 Chicken Sandwich &amp; Onion Rings - Served with a fountain drink. Substitute your fountain drink for a beer +$2.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 3:10 PM -  6:19 PM Today deal: $3.99 Crazee Fries / $4.49 Sweet Potato Fries / $4.99 Frings (1/2 fries + 1/2 onion rings), Springs (1/2 sweet potato + 1/2 onion rings), Winders (thick curly fries) / $8.99 Burger: Signature, Turkey or Veggie $15.49 Chicken Sandwich &amp; Onion Rings - Served with a fountain drink. Substitute your fountain drink for a beer +$2.</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:10 PM -  6:19 PM Today deal: $3.99 Crazee Fries / $4.49 Sweet Potato Fries / $4.99 Frings (1/2 fries + 1/2 onion rings), Springs (1/2 sweet potato + 1/2 onion rings), Winders (thick curly fries) / $8.99 Burger: Signature, Turkey or Veggie $14.49 Cheddar Burger w/Crazee Fries - Served with a fountain drink. Substitute your fountain drink for a beer +$2.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:10 PM -  6:19 PM Today deal: $3.99 Crazee Fries / $4.49 Sweet Potato Fries / $4.99 Frings (1/2 fries + 1/2 onion rings), Springs (1/2 sweet potato + 1/2 onion rings), Winders (thick curly fries) / $8.99 Burger: Signature, Turkey or Veggie $14.49 Cheddar Burger w/Crazee Fries - Served with a fountain drink. Substitute your fountain drink for a beer +$2.</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:10 PM -  6:19 PM Today deal: $3.99 Crazee Fries / $4.49 Sweet Potato Fries / $4.99 Frings (1/2 fries + 1/2 onion rings), Springs (1/2 sweet potato + 1/2 onion rings), Winders (thick curly fries) / $8.99 Burger: Signature, Turkey or Veggie $14.49 Cheddar Burger w/Crazee Fries - Served with a fountain drink. Substitute your fountain drink for a beer +$2.</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 3:10 PM -  6:19 PM Today deal: $3.99 Crazee Fries / $4.49 Sweet Potato Fries / $4.99 Frings (1/2 fries + 1/2 onion rings), Springs (1/2 sweet potato + 1/2 onion rings), Winders (thick curly fries) / $8.99 Burger: Signature, Turkey or Veggie $15.99 Santorini Burger w/Crazee Fries - Served with a fountain drink. Substitute your fountain drink for a beer +$2.</t>
         </is>
       </c>
     </row>
@@ -2321,37 +2328,37 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 3 Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: Not Happy Hour Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
     </row>
@@ -2376,37 +2383,37 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 2 Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: Not Happy Hour Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
     </row>
@@ -2431,37 +2438,37 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 11:00 AM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 3:00 PM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 11:00 AM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
         </is>
       </c>
     </row>
@@ -2486,37 +2493,39 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 3 Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 4:00 PM -  9:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t xml:space="preserve">Bussines hour: 0 Happy hour: 4:00 PM -  9:00 PM Today deal: $5 Mexican Beers, Cazadores &amp; Patron Shots 1/2 Off All Cazadores Margaritas: Blood Orange, Call Her Rita, Carona- Rita, The Caddy Daddy, Fruit Cart or Watermelon </t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t xml:space="preserve">Bussines hour: 0 Happy hour: Not Happy Hour Today deal: $5 Mexican Beers, Cazadores &amp; Patron Shots 1/2 Off All Cazadores Margaritas: Blood Orange, Call Her Rita, Carona- Rita, The Caddy Daddy, Fruit Cart or Watermelon </t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t xml:space="preserve">Bussines hour:   Happy hour: Not Happy Hour Today deal: $5 Mexican Beers, Cazadores &amp; Patron Shots 1/2 Off All Cazadores Margaritas: Blood Orange, Call Her Rita, Carona- Rita, The Caddy Daddy, Fruit Cart or Watermelon </t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: Not Happy Hour Today deal: $10 Patron or Cazadores Margaritas 4:00 PM - 9:00 PM
+$3 Taco: Chicken, Carnitas or Fish / $4 Taco: Shrimp or Veggie</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: Not Happy Hour Today deal: $10 Patron or Cazadores Margaritas 4:00 PM - 9:00 PM
+$3 Taco: Chicken, Carnitas or Fish / $4 Taco: Shrimp or Veggie</t>
         </is>
       </c>
     </row>
@@ -2526,52 +2535,52 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Taste &amp; Thirst</t>
+          <t>Chili's Grill &amp; Bar</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>715 Fourth Ave. San Diego, CA 92101</t>
+          <t>2627 Vista Way Oceanside, CA 92054</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>(619) 955-5995</t>
+          <t>(760) 967-1064</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 11:00 AM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 3:00 PM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 11:00 AM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
         </is>
       </c>
     </row>
@@ -2581,52 +2590,57 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Chili's Grill &amp; Bar</t>
+          <t>710 Beach Club</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2627 Vista Way Oceanside, CA 92054</t>
+          <t>710 Garnet Ave. San Diego, CA 92109</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>(760) 967-1064</t>
+          <t>(858) 483-7844</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 10:30 AM -  2:00 PM Today deal: $26 All You Can Eat Brunch</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 2:00 PM -  9:00 PM Today deal: $26 All You Can Eat Brunch</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 1:30 PM -  9:00 PM Today deal: $10 Cheese Pizza ALL DAY
+$7.10 Drink Specials</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 1:30 PM -  9:00 PM Today deal: $10 Cheese Pizza ALL DAY
+$7.10 Drink Specials</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 1:30 PM -  9:00 PM Today deal: $10 Cheese Pizza ALL DAY
+$7.10 Drink Specials</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 1:30 PM -  9:00 PM Today deal: $7.10 Any Two Tacos ALL DAY
+2 for 1 Tequila Shots / $4 Dos XX, Pacifico / $7.10 Margaritas</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 11:00 AM -  3:00 PM Today deal: $7.10 Any Two Tacos ALL DAY
+2 for 1 Tequila Shots / $4 Dos XX, Pacifico / $7.10 Margaritas</t>
         </is>
       </c>
     </row>
@@ -2636,52 +2650,52 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>710 Beach Club</t>
+          <t>Taste &amp; Thirst</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>710 Garnet Ave. San Diego, CA 92109</t>
+          <t>715 Fourth Ave. San Diego, CA 92101</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>(858) 483-7844</t>
+          <t>(619) 955-5995</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 9 Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 3 Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
     </row>
@@ -2691,52 +2705,52 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Pacific Beach Shore Club</t>
+          <t>Bub's at the Beach</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4343 Ocean Blvd. San Diego, CA 92109</t>
+          <t>1030 Garnet Ave. San Diego, CA 92109</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>(858) 272-7873</t>
+          <t>(858) 270-7269</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 11:00 AM -  1:00 PM Today deal: $6 Twisted Tea Drafts / $7 Breakfast Shots / $9 House Bloody Mary / $16 Champagne Bottle</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 2 Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Twisted Tea Drafts / $7 Breakfast Shots / $9 House Bloody Mary / $16 Champagne Bottle</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM - 11:00 PM Today deal: $5 Select Drafts, Well Drinks  $1 Wings (increments of 5): 21 Flavors / $3 Tater Tots, Seasoned Fries / $3.50  Red Sweet Potato Tots, Onion Rings</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 12:00 PM - 11:00 PM Today deal: $5 Select Drafts, Well Drinks  $1 Wings (increments of 5): 21 Flavors / $3 Tater Tots, Seasoned Fries / $3.50  Red Sweet Potato Tots, Onion Rings</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  5:00 PM Today deal: $5 Select Drafts, Well Drinks  $1 Wings (increments of 5): 21 Flavors / $3 Tater Tots, Seasoned Fries / $3.50  Red Sweet Potato Tots, Onion Rings</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  5:00 PM Today deal: $5 Select Drafts, Well Drinks  $1 Wings (increments of 5): 21 Flavors / $3 Tater Tots, Seasoned Fries / $3.50  Red Sweet Potato Tots, Onion Rings</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 10:00 PM - 12:30 AM Today deal: $5 Select Drafts, Well Drinks  $1 Wings (increments of 5): 21 Flavors / $3 Tater Tots, Seasoned Fries / $3.50  Red Sweet Potato Tots, Onion Rings</t>
         </is>
       </c>
     </row>
@@ -2746,52 +2760,56 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Bub's at the Beach</t>
+          <t>Duke's La Jolla</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>1030 Garnet Ave. San Diego, CA 92109</t>
+          <t>1216 Prospect St. La Jolla, CA 92037</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>(858) 270-7269</t>
+          <t>(858) 454-5888</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 10:00 AM -  3:00 PM Today deal: $8 Mimosa (traditional or island style) / $9 Pog Slushie / $12 Black Salt Bloody Mary / $13 Aperol Sritz $13.50 - $23.50 Brunch Menu</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 0 Happy hour: Not Happy Hour Today deal: $8 Mimosa (traditional or island style) / $9 Pog Slushie / $12 Black Salt Bloody Mary / $13 Aperol Sritz $13.50 - $23.50 Brunch Menu</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  9:00 PM Today deal: $8 Mimosa (traditional or island style) / $9 Pog Slushie / $12 Black Salt Bloody Mary / $13 Aperol Sritz $13.50 - $23.50 Brunch Menu</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 5:00 PM -  9:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $5 Pacifico / $8 Duke's Margaritas 3:00 PM - 9:00 PM
+$14 Two Tacos w/Chips &amp; Salsa: Fresh Fish, Kalua Pork,  Chipotle Chicken or Togarashi Shrimp 
+[Special available in the Barefoot Bar]</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 10:00 AM -  3:00 PM Today deal: $5 Pacifico / $8 Duke's Margaritas 3:00 PM - 9:00 PM
+$14 Two Tacos w/Chips &amp; Salsa: Fresh Fish, Kalua Pork,  Chipotle Chicken or Togarashi Shrimp 
+[Special available in the Barefoot Bar]</t>
         </is>
       </c>
     </row>
@@ -2801,52 +2819,52 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Duke's La Jolla</t>
+          <t>Dunedin</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>1216 Prospect St. La Jolla, CA 92037</t>
+          <t>3501 30th St. San Diego, CA 92104</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>(858) 454-5888</t>
+          <t>(619) 255-8566</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 9 Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Draft Beer &amp; House Wine (red, white or rosé) / $9 Margarita, Moscow Mule, Old Fashioned $8 Slider: Meso Tasty, Hog n Heffers, Lamb or Kiwilango, Calamari, Hummus &amp; Veggies, Pretzel Bites w/Jalapeno Cheese, Classic New Zealand Onion Dip w/Fresh House Made Potato Chips</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Draft Beer &amp; House Wine (red, white or rosé) / $9 Margarita, Moscow Mule, Old Fashioned $8 Slider: Meso Tasty, Hog n Heffers, Lamb or Kiwilango, Calamari, Hummus &amp; Veggies, Pretzel Bites w/Jalapeno Cheese, Classic New Zealand Onion Dip w/Fresh House Made Potato Chips</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Draft Beer &amp; House Wine (red, white or rosé) / $9 Margarita, Moscow Mule, Old Fashioned $8 Slider: Meso Tasty, Hog n Heffers, Lamb or Kiwilango, Calamari, Hummus &amp; Veggies, Pretzel Bites w/Jalapeno Cheese, Classic New Zealand Onion Dip w/Fresh House Made Potato Chips</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Draft Beer &amp; House Wine (red, white or rosé) / $9 Margarita, Moscow Mule, Old Fashioned $8 Slider: Meso Tasty, Hog n Heffers, Lamb or Kiwilango, Calamari, Hummus &amp; Veggies, Pretzel Bites w/Jalapeno Cheese, Classic New Zealand Onion Dip w/Fresh House Made Potato Chips</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Draft Beer &amp; House Wine (red, white or rosé) / $9 Margarita, Moscow Mule, Old Fashioned $8 Slider: Meso Tasty, Hog n Heffers, Lamb or Kiwilango, Calamari, Hummus &amp; Veggies, Pretzel Bites w/Jalapeno Cheese, Classic New Zealand Onion Dip w/Fresh House Made Potato Chips</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Draft Beer &amp; House Wine (red, white or rosé) / $9 Margarita, Moscow Mule, Old Fashioned $8 Slider: Meso Tasty, Hog n Heffers, Lamb or Kiwilango, Calamari, Hummus &amp; Veggies, Pretzel Bites w/Jalapeno Cheese, Classic New Zealand Onion Dip w/Fresh House Made Potato Chips</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Draft Beer &amp; House Wine (red, white or rosé) / $9 Margarita, Moscow Mule, Old Fashioned $8 Slider: Meso Tasty, Hog n Heffers, Lamb or Kiwilango, Calamari, Hummus &amp; Veggies, Pretzel Bites w/Jalapeno Cheese, Classic New Zealand Onion Dip w/Fresh House Made Potato Chips</t>
         </is>
       </c>
     </row>
@@ -2856,52 +2874,52 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Dunedin</t>
+          <t>Pacific Beach Shore Club</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>3501 30th St. San Diego, CA 92104</t>
+          <t>4343 Ocean Blvd. San Diego, CA 92109</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>(619) 255-8566</t>
+          <t>(858) 272-7873</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 9 Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 8:00 PM - 12:00 AM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM - 12:00 AM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 8:00 PM -  1:30 AM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 4:00 PM -  1:30 AM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 4:00 PM -  8:00 PM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t xml:space="preserve">Bussines hour: M Happy hour: Not Happy Hour Today deal: $3 All Drafts / $5 Ketel One &amp; Crown Royal $3 Hot Dogs </t>
         </is>
       </c>
     </row>
@@ -2926,37 +2944,37 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 4 Happy hour: 10:00 PM - 11:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: Not Happy Hour Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
     </row>
@@ -2981,37 +2999,37 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t xml:space="preserve">Bussines hour: 1 Happy hour: 10:00 AM -  2:00 PM Today deal: $10 - $15 Signature Brunch Cocktails / $85 Champagne Tower: 3 Liters of Bubbly w/Two Juices  $13 - $45 Brunch Menu </t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t xml:space="preserve">Bussines hour: 0 Happy hour: Closed Today deal: $10 - $15 Signature Brunch Cocktails / $85 Champagne Tower: 3 Liters of Bubbly w/Two Juices  $13 - $45 Brunch Menu </t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t xml:space="preserve">Bussines hour: : Happy hour: 4:00 PM -  8:00 PM Today deal: $10 - $15 Signature Brunch Cocktails / $85 Champagne Tower: 3 Liters of Bubbly w/Two Juices  $13 - $45 Brunch Menu </t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  8:00 PM Today deal: Closed</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 8:00 PM - 12:00 AM Today deal: $6 Wells, Drafts &amp; House Wine Glasses</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 12:00 PM -  7:00 PM Today deal: $6 Wells, Drafts &amp; House Wine Glasses</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 10:00 AM -  2:00 PM Today deal:  $6 Wells, Drafts &amp; House Wine Glasses $6 Nachos, Salty Pretzel Balls, Baja Fish Taco, Buffalo Cauliflower / $10 Bone-In Wings (6): Buffalo, Smokeshow, Lemon Pepper, Garlic Parmesan, Honey BBQ, Dry, Orange Chicken</t>
         </is>
       </c>
     </row>
@@ -3036,37 +3054,37 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 12:00 PM -  2:00 PM Today deal: $5 Bloody Marys / $8 Champagne Bottles</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 2 Happy hour: 3:00 PM -  6:00 PM Today deal: $5 Bloody Marys / $8 Champagne Bottles</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Fresh Cut Fries / $3.50 Clam Strips / $4 Guacamole w/Chips &amp; Salsa / $4.50 Jalapeño Poppers / $6 Peel &amp; Eat Shrimp / $6.50 Fried Calamari Strips, Chicken Nachos, Carne Asada Fries</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Fresh Cut Fries / $3.50 Clam Strips / $4 Guacamole w/Chips &amp; Salsa / $4.50 Jalapeño Poppers / $6 Peel &amp; Eat Shrimp / $6.50 Fried Calamari Strips, Chicken Nachos, Carne Asada Fries</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Fresh Cut Fries / $3.50 Clam Strips / $4 Guacamole w/Chips &amp; Salsa / $4.50 Jalapeño Poppers / $6 Peel &amp; Eat Shrimp / $6.50 Fried Calamari Strips, Chicken Nachos, Carne Asada Fries $3.95 All Tacos (excluding lobster) / $7 Patron Margarita</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Fresh Cut Fries / $3.50 Clam Strips / $4 Guacamole w/Chips &amp; Salsa / $4.50 Jalapeño Poppers / $6 Peel &amp; Eat Shrimp / $6.50 Fried Calamari Strips, Chicken Nachos, Carne Asada Fries $3.95 All Tacos (excluding lobster) / $7 Patron Margarita</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 12:00 PM -  2:00 PM Today deal: $2 Fresh Cut Fries / $3.50 Clam Strips / $4 Guacamole w/Chips &amp; Salsa / $4.50 Jalapeño Poppers / $6 Peel &amp; Eat Shrimp / $6.50 Fried Calamari Strips, Chicken Nachos, Carne Asada Fries $3.95 All Tacos (excluding lobster) / $7 Patron Margarita</t>
         </is>
       </c>
     </row>
@@ -3091,37 +3109,37 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 3 Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: Closed Today deal: No Specials</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 5:00 PM -  7:00 PM Today deal: Closed</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 5:00 PM -  7:00 PM Today deal: $4 Draft Coors Light, XX or Pacifico / $7 Cadillac Margarita, Not So Old Fashioned / $8 Frozen Drinks / $9 Junkie Cup &amp; Coco Mango Cup  $7 Chips w/Salsa &amp; Guacamole, Giant Pretzel w/Honey Mustard &amp; Chipotle Cheese, Mozzarella Sticks / $8 Cauliflower Bites / $9 Nachos, Breaded Mac &amp; Cheese Balls / $10 Crispy Rock Shrimp, Carne Asada Fries, Chicken Tenders, Chicken Wings (bone-in or boneless): Smoked Whiskey BBQ, Classic Buffalo, Honey Jalapeño, Lemon Pepper or Cajun</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 5:00 PM -  7:00 PM Today deal: $4 Draft Coors Light, XX or Pacifico / $7 Cadillac Margarita, Not So Old Fashioned / $8 Frozen Drinks / $9 Junkie Cup &amp; Coco Mango Cup  $7 Chips w/Salsa &amp; Guacamole, Giant Pretzel w/Honey Mustard &amp; Chipotle Cheese, Mozzarella Sticks / $8 Cauliflower Bites / $9 Nachos, Breaded Mac &amp; Cheese Balls / $10 Crispy Rock Shrimp, Carne Asada Fries, Chicken Tenders, Chicken Wings (bone-in or boneless): Smoked Whiskey BBQ, Classic Buffalo, Honey Jalapeño, Lemon Pepper or Cajun</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 5:00 PM -  8:00 PM Today deal: $4 Draft Coors Light, XX or Pacifico / $7 Cadillac Margarita, Not So Old Fashioned / $8 Frozen Drinks / $9 Junkie Cup &amp; Coco Mango Cup  $7 Chips w/Salsa &amp; Guacamole, Giant Pretzel w/Honey Mustard &amp; Chipotle Cheese, Mozzarella Sticks / $8 Cauliflower Bites / $9 Nachos, Breaded Mac &amp; Cheese Balls / $10 Crispy Rock Shrimp, Carne Asada Fries, Chicken Tenders, Chicken Wings (bone-in or boneless): Smoked Whiskey BBQ, Classic Buffalo, Honey Jalapeño, Lemon Pepper or Cajun</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: Not Happy Hour Today deal: $4 Draft Coors Light, XX or Pacifico / $7 Cadillac Margarita, Not So Old Fashioned / $8 Frozen Drinks / $9 Junkie Cup &amp; Coco Mango Cup  $7 Chips w/Salsa &amp; Guacamole, Giant Pretzel w/Honey Mustard &amp; Chipotle Cheese, Mozzarella Sticks / $8 Cauliflower Bites / $9 Nachos, Breaded Mac &amp; Cheese Balls / $10 Crispy Rock Shrimp, Carne Asada Fries, Chicken Tenders, Chicken Wings (bone-in or boneless): Smoked Whiskey BBQ, Classic Buffalo, Honey Jalapeño, Lemon Pepper or Cajun</t>
         </is>
       </c>
     </row>
@@ -3146,37 +3164,37 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 3 Happy hour: 4:00 PM -  6:00 PM Today deal: 51% Off All Drinks [excludes top shelf and specialty cocktails] $9 Dueling Dips / $11 Brussels Sprouts w/Prosciutto, Margherita Flatbread / $12 Ahi Nachos, Prosciutto Flatbread / $13 Beijing Style or Nashville Wings, Home-Style Chicken Tenders w/Fries / $19 Garage Charcuterie Board</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: Closed Today deal: 51% Off All Drinks [excludes top shelf and specialty cocktails] $9 Dueling Dips / $11 Brussels Sprouts w/Prosciutto, Margherita Flatbread / $12 Ahi Nachos, Prosciutto Flatbread / $13 Beijing Style or Nashville Wings, Home-Style Chicken Tenders w/Fries / $19 Garage Charcuterie Board</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: 51% Off All Drinks [excludes top shelf and specialty cocktails] $9 Dueling Dips / $11 Brussels Sprouts w/Prosciutto, Margherita Flatbread / $12 Ahi Nachos, Prosciutto Flatbread / $13 Beijing Style or Nashville Wings, Home-Style Chicken Tenders w/Fries / $19 Garage Charcuterie Board</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: 51% Off All Drinks [excludes top shelf and specialty cocktails] $9 Dueling Dips / $11 Brussels Sprouts w/Prosciutto, Margherita Flatbread / $12 Ahi Nachos, Prosciutto Flatbread / $13 Beijing Style or Nashville Wings, Home-Style Chicken Tenders w/Fries / $19 Garage Charcuterie Board</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 4:00 PM -  6:00 PM Today deal: 51% Off All Drinks [excludes top shelf and specialty cocktails] $9 Dueling Dips / $11 Brussels Sprouts w/Prosciutto, Margherita Flatbread / $12 Ahi Nachos, Prosciutto Flatbread / $13 Beijing Style or Nashville Wings, Home-Style Chicken Tenders w/Fries / $19 Garage Charcuterie Board</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 4:00 PM -  6:00 PM Today deal: Closed</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: 4:00 PM -  6:00 PM Today deal: 51% Off All Drinks [excludes top shelf and specialty cocktails] $9 Dueling Dips / $11 Brussels Sprouts w/Prosciutto, Margherita Flatbread / $12 Ahi Nachos, Prosciutto Flatbread / $13 Beijing Style or Nashville Wings, Home-Style Chicken Tenders w/Fries / $19 Garage Charcuterie Board</t>
         </is>
       </c>
     </row>
@@ -3201,37 +3219,44 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 2:00 PM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 0 Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 2:00 PM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
     </row>
@@ -3256,37 +3281,37 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 10:00 AM -  3:00 PM Today deal: $11 Michelada / $15 Bloody Mary / $16 Signature Drink $15 - $38 Brunch Menu</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 0 Happy hour: Closed Today deal: $11 Michelada / $15 Bloody Mary / $16 Signature Drink $15 - $38 Brunch Menu</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 4:00 PM -  5:00 PM Today deal: $11 Michelada / $15 Bloody Mary / $16 Signature Drink $15 - $38 Brunch Menu</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  5:00 PM Today deal: $11 Michelada / $15 Bloody Mary / $16 Signature Drink $15 - $38 Brunch Menu</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  5:00 PM Today deal: Closed</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 4:00 PM -  5:00 PM Today deal: $10 Featured Red &amp; White Wines / $12 Select Signature Drinks $12 Za'atar Flatbread, Black Kale, Salmon Belly Crudo, Potato Leek Soup, Roasted Bone Marrow, Roasted Broccolini / $30 Charcuterie Board</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 10:00 AM -  3:00 PM Today deal: $10 Featured Red &amp; White Wines / $12 Select Signature Drinks $12 Za'atar Flatbread, Black Kale, Salmon Belly Crudo, Potato Leek Soup, Roasted Bone Marrow, Roasted Broccolini / $30 Charcuterie Board</t>
         </is>
       </c>
     </row>
@@ -3311,37 +3336,37 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 10:00 AM -  3:00 PM Today deal: $24 House Bubbles Bottle + Two Mixers (OJ, cranberry, mango, grapefruit, pineapple lavender or peach nectar) / $42 Pamplemousse Rose Pitcher / $43 Sangria Pitcher / $44 Blackberry Smash Pitcher / $47 Peach Blossom Pitcher $13 - $45 Brunch Menu</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 0 Happy hour: Closed Today deal: $24 House Bubbles Bottle + Two Mixers (OJ, cranberry, mango, grapefruit, pineapple lavender or peach nectar) / $42 Pamplemousse Rose Pitcher / $43 Sangria Pitcher / $44 Blackberry Smash Pitcher / $47 Peach Blossom Pitcher $13 - $45 Brunch Menu</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 4:00 PM -  6:00 PM Today deal: $24 House Bubbles Bottle + Two Mixers (OJ, cranberry, mango, grapefruit, pineapple lavender or peach nectar) / $42 Pamplemousse Rose Pitcher / $43 Sangria Pitcher / $44 Blackberry Smash Pitcher / $47 Peach Blossom Pitcher $13 - $45 Brunch Menu</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: Closed</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t xml:space="preserve">Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: $6 - $7 Select Wines by the Glass / $8.50 - $10.50 Select Signature Cocktails </t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t xml:space="preserve">Bussines hour:   Happy hour: 4:00 PM -  6:00 PM Today deal: $6 - $7 Select Wines by the Glass / $8.50 - $10.50 Select Signature Cocktails </t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t xml:space="preserve">Bussines hour: A Happy hour: 10:00 AM -  3:00 PM Today deal: $6 - $7 Select Wines by the Glass / $8.50 - $10.50 Select Signature Cocktails </t>
         </is>
       </c>
     </row>
@@ -3366,37 +3391,37 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 10:00 AM -  3:00 PM Today deal: $5 Peanut Butter Whiskey / $8 THC Mimosa (Classic, Watermelon, Passionfruit or Guava) / $10 House Bloody Mary or Morning Screw / $12 Loaded Bloody Mary, Breakfast Drink, Irish Coffee / $15 House Champagne Bottle $8 - $20 Brunch Menu</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 0 Happy hour: Closed Today deal: $5 Peanut Butter Whiskey / $8 THC Mimosa (Classic, Watermelon, Passionfruit or Guava) / $10 House Bloody Mary or Morning Screw / $12 Loaded Bloody Mary, Breakfast Drink, Irish Coffee / $15 House Champagne Bottle $8 - $20 Brunch Menu</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Peanut Butter Whiskey / $8 THC Mimosa (Classic, Watermelon, Passionfruit or Guava) / $10 House Bloody Mary or Morning Screw / $12 Loaded Bloody Mary, Breakfast Drink, Irish Coffee / $15 House Champagne Bottle $8 - $20 Brunch Menu</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: Closed</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: 1/2 Off Select Drafts &amp; Most Spirits / $3 Skrewball Shots, Tully Shots / $4 Well Drinks / $5 Beer &amp; Shot / $15 Off Towers 30% Off Entire Food Menu</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 4:00 PM -  6:00 PM Today deal: 1/2 Off Select Drafts &amp; Most Spirits / $3 Skrewball Shots, Tully Shots / $4 Well Drinks / $5 Beer &amp; Shot / $15 Off Towers 30% Off Entire Food Menu</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 10:00 AM -  3:00 PM Today deal: 1/2 Off Select Drafts &amp; Most Spirits / $3 Skrewball Shots, Tully Shots / $4 Well Drinks / $5 Beer &amp; Shot / $15 Off Towers 30% Off Entire Food Menu</t>
         </is>
       </c>
     </row>
@@ -3421,37 +3446,37 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower Free Chips &amp; Salsa / $3 Quesadilla La Diva / $4 Elote Ribs, Queso Dip / $6 Rolled Tacos, Catrinas' Guacamole, Empanadas, Queso Fundido, Catrinas' Kitchen Sink</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower Free Chips &amp; Salsa / $3 Quesadilla La Diva / $4 Elote Ribs, Queso Dip / $6 Rolled Tacos, Catrinas' Guacamole, Empanadas, Queso Fundido, Catrinas' Kitchen Sink</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower Free Chips &amp; Salsa / $3 Quesadilla La Diva / $4 Elote Ribs, Queso Dip / $6 Rolled Tacos, Catrinas' Guacamole, Empanadas, Queso Fundido, Catrinas' Kitchen Sink</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower Free Chips &amp; Salsa / $3 Quesadilla La Diva / $4 Elote Ribs, Queso Dip / $6 Rolled Tacos, Catrinas' Guacamole, Empanadas, Queso Fundido, Catrinas' Kitchen Sink</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: Not Happy Hour Today deal: $1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower Free Chips &amp; Salsa / $3 Quesadilla La Diva / $4 Elote Ribs, Queso Dip / $6 Rolled Tacos, Catrinas' Guacamole, Empanadas, Queso Fundido, Catrinas' Kitchen Sink</t>
         </is>
       </c>
     </row>
@@ -3476,37 +3501,37 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 4 Happy hour: 4:00 PM -  6:30 PM Today deal: $5 Peroni Beer / $6 House White or Red Wine By The Glass / $8 Cocktail of the Month / $9 Aperol Spritz $5 Classic Bruschetta / $6 Parmesan Fries / $8 Grilled Artichoke, Garlic Knots / $9 Fig &amp; Prosciutto Crostini / $10 Calamari, Oysters on the Half Shell (6) / $15 Charcuterie Board (serves two), Oysters on the Half Shell (12)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 4:00 PM -  6:30 PM Today deal: $5 Peroni Beer / $6 House White or Red Wine By The Glass / $8 Cocktail of the Month / $9 Aperol Spritz $5 Classic Bruschetta / $6 Parmesan Fries / $8 Grilled Artichoke, Garlic Knots / $9 Fig &amp; Prosciutto Crostini / $10 Calamari, Oysters on the Half Shell (6) / $15 Charcuterie Board (serves two), Oysters on the Half Shell (12)</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:30 PM Today deal: $5 Peroni Beer / $6 House White or Red Wine By The Glass / $8 Cocktail of the Month / $9 Aperol Spritz $5 Classic Bruschetta / $6 Parmesan Fries / $8 Grilled Artichoke, Garlic Knots / $9 Fig &amp; Prosciutto Crostini / $10 Calamari, Oysters on the Half Shell (6) / $15 Charcuterie Board (serves two), Oysters on the Half Shell (12)</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:30 PM Today deal: $5 Peroni Beer / $6 House White or Red Wine By The Glass / $8 Cocktail of the Month / $9 Aperol Spritz $5 Classic Bruschetta / $6 Parmesan Fries / $8 Grilled Artichoke, Garlic Knots / $9 Fig &amp; Prosciutto Crostini / $10 Calamari, Oysters on the Half Shell (6) / $15 Charcuterie Board (serves two), Oysters on the Half Shell (12)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 4:00 PM -  6:30 PM Today deal: $5 Peroni Beer / $6 House White or Red Wine By The Glass / $8 Cocktail of the Month / $9 Aperol Spritz $5 Classic Bruschetta / $6 Parmesan Fries / $8 Grilled Artichoke, Garlic Knots / $9 Fig &amp; Prosciutto Crostini / $10 Calamari, Oysters on the Half Shell (6) / $15 Charcuterie Board (serves two), Oysters on the Half Shell (12)</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 4:00 PM -  6:30 PM Today deal: $5 Peroni Beer / $6 House White or Red Wine By The Glass / $8 Cocktail of the Month / $9 Aperol Spritz $5 Classic Bruschetta / $6 Parmesan Fries / $8 Grilled Artichoke, Garlic Knots / $9 Fig &amp; Prosciutto Crostini / $10 Calamari, Oysters on the Half Shell (6) / $15 Charcuterie Board (serves two), Oysters on the Half Shell (12)</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: 4:00 PM -  6:30 PM Today deal: $5 Peroni Beer / $6 House White or Red Wine By The Glass / $8 Cocktail of the Month / $9 Aperol Spritz $5 Classic Bruschetta / $6 Parmesan Fries / $8 Grilled Artichoke, Garlic Knots / $9 Fig &amp; Prosciutto Crostini / $10 Calamari, Oysters on the Half Shell (6) / $15 Charcuterie Board (serves two), Oysters on the Half Shell (12)</t>
         </is>
       </c>
     </row>
@@ -3516,52 +3541,52 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Wheat &amp; Water</t>
+          <t>Taste &amp; Thirst</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>5737 La Jolla Blvd. La Jolla, CA 92037</t>
+          <t>715 Fourth Ave. San Diego, CA 92101</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>(858) 291-8690</t>
+          <t>(619) 955-5995</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 9 Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 3 Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
     </row>
@@ -3571,52 +3596,52 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Pacific Beach Shore Club</t>
+          <t>Mr. Peabody's</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>4343 Ocean Blvd. San Diego, CA 92109</t>
+          <t>136 Encinitas Blvd. Encinitas, CA 92024</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>(858) 272-7873</t>
+          <t>(760) 753-7192</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 8 Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  9:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
         </is>
       </c>
     </row>
@@ -3626,52 +3651,52 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>BJ's Restaurant &amp; Brewery</t>
+          <t>Khan's Cave Asian Tavern &amp; Grill</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>1370 Frazee Rd. San Diego, CA 92108</t>
+          <t>9350 Clairemont Mesa Blvd., Ste F San Diego, CA 92123</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>(619) 814-6350</t>
+          <t>(858) 279-9799</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 3 Happy hour: Closed Today deal: Closed</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t xml:space="preserve">Bussines hour: : Happy hour: 3:00 PM -  7:00 PM Today deal: $3.50 Fireball Shooter / $4.75 - $5 Bottled Beer / $6 Draft Beer of the Day, Small Warm Sake / $7 House Select Wine by the Glass / $7 - $8.25 Draft Beer / $8.50 Martinis / $8.75 Beer Sampler: Three 5oz. Pours / $9 Specialty Cocktails $6.50 Beef Curry Dumplings, Side Salad, Garlic Edamame, Garlic Naan, Fries / $7.50 Steamed Pork or Fried Chicken Gyoza, XLB, Fried Brussels Sprouts, Waffle Fries, Veggie or Chicken Egg Rolls, Cream Cheese Wonton, Egg Fried Rice, Truffle Fries / $8.50 Seaweed Salad, Garlic Naan Bruschetta, Spicy Eggplant, Broccoli or Green Beans Sauté, Mixed Asian Greens, Yaki Soba (plain) / $9.50 Spicy Popcorn Chicken, Chicken or Vegetarian Lettuce Wraps, BBQ Pork Sliders, Dan Dan Noodles, Khan's Hot Dog, Dumpling Sampler, Tempura Shrimp / $10.50 Roasted Duck / $12.50 Seared Skirt Steak, Ginger Glazed or Panko Shrimp Basket, Sautéed Garlic Butter Shrimp, Peppery Fried or Firecracker Calamari / $13.50 Wings (Sriracha, Peppery Fried, Sweet &amp; Spicy), Pub Steak &amp; Fries, Aloha Loco Moco, Lamb or Steak Brochette, Khan's Teriyaki Glazed BLT Burger, Ahi Poke Salad, Seared Sesame Ahi Salad </t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t xml:space="preserve">Bussines hour: 3 Happy hour: 3:00 PM -  7:00 PM Today deal: $3.50 Fireball Shooter / $4.75 - $5 Bottled Beer / $6 Draft Beer of the Day, Small Warm Sake / $7 House Select Wine by the Glass / $7 - $8.25 Draft Beer / $8.50 Martinis / $8.75 Beer Sampler: Three 5oz. Pours / $9 Specialty Cocktails $6.50 Beef Curry Dumplings, Side Salad, Garlic Edamame, Garlic Naan, Fries / $7.50 Steamed Pork or Fried Chicken Gyoza, XLB, Fried Brussels Sprouts, Waffle Fries, Veggie or Chicken Egg Rolls, Cream Cheese Wonton, Egg Fried Rice, Truffle Fries / $8.50 Seaweed Salad, Garlic Naan Bruschetta, Spicy Eggplant, Broccoli or Green Beans Sauté, Mixed Asian Greens, Yaki Soba (plain) / $9.50 Spicy Popcorn Chicken, Chicken or Vegetarian Lettuce Wraps, BBQ Pork Sliders, Dan Dan Noodles, Khan's Hot Dog, Dumpling Sampler, Tempura Shrimp / $10.50 Roasted Duck / $12.50 Seared Skirt Steak, Ginger Glazed or Panko Shrimp Basket, Sautéed Garlic Butter Shrimp, Peppery Fried or Firecracker Calamari / $13.50 Wings (Sriracha, Peppery Fried, Sweet &amp; Spicy), Pub Steak &amp; Fries, Aloha Loco Moco, Lamb or Steak Brochette, Khan's Teriyaki Glazed BLT Burger, Ahi Poke Salad, Seared Sesame Ahi Salad </t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t xml:space="preserve">Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $3.50 Fireball Shooter / $4.75 - $5 Bottled Beer / $6 Draft Beer of the Day, Small Warm Sake / $7 House Select Wine by the Glass / $7 - $8.25 Draft Beer / $8.50 Martinis / $8.75 Beer Sampler: Three 5oz. Pours / $9 Specialty Cocktails $6.50 Beef Curry Dumplings, Side Salad, Garlic Edamame, Garlic Naan, Fries / $7.50 Steamed Pork or Fried Chicken Gyoza, XLB, Fried Brussels Sprouts, Waffle Fries, Veggie or Chicken Egg Rolls, Cream Cheese Wonton, Egg Fried Rice, Truffle Fries / $8.50 Seaweed Salad, Garlic Naan Bruschetta, Spicy Eggplant, Broccoli or Green Beans Sauté, Mixed Asian Greens, Yaki Soba (plain) / $9.50 Spicy Popcorn Chicken, Chicken or Vegetarian Lettuce Wraps, BBQ Pork Sliders, Dan Dan Noodles, Khan's Hot Dog, Dumpling Sampler, Tempura Shrimp / $10.50 Roasted Duck / $12.50 Seared Skirt Steak, Ginger Glazed or Panko Shrimp Basket, Sautéed Garlic Butter Shrimp, Peppery Fried or Firecracker Calamari / $13.50 Wings (Sriracha, Peppery Fried, Sweet &amp; Spicy), Pub Steak &amp; Fries, Aloha Loco Moco, Lamb or Steak Brochette, Khan's Teriyaki Glazed BLT Burger, Ahi Poke Salad, Seared Sesame Ahi Salad </t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t xml:space="preserve">Bussines hour:   Happy hour: 3:00 PM -  7:00 PM Today deal: $3.50 Fireball Shooter / $4.75 - $5 Bottled Beer / $6 Draft Beer of the Day, Small Warm Sake / $7 House Select Wine by the Glass / $7 - $8.25 Draft Beer / $8.50 Martinis / $8.75 Beer Sampler: Three 5oz. Pours / $9 Specialty Cocktails $6.50 Beef Curry Dumplings, Side Salad, Garlic Edamame, Garlic Naan, Fries / $7.50 Steamed Pork or Fried Chicken Gyoza, XLB, Fried Brussels Sprouts, Waffle Fries, Veggie or Chicken Egg Rolls, Cream Cheese Wonton, Egg Fried Rice, Truffle Fries / $8.50 Seaweed Salad, Garlic Naan Bruschetta, Spicy Eggplant, Broccoli or Green Beans Sauté, Mixed Asian Greens, Yaki Soba (plain) / $9.50 Spicy Popcorn Chicken, Chicken or Vegetarian Lettuce Wraps, BBQ Pork Sliders, Dan Dan Noodles, Khan's Hot Dog, Dumpling Sampler, Tempura Shrimp / $10.50 Roasted Duck / $12.50 Seared Skirt Steak, Ginger Glazed or Panko Shrimp Basket, Sautéed Garlic Butter Shrimp, Peppery Fried or Firecracker Calamari / $13.50 Wings (Sriracha, Peppery Fried, Sweet &amp; Spicy), Pub Steak &amp; Fries, Aloha Loco Moco, Lamb or Steak Brochette, Khan's Teriyaki Glazed BLT Burger, Ahi Poke Salad, Seared Sesame Ahi Salad </t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t xml:space="preserve">Bussines hour: P Happy hour: 3:00 PM -  7:00 PM Today deal: $3.50 Fireball Shooter / $4.75 - $5 Bottled Beer / $6 Draft Beer of the Day, Small Warm Sake / $7 House Select Wine by the Glass / $7 - $8.25 Draft Beer / $8.50 Martinis / $8.75 Beer Sampler: Three 5oz. Pours / $9 Specialty Cocktails $6.50 Beef Curry Dumplings, Side Salad, Garlic Edamame, Garlic Naan, Fries / $7.50 Steamed Pork or Fried Chicken Gyoza, XLB, Fried Brussels Sprouts, Waffle Fries, Veggie or Chicken Egg Rolls, Cream Cheese Wonton, Egg Fried Rice, Truffle Fries / $8.50 Seaweed Salad, Garlic Naan Bruschetta, Spicy Eggplant, Broccoli or Green Beans Sauté, Mixed Asian Greens, Yaki Soba (plain) / $9.50 Spicy Popcorn Chicken, Chicken or Vegetarian Lettuce Wraps, BBQ Pork Sliders, Dan Dan Noodles, Khan's Hot Dog, Dumpling Sampler, Tempura Shrimp / $10.50 Roasted Duck / $12.50 Seared Skirt Steak, Ginger Glazed or Panko Shrimp Basket, Sautéed Garlic Butter Shrimp, Peppery Fried or Firecracker Calamari / $13.50 Wings (Sriracha, Peppery Fried, Sweet &amp; Spicy), Pub Steak &amp; Fries, Aloha Loco Moco, Lamb or Steak Brochette, Khan's Teriyaki Glazed BLT Burger, Ahi Poke Salad, Seared Sesame Ahi Salad </t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t xml:space="preserve">Bussines hour: M Happy hour: Not Happy Hour Today deal: $3.50 Fireball Shooter / $4.75 - $5 Bottled Beer / $6 Draft Beer of the Day, Small Warm Sake / $7 House Select Wine by the Glass / $7 - $8.25 Draft Beer / $8.50 Martinis / $8.75 Beer Sampler: Three 5oz. Pours / $9 Specialty Cocktails $6.50 Beef Curry Dumplings, Side Salad, Garlic Edamame, Garlic Naan, Fries / $7.50 Steamed Pork or Fried Chicken Gyoza, XLB, Fried Brussels Sprouts, Waffle Fries, Veggie or Chicken Egg Rolls, Cream Cheese Wonton, Egg Fried Rice, Truffle Fries / $8.50 Seaweed Salad, Garlic Naan Bruschetta, Spicy Eggplant, Broccoli or Green Beans Sauté, Mixed Asian Greens, Yaki Soba (plain) / $9.50 Spicy Popcorn Chicken, Chicken or Vegetarian Lettuce Wraps, BBQ Pork Sliders, Dan Dan Noodles, Khan's Hot Dog, Dumpling Sampler, Tempura Shrimp / $10.50 Roasted Duck / $12.50 Seared Skirt Steak, Ginger Glazed or Panko Shrimp Basket, Sautéed Garlic Butter Shrimp, Peppery Fried or Firecracker Calamari / $13.50 Wings (Sriracha, Peppery Fried, Sweet &amp; Spicy), Pub Steak &amp; Fries, Aloha Loco Moco, Lamb or Steak Brochette, Khan's Teriyaki Glazed BLT Burger, Ahi Poke Salad, Seared Sesame Ahi Salad </t>
         </is>
       </c>
     </row>
@@ -3681,52 +3706,52 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Khan's Cave Asian Tavern &amp; Grill</t>
+          <t>On The Border</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>9350 Clairemont Mesa Blvd., Ste F San Diego, CA 92123</t>
+          <t>10789 Westview Parkway San Diego, CA 92126</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>(858) 279-9799</t>
+          <t>(858) 530-1130</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 11:00 AM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 11:00 AM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
     </row>
@@ -3736,52 +3761,52 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>BJ's Restaurant and Brewery</t>
+          <t xml:space="preserve">Break Point Bar &amp; Restaurant </t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>5500 Grossmont Center Dr. La Mesa, CA 91941</t>
+          <t>945 Garnet Ave. San Diego, CA 92109</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>(619) 589-7222</t>
+          <t>(858) 274-4018</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 4:00 PM -  7:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 4:00 PM -  7:00 PM Today deal: $2 Off Draft Beers / $5 Well Drinks, CK Mondavi Wine Varietals (Cabernet Sauvignon, Sauvignon Blanc, Chardonnay), Cazadores Blanco or Reposado Tequila Shot / $7 House Margarita $5 House Cut Fries / $7 Beer Battered Onion Rings / $8 Cheesy Garlic Bread / $10 Fried Calamari, Sweet 'n Spicy Cauliflower / $12 Hummus Board, Tomato Bacon Flatbread / $13 BBQ Chicken Flatbread / $14 Garlic Shrimp Fundido Dip / $15 Loaded Fries</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  7:00 PM Today deal: $2 Off Draft Beers / $5 Well Drinks, CK Mondavi Wine Varietals (Cabernet Sauvignon, Sauvignon Blanc, Chardonnay), Cazadores Blanco or Reposado Tequila Shot / $7 House Margarita $5 House Cut Fries / $7 Beer Battered Onion Rings / $8 Cheesy Garlic Bread / $10 Fried Calamari, Sweet 'n Spicy Cauliflower / $12 Hummus Board, Tomato Bacon Flatbread / $13 BBQ Chicken Flatbread / $14 Garlic Shrimp Fundido Dip / $15 Loaded Fries</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  7:00 PM Today deal: $2 Off Draft Beers / $5 Well Drinks, CK Mondavi Wine Varietals (Cabernet Sauvignon, Sauvignon Blanc, Chardonnay), Cazadores Blanco or Reposado Tequila Shot / $7 House Margarita $5 House Cut Fries / $7 Beer Battered Onion Rings / $8 Cheesy Garlic Bread / $10 Fried Calamari, Sweet 'n Spicy Cauliflower / $12 Hummus Board, Tomato Bacon Flatbread / $13 BBQ Chicken Flatbread / $14 Garlic Shrimp Fundido Dip / $15 Loaded Fries</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 4:00 PM -  7:00 PM Today deal: $2 Off Draft Beers / $5 Well Drinks, CK Mondavi Wine Varietals (Cabernet Sauvignon, Sauvignon Blanc, Chardonnay), Cazadores Blanco or Reposado Tequila Shot / $7 House Margarita $5 House Cut Fries / $7 Beer Battered Onion Rings / $8 Cheesy Garlic Bread / $10 Fried Calamari, Sweet 'n Spicy Cauliflower / $12 Hummus Board, Tomato Bacon Flatbread / $13 BBQ Chicken Flatbread / $14 Garlic Shrimp Fundido Dip / $15 Loaded Fries</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: Not Happy Hour Today deal: $2 Off Draft Beers / $5 Well Drinks, CK Mondavi Wine Varietals (Cabernet Sauvignon, Sauvignon Blanc, Chardonnay), Cazadores Blanco or Reposado Tequila Shot / $7 House Margarita $5 House Cut Fries / $7 Beer Battered Onion Rings / $8 Cheesy Garlic Bread / $10 Fried Calamari, Sweet 'n Spicy Cauliflower / $12 Hummus Board, Tomato Bacon Flatbread / $13 BBQ Chicken Flatbread / $14 Garlic Shrimp Fundido Dip / $15 Loaded Fries</t>
         </is>
       </c>
     </row>
@@ -3791,52 +3816,52 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BullsEye Bar @ Black Angus Steakhouse</t>
+          <t>BJ's Restaurant and Brewery</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>296 E. Via Rancho Parkway Escondido, CA 92025</t>
+          <t>5500 Grossmont Center Dr. La Mesa, CA 91941</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>(760) 489-8420</t>
+          <t>(619) 589-7222</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 9:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 4:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
     </row>
@@ -3846,52 +3871,52 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Yard House</t>
+          <t>BullsEye Bar @ Black Angus Steakhouse</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>1640 Camino del Rio North San Diego, CA 92108</t>
+          <t>707 E St. Chula Vista, CA 91910</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>(619) 574-0468</t>
+          <t xml:space="preserve">(619) 426-9200 </t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 3 Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: Not Happy Hour Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
     </row>
@@ -3901,52 +3926,52 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Break Point Bar &amp; Restaurant </t>
+          <t>Wheat &amp; Water</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>945 Garnet Ave. San Diego, CA 92109</t>
+          <t>5737 La Jolla Blvd. La Jolla, CA 92037</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>(858) 274-4018</t>
+          <t>(858) 291-8690</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 4:00 PM -  8:00 PM Today deal: Buy Any Pizza, Get $10 Off Any Pitcher of Beer</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 2 Happy hour: 4:00 PM -  6:00 PM Today deal: Buy Any Pizza, Get $10 Off Any Pitcher of Beer</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Select Beers / $7 House Wines by the Glass / $8 Well Spirits $5 BBQ Kalua Pig Slider, Carnitas Taco / $6 Fish Taco / $8 Butter Noodles / $9 Loaded Fries / $10 Carnitas Nachos, Red Sauce Noodles</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Select Beers / $7 House Wines by the Glass / $8 Well Spirits $5 BBQ Kalua Pig Slider, Carnitas Taco / $6 Fish Taco / $8 Butter Noodles / $9 Loaded Fries / $10 Carnitas Nachos, Red Sauce Noodles</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Select Beers / $7 House Wines by the Glass / $8 Well Spirits $5 BBQ Kalua Pig Slider, Carnitas Taco / $6 Fish Taco / $8 Butter Noodles / $9 Loaded Fries / $10 Carnitas Nachos, Red Sauce Noodles</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Select Beers / $7 House Wines by the Glass / $8 Well Spirits $5 BBQ Kalua Pig Slider, Carnitas Taco / $6 Fish Taco / $8 Butter Noodles / $9 Loaded Fries / $10 Carnitas Nachos, Red Sauce Noodles</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 8:00 PM - 10:00 PM Today deal: $5 Select Beers / $7 House Wines by the Glass / $8 Well Spirits $5 BBQ Kalua Pig Slider, Carnitas Taco / $6 Fish Taco / $8 Butter Noodles / $9 Loaded Fries / $10 Carnitas Nachos, Red Sauce Noodles</t>
         </is>
       </c>
     </row>
@@ -3956,52 +3981,52 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Haig's Bar at Ocean's 11 Casino</t>
+          <t>Steamy Piggy</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>121 Brooks St. Oceanside, CA 92054</t>
+          <t>4681 Convoy St. San Diego, CA 92111</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>(760) 439-6988</t>
+          <t>(858) 492-0401</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 3 Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
         </is>
       </c>
     </row>
@@ -4011,52 +4036,52 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Redwing Bar &amp; Grill</t>
+          <t>On The Border</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>4012 30th Street San Diego, CA 92104</t>
+          <t>298 East Via Rancho Pkwy Escondido, CA 92025</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>(619) 281-8700</t>
+          <t>(760) 233-9777</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 11:00 AM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 11:00 AM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
     </row>
@@ -4066,52 +4091,52 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Mr. Peabody's</t>
+          <t>BJ's Restaurant &amp; Brewery</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>136 Encinitas Blvd. Encinitas, CA 92024</t>
+          <t>1370 Frazee Rd. San Diego, CA 92108</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>(760) 753-7192</t>
+          <t>(619) 814-6350</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 4 Happy hour: 9:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: 4:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
     </row>
@@ -4121,52 +4146,52 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BJ's Restaurant and Brewery</t>
+          <t>BullsEye Bar @ Black Angus Steakhouse</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>555 Broadway, Ste 1019 Chula Vista, CA 91910</t>
+          <t>296 E. Via Rancho Parkway Escondido, CA 92025</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>(619) 591-2490</t>
+          <t>(760) 489-8420</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 2 Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: Not Happy Hour Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
     </row>
@@ -4176,52 +4201,55 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BJ's Restaurant &amp; Brewery</t>
+          <t>Redwing Bar &amp; Grill</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>204 E. Via Rancho Pkwy Escondido, CA 92025</t>
+          <t>4012 30th Street San Diego, CA 92104</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">(760) 466-0700 </t>
+          <t>(619) 281-8700</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 11:00 AM -  2:00 PM Today deal: $15 Bottomless Mimosa 2:00 PM - 6:00 PM
+$2 12oz. Bud Light or Miller Lite / $12.50 Burger &amp; 12oz. Domestic Beer</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: Closed Today deal: $15 Bottomless Mimosa 2:00 PM - 6:00 PM
+$2 12oz. Bud Light or Miller Lite / $12.50 Burger &amp; 12oz. Domestic Beer</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 4:00 PM -  6:00 PM Today deal: $15 Bottomless Mimosa 2:00 PM - 6:00 PM
+$2 12oz. Bud Light or Miller Lite / $12.50 Burger &amp; 12oz. Domestic Beer</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: Closed</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t xml:space="preserve">Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: Half Size Appetizers: $4.25 Deep Fried Pickles / $4.50 Small Basket Case: Fries, Tots or Onion Rings / $4.75 Spicy Cauliflower, Chick-arrones / $5.25 Elote Corn Bites / $6 Chicken Fingers (2) &amp; Fries, 1/4 Wings &amp; Fries (Buffalo, House Made BBQ, Hot &amp; Sour Thai Chili, Garlic Ginger Teriyaki) / </t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t xml:space="preserve">Bussines hour:   Happy hour: 4:00 PM -  6:00 PM Today deal: Half Size Appetizers: $4.25 Deep Fried Pickles / $4.50 Small Basket Case: Fries, Tots or Onion Rings / $4.75 Spicy Cauliflower, Chick-arrones / $5.25 Elote Corn Bites / $6 Chicken Fingers (2) &amp; Fries, 1/4 Wings &amp; Fries (Buffalo, House Made BBQ, Hot &amp; Sour Thai Chili, Garlic Ginger Teriyaki) / </t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 11:00 AM -  6:00 PM Today deal: Half Size Appetizers: $4.25 Deep Fried Pickles / $4.50 Small Basket Case: Fries, Tots or Onion Rings / $4.75 Spicy Cauliflower, Chick-arrones / $5.25 Elote Corn Bites / $6 Chicken Fingers (2) &amp; Fries, 1/4 Wings &amp; Fries (Buffalo, House Made BBQ, Hot &amp; Sour Thai Chili, Garlic Ginger Teriyaki) /  $3 Bud Light or Miller Lite Drafts / $4.75 Well Drinks</t>
         </is>
       </c>
     </row>
@@ -4231,52 +4259,52 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BullsEye Bar @ Black Angus Steakhouse</t>
+          <t>BJ's Restaurant &amp; Brewery</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1000 Graves Ave. El Cajon, CA 92021</t>
+          <t>8785 Villa La Jolla Dr. La Jolla, CA 92037</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>(619) 440-5055</t>
+          <t>(858) 257-3640</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 9:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 4:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
     </row>
@@ -4286,52 +4314,52 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Steamy Piggy</t>
+          <t>West Coast Tavern</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>4681 Convoy St. San Diego, CA 92111</t>
+          <t>2895 University Ave. San Diego, CA 92104</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>(858) 492-0401</t>
+          <t>(619) 295-1688</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 5:00 PM -  6:30 PM Today deal: $1 Off Draft Beer &amp; Specialty Cocktails / $9 Mules $9 Wings (5), Gastrique Fries, Disco Tots, Hummus, Nachos</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 0 Happy hour: Closed Today deal: $1 Off Draft Beer &amp; Specialty Cocktails / $9 Mules $9 Wings (5), Gastrique Fries, Disco Tots, Hummus, Nachos</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: Closed Today deal: $1 Off Draft Beer &amp; Specialty Cocktails / $9 Mules $9 Wings (5), Gastrique Fries, Disco Tots, Hummus, Nachos</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: Closed Today deal: $1 Off Draft Beer &amp; Specialty Cocktails / $9 Mules $9 Wings (5), Gastrique Fries, Disco Tots, Hummus, Nachos</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 5:00 PM -  6:30 PM Today deal: $1 Off Draft Beer &amp; Specialty Cocktails / $9 Mules $9 Wings (5), Gastrique Fries, Disco Tots, Hummus, Nachos</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 5:00 PM -  6:30 PM Today deal: $1 Off Draft Beer &amp; Specialty Cocktails / $9 Mules $9 Wings (5), Gastrique Fries, Disco Tots, Hummus, Nachos</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 5:00 PM -  6:30 PM Today deal: Closed</t>
         </is>
       </c>
     </row>
@@ -4341,52 +4369,52 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>On The Border</t>
+          <t>Yard House</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>10789 Westview Parkway San Diego, CA 92126</t>
+          <t>2525 El Camino Real #210 Carlsbad, CA 92008</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>(858) 530-1130</t>
+          <t>(760) 434-1009</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 3 Happy hour: 10:00 PM - 11:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.99 - $18.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.99 - $18.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.99 - $18.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: Not Happy Hour Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.99 - $18.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
     </row>
@@ -4396,52 +4424,52 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Hooters</t>
+          <t>Pacific Beach Shore Club</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>775 Center Drive San Marcos, CA 92069</t>
+          <t>4343 Ocean Blvd. San Diego, CA 92109</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>(858) 451-6000</t>
+          <t>(858) 272-7873</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 9 Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 8:00 PM - 12:00 AM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM - 12:00 AM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 8:00 PM -  1:30 AM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 4:00 PM -  1:30 AM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 4:00 PM -  8:00 PM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t xml:space="preserve">Bussines hour: M Happy hour: Not Happy Hour Today deal: $3 All Drafts / $5 Ketel One &amp; Crown Royal $3 Hot Dogs </t>
         </is>
       </c>
     </row>
@@ -4451,52 +4479,52 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Harley Gray Kitchen &amp; Bar</t>
+          <t>Hooters</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>902 W. Washington St. San Diego, CA 92103</t>
+          <t>1400 Camino De La Reina San Diego, CA 92108</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>(619) 955-8451</t>
+          <t>(619) 299-4668</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 4 Happy hour: 10:00 PM - 12:00 AM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: 10:00 PM - 12:00 AM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
     </row>
@@ -4506,52 +4534,52 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>King and Queen Cantina</t>
+          <t>BJ's Restaurant and Brewery</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>1490 Kettner Blvd. San Diego, CA 92101</t>
+          <t>555 Broadway, Ste 1019 Chula Vista, CA 91910</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>(619) 756-7864</t>
+          <t>(619) 591-2490</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 3 Happy hour: 9:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: 4:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
     </row>
@@ -4561,52 +4589,52 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Baja Beach Cafe</t>
+          <t>Hooters</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>701 Thomas Ave. San Diego, CA 92109</t>
+          <t>775 Center Drive San Marcos, CA 92069</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>(858) 230-6315</t>
+          <t>(858) 451-6000</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 4 Happy hour: 10:00 PM - 12:00 AM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: 10:00 PM - 12:00 AM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
     </row>
@@ -4616,52 +4644,52 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BJ's Restaurant &amp; Brewery</t>
+          <t>BullsEye Bar @ Black Angus Steakhouse</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>8785 Villa La Jolla Dr. La Jolla, CA 92037</t>
+          <t>1000 Graves Ave. El Cajon, CA 92021</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>(858) 257-3640</t>
+          <t>(619) 440-5055</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 2 Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: Not Happy Hour Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
     </row>
@@ -4671,52 +4699,52 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BullsEye Bar @ Black Angus Steakhouse</t>
+          <t>Yard House</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>707 E St. Chula Vista, CA 91910</t>
+          <t>1640 Camino del Rio North San Diego, CA 92108</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve">(619) 426-9200 </t>
+          <t>(619) 574-0468</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 4 Happy hour: 10:00 PM - 11:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: Not Happy Hour Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
     </row>
@@ -4726,52 +4754,52 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Yard House</t>
+          <t>BJ's Restaurant &amp; Brewery</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2525 El Camino Real #210 Carlsbad, CA 92008</t>
+          <t>204 E. Via Rancho Pkwy Escondido, CA 92025</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>(760) 434-1009</t>
+          <t xml:space="preserve">(760) 466-0700 </t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 9:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 4:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
     </row>
@@ -4781,52 +4809,52 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Taste &amp; Thirst</t>
+          <t>Baja Beach Cafe</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>715 Fourth Ave. San Diego, CA 92101</t>
+          <t>701 Thomas Ave. San Diego, CA 92109</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>(619) 955-5995</t>
+          <t>(858) 230-6315</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 8 Happy hour: 10:30 PM - 12:30 AM Today deal: 2 for 1 Drinks</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 4:00 PM -  7:00 PM Today deal: 2 for 1 Drinks</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  7:00 PM Today deal: 2 for 1 Drinks 2 for 1 Drinks</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  7:00 PM Today deal: 2 for 1 Drinks 2 for 1 Drinks</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 4:00 PM -  7:00 PM Today deal: 2 for 1 Drinks 2 for 1 Drinks</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 4:00 PM -  7:00 PM Today deal: 2 for 1 Drinks 2 for 1 Drinks</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: 10:30 PM - 12:30 AM Today deal: 2 for 1 Drinks 2 for 1 Drinks</t>
         </is>
       </c>
     </row>
@@ -4836,52 +4864,59 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Hooters</t>
+          <t>King and Queen Cantina</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1400 Camino De La Reina San Diego, CA 92108</t>
+          <t>1490 Kettner Blvd. San Diego, CA 92101</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>(619) 299-4668</t>
+          <t>(619) 756-7864</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 1 Happy hour: 2:00 PM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 0 Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: : Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 2:00 PM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
     </row>
@@ -4891,52 +4926,52 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>BJ's Restaurant &amp; Brewery</t>
+          <t>Harley Gray Kitchen &amp; Bar</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>5613 Paseo Del Norte Carlsbad, CA 92008</t>
+          <t>902 W. Washington St. San Diego, CA 92103</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>(760) 579-4440</t>
+          <t>(619) 955-8451</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 9 Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  5:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 3:00 PM -  5:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
         </is>
       </c>
     </row>
@@ -4946,52 +4981,52 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>West Coast Tavern</t>
+          <t>BJ's Restaurant &amp; Brewery</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2895 University Ave. San Diego, CA 92104</t>
+          <t>5613 Paseo Del Norte Carlsbad, CA 92008</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>(619) 295-1688</t>
+          <t>(760) 579-4440</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 3 Happy hour: 9:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: P Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: 4:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
     </row>
@@ -5001,52 +5036,52 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>On The Border</t>
+          <t>Haig's Bar at Ocean's 11 Casino</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>298 East Via Rancho Pkwy Escondido, CA 92025</t>
+          <t>121 Brooks St. Oceanside, CA 92054</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>(760) 233-9777</t>
+          <t>(760) 439-6988</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 8 Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: : Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 0 Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour:   Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: A Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: M Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
         </is>
       </c>
     </row>

--- a/King Happy Hour San Diego.xlsx
+++ b/King Happy Hour San Diego.xlsx
@@ -506,37 +506,37 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Bussines hour: 7 Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 8:00 AM -  4:00 PM Happy hour: 3:00 PM -  4:00 PM Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
+          <t>Bussines hour: 7:00 AM -  4:00 PM Happy hour: Not Happy Hour Today deal: $10 Any Slice + Any Beer (except $10 beers)</t>
         </is>
       </c>
     </row>
@@ -561,37 +561,37 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bussines hour: 2 Happy hour: 2:00 PM -  8:00 PM Today deal: $2 Off The Entire Menu - MUST use code: NEIGHBOR when ordering.</t>
+          <t>Bussines hour: 2:00 PM -  8:00 PM Happy hour: 2:00 PM -  8:00 PM Today deal: $2 Off The Entire Menu - MUST use code: NEIGHBOR when ordering.</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 4:00 PM -  9:00 PM Today deal: $2 Off The Entire Menu - MUST use code: NEIGHBOR when ordering.</t>
+          <t>Bussines hour: 4:00 PM -  9:00 PM Happy hour: 4:00 PM -  9:00 PM Today deal: $2 Off The Entire Menu - MUST use code: NEIGHBOR when ordering.</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  8:00 PM Today deal: $2 Off The Entire Menu - MUST use code: NEIGHBOR when ordering.</t>
+          <t>Bussines hour: 3:00 PM -  8:00 PM Happy hour: 3:00 PM -  8:00 PM Today deal: $2 Off The Entire Menu - MUST use code: NEIGHBOR when ordering.</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  8:00 PM Today deal: $2 Off The Entire Menu - MUST use code: NEIGHBOR when ordering.</t>
+          <t>Bussines hour: 3:00 PM -  8:00 PM Happy hour: 3:00 PM -  8:00 PM Today deal: $2 Off The Entire Menu - MUST use code: NEIGHBOR when ordering.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  8:00 PM Today deal: $2 Off The Entire Menu - MUST use code: NEIGHBOR when ordering.</t>
+          <t>Bussines hour: 3:00 PM -  8:00 PM Happy hour: 3:00 PM -  8:00 PM Today deal: $2 Off The Entire Menu - MUST use code: NEIGHBOR when ordering.</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 3:00 PM -  8:30 PM Today deal: $2 Off The Entire Menu - MUST use code: NEIGHBOR when ordering.</t>
+          <t>Bussines hour: 3:00 PM -  8:30 PM Happy hour: 3:00 PM -  8:30 PM Today deal: $2 Off The Entire Menu - MUST use code: NEIGHBOR when ordering.</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: 2:00 PM -  8:30 PM Today deal: $2 Off The Entire Menu - MUST use code: NEIGHBOR when ordering.</t>
+          <t>Bussines hour: 2:00 PM -  8:30 PM Happy hour: 2:00 PM -  8:30 PM Today deal: $2 Off The Entire Menu - MUST use code: NEIGHBOR when ordering.</t>
         </is>
       </c>
     </row>
@@ -616,37 +616,37 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 10:00 AM - 12:00 AM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour: : Happy hour: 4:00 PM -  6:00 PM Today deal: $2 Off Cocktails / $5 House Beer / $6 Well Wine  $6 Fried Goat Cheese, Truffle Fries / $7 Pretzel Bites / $8 Mac &amp; Cheese / $9 Sausage Flatbread </t>
+          <t xml:space="preserve">Bussines hour: 11:00 AM - 12:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: $2 Off Cocktails / $5 House Beer / $6 Well Wine  $6 Fried Goat Cheese, Truffle Fries / $7 Pretzel Bites / $8 Mac &amp; Cheese / $9 Sausage Flatbread </t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: $2 Off Cocktails / $5 House Beer / $6 Well Wine  $6 Fried Goat Cheese, Truffle Fries / $7 Pretzel Bites / $8 Mac &amp; Cheese / $9 Sausage Flatbread </t>
+          <t xml:space="preserve">Bussines hour: 11:00 AM - 12:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: $2 Off Cocktails / $5 House Beer / $6 Well Wine  $6 Fried Goat Cheese, Truffle Fries / $7 Pretzel Bites / $8 Mac &amp; Cheese / $9 Sausage Flatbread </t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: $2 Off Cocktails / $5 House Beer / $6 Well Wine  $6 Fried Goat Cheese, Truffle Fries / $7 Pretzel Bites / $8 Mac &amp; Cheese / $9 Sausage Flatbread </t>
+          <t xml:space="preserve">Bussines hour: 11:00 AM - 12:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: $2 Off Cocktails / $5 House Beer / $6 Well Wine  $6 Fried Goat Cheese, Truffle Fries / $7 Pretzel Bites / $8 Mac &amp; Cheese / $9 Sausage Flatbread </t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour:   Happy hour: 4:00 PM -  6:00 PM Today deal: $2 Off Cocktails / $5 House Beer / $6 Well Wine  $6 Fried Goat Cheese, Truffle Fries / $7 Pretzel Bites / $8 Mac &amp; Cheese / $9 Sausage Flatbread </t>
+          <t xml:space="preserve">Bussines hour: 11:00 AM -  2:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: $2 Off Cocktails / $5 House Beer / $6 Well Wine  $6 Fried Goat Cheese, Truffle Fries / $7 Pretzel Bites / $8 Mac &amp; Cheese / $9 Sausage Flatbread </t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour: A Happy hour: Not Happy Hour Today deal: $2 Off Cocktails / $5 House Beer / $6 Well Wine  $6 Fried Goat Cheese, Truffle Fries / $7 Pretzel Bites / $8 Mac &amp; Cheese / $9 Sausage Flatbread </t>
+          <t xml:space="preserve">Bussines hour: 10:00 AM -  2:00 AM Happy hour: Not Happy Hour Today deal: $2 Off Cocktails / $5 House Beer / $6 Well Wine  $6 Fried Goat Cheese, Truffle Fries / $7 Pretzel Bites / $8 Mac &amp; Cheese / $9 Sausage Flatbread </t>
         </is>
       </c>
     </row>
@@ -671,38 +671,38 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Bussines hour: 3 Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 12:00 PM - 12:00 AM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 4:00 PM -  9:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 3:00 PM -  1:00 AM Happy hour: 4:00 PM -  9:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour: 0 Happy hour: 4:00 PM -  9:00 PM Today deal: $5 Mexican Beers, Cazadores &amp; Patron Shots 1/2 Off All Cazadores Margaritas: Blood Orange, Call Her Rita, Carona- Rita, The Caddy Daddy, Fruit Cart or Watermelon </t>
+          <t xml:space="preserve">Bussines hour: 3:00 PM -  1:00 AM Happy hour: 4:00 PM -  9:00 PM Today deal: $5 Mexican Beers, Cazadores &amp; Patron Shots 1/2 Off All Cazadores Margaritas: Blood Orange, Call Her Rita, Carona- Rita, The Caddy Daddy, Fruit Cart or Watermelon </t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour: 0 Happy hour: Not Happy Hour Today deal: $5 Mexican Beers, Cazadores &amp; Patron Shots 1/2 Off All Cazadores Margaritas: Blood Orange, Call Her Rita, Carona- Rita, The Caddy Daddy, Fruit Cart or Watermelon </t>
+          <t xml:space="preserve">Bussines hour: 3:00 PM -  1:00 AM Happy hour: Not Happy Hour Today deal: $5 Mexican Beers, Cazadores &amp; Patron Shots 1/2 Off All Cazadores Margaritas: Blood Orange, Call Her Rita, Carona- Rita, The Caddy Daddy, Fruit Cart or Watermelon </t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour:   Happy hour: Not Happy Hour Today deal: $5 Mexican Beers, Cazadores &amp; Patron Shots 1/2 Off All Cazadores Margaritas: Blood Orange, Call Her Rita, Carona- Rita, The Caddy Daddy, Fruit Cart or Watermelon </t>
+          <t xml:space="preserve">Bussines hour: 3:00 PM -  1:00 AM Happy hour: Not Happy Hour Today deal: $5 Mexican Beers, Cazadores &amp; Patron Shots 1/2 Off All Cazadores Margaritas: Blood Orange, Call Her Rita, Carona- Rita, The Caddy Daddy, Fruit Cart or Watermelon </t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: Not Happy Hour Today deal: $10 Patron or Cazadores Margaritas 4:00 PM - 9:00 PM
+          <t>Bussines hour: 3:00 PM -  1:00 AM Happy hour: Not Happy Hour Today deal: $10 Patron or Cazadores Margaritas 4:00 PM - 9:00 PM
 $3 Taco: Chicken, Carnitas or Fish / $4 Taco: Shrimp or Veggie</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: Not Happy Hour Today deal: $10 Patron or Cazadores Margaritas 4:00 PM - 9:00 PM
+          <t>Bussines hour: 12:00 PM - 12:00 AM Happy hour: Not Happy Hour Today deal: $10 Patron or Cazadores Margaritas 4:00 PM - 9:00 PM
 $3 Taco: Chicken, Carnitas or Fish / $4 Taco: Shrimp or Veggie</t>
         </is>
       </c>
@@ -728,37 +728,37 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 9:00 AM -  9:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower Free Chips &amp; Salsa / $3 Quesadilla La Diva / $4 Elote Ribs, Queso Dip / $6 Rolled Tacos, Catrinas' Guacamole, Empanadas, Queso Fundido, Catrinas' Kitchen Sink</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower Free Chips &amp; Salsa / $3 Quesadilla La Diva / $4 Elote Ribs, Queso Dip / $6 Rolled Tacos, Catrinas' Guacamole, Empanadas, Queso Fundido, Catrinas' Kitchen Sink</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower Free Chips &amp; Salsa / $3 Quesadilla La Diva / $4 Elote Ribs, Queso Dip / $6 Rolled Tacos, Catrinas' Guacamole, Empanadas, Queso Fundido, Catrinas' Kitchen Sink</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower Free Chips &amp; Salsa / $3 Quesadilla La Diva / $4 Elote Ribs, Queso Dip / $6 Rolled Tacos, Catrinas' Guacamole, Empanadas, Queso Fundido, Catrinas' Kitchen Sink</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower Free Chips &amp; Salsa / $3 Quesadilla La Diva / $4 Elote Ribs, Queso Dip / $6 Rolled Tacos, Catrinas' Guacamole, Empanadas, Queso Fundido, Catrinas' Kitchen Sink</t>
+          <t>Bussines hour: 11:00 AM -  1:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower Free Chips &amp; Salsa / $3 Quesadilla La Diva / $4 Elote Ribs, Queso Dip / $6 Rolled Tacos, Catrinas' Guacamole, Empanadas, Queso Fundido, Catrinas' Kitchen Sink</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower Free Chips &amp; Salsa / $3 Quesadilla La Diva / $4 Elote Ribs, Queso Dip / $6 Rolled Tacos, Catrinas' Guacamole, Empanadas, Queso Fundido, Catrinas' Kitchen Sink</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower Free Chips &amp; Salsa / $3 Quesadilla La Diva / $4 Elote Ribs, Queso Dip / $6 Rolled Tacos, Catrinas' Guacamole, Empanadas, Queso Fundido, Catrinas' Kitchen Sink</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: Not Happy Hour Today deal: $1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower Free Chips &amp; Salsa / $3 Quesadilla La Diva / $4 Elote Ribs, Queso Dip / $6 Rolled Tacos, Catrinas' Guacamole, Empanadas, Queso Fundido, Catrinas' Kitchen Sink</t>
+          <t>Bussines hour: 10:00 AM - 11:00 PM Happy hour: Not Happy Hour Today deal: $1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower Free Chips &amp; Salsa / $3 Quesadilla La Diva / $4 Elote Ribs, Queso Dip / $6 Rolled Tacos, Catrinas' Guacamole, Empanadas, Queso Fundido, Catrinas' Kitchen Sink</t>
         </is>
       </c>
     </row>
@@ -783,37 +783,37 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 11:00 AM -  8:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Bussines hour: 2 Happy hour: 4:00 PM -  6:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 4:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Draft Cocktails, Sangria, Vodka, Rum, Bourbon &amp; Well Drinks / $3 Off All Craft Cocktails $8 Ballpark Burger (1/3 lb. Wagyu Beef Patty, American Cheese, Onion Ring, BBQ Sauce on a Brioche Bun), Thai Cashew Wings (Five Tempura Battered Wings, Cajun Spice, Garlic, Thai Chili Glaze, topped w/Roasted Cashews, served w/side of Ranch), Birria Street Tacos (Two Braised Tri-Tip Tacos w/Cilantro, Onion, Limes &amp; Salsa Verde), BBQ Flatbread (House Flatbread, Carnitas, Sausage, BBQ Sauce, Jack Cheese, Ranch Drizzle) / $10 Liberty Call Poutine (Hand Cut Fries, Queso Blanco Sauce, Demi-Glace, Cilantro, topped w/Choice of Birria or Carnitas)</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Draft Cocktails, Sangria, Vodka, Rum, Bourbon &amp; Well Drinks / $3 Off All Craft Cocktails $8 Ballpark Burger (1/3 lb. Wagyu Beef Patty, American Cheese, Onion Ring, BBQ Sauce on a Brioche Bun), Thai Cashew Wings (Five Tempura Battered Wings, Cajun Spice, Garlic, Thai Chili Glaze, topped w/Roasted Cashews, served w/side of Ranch), Birria Street Tacos (Two Braised Tri-Tip Tacos w/Cilantro, Onion, Limes &amp; Salsa Verde), BBQ Flatbread (House Flatbread, Carnitas, Sausage, BBQ Sauce, Jack Cheese, Ranch Drizzle) / $10 Liberty Call Poutine (Hand Cut Fries, Queso Blanco Sauce, Demi-Glace, Cilantro, topped w/Choice of Birria or Carnitas)</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Draft Cocktails, Sangria, Vodka, Rum, Bourbon &amp; Well Drinks / $3 Off All Craft Cocktails $8 Ballpark Burger (1/3 lb. Wagyu Beef Patty, American Cheese, Onion Ring, BBQ Sauce on a Brioche Bun), Thai Cashew Wings (Five Tempura Battered Wings, Cajun Spice, Garlic, Thai Chili Glaze, topped w/Roasted Cashews, served w/side of Ranch), Birria Street Tacos (Two Braised Tri-Tip Tacos w/Cilantro, Onion, Limes &amp; Salsa Verde), BBQ Flatbread (House Flatbread, Carnitas, Sausage, BBQ Sauce, Jack Cheese, Ranch Drizzle) / $10 Liberty Call Poutine (Hand Cut Fries, Queso Blanco Sauce, Demi-Glace, Cilantro, topped w/Choice of Birria or Carnitas)</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Draft Cocktails, Sangria, Vodka, Rum, Bourbon &amp; Well Drinks / $3 Off All Craft Cocktails $8 Ballpark Burger (1/3 lb. Wagyu Beef Patty, American Cheese, Onion Ring, BBQ Sauce on a Brioche Bun), Thai Cashew Wings (Five Tempura Battered Wings, Cajun Spice, Garlic, Thai Chili Glaze, topped w/Roasted Cashews, served w/side of Ranch), Birria Street Tacos (Two Braised Tri-Tip Tacos w/Cilantro, Onion, Limes &amp; Salsa Verde), BBQ Flatbread (House Flatbread, Carnitas, Sausage, BBQ Sauce, Jack Cheese, Ranch Drizzle) / $10 Liberty Call Poutine (Hand Cut Fries, Queso Blanco Sauce, Demi-Glace, Cilantro, topped w/Choice of Birria or Carnitas)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Draft Cocktails, Sangria, Vodka, Rum, Bourbon &amp; Well Drinks / $3 Off All Craft Cocktails $8 Ballpark Burger (1/3 lb. Wagyu Beef Patty, American Cheese, Onion Ring, BBQ Sauce on a Brioche Bun), Thai Cashew Wings (Five Tempura Battered Wings, Cajun Spice, Garlic, Thai Chili Glaze, topped w/Roasted Cashews, served w/side of Ranch), Birria Street Tacos (Two Braised Tri-Tip Tacos w/Cilantro, Onion, Limes &amp; Salsa Verde), BBQ Flatbread (House Flatbread, Carnitas, Sausage, BBQ Sauce, Jack Cheese, Ranch Drizzle) / $10 Liberty Call Poutine (Hand Cut Fries, Queso Blanco Sauce, Demi-Glace, Cilantro, topped w/Choice of Birria or Carnitas)</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Draft Cocktails, Sangria, Vodka, Rum, Bourbon &amp; Well Drinks / $3 Off All Craft Cocktails $8 Ballpark Burger (1/3 lb. Wagyu Beef Patty, American Cheese, Onion Ring, BBQ Sauce on a Brioche Bun), Thai Cashew Wings (Five Tempura Battered Wings, Cajun Spice, Garlic, Thai Chili Glaze, topped w/Roasted Cashews, served w/side of Ranch), Birria Street Tacos (Two Braised Tri-Tip Tacos w/Cilantro, Onion, Limes &amp; Salsa Verde), BBQ Flatbread (House Flatbread, Carnitas, Sausage, BBQ Sauce, Jack Cheese, Ranch Drizzle) / $10 Liberty Call Poutine (Hand Cut Fries, Queso Blanco Sauce, Demi-Glace, Cilantro, topped w/Choice of Birria or Carnitas)</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 4:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Draft Cocktails, Sangria, Vodka, Rum, Bourbon &amp; Well Drinks / $3 Off All Craft Cocktails $8 Ballpark Burger (1/3 lb. Wagyu Beef Patty, American Cheese, Onion Ring, BBQ Sauce on a Brioche Bun), Thai Cashew Wings (Five Tempura Battered Wings, Cajun Spice, Garlic, Thai Chili Glaze, topped w/Roasted Cashews, served w/side of Ranch), Birria Street Tacos (Two Braised Tri-Tip Tacos w/Cilantro, Onion, Limes &amp; Salsa Verde), BBQ Flatbread (House Flatbread, Carnitas, Sausage, BBQ Sauce, Jack Cheese, Ranch Drizzle) / $10 Liberty Call Poutine (Hand Cut Fries, Queso Blanco Sauce, Demi-Glace, Cilantro, topped w/Choice of Birria or Carnitas)</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Draft Cocktails, Sangria, Vodka, Rum, Bourbon &amp; Well Drinks / $3 Off All Craft Cocktails $8 Ballpark Burger (1/3 lb. Wagyu Beef Patty, American Cheese, Onion Ring, BBQ Sauce on a Brioche Bun), Thai Cashew Wings (Five Tempura Battered Wings, Cajun Spice, Garlic, Thai Chili Glaze, topped w/Roasted Cashews, served w/side of Ranch), Birria Street Tacos (Two Braised Tri-Tip Tacos w/Cilantro, Onion, Limes &amp; Salsa Verde), BBQ Flatbread (House Flatbread, Carnitas, Sausage, BBQ Sauce, Jack Cheese, Ranch Drizzle) / $10 Liberty Call Poutine (Hand Cut Fries, Queso Blanco Sauce, Demi-Glace, Cilantro, topped w/Choice of Birria or Carnitas)</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: Not Happy Hour Today deal: $2 Off All Draft Beer, Draft Cocktails, Sangria, Vodka, Rum, Bourbon &amp; Well Drinks / $3 Off All Craft Cocktails $8 Ballpark Burger (1/3 lb. Wagyu Beef Patty, American Cheese, Onion Ring, BBQ Sauce on a Brioche Bun), Thai Cashew Wings (Five Tempura Battered Wings, Cajun Spice, Garlic, Thai Chili Glaze, topped w/Roasted Cashews, served w/side of Ranch), Birria Street Tacos (Two Braised Tri-Tip Tacos w/Cilantro, Onion, Limes &amp; Salsa Verde), BBQ Flatbread (House Flatbread, Carnitas, Sausage, BBQ Sauce, Jack Cheese, Ranch Drizzle) / $10 Liberty Call Poutine (Hand Cut Fries, Queso Blanco Sauce, Demi-Glace, Cilantro, topped w/Choice of Birria or Carnitas)</t>
+          <t>Bussines hour: 12:00 PM -  9:00 PM Happy hour: Not Happy Hour Today deal: $2 Off All Draft Beer, Draft Cocktails, Sangria, Vodka, Rum, Bourbon &amp; Well Drinks / $3 Off All Craft Cocktails $8 Ballpark Burger (1/3 lb. Wagyu Beef Patty, American Cheese, Onion Ring, BBQ Sauce on a Brioche Bun), Thai Cashew Wings (Five Tempura Battered Wings, Cajun Spice, Garlic, Thai Chili Glaze, topped w/Roasted Cashews, served w/side of Ranch), Birria Street Tacos (Two Braised Tri-Tip Tacos w/Cilantro, Onion, Limes &amp; Salsa Verde), BBQ Flatbread (House Flatbread, Carnitas, Sausage, BBQ Sauce, Jack Cheese, Ranch Drizzle) / $10 Liberty Call Poutine (Hand Cut Fries, Queso Blanco Sauce, Demi-Glace, Cilantro, topped w/Choice of Birria or Carnitas)</t>
         </is>
       </c>
     </row>
@@ -838,37 +838,37 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Bussines hour: 9 Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 9:00 AM - 12:00 AM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 4:00 PM -  6:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: $1 Off All Drafts, Wells &amp; House Wines $8 Select Appetizers</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: $1 Off All Drafts, Wells &amp; House Wines $8 Select Appetizers</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: $1 Off All Drafts, Wells &amp; House Wines $8 Select Appetizers</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: $1 Off All Drafts, Wells &amp; House Wines $8 Select Appetizers</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 4:00 PM -  6:00 PM Today deal: $1 Off All Drafts, Wells &amp; House Wines $8 Select Appetizers</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: $1 Off All Drafts, Wells &amp; House Wines $8 Select Appetizers</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 4:00 PM -  6:00 PM Today deal: $1 Off All Drafts, Wells &amp; House Wines $8 Select Appetizers</t>
+          <t>Bussines hour: 11:00 AM -  2:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: $1 Off All Drafts, Wells &amp; House Wines $8 Select Appetizers</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: Not Happy Hour Today deal: $1 Off All Drafts, Wells &amp; House Wines $8 Select Appetizers</t>
+          <t>Bussines hour: 9:00 AM -  2:00 AM Happy hour: Not Happy Hour Today deal: $1 Off All Drafts, Wells &amp; House Wines $8 Select Appetizers</t>
         </is>
       </c>
     </row>
@@ -893,37 +893,37 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 3:00 PM -  6:00 PM Today deal: $3 Off Wines By The Glass / $4 Select Bottled Greek Beers / $6 Draft Beer, Well Cocktails / $9 Premium Drinks (+$2 upgrade to Specialty) $6 Spreads w/Warm Pita Bread (Hummus, Tomato Basil Hummus, Cilantro Jalapeño Hummus, Baba Ghanoush, Tzatziki, Fiery Feta), Small Greek Salad / $7 Meze Fries, Meatballs, Falafel, Dolma (veg) / $8 Fiery Feta Mac &amp; Cheese (+$2 add bacon), Spanakopita, Two Greek Taco Combo (Chicken, Gyro, Steak, Lamb or Falafel  | +$1 add grecamole)</t>
+          <t>Bussines hour: 11:30 AM -  9:30 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $3 Off Wines By The Glass / $4 Select Bottled Greek Beers / $6 Draft Beer, Well Cocktails / $9 Premium Drinks (+$2 upgrade to Specialty) $6 Spreads w/Warm Pita Bread (Hummus, Tomato Basil Hummus, Cilantro Jalapeño Hummus, Baba Ghanoush, Tzatziki, Fiery Feta), Small Greek Salad / $7 Meze Fries, Meatballs, Falafel, Dolma (veg) / $8 Fiery Feta Mac &amp; Cheese (+$2 add bacon), Spanakopita, Two Greek Taco Combo (Chicken, Gyro, Steak, Lamb or Falafel  | +$1 add grecamole)</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 3:00 PM -  6:00 PM Today deal: $3 Off Wines By The Glass / $4 Select Bottled Greek Beers / $6 Draft Beer, Well Cocktails / $9 Premium Drinks (+$2 upgrade to Specialty) $6 Spreads w/Warm Pita Bread (Hummus, Tomato Basil Hummus, Cilantro Jalapeño Hummus, Baba Ghanoush, Tzatziki, Fiery Feta), Small Greek Salad / $7 Meze Fries, Meatballs, Falafel, Dolma (veg) / $8 Fiery Feta Mac &amp; Cheese (+$2 add bacon), Spanakopita, Two Greek Taco Combo (Chicken, Gyro, Steak, Lamb or Falafel  | +$1 add grecamole)</t>
+          <t>Bussines hour: 11:30 AM -  9:30 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $3 Off Wines By The Glass / $4 Select Bottled Greek Beers / $6 Draft Beer, Well Cocktails / $9 Premium Drinks (+$2 upgrade to Specialty) $6 Spreads w/Warm Pita Bread (Hummus, Tomato Basil Hummus, Cilantro Jalapeño Hummus, Baba Ghanoush, Tzatziki, Fiery Feta), Small Greek Salad / $7 Meze Fries, Meatballs, Falafel, Dolma (veg) / $8 Fiery Feta Mac &amp; Cheese (+$2 add bacon), Spanakopita, Two Greek Taco Combo (Chicken, Gyro, Steak, Lamb or Falafel  | +$1 add grecamole)</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $3 Off Wines By The Glass / $4 Select Bottled Greek Beers / $6 Draft Beer, Well Cocktails / $9 Premium Drinks (+$2 upgrade to Specialty) $6 Spreads w/Warm Pita Bread (Hummus, Tomato Basil Hummus, Cilantro Jalapeño Hummus, Baba Ghanoush, Tzatziki, Fiery Feta), Small Greek Salad / $7 Meze Fries, Meatballs, Falafel, Dolma (veg) / $8 Fiery Feta Mac &amp; Cheese (+$2 add bacon), Spanakopita, Two Greek Taco Combo (Chicken, Gyro, Steak, Lamb or Falafel  | +$1 add grecamole)</t>
+          <t>Bussines hour: 11:30 AM -  9:30 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $3 Off Wines By The Glass / $4 Select Bottled Greek Beers / $6 Draft Beer, Well Cocktails / $9 Premium Drinks (+$2 upgrade to Specialty) $6 Spreads w/Warm Pita Bread (Hummus, Tomato Basil Hummus, Cilantro Jalapeño Hummus, Baba Ghanoush, Tzatziki, Fiery Feta), Small Greek Salad / $7 Meze Fries, Meatballs, Falafel, Dolma (veg) / $8 Fiery Feta Mac &amp; Cheese (+$2 add bacon), Spanakopita, Two Greek Taco Combo (Chicken, Gyro, Steak, Lamb or Falafel  | +$1 add grecamole)</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Bussines hour: 3 Happy hour: 3:00 PM -  6:00 PM Today deal: $3 Off Wines By The Glass / $4 Select Bottled Greek Beers / $6 Draft Beer, Well Cocktails / $9 Premium Drinks (+$2 upgrade to Specialty) $6 Spreads w/Warm Pita Bread (Hummus, Tomato Basil Hummus, Cilantro Jalapeño Hummus, Baba Ghanoush, Tzatziki, Fiery Feta), Small Greek Salad / $7 Meze Fries, Meatballs, Falafel, Dolma (veg) / $8 Fiery Feta Mac &amp; Cheese (+$2 add bacon), Spanakopita, Two Greek Taco Combo (Chicken, Gyro, Steak, Lamb or Falafel  | +$1 add grecamole)</t>
+          <t>Bussines hour: 11:30 AM -  9:30 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $3 Off Wines By The Glass / $4 Select Bottled Greek Beers / $6 Draft Beer, Well Cocktails / $9 Premium Drinks (+$2 upgrade to Specialty) $6 Spreads w/Warm Pita Bread (Hummus, Tomato Basil Hummus, Cilantro Jalapeño Hummus, Baba Ghanoush, Tzatziki, Fiery Feta), Small Greek Salad / $7 Meze Fries, Meatballs, Falafel, Dolma (veg) / $8 Fiery Feta Mac &amp; Cheese (+$2 add bacon), Spanakopita, Two Greek Taco Combo (Chicken, Gyro, Steak, Lamb or Falafel  | +$1 add grecamole)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $3 Off Wines By The Glass / $4 Select Bottled Greek Beers / $6 Draft Beer, Well Cocktails / $9 Premium Drinks (+$2 upgrade to Specialty) $6 Spreads w/Warm Pita Bread (Hummus, Tomato Basil Hummus, Cilantro Jalapeño Hummus, Baba Ghanoush, Tzatziki, Fiery Feta), Small Greek Salad / $7 Meze Fries, Meatballs, Falafel, Dolma (veg) / $8 Fiery Feta Mac &amp; Cheese (+$2 add bacon), Spanakopita, Two Greek Taco Combo (Chicken, Gyro, Steak, Lamb or Falafel  | +$1 add grecamole)</t>
+          <t>Bussines hour: 11:30 AM -  9:30 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $3 Off Wines By The Glass / $4 Select Bottled Greek Beers / $6 Draft Beer, Well Cocktails / $9 Premium Drinks (+$2 upgrade to Specialty) $6 Spreads w/Warm Pita Bread (Hummus, Tomato Basil Hummus, Cilantro Jalapeño Hummus, Baba Ghanoush, Tzatziki, Fiery Feta), Small Greek Salad / $7 Meze Fries, Meatballs, Falafel, Dolma (veg) / $8 Fiery Feta Mac &amp; Cheese (+$2 add bacon), Spanakopita, Two Greek Taco Combo (Chicken, Gyro, Steak, Lamb or Falafel  | +$1 add grecamole)</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $3 Off Wines By The Glass / $4 Select Bottled Greek Beers / $6 Draft Beer, Well Cocktails / $9 Premium Drinks (+$2 upgrade to Specialty) $6 Spreads w/Warm Pita Bread (Hummus, Tomato Basil Hummus, Cilantro Jalapeño Hummus, Baba Ghanoush, Tzatziki, Fiery Feta), Small Greek Salad / $7 Meze Fries, Meatballs, Falafel, Dolma (veg) / $8 Fiery Feta Mac &amp; Cheese (+$2 add bacon), Spanakopita, Two Greek Taco Combo (Chicken, Gyro, Steak, Lamb or Falafel  | +$1 add grecamole)</t>
+          <t>Bussines hour: 11:30 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $3 Off Wines By The Glass / $4 Select Bottled Greek Beers / $6 Draft Beer, Well Cocktails / $9 Premium Drinks (+$2 upgrade to Specialty) $6 Spreads w/Warm Pita Bread (Hummus, Tomato Basil Hummus, Cilantro Jalapeño Hummus, Baba Ghanoush, Tzatziki, Fiery Feta), Small Greek Salad / $7 Meze Fries, Meatballs, Falafel, Dolma (veg) / $8 Fiery Feta Mac &amp; Cheese (+$2 add bacon), Spanakopita, Two Greek Taco Combo (Chicken, Gyro, Steak, Lamb or Falafel  | +$1 add grecamole)</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: Not Happy Hour Today deal: $3 Off Wines By The Glass / $4 Select Bottled Greek Beers / $6 Draft Beer, Well Cocktails / $9 Premium Drinks (+$2 upgrade to Specialty) $6 Spreads w/Warm Pita Bread (Hummus, Tomato Basil Hummus, Cilantro Jalapeño Hummus, Baba Ghanoush, Tzatziki, Fiery Feta), Small Greek Salad / $7 Meze Fries, Meatballs, Falafel, Dolma (veg) / $8 Fiery Feta Mac &amp; Cheese (+$2 add bacon), Spanakopita, Two Greek Taco Combo (Chicken, Gyro, Steak, Lamb or Falafel  | +$1 add grecamole)</t>
+          <t>Bussines hour: 11:30 AM - 12:00 AM Happy hour: Not Happy Hour Today deal: $3 Off Wines By The Glass / $4 Select Bottled Greek Beers / $6 Draft Beer, Well Cocktails / $9 Premium Drinks (+$2 upgrade to Specialty) $6 Spreads w/Warm Pita Bread (Hummus, Tomato Basil Hummus, Cilantro Jalapeño Hummus, Baba Ghanoush, Tzatziki, Fiery Feta), Small Greek Salad / $7 Meze Fries, Meatballs, Falafel, Dolma (veg) / $8 Fiery Feta Mac &amp; Cheese (+$2 add bacon), Spanakopita, Two Greek Taco Combo (Chicken, Gyro, Steak, Lamb or Falafel  | +$1 add grecamole)</t>
         </is>
       </c>
     </row>
@@ -948,37 +948,37 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 4:00 PM -  5:30 PM Today deal: $4 Housemade Chips &amp; Salsa / $5 Basket Of Fries / $8 Stacked Nachos, Cheesy Bacon Fries, Quesadilla, Petite A La Fresca Salad / $10 Beer-BQ Bird Dog / $11 Brew House Burger (1/3 lb)</t>
+          <t>Bussines hour: 10:00 AM -  9:00 PM Happy hour: 4:00 PM -  5:30 PM Today deal: $4 Housemade Chips &amp; Salsa / $5 Basket Of Fries / $8 Stacked Nachos, Cheesy Bacon Fries, Quesadilla, Petite A La Fresca Salad / $10 Beer-BQ Bird Dog / $11 Brew House Burger (1/3 lb)</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Bussines hour: 2 Happy hour: Closed Today deal: $4 Housemade Chips &amp; Salsa / $5 Basket Of Fries / $8 Stacked Nachos, Cheesy Bacon Fries, Quesadilla, Petite A La Fresca Salad / $10 Beer-BQ Bird Dog / $11 Brew House Burger (1/3 lb)</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: Closed Today deal: Closed</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  5:30 PM Today deal: Closed</t>
+          <t>Bussines hour: 12:00 PM -  9:00 PM Happy hour: 4:00 PM -  5:30 PM Today deal: Closed</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  5:30 PM Today deal: $4 Housemade Chips &amp; Salsa / $5 Basket Of Fries / $8 Stacked Nachos, Cheesy Bacon Fries, Quesadilla, Petite A La Fresca Salad / $10 Beer-BQ Bird Dog / $11 Brew House Burger (1/3 lb)</t>
+          <t>Bussines hour: 12:00 PM -  9:00 PM Happy hour: 4:00 PM -  5:30 PM Today deal: $4 Housemade Chips &amp; Salsa / $5 Basket Of Fries / $8 Stacked Nachos, Cheesy Bacon Fries, Quesadilla, Petite A La Fresca Salad / $10 Beer-BQ Bird Dog / $11 Brew House Burger (1/3 lb)</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 4:00 PM -  5:30 PM Today deal: $4 Housemade Chips &amp; Salsa / $5 Basket Of Fries / $8 Stacked Nachos, Cheesy Bacon Fries, Quesadilla, Petite A La Fresca Salad / $10 Beer-BQ Bird Dog / $11 Brew House Burger (1/3 lb)</t>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: 4:00 PM -  5:30 PM Today deal: $4 Housemade Chips &amp; Salsa / $5 Basket Of Fries / $8 Stacked Nachos, Cheesy Bacon Fries, Quesadilla, Petite A La Fresca Salad / $10 Beer-BQ Bird Dog / $11 Brew House Burger (1/3 lb)</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 4:00 PM -  5:30 PM Today deal: $4 Housemade Chips &amp; Salsa / $5 Basket Of Fries / $8 Stacked Nachos, Cheesy Bacon Fries, Quesadilla, Petite A La Fresca Salad / $10 Beer-BQ Bird Dog / $11 Brew House Burger (1/3 lb)</t>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: 4:00 PM -  5:30 PM Today deal: $4 Housemade Chips &amp; Salsa / $5 Basket Of Fries / $8 Stacked Nachos, Cheesy Bacon Fries, Quesadilla, Petite A La Fresca Salad / $10 Beer-BQ Bird Dog / $11 Brew House Burger (1/3 lb)</t>
         </is>
       </c>
     </row>
@@ -1003,37 +1003,37 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 11:00 AM -  9:00 PM Today deal: $10 Tropical Sangria</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 11:00 AM -  9:00 PM Today deal: $10 Tropical Sangria</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 3:00 PM -  6:00 PM Today deal: $10 Tropical Sangria</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $10 Tropical Sangria</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $5.50 14oz. Draft Beers (+$1 Sculpin), Well Drinks, Fireball Shots / $6.50 Jameson Shot, House Margaritas: Lime, Strawberry, Mango, Red Raspberry / $7.50 Tito's Vodka, Wine by the Glass, Jack Daniels, 25oz. Draft Beer (+$1.50 Sculpin) / $8.50 Moscow Mule, Mai Tai, Tropical Sangria, Long Island Tea $5.50 Mexican Street Corn, Chili Lime Fries, Taco: Blackened Fish, Chingones or Short Rib / $6.50 Quesadilla Reyados, Guacamole &amp; Chips, Street Tacos (4): Carne Asada, Grilled Chicken or Shredded Pork / $7.50 Nashville Hot Cauliflower, Queso Fundido, Cheese Quesadilla Especial / $8.50 Ahi Tuna Tostada, Tequila Lime Shrimp, Steamed Mussels w/Garlic Toast / $9.50 Bacon Wrapped Shrimp, Rockin' Works Burger &amp; Fries, Lobster &amp; Shrimp Bites, Carne Asada Fries, Crispy Calamari</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5.50 14oz. Draft Beers (+$1 Sculpin), Well Drinks, Fireball Shots / $6.50 Jameson Shot, House Margaritas: Lime, Strawberry, Mango, Red Raspberry / $7.50 Tito's Vodka, Wine by the Glass, Jack Daniels, 25oz. Draft Beer (+$1.50 Sculpin) / $8.50 Moscow Mule, Mai Tai, Tropical Sangria, Long Island Tea $5.50 Mexican Street Corn, Chili Lime Fries, Taco: Blackened Fish, Chingones or Short Rib / $6.50 Quesadilla Reyados, Guacamole &amp; Chips, Street Tacos (4): Carne Asada, Grilled Chicken or Shredded Pork / $7.50 Nashville Hot Cauliflower, Queso Fundido, Cheese Quesadilla Especial / $8.50 Ahi Tuna Tostada, Tequila Lime Shrimp, Steamed Mussels w/Garlic Toast / $9.50 Bacon Wrapped Shrimp, Rockin' Works Burger &amp; Fries, Lobster &amp; Shrimp Bites, Carne Asada Fries, Crispy Calamari</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $5.50 14oz. Draft Beers (+$1 Sculpin), Well Drinks, Fireball Shots / $6.50 Jameson Shot, House Margaritas: Lime, Strawberry, Mango, Red Raspberry / $7.50 Tito's Vodka, Wine by the Glass, Jack Daniels, 25oz. Draft Beer (+$1.50 Sculpin) / $8.50 Moscow Mule, Mai Tai, Tropical Sangria, Long Island Tea $5.50 Mexican Street Corn, Chili Lime Fries, Taco: Blackened Fish, Chingones or Short Rib / $6.50 Quesadilla Reyados, Guacamole &amp; Chips, Street Tacos (4): Carne Asada, Grilled Chicken or Shredded Pork / $7.50 Nashville Hot Cauliflower, Queso Fundido, Cheese Quesadilla Especial / $8.50 Ahi Tuna Tostada, Tequila Lime Shrimp, Steamed Mussels w/Garlic Toast / $9.50 Bacon Wrapped Shrimp, Rockin' Works Burger &amp; Fries, Lobster &amp; Shrimp Bites, Carne Asada Fries, Crispy Calamari</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5.50 14oz. Draft Beers (+$1 Sculpin), Well Drinks, Fireball Shots / $6.50 Jameson Shot, House Margaritas: Lime, Strawberry, Mango, Red Raspberry / $7.50 Tito's Vodka, Wine by the Glass, Jack Daniels, 25oz. Draft Beer (+$1.50 Sculpin) / $8.50 Moscow Mule, Mai Tai, Tropical Sangria, Long Island Tea $5.50 Mexican Street Corn, Chili Lime Fries, Taco: Blackened Fish, Chingones or Short Rib / $6.50 Quesadilla Reyados, Guacamole &amp; Chips, Street Tacos (4): Carne Asada, Grilled Chicken or Shredded Pork / $7.50 Nashville Hot Cauliflower, Queso Fundido, Cheese Quesadilla Especial / $8.50 Ahi Tuna Tostada, Tequila Lime Shrimp, Steamed Mussels w/Garlic Toast / $9.50 Bacon Wrapped Shrimp, Rockin' Works Burger &amp; Fries, Lobster &amp; Shrimp Bites, Carne Asada Fries, Crispy Calamari</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $5.50 14oz. Draft Beers (+$1 Sculpin), Well Drinks, Fireball Shots / $6.50 Jameson Shot, House Margaritas: Lime, Strawberry, Mango, Red Raspberry / $7.50 Tito's Vodka, Wine by the Glass, Jack Daniels, 25oz. Draft Beer (+$1.50 Sculpin) / $8.50 Moscow Mule, Mai Tai, Tropical Sangria, Long Island Tea $5.50 Mexican Street Corn, Chili Lime Fries, Taco: Blackened Fish, Chingones or Short Rib / $6.50 Quesadilla Reyados, Guacamole &amp; Chips, Street Tacos (4): Carne Asada, Grilled Chicken or Shredded Pork / $7.50 Nashville Hot Cauliflower, Queso Fundido, Cheese Quesadilla Especial / $8.50 Ahi Tuna Tostada, Tequila Lime Shrimp, Steamed Mussels w/Garlic Toast / $9.50 Bacon Wrapped Shrimp, Rockin' Works Burger &amp; Fries, Lobster &amp; Shrimp Bites, Carne Asada Fries, Crispy Calamari</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5.50 14oz. Draft Beers (+$1 Sculpin), Well Drinks, Fireball Shots / $6.50 Jameson Shot, House Margaritas: Lime, Strawberry, Mango, Red Raspberry / $7.50 Tito's Vodka, Wine by the Glass, Jack Daniels, 25oz. Draft Beer (+$1.50 Sculpin) / $8.50 Moscow Mule, Mai Tai, Tropical Sangria, Long Island Tea $5.50 Mexican Street Corn, Chili Lime Fries, Taco: Blackened Fish, Chingones or Short Rib / $6.50 Quesadilla Reyados, Guacamole &amp; Chips, Street Tacos (4): Carne Asada, Grilled Chicken or Shredded Pork / $7.50 Nashville Hot Cauliflower, Queso Fundido, Cheese Quesadilla Especial / $8.50 Ahi Tuna Tostada, Tequila Lime Shrimp, Steamed Mussels w/Garlic Toast / $9.50 Bacon Wrapped Shrimp, Rockin' Works Burger &amp; Fries, Lobster &amp; Shrimp Bites, Carne Asada Fries, Crispy Calamari</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $5.50 14oz. Draft Beers (+$1 Sculpin), Well Drinks, Fireball Shots / $6.50 Jameson Shot, House Margaritas: Lime, Strawberry, Mango, Red Raspberry / $7.50 Tito's Vodka, Wine by the Glass, Jack Daniels, 25oz. Draft Beer (+$1.50 Sculpin) / $8.50 Moscow Mule, Mai Tai, Tropical Sangria, Long Island Tea $5.50 Mexican Street Corn, Chili Lime Fries, Taco: Blackened Fish, Chingones or Short Rib / $6.50 Quesadilla Reyados, Guacamole &amp; Chips, Street Tacos (4): Carne Asada, Grilled Chicken or Shredded Pork / $7.50 Nashville Hot Cauliflower, Queso Fundido, Cheese Quesadilla Especial / $8.50 Ahi Tuna Tostada, Tequila Lime Shrimp, Steamed Mussels w/Garlic Toast / $9.50 Bacon Wrapped Shrimp, Rockin' Works Burger &amp; Fries, Lobster &amp; Shrimp Bites, Carne Asada Fries, Crispy Calamari</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5.50 14oz. Draft Beers (+$1 Sculpin), Well Drinks, Fireball Shots / $6.50 Jameson Shot, House Margaritas: Lime, Strawberry, Mango, Red Raspberry / $7.50 Tito's Vodka, Wine by the Glass, Jack Daniels, 25oz. Draft Beer (+$1.50 Sculpin) / $8.50 Moscow Mule, Mai Tai, Tropical Sangria, Long Island Tea $5.50 Mexican Street Corn, Chili Lime Fries, Taco: Blackened Fish, Chingones or Short Rib / $6.50 Quesadilla Reyados, Guacamole &amp; Chips, Street Tacos (4): Carne Asada, Grilled Chicken or Shredded Pork / $7.50 Nashville Hot Cauliflower, Queso Fundido, Cheese Quesadilla Especial / $8.50 Ahi Tuna Tostada, Tequila Lime Shrimp, Steamed Mussels w/Garlic Toast / $9.50 Bacon Wrapped Shrimp, Rockin' Works Burger &amp; Fries, Lobster &amp; Shrimp Bites, Carne Asada Fries, Crispy Calamari</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 9:00 PM - 10:00 PM Today deal: $5.50 14oz. Draft Beers (+$1 Sculpin), Well Drinks, Fireball Shots / $6.50 Jameson Shot, House Margaritas: Lime, Strawberry, Mango, Red Raspberry / $7.50 Tito's Vodka, Wine by the Glass, Jack Daniels, 25oz. Draft Beer (+$1.50 Sculpin) / $8.50 Moscow Mule, Mai Tai, Tropical Sangria, Long Island Tea $5.50 Mexican Street Corn, Chili Lime Fries, Taco: Blackened Fish, Chingones or Short Rib / $6.50 Quesadilla Reyados, Guacamole &amp; Chips, Street Tacos (4): Carne Asada, Grilled Chicken or Shredded Pork / $7.50 Nashville Hot Cauliflower, Queso Fundido, Cheese Quesadilla Especial / $8.50 Ahi Tuna Tostada, Tequila Lime Shrimp, Steamed Mussels w/Garlic Toast / $9.50 Bacon Wrapped Shrimp, Rockin' Works Burger &amp; Fries, Lobster &amp; Shrimp Bites, Carne Asada Fries, Crispy Calamari</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 9:00 PM - 10:00 PM Today deal: $5.50 14oz. Draft Beers (+$1 Sculpin), Well Drinks, Fireball Shots / $6.50 Jameson Shot, House Margaritas: Lime, Strawberry, Mango, Red Raspberry / $7.50 Tito's Vodka, Wine by the Glass, Jack Daniels, 25oz. Draft Beer (+$1.50 Sculpin) / $8.50 Moscow Mule, Mai Tai, Tropical Sangria, Long Island Tea $5.50 Mexican Street Corn, Chili Lime Fries, Taco: Blackened Fish, Chingones or Short Rib / $6.50 Quesadilla Reyados, Guacamole &amp; Chips, Street Tacos (4): Carne Asada, Grilled Chicken or Shredded Pork / $7.50 Nashville Hot Cauliflower, Queso Fundido, Cheese Quesadilla Especial / $8.50 Ahi Tuna Tostada, Tequila Lime Shrimp, Steamed Mussels w/Garlic Toast / $9.50 Bacon Wrapped Shrimp, Rockin' Works Burger &amp; Fries, Lobster &amp; Shrimp Bites, Carne Asada Fries, Crispy Calamari</t>
         </is>
       </c>
     </row>
@@ -1058,37 +1058,37 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Bussines hour: 3 Happy hour: 3:30 PM -  7:00 PM Today deal: $2 Off Glasses Of Wine / $5 Beers $4.48 Onion Rings, Farm Fries, Fried Pickles, Mozzarella Sticks / $4.98 Curds / $5.48 Chicken Strips / $6.98 Sliders / $8.48 Wings (12) / $9.45 Wings (15)</t>
+          <t>Bussines hour: 7:00 AM -  9:00 PM Happy hour: 3:30 PM -  7:00 PM Today deal: $2 Off Glasses Of Wine / $5 Beers $4.48 Onion Rings, Farm Fries, Fried Pickles, Mozzarella Sticks / $4.98 Curds / $5.48 Chicken Strips / $6.98 Sliders / $8.48 Wings (12) / $9.45 Wings (15)</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: Not Happy Hour Today deal: $2 Off Glasses Of Wine / $5 Beers $4.48 Onion Rings, Farm Fries, Fried Pickles, Mozzarella Sticks / $4.98 Curds / $5.48 Chicken Strips / $6.98 Sliders / $8.48 Wings (12) / $9.45 Wings (15)</t>
+          <t>Bussines hour: 7:00 AM -  3:00 PM Happy hour: Not Happy Hour Today deal: $2 Off Glasses Of Wine / $5 Beers $4.48 Onion Rings, Farm Fries, Fried Pickles, Mozzarella Sticks / $4.98 Curds / $5.48 Chicken Strips / $6.98 Sliders / $8.48 Wings (12) / $9.45 Wings (15)</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:30 PM -  7:00 PM Today deal: $2 Off Glasses Of Wine / $5 Beers $4.48 Onion Rings, Farm Fries, Fried Pickles, Mozzarella Sticks / $4.98 Curds / $5.48 Chicken Strips / $6.98 Sliders / $8.48 Wings (12) / $9.45 Wings (15)</t>
+          <t>Bussines hour: 7:00 AM -  9:00 PM Happy hour: 3:30 PM -  7:00 PM Today deal: $2 Off Glasses Of Wine / $5 Beers $4.48 Onion Rings, Farm Fries, Fried Pickles, Mozzarella Sticks / $4.98 Curds / $5.48 Chicken Strips / $6.98 Sliders / $8.48 Wings (12) / $9.45 Wings (15)</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:30 PM -  7:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 7:00 AM -  9:00 PM Happy hour: 3:30 PM -  7:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:30 PM -  7:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 7:00 AM -  9:00 PM Happy hour: 3:30 PM -  7:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 3:30 PM -  7:00 PM Today deal: $2 Off Glasses Of Wine / $5 Beers $4.48 Onion Rings, Farm Fries, Fried Pickles, Mozzarella Sticks / $4.98 Curds / $5.48 Chicken Strips / $6.98 Sliders / $8.48 Wings (12) / $9.45 Wings (15)</t>
+          <t>Bussines hour: 7:00 AM -  9:00 PM Happy hour: 3:30 PM -  7:00 PM Today deal: $2 Off Glasses Of Wine / $5 Beers $4.48 Onion Rings, Farm Fries, Fried Pickles, Mozzarella Sticks / $4.98 Curds / $5.48 Chicken Strips / $6.98 Sliders / $8.48 Wings (12) / $9.45 Wings (15)</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: 3:30 PM -  7:00 PM Today deal: $2 Off Glasses Of Wine / $5 Beers $4.48 Onion Rings, Farm Fries, Fried Pickles, Mozzarella Sticks / $4.98 Curds / $5.48 Chicken Strips / $6.98 Sliders / $8.48 Wings (12) / $9.45 Wings (15)</t>
+          <t>Bussines hour: 7:00 AM -  9:00 PM Happy hour: 3:30 PM -  7:00 PM Today deal: $2 Off Glasses Of Wine / $5 Beers $4.48 Onion Rings, Farm Fries, Fried Pickles, Mozzarella Sticks / $4.98 Curds / $5.48 Chicken Strips / $6.98 Sliders / $8.48 Wings (12) / $9.45 Wings (15)</t>
         </is>
       </c>
     </row>
@@ -1113,37 +1113,37 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Bussines hour: 9 Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+          <t>Bussines hour: 9:30 AM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+          <t>Bussines hour: 3:00 PM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Bussines hour: 3 Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+          <t>Bussines hour: 3:00 PM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+          <t>Bussines hour: 9:30 AM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+          <t>Bussines hour: 9:30 AM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+          <t>Bussines hour: 9:30 AM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+          <t>Bussines hour: 9:30 AM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
     </row>
@@ -1168,41 +1168,41 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 11:00 AM -  8:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 11:00 AM -  8:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Non-Alcoholic Beer / $6 Draft Pints / $7 Draft Kombucha Pints, Draft Cider Pints / $9 Glass of Wine on
+          <t>Bussines hour: 11:00 AM -  8:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Non-Alcoholic Beer / $6 Draft Pints / $7 Draft Kombucha Pints, Draft Cider Pints / $9 Glass of Wine on
 Tap / $20 Draft Pitchers / $20 Carafes of Wine $2 Homemade Chips / $8 6-Piece Wings / $10 Sandwiches</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Non-Alcoholic Beer / $6 Draft Pints / $7 Draft Kombucha Pints, Draft Cider Pints / $9 Glass of Wine on
+          <t>Bussines hour: 11:00 AM -  8:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Non-Alcoholic Beer / $6 Draft Pints / $7 Draft Kombucha Pints, Draft Cider Pints / $9 Glass of Wine on
 Tap / $20 Draft Pitchers / $20 Carafes of Wine $2 Homemade Chips / $8 6-Piece Wings / $10 Sandwiches</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Non-Alcoholic Beer / $6 Draft Pints / $7 Draft Kombucha Pints, Draft Cider Pints / $9 Glass of Wine on
+          <t>Bussines hour: 11:00 AM -  8:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Non-Alcoholic Beer / $6 Draft Pints / $7 Draft Kombucha Pints, Draft Cider Pints / $9 Glass of Wine on
 Tap / $20 Draft Pitchers / $20 Carafes of Wine $2 Homemade Chips / $8 6-Piece Wings / $10 Sandwiches</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Non-Alcoholic Beer / $6 Draft Pints / $7 Draft Kombucha Pints, Draft Cider Pints / $9 Glass of Wine on
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Non-Alcoholic Beer / $6 Draft Pints / $7 Draft Kombucha Pints, Draft Cider Pints / $9 Glass of Wine on
 Tap / $20 Draft Pitchers / $20 Carafes of Wine $2 Homemade Chips / $8 6-Piece Wings / $10 Sandwiches</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: Not Happy Hour Today deal: $4 Non-Alcoholic Beer / $6 Draft Pints / $7 Draft Kombucha Pints, Draft Cider Pints / $9 Glass of Wine on
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: Not Happy Hour Today deal: $4 Non-Alcoholic Beer / $6 Draft Pints / $7 Draft Kombucha Pints, Draft Cider Pints / $9 Glass of Wine on
 Tap / $20 Draft Pitchers / $20 Carafes of Wine $2 Homemade Chips / $8 6-Piece Wings / $10 Sandwiches</t>
         </is>
       </c>
@@ -1228,37 +1228,37 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Bussines hour: 3 Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 4:00 PM -  8:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: Closed Today deal: No Specials</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Bussines hour: 3 Happy hour: 3:00 PM -  6:00 PM Today deal: Closed</t>
+          <t>Bussines hour: 11:00 AM -  8:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: Closed</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Beer / $7 Glass of House White or Red, Well Drinks $7 Truffle Parmesan Fries, Parmesan Cheese Bread / $9 Beef Tenderloin Street Tacos (3) w/Chipotle Crema, Pickled Red Onions &amp; Micro Cilantro / $10 Potato Skins w/Ranch Dressing / $13 Crispy Calamari w/Spicy Marinara &amp; Aioli / $15 Artichoke Crab Cakes w/Roasted Red Bell Pepper Aioli, Steamed Mussels w/Lemon Thyme Cream / $20 Charbroiled Oysters On The Half Shell (6)</t>
+          <t>Bussines hour: 11:00 AM -  8:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Beer / $7 Glass of House White or Red, Well Drinks $7 Truffle Parmesan Fries, Parmesan Cheese Bread / $9 Beef Tenderloin Street Tacos (3) w/Chipotle Crema, Pickled Red Onions &amp; Micro Cilantro / $10 Potato Skins w/Ranch Dressing / $13 Crispy Calamari w/Spicy Marinara &amp; Aioli / $15 Artichoke Crab Cakes w/Roasted Red Bell Pepper Aioli, Steamed Mussels w/Lemon Thyme Cream / $20 Charbroiled Oysters On The Half Shell (6)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Beer / $7 Glass of House White or Red, Well Drinks $7 Truffle Parmesan Fries, Parmesan Cheese Bread / $9 Beef Tenderloin Street Tacos (3) w/Chipotle Crema, Pickled Red Onions &amp; Micro Cilantro / $10 Potato Skins w/Ranch Dressing / $13 Crispy Calamari w/Spicy Marinara &amp; Aioli / $15 Artichoke Crab Cakes w/Roasted Red Bell Pepper Aioli, Steamed Mussels w/Lemon Thyme Cream / $20 Charbroiled Oysters On The Half Shell (6)</t>
+          <t>Bussines hour: 11:00 AM -  8:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Beer / $7 Glass of House White or Red, Well Drinks $7 Truffle Parmesan Fries, Parmesan Cheese Bread / $9 Beef Tenderloin Street Tacos (3) w/Chipotle Crema, Pickled Red Onions &amp; Micro Cilantro / $10 Potato Skins w/Ranch Dressing / $13 Crispy Calamari w/Spicy Marinara &amp; Aioli / $15 Artichoke Crab Cakes w/Roasted Red Bell Pepper Aioli, Steamed Mussels w/Lemon Thyme Cream / $20 Charbroiled Oysters On The Half Shell (6)</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Beer / $7 Glass of House White or Red, Well Drinks $7 Truffle Parmesan Fries, Parmesan Cheese Bread / $9 Beef Tenderloin Street Tacos (3) w/Chipotle Crema, Pickled Red Onions &amp; Micro Cilantro / $10 Potato Skins w/Ranch Dressing / $13 Crispy Calamari w/Spicy Marinara &amp; Aioli / $15 Artichoke Crab Cakes w/Roasted Red Bell Pepper Aioli, Steamed Mussels w/Lemon Thyme Cream / $20 Charbroiled Oysters On The Half Shell (6)</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Beer / $7 Glass of House White or Red, Well Drinks $7 Truffle Parmesan Fries, Parmesan Cheese Bread / $9 Beef Tenderloin Street Tacos (3) w/Chipotle Crema, Pickled Red Onions &amp; Micro Cilantro / $10 Potato Skins w/Ranch Dressing / $13 Crispy Calamari w/Spicy Marinara &amp; Aioli / $15 Artichoke Crab Cakes w/Roasted Red Bell Pepper Aioli, Steamed Mussels w/Lemon Thyme Cream / $20 Charbroiled Oysters On The Half Shell (6)</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: Not Happy Hour Today deal: $2 Off All Beer / $7 Glass of House White or Red, Well Drinks $7 Truffle Parmesan Fries, Parmesan Cheese Bread / $9 Beef Tenderloin Street Tacos (3) w/Chipotle Crema, Pickled Red Onions &amp; Micro Cilantro / $10 Potato Skins w/Ranch Dressing / $13 Crispy Calamari w/Spicy Marinara &amp; Aioli / $15 Artichoke Crab Cakes w/Roasted Red Bell Pepper Aioli, Steamed Mussels w/Lemon Thyme Cream / $20 Charbroiled Oysters On The Half Shell (6)</t>
+          <t>Bussines hour: 4:00 PM -  9:00 PM Happy hour: Not Happy Hour Today deal: $2 Off All Beer / $7 Glass of House White or Red, Well Drinks $7 Truffle Parmesan Fries, Parmesan Cheese Bread / $9 Beef Tenderloin Street Tacos (3) w/Chipotle Crema, Pickled Red Onions &amp; Micro Cilantro / $10 Potato Skins w/Ranch Dressing / $13 Crispy Calamari w/Spicy Marinara &amp; Aioli / $15 Artichoke Crab Cakes w/Roasted Red Bell Pepper Aioli, Steamed Mussels w/Lemon Thyme Cream / $20 Charbroiled Oysters On The Half Shell (6)</t>
         </is>
       </c>
     </row>
@@ -1283,37 +1283,37 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Bussines hour: 3 Happy hour: 9:00 AM -  3:00 PM Today deal: $8 Mimosa (OJ, Cranberry or Ribena) / $10 - $12 Signature Brunch Drinks / $20 Bottomless Mimosa $14 - $22 Brunch Menu</t>
+          <t>Bussines hour: 9:00 AM - 12:00 AM Happy hour: 9:00 AM -  3:00 PM Today deal: $8 Mimosa (OJ, Cranberry or Ribena) / $10 - $12 Signature Brunch Drinks / $20 Bottomless Mimosa $14 - $22 Brunch Menu</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  7:00 PM Today deal: $8 Mimosa (OJ, Cranberry or Ribena) / $10 - $12 Signature Brunch Drinks / $20 Bottomless Mimosa $14 - $22 Brunch Menu</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $8 Mimosa (OJ, Cranberry or Ribena) / $10 - $12 Signature Brunch Drinks / $20 Bottomless Mimosa $14 - $22 Brunch Menu</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $8 Mimosa (OJ, Cranberry or Ribena) / $10 - $12 Signature Brunch Drinks / $20 Bottomless Mimosa $14 - $22 Brunch Menu</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $8 Mimosa (OJ, Cranberry or Ribena) / $10 - $12 Signature Brunch Drinks / $20 Bottomless Mimosa $14 - $22 Brunch Menu</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off Specialty Cocktails / $6 Select 20oz. Draft Beer, House Wines &amp; Well Cocktails  $3 Black &amp; Blue Slider, Pub Burger Slider / $6 Curry Fries / $7 Irish Potato Skins / $15 Combo Platter: Irish Skins, Crispy Onion Rings, House Chips, Chicken Tenders</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off Specialty Cocktails / $6 Select 20oz. Draft Beer, House Wines &amp; Well Cocktails  $3 Black &amp; Blue Slider, Pub Burger Slider / $6 Curry Fries / $7 Irish Potato Skins / $15 Combo Platter: Irish Skins, Crispy Onion Rings, House Chips, Chicken Tenders</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off Specialty Cocktails / $6 Select 20oz. Draft Beer, House Wines &amp; Well Cocktails  $3 Black &amp; Blue Slider, Pub Burger Slider / $6 Curry Fries / $7 Irish Potato Skins / $15 Combo Platter: Irish Skins, Crispy Onion Rings, House Chips, Chicken Tenders</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off Specialty Cocktails / $6 Select 20oz. Draft Beer, House Wines &amp; Well Cocktails  $3 Black &amp; Blue Slider, Pub Burger Slider / $6 Curry Fries / $7 Irish Potato Skins / $15 Combo Platter: Irish Skins, Crispy Onion Rings, House Chips, Chicken Tenders</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off Specialty Cocktails / $6 Select 20oz. Draft Beer, House Wines &amp; Well Cocktails  $3 Black &amp; Blue Slider, Pub Burger Slider / $6 Curry Fries / $7 Irish Potato Skins / $15 Combo Platter: Irish Skins, Crispy Onion Rings, House Chips, Chicken Tenders</t>
+          <t>Bussines hour: 11:00 AM -  2:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off Specialty Cocktails / $6 Select 20oz. Draft Beer, House Wines &amp; Well Cocktails  $3 Black &amp; Blue Slider, Pub Burger Slider / $6 Curry Fries / $7 Irish Potato Skins / $15 Combo Platter: Irish Skins, Crispy Onion Rings, House Chips, Chicken Tenders</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: 9:00 AM -  3:00 PM Today deal: $2 Off Specialty Cocktails / $6 Select 20oz. Draft Beer, House Wines &amp; Well Cocktails  $3 Black &amp; Blue Slider, Pub Burger Slider / $6 Curry Fries / $7 Irish Potato Skins / $15 Combo Platter: Irish Skins, Crispy Onion Rings, House Chips, Chicken Tenders</t>
+          <t>Bussines hour: 9:00 AM -  2:00 AM Happy hour: 9:00 AM -  3:00 PM Today deal: $2 Off Specialty Cocktails / $6 Select 20oz. Draft Beer, House Wines &amp; Well Cocktails  $3 Black &amp; Blue Slider, Pub Burger Slider / $6 Curry Fries / $7 Irish Potato Skins / $15 Combo Platter: Irish Skins, Crispy Onion Rings, House Chips, Chicken Tenders</t>
         </is>
       </c>
     </row>
@@ -1338,37 +1338,37 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Bussines hour: 3 Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 12:00 PM -  6:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  5:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  5:00 PM Today deal: $1 Off All Pints</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $1 Off All Pints</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  5:00 PM Today deal: $1 Off All Pints</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $1 Off All Pints</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  5:00 PM Today deal: $1 Off All Pints $4+ Craft Tacos</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $1 Off All Pints $4+ Craft Tacos</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 3:00 PM -  5:00 PM Today deal: $1 Off All Pints $4+ Craft Tacos</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $1 Off All Pints $4+ Craft Tacos</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: Not Happy Hour Today deal: $1 Off All Pints $4+ Craft Tacos</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: Not Happy Hour Today deal: $1 Off All Pints $4+ Craft Tacos</t>
         </is>
       </c>
     </row>
@@ -1393,37 +1393,37 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 11:30 AM -  9:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 3:30 PM -  5:30 PM Today deal: No Specials</t>
+          <t>Bussines hour: 11:30 AM -  9:00 PM Happy hour: 3:30 PM -  5:30 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:30 PM -  5:30 PM Today deal: $6 Select Draft &amp; Bottled Beer / $10 House Red or White Wine by the Glass, Signature Cocktails $10 Appetizers: Caesar Salad, Coasterra Guacamole, Potato Flautas, Crispy Masa Calamari, Ceviche Clasico</t>
+          <t>Bussines hour: 11:30 AM -  9:00 PM Happy hour: 3:30 PM -  5:30 PM Today deal: $6 Select Draft &amp; Bottled Beer / $10 House Red or White Wine by the Glass, Signature Cocktails $10 Appetizers: Caesar Salad, Coasterra Guacamole, Potato Flautas, Crispy Masa Calamari, Ceviche Clasico</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Bussines hour: 3 Happy hour: 3:30 PM -  5:30 PM Today deal: $6 Select Draft &amp; Bottled Beer / $10 House Red or White Wine by the Glass, Signature Cocktails $10 Appetizers: Caesar Salad, Coasterra Guacamole, Potato Flautas, Crispy Masa Calamari, Ceviche Clasico</t>
+          <t>Bussines hour: 11:30 AM -  9:00 PM Happy hour: 3:30 PM -  5:30 PM Today deal: $6 Select Draft &amp; Bottled Beer / $10 House Red or White Wine by the Glass, Signature Cocktails $10 Appetizers: Caesar Salad, Coasterra Guacamole, Potato Flautas, Crispy Masa Calamari, Ceviche Clasico</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:30 PM -  5:30 PM Today deal: $6 Select Draft &amp; Bottled Beer / $10 House Red or White Wine by the Glass, Signature Cocktails $10 Appetizers: Caesar Salad, Coasterra Guacamole, Potato Flautas, Crispy Masa Calamari, Ceviche Clasico</t>
+          <t>Bussines hour: 11:30 AM -  9:00 PM Happy hour: 3:30 PM -  5:30 PM Today deal: $6 Select Draft &amp; Bottled Beer / $10 House Red or White Wine by the Glass, Signature Cocktails $10 Appetizers: Caesar Salad, Coasterra Guacamole, Potato Flautas, Crispy Masa Calamari, Ceviche Clasico</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:30 PM -  5:30 PM Today deal: $6 Select Draft &amp; Bottled Beer / $10 House Red or White Wine by the Glass, Signature Cocktails $10 Appetizers: Caesar Salad, Coasterra Guacamole, Potato Flautas, Crispy Masa Calamari, Ceviche Clasico</t>
+          <t>Bussines hour: 11:30 AM -  9:00 PM Happy hour: 3:30 PM -  5:30 PM Today deal: $6 Select Draft &amp; Bottled Beer / $10 House Red or White Wine by the Glass, Signature Cocktails $10 Appetizers: Caesar Salad, Coasterra Guacamole, Potato Flautas, Crispy Masa Calamari, Ceviche Clasico</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: Not Happy Hour Today deal: $6 Select Draft &amp; Bottled Beer / $10 House Red or White Wine by the Glass, Signature Cocktails $10 Appetizers: Caesar Salad, Coasterra Guacamole, Potato Flautas, Crispy Masa Calamari, Ceviche Clasico</t>
+          <t>Bussines hour: 11:30 AM -  9:00 PM Happy hour: Not Happy Hour Today deal: $6 Select Draft &amp; Bottled Beer / $10 House Red or White Wine by the Glass, Signature Cocktails $10 Appetizers: Caesar Salad, Coasterra Guacamole, Potato Flautas, Crispy Masa Calamari, Ceviche Clasico</t>
         </is>
       </c>
     </row>
@@ -1448,37 +1448,37 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Bussines hour: 3 Happy hour: Closed Today deal: Closed</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 4:00 PM -  7:00 PM Today deal: $7 House Wine, Well Drinks, Draft Beer $8 Dobson’s Mussel Bisque en Croûte / $10 BBQ Wings Chops, Fresh Mozzarella Tempura Croquettes, Green Hummus Verde, Guacamole and Brie Bruschetta / $12 Dobson’s Bar Room Burger w/Fries, Pizza on the Bar, Les Escargots a’ la Bourguignonne / $14 Brie en Croute- Dry Fruits, Carne Cruda (Beef Tartare) / $15 Steamed Mediterranean Mussels / $16 Charcuterie Plate, L’ Assiette De Fromages</t>
+          <t>Bussines hour: 11:30 AM -  9:00 PM Happy hour: 4:00 PM -  7:00 PM Today deal: $7 House Wine, Well Drinks, Draft Beer $8 Dobson’s Mussel Bisque en Croûte / $10 BBQ Wings Chops, Fresh Mozzarella Tempura Croquettes, Green Hummus Verde, Guacamole and Brie Bruschetta / $12 Dobson’s Bar Room Burger w/Fries, Pizza on the Bar, Les Escargots a’ la Bourguignonne / $14 Brie en Croute- Dry Fruits, Carne Cruda (Beef Tartare) / $15 Steamed Mediterranean Mussels / $16 Charcuterie Plate, L’ Assiette De Fromages</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  7:00 PM Today deal: $7 House Wine, Well Drinks, Draft Beer $8 Dobson’s Mussel Bisque en Croûte / $10 BBQ Wings Chops, Fresh Mozzarella Tempura Croquettes, Green Hummus Verde, Guacamole and Brie Bruschetta / $12 Dobson’s Bar Room Burger w/Fries, Pizza on the Bar, Les Escargots a’ la Bourguignonne / $14 Brie en Croute- Dry Fruits, Carne Cruda (Beef Tartare) / $15 Steamed Mediterranean Mussels / $16 Charcuterie Plate, L’ Assiette De Fromages</t>
+          <t>Bussines hour: 11:30 AM -  9:00 PM Happy hour: 4:00 PM -  7:00 PM Today deal: $7 House Wine, Well Drinks, Draft Beer $8 Dobson’s Mussel Bisque en Croûte / $10 BBQ Wings Chops, Fresh Mozzarella Tempura Croquettes, Green Hummus Verde, Guacamole and Brie Bruschetta / $12 Dobson’s Bar Room Burger w/Fries, Pizza on the Bar, Les Escargots a’ la Bourguignonne / $14 Brie en Croute- Dry Fruits, Carne Cruda (Beef Tartare) / $15 Steamed Mediterranean Mussels / $16 Charcuterie Plate, L’ Assiette De Fromages</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  7:00 PM Today deal: $7 House Wine, Well Drinks, Draft Beer $8 Dobson’s Mussel Bisque en Croûte / $10 BBQ Wings Chops, Fresh Mozzarella Tempura Croquettes, Green Hummus Verde, Guacamole and Brie Bruschetta / $12 Dobson’s Bar Room Burger w/Fries, Pizza on the Bar, Les Escargots a’ la Bourguignonne / $14 Brie en Croute- Dry Fruits, Carne Cruda (Beef Tartare) / $15 Steamed Mediterranean Mussels / $16 Charcuterie Plate, L’ Assiette De Fromages</t>
+          <t>Bussines hour: 11:30 AM -  9:00 PM Happy hour: 4:00 PM -  7:00 PM Today deal: $7 House Wine, Well Drinks, Draft Beer $8 Dobson’s Mussel Bisque en Croûte / $10 BBQ Wings Chops, Fresh Mozzarella Tempura Croquettes, Green Hummus Verde, Guacamole and Brie Bruschetta / $12 Dobson’s Bar Room Burger w/Fries, Pizza on the Bar, Les Escargots a’ la Bourguignonne / $14 Brie en Croute- Dry Fruits, Carne Cruda (Beef Tartare) / $15 Steamed Mediterranean Mussels / $16 Charcuterie Plate, L’ Assiette De Fromages</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 4:00 PM -  7:00 PM Today deal: $7 House Wine, Well Drinks, Draft Beer $8 Dobson’s Mussel Bisque en Croûte / $10 BBQ Wings Chops, Fresh Mozzarella Tempura Croquettes, Green Hummus Verde, Guacamole and Brie Bruschetta / $12 Dobson’s Bar Room Burger w/Fries, Pizza on the Bar, Les Escargots a’ la Bourguignonne / $14 Brie en Croute- Dry Fruits, Carne Cruda (Beef Tartare) / $15 Steamed Mediterranean Mussels / $16 Charcuterie Plate, L’ Assiette De Fromages</t>
+          <t>Bussines hour: 11:30 AM -  9:00 PM Happy hour: 4:00 PM -  7:00 PM Today deal: $7 House Wine, Well Drinks, Draft Beer $8 Dobson’s Mussel Bisque en Croûte / $10 BBQ Wings Chops, Fresh Mozzarella Tempura Croquettes, Green Hummus Verde, Guacamole and Brie Bruschetta / $12 Dobson’s Bar Room Burger w/Fries, Pizza on the Bar, Les Escargots a’ la Bourguignonne / $14 Brie en Croute- Dry Fruits, Carne Cruda (Beef Tartare) / $15 Steamed Mediterranean Mussels / $16 Charcuterie Plate, L’ Assiette De Fromages</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 4:00 PM -  7:00 PM Today deal: $7 House Wine, Well Drinks, Draft Beer $8 Dobson’s Mussel Bisque en Croûte / $10 BBQ Wings Chops, Fresh Mozzarella Tempura Croquettes, Green Hummus Verde, Guacamole and Brie Bruschetta / $12 Dobson’s Bar Room Burger w/Fries, Pizza on the Bar, Les Escargots a’ la Bourguignonne / $14 Brie en Croute- Dry Fruits, Carne Cruda (Beef Tartare) / $15 Steamed Mediterranean Mussels / $16 Charcuterie Plate, L’ Assiette De Fromages</t>
+          <t>Bussines hour: 11:30 AM -  9:00 PM Happy hour: 4:00 PM -  7:00 PM Today deal: $7 House Wine, Well Drinks, Draft Beer $8 Dobson’s Mussel Bisque en Croûte / $10 BBQ Wings Chops, Fresh Mozzarella Tempura Croquettes, Green Hummus Verde, Guacamole and Brie Bruschetta / $12 Dobson’s Bar Room Burger w/Fries, Pizza on the Bar, Les Escargots a’ la Bourguignonne / $14 Brie en Croute- Dry Fruits, Carne Cruda (Beef Tartare) / $15 Steamed Mediterranean Mussels / $16 Charcuterie Plate, L’ Assiette De Fromages</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: Not Happy Hour Today deal: $7 House Wine, Well Drinks, Draft Beer $8 Dobson’s Mussel Bisque en Croûte / $10 BBQ Wings Chops, Fresh Mozzarella Tempura Croquettes, Green Hummus Verde, Guacamole and Brie Bruschetta / $12 Dobson’s Bar Room Burger w/Fries, Pizza on the Bar, Les Escargots a’ la Bourguignonne / $14 Brie en Croute- Dry Fruits, Carne Cruda (Beef Tartare) / $15 Steamed Mediterranean Mussels / $16 Charcuterie Plate, L’ Assiette De Fromages</t>
+          <t>Bussines hour: 3:00 PM -  9:00 PM Happy hour: Not Happy Hour Today deal: $7 House Wine, Well Drinks, Draft Beer $8 Dobson’s Mussel Bisque en Croûte / $10 BBQ Wings Chops, Fresh Mozzarella Tempura Croquettes, Green Hummus Verde, Guacamole and Brie Bruschetta / $12 Dobson’s Bar Room Burger w/Fries, Pizza on the Bar, Les Escargots a’ la Bourguignonne / $14 Brie en Croute- Dry Fruits, Carne Cruda (Beef Tartare) / $15 Steamed Mediterranean Mussels / $16 Charcuterie Plate, L’ Assiette De Fromages</t>
         </is>
       </c>
     </row>
@@ -1503,37 +1503,37 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Bussines hour: 4 Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 4:00 PM -  9:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: Closed Today deal: No Specials</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:30 PM -  5:30 PM Today deal: Closed</t>
+          <t>Bussines hour: 5:00 PM -  9:00 PM Happy hour: 3:30 PM -  5:30 PM Today deal: Closed</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:30 PM -  5:30 PM Today deal: $5 Bud Light / $6 Select Local Craft Beer / $10 Select Libations $10 Bites: Chicken Pot Stickers, Crispy Calamari, Coconut Shrimp, Steamed Mussels, Chef Deborah's Pepita &amp; Sesame Crusted Brie, C-Level Caesar Salad</t>
+          <t>Bussines hour: 5:00 PM -  9:00 PM Happy hour: 3:30 PM -  5:30 PM Today deal: $5 Bud Light / $6 Select Local Craft Beer / $10 Select Libations $10 Bites: Chicken Pot Stickers, Crispy Calamari, Coconut Shrimp, Steamed Mussels, Chef Deborah's Pepita &amp; Sesame Crusted Brie, C-Level Caesar Salad</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:30 PM -  5:30 PM Today deal: $5 Bud Light / $6 Select Local Craft Beer / $10 Select Libations $10 Bites: Chicken Pot Stickers, Crispy Calamari, Coconut Shrimp, Steamed Mussels, Chef Deborah's Pepita &amp; Sesame Crusted Brie, C-Level Caesar Salad</t>
+          <t>Bussines hour: 5:00 PM -  9:00 PM Happy hour: 3:30 PM -  5:30 PM Today deal: $5 Bud Light / $6 Select Local Craft Beer / $10 Select Libations $10 Bites: Chicken Pot Stickers, Crispy Calamari, Coconut Shrimp, Steamed Mussels, Chef Deborah's Pepita &amp; Sesame Crusted Brie, C-Level Caesar Salad</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 3:30 PM -  5:30 PM Today deal: $5 Bud Light / $6 Select Local Craft Beer / $10 Select Libations $10 Bites: Chicken Pot Stickers, Crispy Calamari, Coconut Shrimp, Steamed Mussels, Chef Deborah's Pepita &amp; Sesame Crusted Brie, C-Level Caesar Salad</t>
+          <t>Bussines hour: 5:00 PM -  9:30 PM Happy hour: 3:30 PM -  5:30 PM Today deal: $5 Bud Light / $6 Select Local Craft Beer / $10 Select Libations $10 Bites: Chicken Pot Stickers, Crispy Calamari, Coconut Shrimp, Steamed Mussels, Chef Deborah's Pepita &amp; Sesame Crusted Brie, C-Level Caesar Salad</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: Not Happy Hour Today deal: $5 Bud Light / $6 Select Local Craft Beer / $10 Select Libations $10 Bites: Chicken Pot Stickers, Crispy Calamari, Coconut Shrimp, Steamed Mussels, Chef Deborah's Pepita &amp; Sesame Crusted Brie, C-Level Caesar Salad</t>
+          <t>Bussines hour: 4:00 PM -  9:30 PM Happy hour: Not Happy Hour Today deal: $5 Bud Light / $6 Select Local Craft Beer / $10 Select Libations $10 Bites: Chicken Pot Stickers, Crispy Calamari, Coconut Shrimp, Steamed Mussels, Chef Deborah's Pepita &amp; Sesame Crusted Brie, C-Level Caesar Salad</t>
         </is>
       </c>
     </row>
@@ -1558,37 +1558,37 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Bussines hour: 4 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Specialty Cocktails / $7 Well Drinks, Select Draft Beer, 26oz. Pacific Social Blonde Ale / $8 House Wines / $9 Frosé 4 Days $9 Fish Taco Duo, Brussels Sprouts, Crispy Asparagus / $10 Soft Pretzel Sticks w/Rouleur Beer Cheese, Chef's Flatbread, Marinated Grilled Artichoke</t>
+          <t>Bussines hour: 10:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Specialty Cocktails / $7 Well Drinks, Select Draft Beer, 26oz. Pacific Social Blonde Ale / $8 House Wines / $9 Frosé 4 Days $9 Fish Taco Duo, Brussels Sprouts, Crispy Asparagus / $10 Soft Pretzel Sticks w/Rouleur Beer Cheese, Chef's Flatbread, Marinated Grilled Artichoke</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: Closed Today deal: $2 Off All Specialty Cocktails / $7 Well Drinks, Select Draft Beer, 26oz. Pacific Social Blonde Ale / $8 House Wines / $9 Frosé 4 Days $9 Fish Taco Duo, Brussels Sprouts, Crispy Asparagus / $10 Soft Pretzel Sticks w/Rouleur Beer Cheese, Chef's Flatbread, Marinated Grilled Artichoke</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Bussines hour: 3 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Specialty Cocktails / $7 Well Drinks, Select Draft Beer, 26oz. Pacific Social Blonde Ale / $8 House Wines / $9 Frosé 4 Days $9 Fish Taco Duo, Brussels Sprouts, Crispy Asparagus / $10 Soft Pretzel Sticks w/Rouleur Beer Cheese, Chef's Flatbread, Marinated Grilled Artichoke</t>
+          <t>Bussines hour: 3:00 PM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Specialty Cocktails / $7 Well Drinks, Select Draft Beer, 26oz. Pacific Social Blonde Ale / $8 House Wines / $9 Frosé 4 Days $9 Fish Taco Duo, Brussels Sprouts, Crispy Asparagus / $10 Soft Pretzel Sticks w/Rouleur Beer Cheese, Chef's Flatbread, Marinated Grilled Artichoke</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Specialty Cocktails / $7 Well Drinks, Select Draft Beer, 26oz. Pacific Social Blonde Ale / $8 House Wines / $9 Frosé 4 Days $9 Fish Taco Duo, Brussels Sprouts, Crispy Asparagus / $10 Soft Pretzel Sticks w/Rouleur Beer Cheese, Chef's Flatbread, Marinated Grilled Artichoke</t>
+          <t>Bussines hour: 11:30 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Specialty Cocktails / $7 Well Drinks, Select Draft Beer, 26oz. Pacific Social Blonde Ale / $8 House Wines / $9 Frosé 4 Days $9 Fish Taco Duo, Brussels Sprouts, Crispy Asparagus / $10 Soft Pretzel Sticks w/Rouleur Beer Cheese, Chef's Flatbread, Marinated Grilled Artichoke</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Specialty Cocktails / $7 Well Drinks, Select Draft Beer, 26oz. Pacific Social Blonde Ale / $8 House Wines / $9 Frosé 4 Days $9 Fish Taco Duo, Brussels Sprouts, Crispy Asparagus / $10 Soft Pretzel Sticks w/Rouleur Beer Cheese, Chef's Flatbread, Marinated Grilled Artichoke</t>
+          <t>Bussines hour: 11:30 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Specialty Cocktails / $7 Well Drinks, Select Draft Beer, 26oz. Pacific Social Blonde Ale / $8 House Wines / $9 Frosé 4 Days $9 Fish Taco Duo, Brussels Sprouts, Crispy Asparagus / $10 Soft Pretzel Sticks w/Rouleur Beer Cheese, Chef's Flatbread, Marinated Grilled Artichoke</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Specialty Cocktails / $7 Well Drinks, Select Draft Beer, 26oz. Pacific Social Blonde Ale / $8 House Wines / $9 Frosé 4 Days $9 Fish Taco Duo, Brussels Sprouts, Crispy Asparagus / $10 Soft Pretzel Sticks w/Rouleur Beer Cheese, Chef's Flatbread, Marinated Grilled Artichoke</t>
+          <t>Bussines hour: 11:30 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Specialty Cocktails / $7 Well Drinks, Select Draft Beer, 26oz. Pacific Social Blonde Ale / $8 House Wines / $9 Frosé 4 Days $9 Fish Taco Duo, Brussels Sprouts, Crispy Asparagus / $10 Soft Pretzel Sticks w/Rouleur Beer Cheese, Chef's Flatbread, Marinated Grilled Artichoke</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Specialty Cocktails / $7 Well Drinks, Select Draft Beer, 26oz. Pacific Social Blonde Ale / $8 House Wines / $9 Frosé 4 Days $9 Fish Taco Duo, Brussels Sprouts, Crispy Asparagus / $10 Soft Pretzel Sticks w/Rouleur Beer Cheese, Chef's Flatbread, Marinated Grilled Artichoke</t>
+          <t>Bussines hour: 10:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Specialty Cocktails / $7 Well Drinks, Select Draft Beer, 26oz. Pacific Social Blonde Ale / $8 House Wines / $9 Frosé 4 Days $9 Fish Taco Duo, Brussels Sprouts, Crispy Asparagus / $10 Soft Pretzel Sticks w/Rouleur Beer Cheese, Chef's Flatbread, Marinated Grilled Artichoke</t>
         </is>
       </c>
     </row>
@@ -1613,37 +1613,37 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $5 House Margarita on the Rocks, Select Draft Pints / $18 Select Draft Pitchers / $21 Margarita on the Rocks Pitcher  20% Off All Appetizers (Reg. Price $12.49 - $16.49): Guacamole, Queso Dip, Eloté Dip, Chicken Taquitos, Nachos, Dip Trio, Shrimp Ceviche</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5 House Margarita on the Rocks, Select Draft Pints / $18 Select Draft Pitchers / $21 Margarita on the Rocks Pitcher  20% Off All Appetizers (Reg. Price $12.49 - $16.49): Guacamole, Queso Dip, Eloté Dip, Chicken Taquitos, Nachos, Dip Trio, Shrimp Ceviche</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $5 House Margarita on the Rocks, Select Draft Pints / $18 Select Draft Pitchers / $21 Margarita on the Rocks Pitcher  20% Off All Appetizers (Reg. Price $12.49 - $16.49): Guacamole, Queso Dip, Eloté Dip, Chicken Taquitos, Nachos, Dip Trio, Shrimp Ceviche</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5 House Margarita on the Rocks, Select Draft Pints / $18 Select Draft Pitchers / $21 Margarita on the Rocks Pitcher  20% Off All Appetizers (Reg. Price $12.49 - $16.49): Guacamole, Queso Dip, Eloté Dip, Chicken Taquitos, Nachos, Dip Trio, Shrimp Ceviche</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $5 House Margarita on the Rocks, Select Draft Pints / $18 Select Draft Pitchers / $21 Margarita on the Rocks Pitcher  20% Off All Appetizers (Reg. Price $12.49 - $16.49): Guacamole, Queso Dip, Eloté Dip, Chicken Taquitos, Nachos, Dip Trio, Shrimp Ceviche</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5 House Margarita on the Rocks, Select Draft Pints / $18 Select Draft Pitchers / $21 Margarita on the Rocks Pitcher  20% Off All Appetizers (Reg. Price $12.49 - $16.49): Guacamole, Queso Dip, Eloté Dip, Chicken Taquitos, Nachos, Dip Trio, Shrimp Ceviche</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: Not Happy Hour Today deal: $5 House Margarita on the Rocks, Select Draft Pints / $18 Select Draft Pitchers / $21 Margarita on the Rocks Pitcher  20% Off All Appetizers (Reg. Price $12.49 - $16.49): Guacamole, Queso Dip, Eloté Dip, Chicken Taquitos, Nachos, Dip Trio, Shrimp Ceviche</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: Not Happy Hour Today deal: $5 House Margarita on the Rocks, Select Draft Pints / $18 Select Draft Pitchers / $21 Margarita on the Rocks Pitcher  20% Off All Appetizers (Reg. Price $12.49 - $16.49): Guacamole, Queso Dip, Eloté Dip, Chicken Taquitos, Nachos, Dip Trio, Shrimp Ceviche</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: Not Happy Hour Today deal: $5 House Margarita on the Rocks, Select Draft Pints / $18 Select Draft Pitchers / $21 Margarita on the Rocks Pitcher  $3 Street Taco</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: Not Happy Hour Today deal: $5 House Margarita on the Rocks, Select Draft Pints / $18 Select Draft Pitchers / $21 Margarita on the Rocks Pitcher  $3 Street Taco</t>
         </is>
       </c>
     </row>
@@ -1668,37 +1668,37 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off All Well Cocktails, Draft Beer, Wine &amp; Champagne  $4.95 Classic Corn Dog, Buttered Soft Pretzel / $6.95 Basket of Fries or Tots: Regular or Garlic / $10.95 Cheese Quesadilla / $11.95 Chicken Tenders / $12.95 Chicken Caesar Salad</t>
+          <t>Bussines hour: 11:30 AM -  2:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off All Well Cocktails, Draft Beer, Wine &amp; Champagne  $4.95 Classic Corn Dog, Buttered Soft Pretzel / $6.95 Basket of Fries or Tots: Regular or Garlic / $10.95 Cheese Quesadilla / $11.95 Chicken Tenders / $12.95 Chicken Caesar Salad</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off All Well Cocktails, Draft Beer, Wine &amp; Champagne  $4.95 Classic Corn Dog, Buttered Soft Pretzel / $6.95 Basket of Fries or Tots: Regular or Garlic / $10.95 Cheese Quesadilla / $11.95 Chicken Tenders / $12.95 Chicken Caesar Salad</t>
+          <t>Bussines hour: 11:30 AM -  2:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off All Well Cocktails, Draft Beer, Wine &amp; Champagne  $4.95 Classic Corn Dog, Buttered Soft Pretzel / $6.95 Basket of Fries or Tots: Regular or Garlic / $10.95 Cheese Quesadilla / $11.95 Chicken Tenders / $12.95 Chicken Caesar Salad</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off All Well Cocktails, Draft Beer, Wine &amp; Champagne  $4.95 Classic Corn Dog, Buttered Soft Pretzel / $6.95 Basket of Fries or Tots: Regular or Garlic / $10.95 Cheese Quesadilla / $11.95 Chicken Tenders / $12.95 Chicken Caesar Salad</t>
+          <t>Bussines hour: 11:30 AM -  2:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off All Well Cocktails, Draft Beer, Wine &amp; Champagne  $4.95 Classic Corn Dog, Buttered Soft Pretzel / $6.95 Basket of Fries or Tots: Regular or Garlic / $10.95 Cheese Quesadilla / $11.95 Chicken Tenders / $12.95 Chicken Caesar Salad</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Bussines hour: 3 Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off All Well Cocktails, Draft Beer, Wine &amp; Champagne  $4.95 Classic Corn Dog, Buttered Soft Pretzel / $6.95 Basket of Fries or Tots: Regular or Garlic / $10.95 Cheese Quesadilla / $11.95 Chicken Tenders / $12.95 Chicken Caesar Salad</t>
+          <t>Bussines hour: 11:30 AM -  2:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off All Well Cocktails, Draft Beer, Wine &amp; Champagne  $4.95 Classic Corn Dog, Buttered Soft Pretzel / $6.95 Basket of Fries or Tots: Regular or Garlic / $10.95 Cheese Quesadilla / $11.95 Chicken Tenders / $12.95 Chicken Caesar Salad</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off All Well Cocktails, Draft Beer, Wine &amp; Champagne  $4.95 Classic Corn Dog, Buttered Soft Pretzel / $6.95 Basket of Fries or Tots: Regular or Garlic / $10.95 Cheese Quesadilla / $11.95 Chicken Tenders / $12.95 Chicken Caesar Salad</t>
+          <t>Bussines hour: 11:30 AM -  2:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off All Well Cocktails, Draft Beer, Wine &amp; Champagne  $4.95 Classic Corn Dog, Buttered Soft Pretzel / $6.95 Basket of Fries or Tots: Regular or Garlic / $10.95 Cheese Quesadilla / $11.95 Chicken Tenders / $12.95 Chicken Caesar Salad</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off All Well Cocktails, Draft Beer, Wine &amp; Champagne  $4.95 Classic Corn Dog, Buttered Soft Pretzel / $6.95 Basket of Fries or Tots: Regular or Garlic / $10.95 Cheese Quesadilla / $11.95 Chicken Tenders / $12.95 Chicken Caesar Salad</t>
+          <t>Bussines hour: 11:30 AM -  2:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off All Well Cocktails, Draft Beer, Wine &amp; Champagne  $4.95 Classic Corn Dog, Buttered Soft Pretzel / $6.95 Basket of Fries or Tots: Regular or Garlic / $10.95 Cheese Quesadilla / $11.95 Chicken Tenders / $12.95 Chicken Caesar Salad</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off All Well Cocktails, Draft Beer, Wine &amp; Champagne  $4.95 Classic Corn Dog, Buttered Soft Pretzel / $6.95 Basket of Fries or Tots: Regular or Garlic / $10.95 Cheese Quesadilla / $11.95 Chicken Tenders / $12.95 Chicken Caesar Salad</t>
+          <t>Bussines hour: 11:30 AM -  2:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off All Well Cocktails, Draft Beer, Wine &amp; Champagne  $4.95 Classic Corn Dog, Buttered Soft Pretzel / $6.95 Basket of Fries or Tots: Regular or Garlic / $10.95 Cheese Quesadilla / $11.95 Chicken Tenders / $12.95 Chicken Caesar Salad</t>
         </is>
       </c>
     </row>
@@ -1723,37 +1723,37 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Bussines hour: 4 Happy hour: 4:00 PM -  6:00 PM Today deal: $1 Off Any Glass of Wine / $4 Sapporo Draft Beer / $5 Large Hot Sake or Large Bottle Beer / $9 Lg Hot Sake + Lg Beer Combo / $13.50 Sapporo Pitcher / $16 Lg Hot Sake + Sapporo Pitcher Combo $4 Miso &amp; Green Salad Combo, Edamame / $5 Gyoza (pan or deep fried), Shishito Pepper, Select Sushi: Yellowtail, Salmon, Albacore, Shrimp, Tamago, Masago / $5.50 Garlic Edamame, Homemade Chicken Eggrolls / $6 Shrimp Shumai (pan or deep fried), Hand Roll: Spicy Yellowtail, Salmon Skin, Salmon Avocado, California, Spicy Scallop, Spicy Tuna / $6.50 California Roll / $7 Mix Tempura Appetizer, Spicy Tuna Nachos (4pc), Firecracker or Salmon Skin Roll / $7.50 Spicy Tuna Roll / $8 Rolls: Spicy Salmon Avocado, Monkey Stick, Shrimp Tempura, Crunchy Shrimp / $10 Maui Wowie, Yoga Master Roll, Chef Choice Nigiri Sushi (4pc) / $12 Roll: Luv' Tuna, Rainbow or Fantasy / $15 Chef Choice Hand Roll Trio</t>
+          <t>Bussines hour: 4:00 PM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $1 Off Any Glass of Wine / $4 Sapporo Draft Beer / $5 Large Hot Sake or Large Bottle Beer / $9 Lg Hot Sake + Lg Beer Combo / $13.50 Sapporo Pitcher / $16 Lg Hot Sake + Sapporo Pitcher Combo $4 Miso &amp; Green Salad Combo, Edamame / $5 Gyoza (pan or deep fried), Shishito Pepper, Select Sushi: Yellowtail, Salmon, Albacore, Shrimp, Tamago, Masago / $5.50 Garlic Edamame, Homemade Chicken Eggrolls / $6 Shrimp Shumai (pan or deep fried), Hand Roll: Spicy Yellowtail, Salmon Skin, Salmon Avocado, California, Spicy Scallop, Spicy Tuna / $6.50 California Roll / $7 Mix Tempura Appetizer, Spicy Tuna Nachos (4pc), Firecracker or Salmon Skin Roll / $7.50 Spicy Tuna Roll / $8 Rolls: Spicy Salmon Avocado, Monkey Stick, Shrimp Tempura, Crunchy Shrimp / $10 Maui Wowie, Yoga Master Roll, Chef Choice Nigiri Sushi (4pc) / $12 Roll: Luv' Tuna, Rainbow or Fantasy / $15 Chef Choice Hand Roll Trio</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 4:00 PM -  6:00 PM Today deal: $1 Off Any Glass of Wine / $4 Sapporo Draft Beer / $5 Large Hot Sake or Large Bottle Beer / $9 Lg Hot Sake + Lg Beer Combo / $13.50 Sapporo Pitcher / $16 Lg Hot Sake + Sapporo Pitcher Combo $4 Miso &amp; Green Salad Combo, Edamame / $5 Gyoza (pan or deep fried), Shishito Pepper, Select Sushi: Yellowtail, Salmon, Albacore, Shrimp, Tamago, Masago / $5.50 Garlic Edamame, Homemade Chicken Eggrolls / $6 Shrimp Shumai (pan or deep fried), Hand Roll: Spicy Yellowtail, Salmon Skin, Salmon Avocado, California, Spicy Scallop, Spicy Tuna / $6.50 California Roll / $7 Mix Tempura Appetizer, Spicy Tuna Nachos (4pc), Firecracker or Salmon Skin Roll / $7.50 Spicy Tuna Roll / $8 Rolls: Spicy Salmon Avocado, Monkey Stick, Shrimp Tempura, Crunchy Shrimp / $10 Maui Wowie, Yoga Master Roll, Chef Choice Nigiri Sushi (4pc) / $12 Roll: Luv' Tuna, Rainbow or Fantasy / $15 Chef Choice Hand Roll Trio</t>
+          <t>Bussines hour: 4:00 PM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $1 Off Any Glass of Wine / $4 Sapporo Draft Beer / $5 Large Hot Sake or Large Bottle Beer / $9 Lg Hot Sake + Lg Beer Combo / $13.50 Sapporo Pitcher / $16 Lg Hot Sake + Sapporo Pitcher Combo $4 Miso &amp; Green Salad Combo, Edamame / $5 Gyoza (pan or deep fried), Shishito Pepper, Select Sushi: Yellowtail, Salmon, Albacore, Shrimp, Tamago, Masago / $5.50 Garlic Edamame, Homemade Chicken Eggrolls / $6 Shrimp Shumai (pan or deep fried), Hand Roll: Spicy Yellowtail, Salmon Skin, Salmon Avocado, California, Spicy Scallop, Spicy Tuna / $6.50 California Roll / $7 Mix Tempura Appetizer, Spicy Tuna Nachos (4pc), Firecracker or Salmon Skin Roll / $7.50 Spicy Tuna Roll / $8 Rolls: Spicy Salmon Avocado, Monkey Stick, Shrimp Tempura, Crunchy Shrimp / $10 Maui Wowie, Yoga Master Roll, Chef Choice Nigiri Sushi (4pc) / $12 Roll: Luv' Tuna, Rainbow or Fantasy / $15 Chef Choice Hand Roll Trio</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: $1 Off Any Glass of Wine / $4 Sapporo Draft Beer / $5 Large Hot Sake or Large Bottle Beer / $9 Lg Hot Sake + Lg Beer Combo / $13.50 Sapporo Pitcher / $16 Lg Hot Sake + Sapporo Pitcher Combo $4 Miso &amp; Green Salad Combo, Edamame / $5 Gyoza (pan or deep fried), Shishito Pepper, Select Sushi: Yellowtail, Salmon, Albacore, Shrimp, Tamago, Masago / $5.50 Garlic Edamame, Homemade Chicken Eggrolls / $6 Shrimp Shumai (pan or deep fried), Hand Roll: Spicy Yellowtail, Salmon Skin, Salmon Avocado, California, Spicy Scallop, Spicy Tuna / $6.50 California Roll / $7 Mix Tempura Appetizer, Spicy Tuna Nachos (4pc), Firecracker or Salmon Skin Roll / $7.50 Spicy Tuna Roll / $8 Rolls: Spicy Salmon Avocado, Monkey Stick, Shrimp Tempura, Crunchy Shrimp / $10 Maui Wowie, Yoga Master Roll, Chef Choice Nigiri Sushi (4pc) / $12 Roll: Luv' Tuna, Rainbow or Fantasy / $15 Chef Choice Hand Roll Trio</t>
+          <t>Bussines hour: 4:00 PM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $1 Off Any Glass of Wine / $4 Sapporo Draft Beer / $5 Large Hot Sake or Large Bottle Beer / $9 Lg Hot Sake + Lg Beer Combo / $13.50 Sapporo Pitcher / $16 Lg Hot Sake + Sapporo Pitcher Combo $4 Miso &amp; Green Salad Combo, Edamame / $5 Gyoza (pan or deep fried), Shishito Pepper, Select Sushi: Yellowtail, Salmon, Albacore, Shrimp, Tamago, Masago / $5.50 Garlic Edamame, Homemade Chicken Eggrolls / $6 Shrimp Shumai (pan or deep fried), Hand Roll: Spicy Yellowtail, Salmon Skin, Salmon Avocado, California, Spicy Scallop, Spicy Tuna / $6.50 California Roll / $7 Mix Tempura Appetizer, Spicy Tuna Nachos (4pc), Firecracker or Salmon Skin Roll / $7.50 Spicy Tuna Roll / $8 Rolls: Spicy Salmon Avocado, Monkey Stick, Shrimp Tempura, Crunchy Shrimp / $10 Maui Wowie, Yoga Master Roll, Chef Choice Nigiri Sushi (4pc) / $12 Roll: Luv' Tuna, Rainbow or Fantasy / $15 Chef Choice Hand Roll Trio</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: $1 Off Any Glass of Wine / $4 Sapporo Draft Beer / $5 Large Hot Sake or Large Bottle Beer / $9 Lg Hot Sake + Lg Beer Combo / $13.50 Sapporo Pitcher / $16 Lg Hot Sake + Sapporo Pitcher Combo $4 Miso &amp; Green Salad Combo, Edamame / $5 Gyoza (pan or deep fried), Shishito Pepper, Select Sushi: Yellowtail, Salmon, Albacore, Shrimp, Tamago, Masago / $5.50 Garlic Edamame, Homemade Chicken Eggrolls / $6 Shrimp Shumai (pan or deep fried), Hand Roll: Spicy Yellowtail, Salmon Skin, Salmon Avocado, California, Spicy Scallop, Spicy Tuna / $6.50 California Roll / $7 Mix Tempura Appetizer, Spicy Tuna Nachos (4pc), Firecracker or Salmon Skin Roll / $7.50 Spicy Tuna Roll / $8 Rolls: Spicy Salmon Avocado, Monkey Stick, Shrimp Tempura, Crunchy Shrimp / $10 Maui Wowie, Yoga Master Roll, Chef Choice Nigiri Sushi (4pc) / $12 Roll: Luv' Tuna, Rainbow or Fantasy / $15 Chef Choice Hand Roll Trio</t>
+          <t>Bussines hour: 4:00 PM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $1 Off Any Glass of Wine / $4 Sapporo Draft Beer / $5 Large Hot Sake or Large Bottle Beer / $9 Lg Hot Sake + Lg Beer Combo / $13.50 Sapporo Pitcher / $16 Lg Hot Sake + Sapporo Pitcher Combo $4 Miso &amp; Green Salad Combo, Edamame / $5 Gyoza (pan or deep fried), Shishito Pepper, Select Sushi: Yellowtail, Salmon, Albacore, Shrimp, Tamago, Masago / $5.50 Garlic Edamame, Homemade Chicken Eggrolls / $6 Shrimp Shumai (pan or deep fried), Hand Roll: Spicy Yellowtail, Salmon Skin, Salmon Avocado, California, Spicy Scallop, Spicy Tuna / $6.50 California Roll / $7 Mix Tempura Appetizer, Spicy Tuna Nachos (4pc), Firecracker or Salmon Skin Roll / $7.50 Spicy Tuna Roll / $8 Rolls: Spicy Salmon Avocado, Monkey Stick, Shrimp Tempura, Crunchy Shrimp / $10 Maui Wowie, Yoga Master Roll, Chef Choice Nigiri Sushi (4pc) / $12 Roll: Luv' Tuna, Rainbow or Fantasy / $15 Chef Choice Hand Roll Trio</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 4:00 PM -  6:00 PM Today deal: $1 Off Any Glass of Wine / $4 Sapporo Draft Beer / $5 Large Hot Sake or Large Bottle Beer / $9 Lg Hot Sake + Lg Beer Combo / $13.50 Sapporo Pitcher / $16 Lg Hot Sake + Sapporo Pitcher Combo $4 Miso &amp; Green Salad Combo, Edamame / $5 Gyoza (pan or deep fried), Shishito Pepper, Select Sushi: Yellowtail, Salmon, Albacore, Shrimp, Tamago, Masago / $5.50 Garlic Edamame, Homemade Chicken Eggrolls / $6 Shrimp Shumai (pan or deep fried), Hand Roll: Spicy Yellowtail, Salmon Skin, Salmon Avocado, California, Spicy Scallop, Spicy Tuna / $6.50 California Roll / $7 Mix Tempura Appetizer, Spicy Tuna Nachos (4pc), Firecracker or Salmon Skin Roll / $7.50 Spicy Tuna Roll / $8 Rolls: Spicy Salmon Avocado, Monkey Stick, Shrimp Tempura, Crunchy Shrimp / $10 Maui Wowie, Yoga Master Roll, Chef Choice Nigiri Sushi (4pc) / $12 Roll: Luv' Tuna, Rainbow or Fantasy / $15 Chef Choice Hand Roll Trio</t>
+          <t>Bussines hour: 4:00 PM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $1 Off Any Glass of Wine / $4 Sapporo Draft Beer / $5 Large Hot Sake or Large Bottle Beer / $9 Lg Hot Sake + Lg Beer Combo / $13.50 Sapporo Pitcher / $16 Lg Hot Sake + Sapporo Pitcher Combo $4 Miso &amp; Green Salad Combo, Edamame / $5 Gyoza (pan or deep fried), Shishito Pepper, Select Sushi: Yellowtail, Salmon, Albacore, Shrimp, Tamago, Masago / $5.50 Garlic Edamame, Homemade Chicken Eggrolls / $6 Shrimp Shumai (pan or deep fried), Hand Roll: Spicy Yellowtail, Salmon Skin, Salmon Avocado, California, Spicy Scallop, Spicy Tuna / $6.50 California Roll / $7 Mix Tempura Appetizer, Spicy Tuna Nachos (4pc), Firecracker or Salmon Skin Roll / $7.50 Spicy Tuna Roll / $8 Rolls: Spicy Salmon Avocado, Monkey Stick, Shrimp Tempura, Crunchy Shrimp / $10 Maui Wowie, Yoga Master Roll, Chef Choice Nigiri Sushi (4pc) / $12 Roll: Luv' Tuna, Rainbow or Fantasy / $15 Chef Choice Hand Roll Trio</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: Not Happy Hour Today deal: $1 Off Any Glass of Wine / $4 Sapporo Draft Beer / $5 Large Hot Sake or Large Bottle Beer / $9 Lg Hot Sake + Lg Beer Combo / $13.50 Sapporo Pitcher / $16 Lg Hot Sake + Sapporo Pitcher Combo $4 Miso &amp; Green Salad Combo, Edamame / $5 Gyoza (pan or deep fried), Shishito Pepper, Select Sushi: Yellowtail, Salmon, Albacore, Shrimp, Tamago, Masago / $5.50 Garlic Edamame, Homemade Chicken Eggrolls / $6 Shrimp Shumai (pan or deep fried), Hand Roll: Spicy Yellowtail, Salmon Skin, Salmon Avocado, California, Spicy Scallop, Spicy Tuna / $6.50 California Roll / $7 Mix Tempura Appetizer, Spicy Tuna Nachos (4pc), Firecracker or Salmon Skin Roll / $7.50 Spicy Tuna Roll / $8 Rolls: Spicy Salmon Avocado, Monkey Stick, Shrimp Tempura, Crunchy Shrimp / $10 Maui Wowie, Yoga Master Roll, Chef Choice Nigiri Sushi (4pc) / $12 Roll: Luv' Tuna, Rainbow or Fantasy / $15 Chef Choice Hand Roll Trio</t>
+          <t>Bussines hour: 4:00 PM -  9:30 PM Happy hour: Not Happy Hour Today deal: $1 Off Any Glass of Wine / $4 Sapporo Draft Beer / $5 Large Hot Sake or Large Bottle Beer / $9 Lg Hot Sake + Lg Beer Combo / $13.50 Sapporo Pitcher / $16 Lg Hot Sake + Sapporo Pitcher Combo $4 Miso &amp; Green Salad Combo, Edamame / $5 Gyoza (pan or deep fried), Shishito Pepper, Select Sushi: Yellowtail, Salmon, Albacore, Shrimp, Tamago, Masago / $5.50 Garlic Edamame, Homemade Chicken Eggrolls / $6 Shrimp Shumai (pan or deep fried), Hand Roll: Spicy Yellowtail, Salmon Skin, Salmon Avocado, California, Spicy Scallop, Spicy Tuna / $6.50 California Roll / $7 Mix Tempura Appetizer, Spicy Tuna Nachos (4pc), Firecracker or Salmon Skin Roll / $7.50 Spicy Tuna Roll / $8 Rolls: Spicy Salmon Avocado, Monkey Stick, Shrimp Tempura, Crunchy Shrimp / $10 Maui Wowie, Yoga Master Roll, Chef Choice Nigiri Sushi (4pc) / $12 Roll: Luv' Tuna, Rainbow or Fantasy / $15 Chef Choice Hand Roll Trio</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: Not Happy Hour Today deal: $1 Off Any Glass of Wine / $4 Sapporo Draft Beer / $5 Large Hot Sake or Large Bottle Beer / $9 Lg Hot Sake + Lg Beer Combo / $13.50 Sapporo Pitcher / $16 Lg Hot Sake + Sapporo Pitcher Combo $4 Miso &amp; Green Salad Combo, Edamame / $5 Gyoza (pan or deep fried), Shishito Pepper, Select Sushi: Yellowtail, Salmon, Albacore, Shrimp, Tamago, Masago / $5.50 Garlic Edamame, Homemade Chicken Eggrolls / $6 Shrimp Shumai (pan or deep fried), Hand Roll: Spicy Yellowtail, Salmon Skin, Salmon Avocado, California, Spicy Scallop, Spicy Tuna / $6.50 California Roll / $7 Mix Tempura Appetizer, Spicy Tuna Nachos (4pc), Firecracker or Salmon Skin Roll / $7.50 Spicy Tuna Roll / $8 Rolls: Spicy Salmon Avocado, Monkey Stick, Shrimp Tempura, Crunchy Shrimp / $10 Maui Wowie, Yoga Master Roll, Chef Choice Nigiri Sushi (4pc) / $12 Roll: Luv' Tuna, Rainbow or Fantasy / $15 Chef Choice Hand Roll Trio</t>
+          <t>Bussines hour: 4:00 PM -  9:30 PM Happy hour: Not Happy Hour Today deal: $1 Off Any Glass of Wine / $4 Sapporo Draft Beer / $5 Large Hot Sake or Large Bottle Beer / $9 Lg Hot Sake + Lg Beer Combo / $13.50 Sapporo Pitcher / $16 Lg Hot Sake + Sapporo Pitcher Combo $4 Miso &amp; Green Salad Combo, Edamame / $5 Gyoza (pan or deep fried), Shishito Pepper, Select Sushi: Yellowtail, Salmon, Albacore, Shrimp, Tamago, Masago / $5.50 Garlic Edamame, Homemade Chicken Eggrolls / $6 Shrimp Shumai (pan or deep fried), Hand Roll: Spicy Yellowtail, Salmon Skin, Salmon Avocado, California, Spicy Scallop, Spicy Tuna / $6.50 California Roll / $7 Mix Tempura Appetizer, Spicy Tuna Nachos (4pc), Firecracker or Salmon Skin Roll / $7.50 Spicy Tuna Roll / $8 Rolls: Spicy Salmon Avocado, Monkey Stick, Shrimp Tempura, Crunchy Shrimp / $10 Maui Wowie, Yoga Master Roll, Chef Choice Nigiri Sushi (4pc) / $12 Roll: Luv' Tuna, Rainbow or Fantasy / $15 Chef Choice Hand Roll Trio</t>
         </is>
       </c>
     </row>
@@ -1778,37 +1778,37 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 10:00 AM -  3:00 PM Today deal: $5 Peanut Butter Whiskey / $8 THC Mimosa (Classic, Watermelon, Passionfruit or Guava) / $10 House Bloody Mary or Morning Screw / $12 Loaded Bloody Mary, Breakfast Drink, Irish Coffee / $15 House Champagne Bottle $8 - $20 Brunch Menu</t>
+          <t>Bussines hour: 10:00 AM -  2:00 AM Happy hour: 10:00 AM -  3:00 PM Today deal: $5 Peanut Butter Whiskey / $8 THC Mimosa (Classic, Watermelon, Passionfruit or Guava) / $10 House Bloody Mary or Morning Screw / $12 Loaded Bloody Mary, Breakfast Drink, Irish Coffee / $15 House Champagne Bottle $8 - $20 Brunch Menu</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: Closed Today deal: $5 Peanut Butter Whiskey / $8 THC Mimosa (Classic, Watermelon, Passionfruit or Guava) / $10 House Bloody Mary or Morning Screw / $12 Loaded Bloody Mary, Breakfast Drink, Irish Coffee / $15 House Champagne Bottle $8 - $20 Brunch Menu</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Peanut Butter Whiskey / $8 THC Mimosa (Classic, Watermelon, Passionfruit or Guava) / $10 House Bloody Mary or Morning Screw / $12 Loaded Bloody Mary, Breakfast Drink, Irish Coffee / $15 House Champagne Bottle $8 - $20 Brunch Menu</t>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Peanut Butter Whiskey / $8 THC Mimosa (Classic, Watermelon, Passionfruit or Guava) / $10 House Bloody Mary or Morning Screw / $12 Loaded Bloody Mary, Breakfast Drink, Irish Coffee / $15 House Champagne Bottle $8 - $20 Brunch Menu</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: Closed</t>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: Closed</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: 1/2 Off Select Drafts &amp; Most Spirits / $3 Skrewball Shots, Tully Shots / $4 Well Drinks / $5 Beer &amp; Shot / $15 Off Towers 30% Off Entire Food Menu</t>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: 1/2 Off Select Drafts &amp; Most Spirits / $3 Skrewball Shots, Tully Shots / $4 Well Drinks / $5 Beer &amp; Shot / $15 Off Towers 30% Off Entire Food Menu</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 4:00 PM -  6:00 PM Today deal: 1/2 Off Select Drafts &amp; Most Spirits / $3 Skrewball Shots, Tully Shots / $4 Well Drinks / $5 Beer &amp; Shot / $15 Off Towers 30% Off Entire Food Menu</t>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: 1/2 Off Select Drafts &amp; Most Spirits / $3 Skrewball Shots, Tully Shots / $4 Well Drinks / $5 Beer &amp; Shot / $15 Off Towers 30% Off Entire Food Menu</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 10:00 AM -  3:00 PM Today deal: 1/2 Off Select Drafts &amp; Most Spirits / $3 Skrewball Shots, Tully Shots / $4 Well Drinks / $5 Beer &amp; Shot / $15 Off Towers 30% Off Entire Food Menu</t>
+          <t>Bussines hour: 10:00 AM -  2:00 AM Happy hour: 10:00 AM -  3:00 PM Today deal: 1/2 Off Select Drafts &amp; Most Spirits / $3 Skrewball Shots, Tully Shots / $4 Well Drinks / $5 Beer &amp; Shot / $15 Off Towers 30% Off Entire Food Menu</t>
         </is>
       </c>
     </row>
@@ -1833,37 +1833,37 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Bussines hour: 7 Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Draft Beer / $9 House Made Sangria, Select Wine by the Glass / $12 Select Signature Cocktails $9 Chicken Tortilla Soup / $10 Guacamole &amp; Chips, Cheese Flatbread / $11 Clam Chowder / $15 Chicken Caesar Salad, Ceviche, Fish Tacos / $19 1/2lb. Wagyu Bacon Burger w/Fries</t>
+          <t>Bussines hour: 7:00 AM -  8:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Draft Beer / $9 House Made Sangria, Select Wine by the Glass / $12 Select Signature Cocktails $9 Chicken Tortilla Soup / $10 Guacamole &amp; Chips, Cheese Flatbread / $11 Clam Chowder / $15 Chicken Caesar Salad, Ceviche, Fish Tacos / $19 1/2lb. Wagyu Bacon Burger w/Fries</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Draft Beer / $9 House Made Sangria, Select Wine by the Glass / $12 Select Signature Cocktails $9 Chicken Tortilla Soup / $10 Guacamole &amp; Chips, Cheese Flatbread / $11 Clam Chowder / $15 Chicken Caesar Salad, Ceviche, Fish Tacos / $19 1/2lb. Wagyu Bacon Burger w/Fries</t>
+          <t>Bussines hour: 7:00 AM -  8:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Draft Beer / $9 House Made Sangria, Select Wine by the Glass / $12 Select Signature Cocktails $9 Chicken Tortilla Soup / $10 Guacamole &amp; Chips, Cheese Flatbread / $11 Clam Chowder / $15 Chicken Caesar Salad, Ceviche, Fish Tacos / $19 1/2lb. Wagyu Bacon Burger w/Fries</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Draft Beer / $9 House Made Sangria, Select Wine by the Glass / $12 Select Signature Cocktails $9 Chicken Tortilla Soup / $10 Guacamole &amp; Chips, Cheese Flatbread / $11 Clam Chowder / $15 Chicken Caesar Salad, Ceviche, Fish Tacos / $19 1/2lb. Wagyu Bacon Burger w/Fries</t>
+          <t>Bussines hour: 7:00 AM -  8:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Draft Beer / $9 House Made Sangria, Select Wine by the Glass / $12 Select Signature Cocktails $9 Chicken Tortilla Soup / $10 Guacamole &amp; Chips, Cheese Flatbread / $11 Clam Chowder / $15 Chicken Caesar Salad, Ceviche, Fish Tacos / $19 1/2lb. Wagyu Bacon Burger w/Fries</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Draft Beer / $9 House Made Sangria, Select Wine by the Glass / $12 Select Signature Cocktails $9 Chicken Tortilla Soup / $10 Guacamole &amp; Chips, Cheese Flatbread / $11 Clam Chowder / $15 Chicken Caesar Salad, Ceviche, Fish Tacos / $19 1/2lb. Wagyu Bacon Burger w/Fries</t>
+          <t>Bussines hour: 7:00 AM -  8:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Draft Beer / $9 House Made Sangria, Select Wine by the Glass / $12 Select Signature Cocktails $9 Chicken Tortilla Soup / $10 Guacamole &amp; Chips, Cheese Flatbread / $11 Clam Chowder / $15 Chicken Caesar Salad, Ceviche, Fish Tacos / $19 1/2lb. Wagyu Bacon Burger w/Fries</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Draft Beer / $9 House Made Sangria, Select Wine by the Glass / $12 Select Signature Cocktails $9 Chicken Tortilla Soup / $10 Guacamole &amp; Chips, Cheese Flatbread / $11 Clam Chowder / $15 Chicken Caesar Salad, Ceviche, Fish Tacos / $19 1/2lb. Wagyu Bacon Burger w/Fries</t>
+          <t>Bussines hour: 7:00 AM -  8:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Draft Beer / $9 House Made Sangria, Select Wine by the Glass / $12 Select Signature Cocktails $9 Chicken Tortilla Soup / $10 Guacamole &amp; Chips, Cheese Flatbread / $11 Clam Chowder / $15 Chicken Caesar Salad, Ceviche, Fish Tacos / $19 1/2lb. Wagyu Bacon Burger w/Fries</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Draft Beer / $9 House Made Sangria, Select Wine by the Glass / $12 Select Signature Cocktails $9 Chicken Tortilla Soup / $10 Guacamole &amp; Chips, Cheese Flatbread / $11 Clam Chowder / $15 Chicken Caesar Salad, Ceviche, Fish Tacos / $19 1/2lb. Wagyu Bacon Burger w/Fries</t>
+          <t>Bussines hour: 7:00 AM -  9:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Draft Beer / $9 House Made Sangria, Select Wine by the Glass / $12 Select Signature Cocktails $9 Chicken Tortilla Soup / $10 Guacamole &amp; Chips, Cheese Flatbread / $11 Clam Chowder / $15 Chicken Caesar Salad, Ceviche, Fish Tacos / $19 1/2lb. Wagyu Bacon Burger w/Fries</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Draft Beer / $9 House Made Sangria, Select Wine by the Glass / $12 Select Signature Cocktails $9 Chicken Tortilla Soup / $10 Guacamole &amp; Chips, Cheese Flatbread / $11 Clam Chowder / $15 Chicken Caesar Salad, Ceviche, Fish Tacos / $19 1/2lb. Wagyu Bacon Burger w/Fries</t>
+          <t>Bussines hour: 7:00 AM -  9:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Draft Beer / $9 House Made Sangria, Select Wine by the Glass / $12 Select Signature Cocktails $9 Chicken Tortilla Soup / $10 Guacamole &amp; Chips, Cheese Flatbread / $11 Clam Chowder / $15 Chicken Caesar Salad, Ceviche, Fish Tacos / $19 1/2lb. Wagyu Bacon Burger w/Fries</t>
         </is>
       </c>
     </row>
@@ -1888,37 +1888,37 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Bussines hour: 4 Happy hour: 4:00 PM -  7:00 PM Today deal: $3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher</t>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 4:00 PM -  7:00 PM Today deal: $3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher</t>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  7:00 PM Today deal: $3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher $3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher</t>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher $3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  7:00 PM Today deal: $3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher $3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher</t>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher $3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 4:00 PM -  7:00 PM Today deal: $3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher $3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher</t>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher $3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 4:00 PM -  7:00 PM Today deal: $3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher</t>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: 4:00 PM -  7:00 PM Today deal: $3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher</t>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $3 Menu Shots / $4 Well Drinks / $5 Drafts / $35 Payable by Death Cocktail Pitcher / $40 I'm the Firestarter Cocktail Pitcher</t>
         </is>
       </c>
     </row>
@@ -1943,37 +1943,37 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Bussines hour: 3 Happy hour: 10:00 AM -  2:00 PM Today deal: $25 Bottle of Campo Viejo &amp; OJ Carafe $7 - $37 Brunch Menu</t>
+          <t>Bussines hour: 10:00 AM - 10:00 PM Happy hour: 10:00 AM -  2:00 PM Today deal: $25 Bottle of Campo Viejo &amp; OJ Carafe $7 - $37 Brunch Menu</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  5:00 PM Today deal: $25 Bottle of Campo Viejo &amp; OJ Carafe $7 - $37 Brunch Menu</t>
+          <t>Bussines hour: 3:00 PM - 10:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $25 Bottle of Campo Viejo &amp; OJ Carafe $7 - $37 Brunch Menu</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  5:00 PM Today deal: $25 Bottle of Campo Viejo &amp; OJ Carafe $7 - $37 Brunch Menu</t>
+          <t>Bussines hour: 3:00 PM - 10:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $25 Bottle of Campo Viejo &amp; OJ Carafe $7 - $37 Brunch Menu</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  5:00 PM Today deal: $5 Draft Beers / $6 House Wines / $7 Well Cocktails $7 Animal Style Tots, Jalapeño Popper Cream Cheese Wonton (3), Chips &amp; Guacamole, Carnitas Nachos</t>
+          <t>Bussines hour: 3:00 PM - 10:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $5 Draft Beers / $6 House Wines / $7 Well Cocktails $7 Animal Style Tots, Jalapeño Popper Cream Cheese Wonton (3), Chips &amp; Guacamole, Carnitas Nachos</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  5:00 PM Today deal: $5 Draft Beers / $6 House Wines / $7 Well Cocktails $7 Animal Style Tots, Jalapeño Popper Cream Cheese Wonton (3), Chips &amp; Guacamole, Carnitas Nachos</t>
+          <t>Bussines hour: 3:00 PM - 10:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $5 Draft Beers / $6 House Wines / $7 Well Cocktails $7 Animal Style Tots, Jalapeño Popper Cream Cheese Wonton (3), Chips &amp; Guacamole, Carnitas Nachos</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 3:00 PM -  5:00 PM Today deal: $5 Draft Beers / $6 House Wines / $7 Well Cocktails $7 Animal Style Tots, Jalapeño Popper Cream Cheese Wonton (3), Chips &amp; Guacamole, Carnitas Nachos</t>
+          <t>Bussines hour: 3:00 PM - 12:00 AM Happy hour: 3:00 PM -  5:00 PM Today deal: $5 Draft Beers / $6 House Wines / $7 Well Cocktails $7 Animal Style Tots, Jalapeño Popper Cream Cheese Wonton (3), Chips &amp; Guacamole, Carnitas Nachos</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: 10:00 AM -  2:00 PM Today deal: $5 Draft Beers / $6 House Wines / $7 Well Cocktails $7 Animal Style Tots, Jalapeño Popper Cream Cheese Wonton (3), Chips &amp; Guacamole, Carnitas Nachos</t>
+          <t>Bussines hour: 10:00 AM - 12:00 AM Happy hour: 10:00 AM -  2:00 PM Today deal: $5 Draft Beers / $6 House Wines / $7 Well Cocktails $7 Animal Style Tots, Jalapeño Popper Cream Cheese Wonton (3), Chips &amp; Guacamole, Carnitas Nachos</t>
         </is>
       </c>
     </row>
@@ -1998,37 +1998,37 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 12:00 PM -  8:00 PM Today deal: $12 Tall Boy + Shot of Jack / $17 Bottle of Bubbles [A 5% surcharge will be added to all Guest checks to help cover increasing costs in employee wages / benefits.]</t>
+          <t>Bussines hour: 12:00 PM -  8:00 PM Happy hour: 12:00 PM -  8:00 PM Today deal: $12 Tall Boy + Shot of Jack / $17 Bottle of Bubbles [A 5% surcharge will be added to all Guest checks to help cover increasing costs in employee wages / benefits.]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Bussines hour: 2 Happy hour: 4:00 PM -  8:00 PM Today deal: $12 Tall Boy + Shot of Jack / $17 Bottle of Bubbles [A 5% surcharge will be added to all Guest checks to help cover increasing costs in employee wages / benefits.]</t>
+          <t>Bussines hour: 4:00 PM -  8:00 PM Happy hour: 4:00 PM -  8:00 PM Today deal: $12 Tall Boy + Shot of Jack / $17 Bottle of Bubbles [A 5% surcharge will be added to all Guest checks to help cover increasing costs in employee wages / benefits.]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 4:00 PM -  6:00 PM Today deal: $12 Tall Boy + Shot of Jack / $17 Bottle of Bubbles [A 5% surcharge will be added to all Guest checks to help cover increasing costs in employee wages / benefits.]</t>
+          <t>Bussines hour: 4:00 PM -  8:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $12 Tall Boy + Shot of Jack / $17 Bottle of Bubbles [A 5% surcharge will be added to all Guest checks to help cover increasing costs in employee wages / benefits.]</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Well Cocktails &amp; House Wines / $6 Select Drafts $8 Frito Pie / $9 Best Mac &amp; Cheese, BBQ Pulled Pork Sliders (2), Chicken &amp; Waffles / $15 Classic Burger w/Fries + a Draft Beer (add cheese +$1)</t>
+          <t>Bussines hour: 4:00 PM -  8:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Well Cocktails &amp; House Wines / $6 Select Drafts $8 Frito Pie / $9 Best Mac &amp; Cheese, BBQ Pulled Pork Sliders (2), Chicken &amp; Waffles / $15 Classic Burger w/Fries + a Draft Beer (add cheese +$1)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Well Cocktails &amp; House Wines / $6 Select Drafts $8 Frito Pie / $9 Best Mac &amp; Cheese, BBQ Pulled Pork Sliders (2), Chicken &amp; Waffles / $15 Classic Burger w/Fries + a Draft Beer (add cheese +$1)</t>
+          <t>Bussines hour: 4:00 PM -  8:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Well Cocktails &amp; House Wines / $6 Select Drafts $8 Frito Pie / $9 Best Mac &amp; Cheese, BBQ Pulled Pork Sliders (2), Chicken &amp; Waffles / $15 Classic Burger w/Fries + a Draft Beer (add cheese +$1)</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Well Cocktails &amp; House Wines / $6 Select Drafts $8 Frito Pie / $9 Best Mac &amp; Cheese, BBQ Pulled Pork Sliders (2), Chicken &amp; Waffles / $15 Classic Burger w/Fries + a Draft Beer (add cheese +$1)</t>
+          <t>Bussines hour: 12:00 PM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Well Cocktails &amp; House Wines / $6 Select Drafts $8 Frito Pie / $9 Best Mac &amp; Cheese, BBQ Pulled Pork Sliders (2), Chicken &amp; Waffles / $15 Classic Burger w/Fries + a Draft Beer (add cheese +$1)</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 12:00 PM -  9:00 PM Today deal: $5 Well Cocktails &amp; House Wines / $6 Select Drafts $8 Frito Pie / $9 Best Mac &amp; Cheese, BBQ Pulled Pork Sliders (2), Chicken &amp; Waffles / $15 Classic Burger w/Fries + a Draft Beer (add cheese +$1)</t>
+          <t>Bussines hour: 12:00 PM -  9:00 PM Happy hour: 12:00 PM -  9:00 PM Today deal: $5 Well Cocktails &amp; House Wines / $6 Select Drafts $8 Frito Pie / $9 Best Mac &amp; Cheese, BBQ Pulled Pork Sliders (2), Chicken &amp; Waffles / $15 Classic Burger w/Fries + a Draft Beer (add cheese +$1)</t>
         </is>
       </c>
     </row>
@@ -2053,37 +2053,37 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Draft Beer / $8 Well Cocktails, Wine by the Glass (Select Red, White &amp; Sparkling) $9 Gnocchi Alla Romana, Polpette Vegane, Ciliegine de Mozzarella Alla Caprese / $11 Polenta Aqua Mare, Fritturina All'Italiana, Pinsa Dello Chef / $13 Carciofi Alla Romana (grilled Roman-style artichokes), Melanzane Alla Parmigiana (eggplant parmigiana) / $15 Calamari Fritti</t>
+          <t>Bussines hour: 11:30 AM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Draft Beer / $8 Well Cocktails, Wine by the Glass (Select Red, White &amp; Sparkling) $9 Gnocchi Alla Romana, Polpette Vegane, Ciliegine de Mozzarella Alla Caprese / $11 Polenta Aqua Mare, Fritturina All'Italiana, Pinsa Dello Chef / $13 Carciofi Alla Romana (grilled Roman-style artichokes), Melanzane Alla Parmigiana (eggplant parmigiana) / $15 Calamari Fritti</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Draft Beer / $8 Well Cocktails, Wine by the Glass (Select Red, White &amp; Sparkling) $9 Gnocchi Alla Romana, Polpette Vegane, Ciliegine de Mozzarella Alla Caprese / $11 Polenta Aqua Mare, Fritturina All'Italiana, Pinsa Dello Chef / $13 Carciofi Alla Romana (grilled Roman-style artichokes), Melanzane Alla Parmigiana (eggplant parmigiana) / $15 Calamari Fritti</t>
+          <t>Bussines hour: 4:00 PM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Draft Beer / $8 Well Cocktails, Wine by the Glass (Select Red, White &amp; Sparkling) $9 Gnocchi Alla Romana, Polpette Vegane, Ciliegine de Mozzarella Alla Caprese / $11 Polenta Aqua Mare, Fritturina All'Italiana, Pinsa Dello Chef / $13 Carciofi Alla Romana (grilled Roman-style artichokes), Melanzane Alla Parmigiana (eggplant parmigiana) / $15 Calamari Fritti</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Draft Beer / $8 Well Cocktails, Wine by the Glass (Select Red, White &amp; Sparkling) $9 Gnocchi Alla Romana, Polpette Vegane, Ciliegine de Mozzarella Alla Caprese / $11 Polenta Aqua Mare, Fritturina All'Italiana, Pinsa Dello Chef / $13 Carciofi Alla Romana (grilled Roman-style artichokes), Melanzane Alla Parmigiana (eggplant parmigiana) / $15 Calamari Fritti</t>
+          <t>Bussines hour: 4:00 PM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Draft Beer / $8 Well Cocktails, Wine by the Glass (Select Red, White &amp; Sparkling) $9 Gnocchi Alla Romana, Polpette Vegane, Ciliegine de Mozzarella Alla Caprese / $11 Polenta Aqua Mare, Fritturina All'Italiana, Pinsa Dello Chef / $13 Carciofi Alla Romana (grilled Roman-style artichokes), Melanzane Alla Parmigiana (eggplant parmigiana) / $15 Calamari Fritti</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Bussines hour: 3 Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Draft Beer / $8 Well Cocktails, Wine by the Glass (Select Red, White &amp; Sparkling) $9 Gnocchi Alla Romana, Polpette Vegane, Ciliegine de Mozzarella Alla Caprese / $11 Polenta Aqua Mare, Fritturina All'Italiana, Pinsa Dello Chef / $13 Carciofi Alla Romana (grilled Roman-style artichokes), Melanzane Alla Parmigiana (eggplant parmigiana) / $15 Calamari Fritti</t>
+          <t>Bussines hour: 4:00 PM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Draft Beer / $8 Well Cocktails, Wine by the Glass (Select Red, White &amp; Sparkling) $9 Gnocchi Alla Romana, Polpette Vegane, Ciliegine de Mozzarella Alla Caprese / $11 Polenta Aqua Mare, Fritturina All'Italiana, Pinsa Dello Chef / $13 Carciofi Alla Romana (grilled Roman-style artichokes), Melanzane Alla Parmigiana (eggplant parmigiana) / $15 Calamari Fritti</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Draft Beer / $8 Well Cocktails, Wine by the Glass (Select Red, White &amp; Sparkling) $9 Gnocchi Alla Romana, Polpette Vegane, Ciliegine de Mozzarella Alla Caprese / $11 Polenta Aqua Mare, Fritturina All'Italiana, Pinsa Dello Chef / $13 Carciofi Alla Romana (grilled Roman-style artichokes), Melanzane Alla Parmigiana (eggplant parmigiana) / $15 Calamari Fritti</t>
+          <t>Bussines hour: 4:00 PM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Draft Beer / $8 Well Cocktails, Wine by the Glass (Select Red, White &amp; Sparkling) $9 Gnocchi Alla Romana, Polpette Vegane, Ciliegine de Mozzarella Alla Caprese / $11 Polenta Aqua Mare, Fritturina All'Italiana, Pinsa Dello Chef / $13 Carciofi Alla Romana (grilled Roman-style artichokes), Melanzane Alla Parmigiana (eggplant parmigiana) / $15 Calamari Fritti</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Draft Beer / $8 Well Cocktails, Wine by the Glass (Select Red, White &amp; Sparkling) $9 Gnocchi Alla Romana, Polpette Vegane, Ciliegine de Mozzarella Alla Caprese / $11 Polenta Aqua Mare, Fritturina All'Italiana, Pinsa Dello Chef / $13 Carciofi Alla Romana (grilled Roman-style artichokes), Melanzane Alla Parmigiana (eggplant parmigiana) / $15 Calamari Fritti</t>
+          <t>Bussines hour: 4:00 PM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Draft Beer / $8 Well Cocktails, Wine by the Glass (Select Red, White &amp; Sparkling) $9 Gnocchi Alla Romana, Polpette Vegane, Ciliegine de Mozzarella Alla Caprese / $11 Polenta Aqua Mare, Fritturina All'Italiana, Pinsa Dello Chef / $13 Carciofi Alla Romana (grilled Roman-style artichokes), Melanzane Alla Parmigiana (eggplant parmigiana) / $15 Calamari Fritti</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Draft Beer / $8 Well Cocktails, Wine by the Glass (Select Red, White &amp; Sparkling) $9 Gnocchi Alla Romana, Polpette Vegane, Ciliegine de Mozzarella Alla Caprese / $11 Polenta Aqua Mare, Fritturina All'Italiana, Pinsa Dello Chef / $13 Carciofi Alla Romana (grilled Roman-style artichokes), Melanzane Alla Parmigiana (eggplant parmigiana) / $15 Calamari Fritti</t>
+          <t>Bussines hour: 11:30 AM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Draft Beer / $8 Well Cocktails, Wine by the Glass (Select Red, White &amp; Sparkling) $9 Gnocchi Alla Romana, Polpette Vegane, Ciliegine de Mozzarella Alla Caprese / $11 Polenta Aqua Mare, Fritturina All'Italiana, Pinsa Dello Chef / $13 Carciofi Alla Romana (grilled Roman-style artichokes), Melanzane Alla Parmigiana (eggplant parmigiana) / $15 Calamari Fritti</t>
         </is>
       </c>
     </row>
@@ -2108,37 +2108,37 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 10:00 AM -  9:00 PM Today deal: $4 Mimosas / $10 Bloody Marys or Micheladas</t>
+          <t>Bussines hour: 10:00 AM -  9:00 PM Happy hour: 10:00 AM -  9:00 PM Today deal: $4 Mimosas / $10 Bloody Marys or Micheladas</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Mimosas / $10 Bloody Marys or Micheladas</t>
+          <t>Bussines hour: 10:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Mimosas / $10 Bloody Marys or Micheladas</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Craft Beer / $10 Craft Cocktails $7 Sliders: Meso Tasty, QTown Fave, Black Bean Kiwilango, Bare Lil Lamb / $9 Hummus &amp; Veggies, Shrimp Skewers, Hot Young Tenders, Soft Pretzel</t>
+          <t>Bussines hour: 10:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Craft Beer / $10 Craft Cocktails $7 Sliders: Meso Tasty, QTown Fave, Black Bean Kiwilango, Bare Lil Lamb / $9 Hummus &amp; Veggies, Shrimp Skewers, Hot Young Tenders, Soft Pretzel</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Craft Beer / $10 Craft Cocktails $7 Sliders: Meso Tasty, QTown Fave, Black Bean Kiwilango, Bare Lil Lamb / $9 Hummus &amp; Veggies, Shrimp Skewers, Hot Young Tenders, Soft Pretzel</t>
+          <t>Bussines hour: 10:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Craft Beer / $10 Craft Cocktails $7 Sliders: Meso Tasty, QTown Fave, Black Bean Kiwilango, Bare Lil Lamb / $9 Hummus &amp; Veggies, Shrimp Skewers, Hot Young Tenders, Soft Pretzel</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Craft Beer / $10 Craft Cocktails $7 Sliders: Meso Tasty, QTown Fave, Black Bean Kiwilango, Bare Lil Lamb / $9 Hummus &amp; Veggies, Shrimp Skewers, Hot Young Tenders, Soft Pretzel</t>
+          <t>Bussines hour: 10:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Craft Beer / $10 Craft Cocktails $7 Sliders: Meso Tasty, QTown Fave, Black Bean Kiwilango, Bare Lil Lamb / $9 Hummus &amp; Veggies, Shrimp Skewers, Hot Young Tenders, Soft Pretzel</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Craft Beer / $10 Craft Cocktails $7 Sliders: Meso Tasty, QTown Fave, Black Bean Kiwilango, Bare Lil Lamb / $9 Hummus &amp; Veggies, Shrimp Skewers, Hot Young Tenders, Soft Pretzel</t>
+          <t>Bussines hour: 10:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Craft Beer / $10 Craft Cocktails $7 Sliders: Meso Tasty, QTown Fave, Black Bean Kiwilango, Bare Lil Lamb / $9 Hummus &amp; Veggies, Shrimp Skewers, Hot Young Tenders, Soft Pretzel</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 10:00 AM - 10:00 PM Today deal: $7 Craft Beer / $10 Craft Cocktails $7 Sliders: Meso Tasty, QTown Fave, Black Bean Kiwilango, Bare Lil Lamb / $9 Hummus &amp; Veggies, Shrimp Skewers, Hot Young Tenders, Soft Pretzel</t>
+          <t>Bussines hour: 10:00 AM - 10:00 PM Happy hour: 10:00 AM - 10:00 PM Today deal: $7 Craft Beer / $10 Craft Cocktails $7 Sliders: Meso Tasty, QTown Fave, Black Bean Kiwilango, Bare Lil Lamb / $9 Hummus &amp; Veggies, Shrimp Skewers, Hot Young Tenders, Soft Pretzel</t>
         </is>
       </c>
     </row>
@@ -2163,37 +2163,37 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Bussines hour: 3 Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
+          <t>Bussines hour: 9:30 AM -  9:00 PM Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
+          <t>Bussines hour: 4:00 PM -  9:00 PM Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
+          <t>Bussines hour: 4:00 PM -  9:00 PM Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
+          <t>Bussines hour: 4:00 PM -  9:00 PM Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
+          <t>Bussines hour: 4:00 PM -  9:00 PM Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
+          <t>Bussines hour: 11:30 AM - 10:00 PM Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
+          <t>Bussines hour: 11:30 AM - 10:00 PM Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
         </is>
       </c>
     </row>
@@ -2218,37 +2218,37 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Bussines hour: 4 Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
+          <t>Bussines hour: 11:30 AM -  9:00 PM Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
+          <t>Bussines hour: 4:00 PM -  9:00 PM Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
+          <t>Bussines hour: 4:00 PM -  9:00 PM Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
+          <t>Bussines hour: 4:00 PM -  9:00 PM Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
+          <t>Bussines hour: 4:00 PM -  9:00 PM Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
+          <t>Bussines hour: 4:00 PM - 10:00 PM Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
+          <t>Bussines hour: 11:30 AM - 10:00 PM Happy hour: 4:00 PM -  5:30 PM Today deal: $6 16oz. Draft Republic House Brews / $7 Select House Wine &amp; Well Cocktails, Any Rouleur Brewing Co. Beer Selection / $9 26oz. House Draft Republic Beers $7.95 Chop Chop Salad, Bavarian Pretzel Bites, Buttermilk Chicken Lollipops (hot sauce, stout bbq sauce or sweet &amp; spicy chili-lime sauce), Crispy Buffalo Cauliflower / $8.95 Bo Beau's Crispy Brussels Sprouts / $9.95 Draft Republic Beef Sliders (2), Sausage Sampler / $10.95 Poke Tacos (2) / $19.95 Burger or Sandwich + 16oz. House Draft Republic Beer (excludes 26oz. &amp; promotional beers)</t>
         </is>
       </c>
     </row>
@@ -2273,37 +2273,37 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 3:10 PM -  6:19 PM Today deal: $3.99 Crazee Fries / $4.49 Sweet Potato Fries / $4.99 Frings (1/2 fries + 1/2 onion rings), Springs (1/2 sweet potato + 1/2 onion rings), Winders (thick curly fries) / $8.99 Burger: Signature, Turkey or Veggie $15.49 Chicken Sandwich &amp; Onion Rings - Served with a fountain drink. Substitute your fountain drink for a beer +$2.</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:10 PM -  6:19 PM Today deal: $3.99 Crazee Fries / $4.49 Sweet Potato Fries / $4.99 Frings (1/2 fries + 1/2 onion rings), Springs (1/2 sweet potato + 1/2 onion rings), Winders (thick curly fries) / $8.99 Burger: Signature, Turkey or Veggie $15.49 Chicken Sandwich &amp; Onion Rings - Served with a fountain drink. Substitute your fountain drink for a beer +$2.</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 3:10 PM -  6:19 PM Today deal: $3.99 Crazee Fries / $4.49 Sweet Potato Fries / $4.99 Frings (1/2 fries + 1/2 onion rings), Springs (1/2 sweet potato + 1/2 onion rings), Winders (thick curly fries) / $8.99 Burger: Signature, Turkey or Veggie $15.49 Chicken Sandwich &amp; Onion Rings - Served with a fountain drink. Substitute your fountain drink for a beer +$2.</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:10 PM -  6:19 PM Today deal: $3.99 Crazee Fries / $4.49 Sweet Potato Fries / $4.99 Frings (1/2 fries + 1/2 onion rings), Springs (1/2 sweet potato + 1/2 onion rings), Winders (thick curly fries) / $8.99 Burger: Signature, Turkey or Veggie $15.49 Chicken Sandwich &amp; Onion Rings - Served with a fountain drink. Substitute your fountain drink for a beer +$2.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:10 PM -  6:19 PM Today deal: $3.99 Crazee Fries / $4.49 Sweet Potato Fries / $4.99 Frings (1/2 fries + 1/2 onion rings), Springs (1/2 sweet potato + 1/2 onion rings), Winders (thick curly fries) / $8.99 Burger: Signature, Turkey or Veggie $15.49 Chicken Sandwich &amp; Onion Rings - Served with a fountain drink. Substitute your fountain drink for a beer +$2.</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:10 PM -  6:19 PM Today deal: $3.99 Crazee Fries / $4.49 Sweet Potato Fries / $4.99 Frings (1/2 fries + 1/2 onion rings), Springs (1/2 sweet potato + 1/2 onion rings), Winders (thick curly fries) / $8.99 Burger: Signature, Turkey or Veggie $15.49 Chicken Sandwich &amp; Onion Rings - Served with a fountain drink. Substitute your fountain drink for a beer +$2.</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:10 PM -  6:19 PM Today deal: $3.99 Crazee Fries / $4.49 Sweet Potato Fries / $4.99 Frings (1/2 fries + 1/2 onion rings), Springs (1/2 sweet potato + 1/2 onion rings), Winders (thick curly fries) / $8.99 Burger: Signature, Turkey or Veggie $14.49 Cheddar Burger w/Crazee Fries - Served with a fountain drink. Substitute your fountain drink for a beer +$2.</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:10 PM -  6:19 PM Today deal: $3.99 Crazee Fries / $4.49 Sweet Potato Fries / $4.99 Frings (1/2 fries + 1/2 onion rings), Springs (1/2 sweet potato + 1/2 onion rings), Winders (thick curly fries) / $8.99 Burger: Signature, Turkey or Veggie $14.49 Cheddar Burger w/Crazee Fries - Served with a fountain drink. Substitute your fountain drink for a beer +$2.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:10 PM -  6:19 PM Today deal: $3.99 Crazee Fries / $4.49 Sweet Potato Fries / $4.99 Frings (1/2 fries + 1/2 onion rings), Springs (1/2 sweet potato + 1/2 onion rings), Winders (thick curly fries) / $8.99 Burger: Signature, Turkey or Veggie $14.49 Cheddar Burger w/Crazee Fries - Served with a fountain drink. Substitute your fountain drink for a beer +$2.</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:10 PM -  6:19 PM Today deal: $3.99 Crazee Fries / $4.49 Sweet Potato Fries / $4.99 Frings (1/2 fries + 1/2 onion rings), Springs (1/2 sweet potato + 1/2 onion rings), Winders (thick curly fries) / $8.99 Burger: Signature, Turkey or Veggie $14.49 Cheddar Burger w/Crazee Fries - Served with a fountain drink. Substitute your fountain drink for a beer +$2.</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:10 PM -  6:19 PM Today deal: $3.99 Crazee Fries / $4.49 Sweet Potato Fries / $4.99 Frings (1/2 fries + 1/2 onion rings), Springs (1/2 sweet potato + 1/2 onion rings), Winders (thick curly fries) / $8.99 Burger: Signature, Turkey or Veggie $14.49 Cheddar Burger w/Crazee Fries - Served with a fountain drink. Substitute your fountain drink for a beer +$2.</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:10 PM -  6:19 PM Today deal: $3.99 Crazee Fries / $4.49 Sweet Potato Fries / $4.99 Frings (1/2 fries + 1/2 onion rings), Springs (1/2 sweet potato + 1/2 onion rings), Winders (thick curly fries) / $8.99 Burger: Signature, Turkey or Veggie $14.49 Cheddar Burger w/Crazee Fries - Served with a fountain drink. Substitute your fountain drink for a beer +$2.</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 3:10 PM -  6:19 PM Today deal: $3.99 Crazee Fries / $4.49 Sweet Potato Fries / $4.99 Frings (1/2 fries + 1/2 onion rings), Springs (1/2 sweet potato + 1/2 onion rings), Winders (thick curly fries) / $8.99 Burger: Signature, Turkey or Veggie $15.99 Santorini Burger w/Crazee Fries - Served with a fountain drink. Substitute your fountain drink for a beer +$2.</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:10 PM -  6:19 PM Today deal: $3.99 Crazee Fries / $4.49 Sweet Potato Fries / $4.99 Frings (1/2 fries + 1/2 onion rings), Springs (1/2 sweet potato + 1/2 onion rings), Winders (thick curly fries) / $8.99 Burger: Signature, Turkey or Veggie $15.99 Santorini Burger w/Crazee Fries - Served with a fountain drink. Substitute your fountain drink for a beer +$2.</t>
         </is>
       </c>
     </row>
@@ -2328,37 +2328,37 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Bussines hour: 3 Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 12:00 PM -  9:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: Not Happy Hour Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: Not Happy Hour Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
     </row>
@@ -2383,37 +2383,37 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 12:00 PM -  9:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Bussines hour: 2 Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 3:00 PM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 3:00 PM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 3:00 PM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 3:00 PM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: Not Happy Hour Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: Not Happy Hour Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
     </row>
@@ -2438,37 +2438,37 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 11:00 AM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 11:00 AM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 3:00 PM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 11:00 AM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 11:00 AM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
         </is>
       </c>
     </row>
@@ -2478,54 +2478,52 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Las Hadas Bar &amp; Grill</t>
+          <t>Chili's Grill &amp; Bar</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>558 Fourth Ave. San Diego, CA 92101</t>
+          <t>2627 Vista Way Oceanside, CA 92054</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>(619) 232-1720</t>
+          <t>(760) 967-1064</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Bussines hour: 3 Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 11:00 AM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 4:00 PM -  9:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour: 0 Happy hour: 4:00 PM -  9:00 PM Today deal: $5 Mexican Beers, Cazadores &amp; Patron Shots 1/2 Off All Cazadores Margaritas: Blood Orange, Call Her Rita, Carona- Rita, The Caddy Daddy, Fruit Cart or Watermelon </t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour: 0 Happy hour: Not Happy Hour Today deal: $5 Mexican Beers, Cazadores &amp; Patron Shots 1/2 Off All Cazadores Margaritas: Blood Orange, Call Her Rita, Carona- Rita, The Caddy Daddy, Fruit Cart or Watermelon </t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour:   Happy hour: Not Happy Hour Today deal: $5 Mexican Beers, Cazadores &amp; Patron Shots 1/2 Off All Cazadores Margaritas: Blood Orange, Call Her Rita, Carona- Rita, The Caddy Daddy, Fruit Cart or Watermelon </t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: Not Happy Hour Today deal: $10 Patron or Cazadores Margaritas 4:00 PM - 9:00 PM
-$3 Taco: Chicken, Carnitas or Fish / $4 Taco: Shrimp or Veggie</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: Not Happy Hour Today deal: $10 Patron or Cazadores Margaritas 4:00 PM - 9:00 PM
-$3 Taco: Chicken, Carnitas or Fish / $4 Taco: Shrimp or Veggie</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 11:00 AM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
         </is>
       </c>
     </row>
@@ -2535,52 +2533,54 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Chili's Grill &amp; Bar</t>
+          <t>Las Hadas Bar &amp; Grill</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2627 Vista Way Oceanside, CA 92054</t>
+          <t>558 Fourth Ave. San Diego, CA 92101</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>(760) 967-1064</t>
+          <t>(619) 232-1720</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 11:00 AM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
+          <t>Bussines hour: 12:00 PM - 12:00 AM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 3:00 PM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
+          <t>Bussines hour: 3:00 PM -  1:00 AM Happy hour: 4:00 PM -  9:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
+          <t xml:space="preserve">Bussines hour: 3:00 PM -  1:00 AM Happy hour: 4:00 PM -  9:00 PM Today deal: $5 Mexican Beers, Cazadores &amp; Patron Shots 1/2 Off All Cazadores Margaritas: Blood Orange, Call Her Rita, Carona- Rita, The Caddy Daddy, Fruit Cart or Watermelon </t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
+          <t xml:space="preserve">Bussines hour: 3:00 PM -  1:00 AM Happy hour: Not Happy Hour Today deal: $5 Mexican Beers, Cazadores &amp; Patron Shots 1/2 Off All Cazadores Margaritas: Blood Orange, Call Her Rita, Carona- Rita, The Caddy Daddy, Fruit Cart or Watermelon </t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
+          <t xml:space="preserve">Bussines hour: 3:00 PM -  1:00 AM Happy hour: Not Happy Hour Today deal: $5 Mexican Beers, Cazadores &amp; Patron Shots 1/2 Off All Cazadores Margaritas: Blood Orange, Call Her Rita, Carona- Rita, The Caddy Daddy, Fruit Cart or Watermelon </t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
+          <t>Bussines hour: 3:00 PM -  1:00 AM Happy hour: Not Happy Hour Today deal: $10 Patron or Cazadores Margaritas 4:00 PM - 9:00 PM
+$3 Taco: Chicken, Carnitas or Fish / $4 Taco: Shrimp or Veggie</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 11:00 AM -  6:00 PM Today deal: $3 16oz. Bud Light / $4 22oz. Bud Light, 16oz. Modelo / $5 22oz. Modelo, Red &amp; White Wine by the Glass / $6 Tequila Trifecta, Straw-Eddy Rita, Sangria Rita</t>
+          <t>Bussines hour: 12:00 PM - 12:00 AM Happy hour: Not Happy Hour Today deal: $10 Patron or Cazadores Margaritas 4:00 PM - 9:00 PM
+$3 Taco: Chicken, Carnitas or Fish / $4 Taco: Shrimp or Veggie</t>
         </is>
       </c>
     </row>
@@ -2590,57 +2590,52 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>710 Beach Club</t>
+          <t>Taste &amp; Thirst</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>710 Garnet Ave. San Diego, CA 92109</t>
+          <t>715 Fourth Ave. San Diego, CA 92101</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>(858) 483-7844</t>
+          <t>(619) 955-5995</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 10:30 AM -  2:00 PM Today deal: $26 All You Can Eat Brunch</t>
+          <t>Bussines hour: 9:30 AM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 2:00 PM -  9:00 PM Today deal: $26 All You Can Eat Brunch</t>
+          <t>Bussines hour: 3:00 PM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 1:30 PM -  9:00 PM Today deal: $10 Cheese Pizza ALL DAY
-$7.10 Drink Specials</t>
+          <t>Bussines hour: 3:00 PM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 1:30 PM -  9:00 PM Today deal: $10 Cheese Pizza ALL DAY
-$7.10 Drink Specials</t>
+          <t>Bussines hour: 9:30 AM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 1:30 PM -  9:00 PM Today deal: $10 Cheese Pizza ALL DAY
-$7.10 Drink Specials</t>
+          <t>Bussines hour: 9:30 AM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 1:30 PM -  9:00 PM Today deal: $7.10 Any Two Tacos ALL DAY
-2 for 1 Tequila Shots / $4 Dos XX, Pacifico / $7.10 Margaritas</t>
+          <t>Bussines hour: 9:30 AM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 11:00 AM -  3:00 PM Today deal: $7.10 Any Two Tacos ALL DAY
-2 for 1 Tequila Shots / $4 Dos XX, Pacifico / $7.10 Margaritas</t>
+          <t>Bussines hour: 9:30 AM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
     </row>
@@ -2650,52 +2645,57 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Taste &amp; Thirst</t>
+          <t>710 Beach Club</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>715 Fourth Ave. San Diego, CA 92101</t>
+          <t>710 Garnet Ave. San Diego, CA 92109</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>(619) 955-5995</t>
+          <t>(858) 483-7844</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Bussines hour: 9 Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+          <t>Bussines hour: 10:00 AM -  2:00 AM Happy hour: 10:30 AM -  2:00 PM Today deal: $26 All You Can Eat Brunch</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+          <t>Bussines hour: 2:00 PM -  8:00 PM Happy hour: 2:00 PM -  9:00 PM Today deal: $26 All You Can Eat Brunch</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Bussines hour: 3 Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+          <t>Bussines hour: 11:30 AM -  2:00 AM Happy hour: 1:30 PM -  9:00 PM Today deal: $10 Cheese Pizza ALL DAY
+$7.10 Drink Specials</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+          <t>Bussines hour: 11:30 AM -  2:00 AM Happy hour: 1:30 PM -  9:00 PM Today deal: $10 Cheese Pizza ALL DAY
+$7.10 Drink Specials</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+          <t>Bussines hour: 11:30 AM -  2:00 AM Happy hour: 1:30 PM -  9:00 PM Today deal: $10 Cheese Pizza ALL DAY
+$7.10 Drink Specials</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+          <t>Bussines hour: 11:30 AM -  2:00 AM Happy hour: 1:30 PM -  9:00 PM Today deal: $7.10 Any Two Tacos ALL DAY
+2 for 1 Tequila Shots / $4 Dos XX, Pacifico / $7.10 Margaritas</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+          <t>Bussines hour: 11:00 AM -  2:00 AM Happy hour: 11:00 AM -  3:00 PM Today deal: $7.10 Any Two Tacos ALL DAY
+2 for 1 Tequila Shots / $4 Dos XX, Pacifico / $7.10 Margaritas</t>
         </is>
       </c>
     </row>
@@ -2720,37 +2720,37 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 11:00 AM -  1:00 PM Today deal: $6 Twisted Tea Drafts / $7 Breakfast Shots / $9 House Bloody Mary / $16 Champagne Bottle</t>
+          <t>Bussines hour: 12:00 PM - 11:00 PM Happy hour: 11:00 AM -  1:00 PM Today deal: $6 Twisted Tea Drafts / $7 Breakfast Shots / $9 House Bloody Mary / $16 Champagne Bottle</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bussines hour: 2 Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Twisted Tea Drafts / $7 Breakfast Shots / $9 House Bloody Mary / $16 Champagne Bottle</t>
+          <t>Bussines hour: 12:00 PM - 11:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Twisted Tea Drafts / $7 Breakfast Shots / $9 House Bloody Mary / $16 Champagne Bottle</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM - 11:00 PM Today deal: $5 Select Drafts, Well Drinks  $1 Wings (increments of 5): 21 Flavors / $3 Tater Tots, Seasoned Fries / $3.50  Red Sweet Potato Tots, Onion Rings</t>
+          <t>Bussines hour: 12:00 PM - 11:00 PM Happy hour: 3:00 PM - 11:00 PM Today deal: $5 Select Drafts, Well Drinks  $1 Wings (increments of 5): 21 Flavors / $3 Tater Tots, Seasoned Fries / $3.50  Red Sweet Potato Tots, Onion Rings</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 12:00 PM - 11:00 PM Today deal: $5 Select Drafts, Well Drinks  $1 Wings (increments of 5): 21 Flavors / $3 Tater Tots, Seasoned Fries / $3.50  Red Sweet Potato Tots, Onion Rings</t>
+          <t>Bussines hour: 12:00 PM - 11:00 PM Happy hour: 12:00 PM - 11:00 PM Today deal: $5 Select Drafts, Well Drinks  $1 Wings (increments of 5): 21 Flavors / $3 Tater Tots, Seasoned Fries / $3.50  Red Sweet Potato Tots, Onion Rings</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  5:00 PM Today deal: $5 Select Drafts, Well Drinks  $1 Wings (increments of 5): 21 Flavors / $3 Tater Tots, Seasoned Fries / $3.50  Red Sweet Potato Tots, Onion Rings</t>
+          <t>Bussines hour: 12:00 PM - 11:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $5 Select Drafts, Well Drinks  $1 Wings (increments of 5): 21 Flavors / $3 Tater Tots, Seasoned Fries / $3.50  Red Sweet Potato Tots, Onion Rings</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  5:00 PM Today deal: $5 Select Drafts, Well Drinks  $1 Wings (increments of 5): 21 Flavors / $3 Tater Tots, Seasoned Fries / $3.50  Red Sweet Potato Tots, Onion Rings</t>
+          <t>Bussines hour: 12:00 PM -  1:00 AM Happy hour: 3:00 PM -  5:00 PM Today deal: $5 Select Drafts, Well Drinks  $1 Wings (increments of 5): 21 Flavors / $3 Tater Tots, Seasoned Fries / $3.50  Red Sweet Potato Tots, Onion Rings</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 10:00 PM - 12:30 AM Today deal: $5 Select Drafts, Well Drinks  $1 Wings (increments of 5): 21 Flavors / $3 Tater Tots, Seasoned Fries / $3.50  Red Sweet Potato Tots, Onion Rings</t>
+          <t>Bussines hour: 12:00 PM -  1:00 AM Happy hour: 10:00 PM - 12:30 AM Today deal: $5 Select Drafts, Well Drinks  $1 Wings (increments of 5): 21 Flavors / $3 Tater Tots, Seasoned Fries / $3.50  Red Sweet Potato Tots, Onion Rings</t>
         </is>
       </c>
     </row>
@@ -2775,39 +2775,39 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 10:00 AM -  3:00 PM Today deal: $8 Mimosa (traditional or island style) / $9 Pog Slushie / $12 Black Salt Bloody Mary / $13 Aperol Sritz $13.50 - $23.50 Brunch Menu</t>
+          <t>Bussines hour: 10:00 AM -  9:00 PM Happy hour: 10:00 AM -  3:00 PM Today deal: $8 Mimosa (traditional or island style) / $9 Pog Slushie / $12 Black Salt Bloody Mary / $13 Aperol Sritz $13.50 - $23.50 Brunch Menu</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: Not Happy Hour Today deal: $8 Mimosa (traditional or island style) / $9 Pog Slushie / $12 Black Salt Bloody Mary / $13 Aperol Sritz $13.50 - $23.50 Brunch Menu</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: Not Happy Hour Today deal: $8 Mimosa (traditional or island style) / $9 Pog Slushie / $12 Black Salt Bloody Mary / $13 Aperol Sritz $13.50 - $23.50 Brunch Menu</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  9:00 PM Today deal: $8 Mimosa (traditional or island style) / $9 Pog Slushie / $12 Black Salt Bloody Mary / $13 Aperol Sritz $13.50 - $23.50 Brunch Menu</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  9:00 PM Today deal: $8 Mimosa (traditional or island style) / $9 Pog Slushie / $12 Black Salt Bloody Mary / $13 Aperol Sritz $13.50 - $23.50 Brunch Menu</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 5:00 PM -  9:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 5:00 PM -  9:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $5 Pacifico / $8 Duke's Margaritas 3:00 PM - 9:00 PM
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5 Pacifico / $8 Duke's Margaritas 3:00 PM - 9:00 PM
 $14 Two Tacos w/Chips &amp; Salsa: Fresh Fish, Kalua Pork,  Chipotle Chicken or Togarashi Shrimp 
 [Special available in the Barefoot Bar]</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 10:00 AM -  3:00 PM Today deal: $5 Pacifico / $8 Duke's Margaritas 3:00 PM - 9:00 PM
+          <t>Bussines hour: 10:00 AM -  9:00 PM Happy hour: 10:00 AM -  3:00 PM Today deal: $5 Pacifico / $8 Duke's Margaritas 3:00 PM - 9:00 PM
 $14 Two Tacos w/Chips &amp; Salsa: Fresh Fish, Kalua Pork,  Chipotle Chicken or Togarashi Shrimp 
 [Special available in the Barefoot Bar]</t>
         </is>
@@ -2834,37 +2834,37 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Bussines hour: 9 Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Draft Beer &amp; House Wine (red, white or rosé) / $9 Margarita, Moscow Mule, Old Fashioned $8 Slider: Meso Tasty, Hog n Heffers, Lamb or Kiwilango, Calamari, Hummus &amp; Veggies, Pretzel Bites w/Jalapeno Cheese, Classic New Zealand Onion Dip w/Fresh House Made Potato Chips</t>
+          <t>Bussines hour: 9:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Draft Beer &amp; House Wine (red, white or rosé) / $9 Margarita, Moscow Mule, Old Fashioned $8 Slider: Meso Tasty, Hog n Heffers, Lamb or Kiwilango, Calamari, Hummus &amp; Veggies, Pretzel Bites w/Jalapeno Cheese, Classic New Zealand Onion Dip w/Fresh House Made Potato Chips</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Draft Beer &amp; House Wine (red, white or rosé) / $9 Margarita, Moscow Mule, Old Fashioned $8 Slider: Meso Tasty, Hog n Heffers, Lamb or Kiwilango, Calamari, Hummus &amp; Veggies, Pretzel Bites w/Jalapeno Cheese, Classic New Zealand Onion Dip w/Fresh House Made Potato Chips</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Draft Beer &amp; House Wine (red, white or rosé) / $9 Margarita, Moscow Mule, Old Fashioned $8 Slider: Meso Tasty, Hog n Heffers, Lamb or Kiwilango, Calamari, Hummus &amp; Veggies, Pretzel Bites w/Jalapeno Cheese, Classic New Zealand Onion Dip w/Fresh House Made Potato Chips</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Draft Beer &amp; House Wine (red, white or rosé) / $9 Margarita, Moscow Mule, Old Fashioned $8 Slider: Meso Tasty, Hog n Heffers, Lamb or Kiwilango, Calamari, Hummus &amp; Veggies, Pretzel Bites w/Jalapeno Cheese, Classic New Zealand Onion Dip w/Fresh House Made Potato Chips</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Draft Beer &amp; House Wine (red, white or rosé) / $9 Margarita, Moscow Mule, Old Fashioned $8 Slider: Meso Tasty, Hog n Heffers, Lamb or Kiwilango, Calamari, Hummus &amp; Veggies, Pretzel Bites w/Jalapeno Cheese, Classic New Zealand Onion Dip w/Fresh House Made Potato Chips</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Draft Beer &amp; House Wine (red, white or rosé) / $9 Margarita, Moscow Mule, Old Fashioned $8 Slider: Meso Tasty, Hog n Heffers, Lamb or Kiwilango, Calamari, Hummus &amp; Veggies, Pretzel Bites w/Jalapeno Cheese, Classic New Zealand Onion Dip w/Fresh House Made Potato Chips</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Draft Beer &amp; House Wine (red, white or rosé) / $9 Margarita, Moscow Mule, Old Fashioned $8 Slider: Meso Tasty, Hog n Heffers, Lamb or Kiwilango, Calamari, Hummus &amp; Veggies, Pretzel Bites w/Jalapeno Cheese, Classic New Zealand Onion Dip w/Fresh House Made Potato Chips</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Draft Beer &amp; House Wine (red, white or rosé) / $9 Margarita, Moscow Mule, Old Fashioned $8 Slider: Meso Tasty, Hog n Heffers, Lamb or Kiwilango, Calamari, Hummus &amp; Veggies, Pretzel Bites w/Jalapeno Cheese, Classic New Zealand Onion Dip w/Fresh House Made Potato Chips</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Draft Beer &amp; House Wine (red, white or rosé) / $9 Margarita, Moscow Mule, Old Fashioned $8 Slider: Meso Tasty, Hog n Heffers, Lamb or Kiwilango, Calamari, Hummus &amp; Veggies, Pretzel Bites w/Jalapeno Cheese, Classic New Zealand Onion Dip w/Fresh House Made Potato Chips</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Draft Beer &amp; House Wine (red, white or rosé) / $9 Margarita, Moscow Mule, Old Fashioned $8 Slider: Meso Tasty, Hog n Heffers, Lamb or Kiwilango, Calamari, Hummus &amp; Veggies, Pretzel Bites w/Jalapeno Cheese, Classic New Zealand Onion Dip w/Fresh House Made Potato Chips</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Draft Beer &amp; House Wine (red, white or rosé) / $9 Margarita, Moscow Mule, Old Fashioned $8 Slider: Meso Tasty, Hog n Heffers, Lamb or Kiwilango, Calamari, Hummus &amp; Veggies, Pretzel Bites w/Jalapeno Cheese, Classic New Zealand Onion Dip w/Fresh House Made Potato Chips</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Draft Beer &amp; House Wine (red, white or rosé) / $9 Margarita, Moscow Mule, Old Fashioned $8 Slider: Meso Tasty, Hog n Heffers, Lamb or Kiwilango, Calamari, Hummus &amp; Veggies, Pretzel Bites w/Jalapeno Cheese, Classic New Zealand Onion Dip w/Fresh House Made Potato Chips</t>
+          <t>Bussines hour: 9:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $7 Draft Beer &amp; House Wine (red, white or rosé) / $9 Margarita, Moscow Mule, Old Fashioned $8 Slider: Meso Tasty, Hog n Heffers, Lamb or Kiwilango, Calamari, Hummus &amp; Veggies, Pretzel Bites w/Jalapeno Cheese, Classic New Zealand Onion Dip w/Fresh House Made Potato Chips</t>
         </is>
       </c>
     </row>
@@ -2889,37 +2889,37 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Bussines hour: 9 Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 9:00 AM - 12:00 AM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 8:00 PM - 12:00 AM Today deal: No Specials</t>
+          <t>Bussines hour: 10:00 AM - 12:00 AM Happy hour: 8:00 PM - 12:00 AM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM - 12:00 AM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
+          <t>Bussines hour: 10:00 AM - 12:00 AM Happy hour: 4:00 PM - 12:00 AM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 8:00 PM -  1:30 AM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
+          <t>Bussines hour: 10:00 AM -  2:00 AM Happy hour: 8:00 PM -  1:30 AM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 4:00 PM -  1:30 AM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
+          <t>Bussines hour: 10:00 AM -  2:00 AM Happy hour: 4:00 PM -  1:30 AM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 4:00 PM -  8:00 PM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
+          <t>Bussines hour: 10:00 AM -  2:00 AM Happy hour: 4:00 PM -  8:00 PM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour: M Happy hour: Not Happy Hour Today deal: $3 All Drafts / $5 Ketel One &amp; Crown Royal $3 Hot Dogs </t>
+          <t xml:space="preserve">Bussines hour: 9:00 AM -  2:00 AM Happy hour: Not Happy Hour Today deal: $3 All Drafts / $5 Ketel One &amp; Crown Royal $3 Hot Dogs </t>
         </is>
       </c>
     </row>
@@ -2944,37 +2944,37 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Bussines hour: 4 Happy hour: 10:00 PM - 11:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 10:00 PM - 11:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
+          <t>Bussines hour: 11:00 AM - 11:30 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: Not Happy Hour Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
+          <t>Bussines hour: 11:00 AM - 11:30 PM Happy hour: Not Happy Hour Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
     </row>
@@ -2999,37 +2999,37 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour: 1 Happy hour: 10:00 AM -  2:00 PM Today deal: $10 - $15 Signature Brunch Cocktails / $85 Champagne Tower: 3 Liters of Bubbly w/Two Juices  $13 - $45 Brunch Menu </t>
+          <t xml:space="preserve">Bussines hour: 10:00 AM -  1:00 AM Happy hour: 10:00 AM -  2:00 PM Today deal: $10 - $15 Signature Brunch Cocktails / $85 Champagne Tower: 3 Liters of Bubbly w/Two Juices  $13 - $45 Brunch Menu </t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour: 0 Happy hour: Closed Today deal: $10 - $15 Signature Brunch Cocktails / $85 Champagne Tower: 3 Liters of Bubbly w/Two Juices  $13 - $45 Brunch Menu </t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour: : Happy hour: 4:00 PM -  8:00 PM Today deal: $10 - $15 Signature Brunch Cocktails / $85 Champagne Tower: 3 Liters of Bubbly w/Two Juices  $13 - $45 Brunch Menu </t>
+          <t xml:space="preserve">Bussines hour: 4:00 PM - 10:00 PM Happy hour: 4:00 PM -  8:00 PM Today deal: $10 - $15 Signature Brunch Cocktails / $85 Champagne Tower: 3 Liters of Bubbly w/Two Juices  $13 - $45 Brunch Menu </t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  8:00 PM Today deal: Closed</t>
+          <t>Bussines hour: 12:00 PM - 12:00 AM Happy hour: 4:00 PM -  8:00 PM Today deal: Closed</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 8:00 PM - 12:00 AM Today deal: $6 Wells, Drafts &amp; House Wine Glasses</t>
+          <t>Bussines hour: 12:00 PM - 12:00 AM Happy hour: 8:00 PM - 12:00 AM Today deal: $6 Wells, Drafts &amp; House Wine Glasses</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 12:00 PM -  7:00 PM Today deal: $6 Wells, Drafts &amp; House Wine Glasses</t>
+          <t>Bussines hour: 12:00 PM -  2:00 AM Happy hour: 12:00 PM -  7:00 PM Today deal: $6 Wells, Drafts &amp; House Wine Glasses</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 10:00 AM -  2:00 PM Today deal:  $6 Wells, Drafts &amp; House Wine Glasses $6 Nachos, Salty Pretzel Balls, Baja Fish Taco, Buffalo Cauliflower / $10 Bone-In Wings (6): Buffalo, Smokeshow, Lemon Pepper, Garlic Parmesan, Honey BBQ, Dry, Orange Chicken</t>
+          <t>Bussines hour: 10:00 AM -  2:00 AM Happy hour: 10:00 AM -  2:00 PM Today deal:  $6 Wells, Drafts &amp; House Wine Glasses $6 Nachos, Salty Pretzel Balls, Baja Fish Taco, Buffalo Cauliflower / $10 Bone-In Wings (6): Buffalo, Smokeshow, Lemon Pepper, Garlic Parmesan, Honey BBQ, Dry, Orange Chicken</t>
         </is>
       </c>
     </row>
@@ -3054,37 +3054,37 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 12:00 PM -  2:00 PM Today deal: $5 Bloody Marys / $8 Champagne Bottles</t>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: 12:00 PM -  2:00 PM Today deal: $5 Bloody Marys / $8 Champagne Bottles</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Bussines hour: 2 Happy hour: 3:00 PM -  6:00 PM Today deal: $5 Bloody Marys / $8 Champagne Bottles</t>
+          <t>Bussines hour: 12:00 PM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5 Bloody Marys / $8 Champagne Bottles</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Fresh Cut Fries / $3.50 Clam Strips / $4 Guacamole w/Chips &amp; Salsa / $4.50 Jalapeño Poppers / $6 Peel &amp; Eat Shrimp / $6.50 Fried Calamari Strips, Chicken Nachos, Carne Asada Fries</t>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Fresh Cut Fries / $3.50 Clam Strips / $4 Guacamole w/Chips &amp; Salsa / $4.50 Jalapeño Poppers / $6 Peel &amp; Eat Shrimp / $6.50 Fried Calamari Strips, Chicken Nachos, Carne Asada Fries</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Fresh Cut Fries / $3.50 Clam Strips / $4 Guacamole w/Chips &amp; Salsa / $4.50 Jalapeño Poppers / $6 Peel &amp; Eat Shrimp / $6.50 Fried Calamari Strips, Chicken Nachos, Carne Asada Fries</t>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Fresh Cut Fries / $3.50 Clam Strips / $4 Guacamole w/Chips &amp; Salsa / $4.50 Jalapeño Poppers / $6 Peel &amp; Eat Shrimp / $6.50 Fried Calamari Strips, Chicken Nachos, Carne Asada Fries</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Fresh Cut Fries / $3.50 Clam Strips / $4 Guacamole w/Chips &amp; Salsa / $4.50 Jalapeño Poppers / $6 Peel &amp; Eat Shrimp / $6.50 Fried Calamari Strips, Chicken Nachos, Carne Asada Fries $3.95 All Tacos (excluding lobster) / $7 Patron Margarita</t>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Fresh Cut Fries / $3.50 Clam Strips / $4 Guacamole w/Chips &amp; Salsa / $4.50 Jalapeño Poppers / $6 Peel &amp; Eat Shrimp / $6.50 Fried Calamari Strips, Chicken Nachos, Carne Asada Fries $3.95 All Tacos (excluding lobster) / $7 Patron Margarita</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Fresh Cut Fries / $3.50 Clam Strips / $4 Guacamole w/Chips &amp; Salsa / $4.50 Jalapeño Poppers / $6 Peel &amp; Eat Shrimp / $6.50 Fried Calamari Strips, Chicken Nachos, Carne Asada Fries $3.95 All Tacos (excluding lobster) / $7 Patron Margarita</t>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Fresh Cut Fries / $3.50 Clam Strips / $4 Guacamole w/Chips &amp; Salsa / $4.50 Jalapeño Poppers / $6 Peel &amp; Eat Shrimp / $6.50 Fried Calamari Strips, Chicken Nachos, Carne Asada Fries $3.95 All Tacos (excluding lobster) / $7 Patron Margarita</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 12:00 PM -  2:00 PM Today deal: $2 Fresh Cut Fries / $3.50 Clam Strips / $4 Guacamole w/Chips &amp; Salsa / $4.50 Jalapeño Poppers / $6 Peel &amp; Eat Shrimp / $6.50 Fried Calamari Strips, Chicken Nachos, Carne Asada Fries $3.95 All Tacos (excluding lobster) / $7 Patron Margarita</t>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: 12:00 PM -  2:00 PM Today deal: $2 Fresh Cut Fries / $3.50 Clam Strips / $4 Guacamole w/Chips &amp; Salsa / $4.50 Jalapeño Poppers / $6 Peel &amp; Eat Shrimp / $6.50 Fried Calamari Strips, Chicken Nachos, Carne Asada Fries $3.95 All Tacos (excluding lobster) / $7 Patron Margarita</t>
         </is>
       </c>
     </row>
@@ -3109,37 +3109,37 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Bussines hour: 3 Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: Closed Today deal: No Specials</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 5:00 PM -  7:00 PM Today deal: Closed</t>
+          <t>Bussines hour: 5:00 PM -  2:00 AM Happy hour: 5:00 PM -  7:00 PM Today deal: Closed</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 5:00 PM -  7:00 PM Today deal: $4 Draft Coors Light, XX or Pacifico / $7 Cadillac Margarita, Not So Old Fashioned / $8 Frozen Drinks / $9 Junkie Cup &amp; Coco Mango Cup  $7 Chips w/Salsa &amp; Guacamole, Giant Pretzel w/Honey Mustard &amp; Chipotle Cheese, Mozzarella Sticks / $8 Cauliflower Bites / $9 Nachos, Breaded Mac &amp; Cheese Balls / $10 Crispy Rock Shrimp, Carne Asada Fries, Chicken Tenders, Chicken Wings (bone-in or boneless): Smoked Whiskey BBQ, Classic Buffalo, Honey Jalapeño, Lemon Pepper or Cajun</t>
+          <t>Bussines hour: 5:00 PM -  2:00 AM Happy hour: 5:00 PM -  7:00 PM Today deal: $4 Draft Coors Light, XX or Pacifico / $7 Cadillac Margarita, Not So Old Fashioned / $8 Frozen Drinks / $9 Junkie Cup &amp; Coco Mango Cup  $7 Chips w/Salsa &amp; Guacamole, Giant Pretzel w/Honey Mustard &amp; Chipotle Cheese, Mozzarella Sticks / $8 Cauliflower Bites / $9 Nachos, Breaded Mac &amp; Cheese Balls / $10 Crispy Rock Shrimp, Carne Asada Fries, Chicken Tenders, Chicken Wings (bone-in or boneless): Smoked Whiskey BBQ, Classic Buffalo, Honey Jalapeño, Lemon Pepper or Cajun</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 5:00 PM -  7:00 PM Today deal: $4 Draft Coors Light, XX or Pacifico / $7 Cadillac Margarita, Not So Old Fashioned / $8 Frozen Drinks / $9 Junkie Cup &amp; Coco Mango Cup  $7 Chips w/Salsa &amp; Guacamole, Giant Pretzel w/Honey Mustard &amp; Chipotle Cheese, Mozzarella Sticks / $8 Cauliflower Bites / $9 Nachos, Breaded Mac &amp; Cheese Balls / $10 Crispy Rock Shrimp, Carne Asada Fries, Chicken Tenders, Chicken Wings (bone-in or boneless): Smoked Whiskey BBQ, Classic Buffalo, Honey Jalapeño, Lemon Pepper or Cajun</t>
+          <t>Bussines hour: 5:00 PM -  2:00 AM Happy hour: 5:00 PM -  7:00 PM Today deal: $4 Draft Coors Light, XX or Pacifico / $7 Cadillac Margarita, Not So Old Fashioned / $8 Frozen Drinks / $9 Junkie Cup &amp; Coco Mango Cup  $7 Chips w/Salsa &amp; Guacamole, Giant Pretzel w/Honey Mustard &amp; Chipotle Cheese, Mozzarella Sticks / $8 Cauliflower Bites / $9 Nachos, Breaded Mac &amp; Cheese Balls / $10 Crispy Rock Shrimp, Carne Asada Fries, Chicken Tenders, Chicken Wings (bone-in or boneless): Smoked Whiskey BBQ, Classic Buffalo, Honey Jalapeño, Lemon Pepper or Cajun</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 5:00 PM -  8:00 PM Today deal: $4 Draft Coors Light, XX or Pacifico / $7 Cadillac Margarita, Not So Old Fashioned / $8 Frozen Drinks / $9 Junkie Cup &amp; Coco Mango Cup  $7 Chips w/Salsa &amp; Guacamole, Giant Pretzel w/Honey Mustard &amp; Chipotle Cheese, Mozzarella Sticks / $8 Cauliflower Bites / $9 Nachos, Breaded Mac &amp; Cheese Balls / $10 Crispy Rock Shrimp, Carne Asada Fries, Chicken Tenders, Chicken Wings (bone-in or boneless): Smoked Whiskey BBQ, Classic Buffalo, Honey Jalapeño, Lemon Pepper or Cajun</t>
+          <t>Bussines hour: 5:00 PM -  2:00 AM Happy hour: 5:00 PM -  8:00 PM Today deal: $4 Draft Coors Light, XX or Pacifico / $7 Cadillac Margarita, Not So Old Fashioned / $8 Frozen Drinks / $9 Junkie Cup &amp; Coco Mango Cup  $7 Chips w/Salsa &amp; Guacamole, Giant Pretzel w/Honey Mustard &amp; Chipotle Cheese, Mozzarella Sticks / $8 Cauliflower Bites / $9 Nachos, Breaded Mac &amp; Cheese Balls / $10 Crispy Rock Shrimp, Carne Asada Fries, Chicken Tenders, Chicken Wings (bone-in or boneless): Smoked Whiskey BBQ, Classic Buffalo, Honey Jalapeño, Lemon Pepper or Cajun</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: Not Happy Hour Today deal: $4 Draft Coors Light, XX or Pacifico / $7 Cadillac Margarita, Not So Old Fashioned / $8 Frozen Drinks / $9 Junkie Cup &amp; Coco Mango Cup  $7 Chips w/Salsa &amp; Guacamole, Giant Pretzel w/Honey Mustard &amp; Chipotle Cheese, Mozzarella Sticks / $8 Cauliflower Bites / $9 Nachos, Breaded Mac &amp; Cheese Balls / $10 Crispy Rock Shrimp, Carne Asada Fries, Chicken Tenders, Chicken Wings (bone-in or boneless): Smoked Whiskey BBQ, Classic Buffalo, Honey Jalapeño, Lemon Pepper or Cajun</t>
+          <t>Bussines hour: 1:00 PM -  2:00 AM Happy hour: Not Happy Hour Today deal: $4 Draft Coors Light, XX or Pacifico / $7 Cadillac Margarita, Not So Old Fashioned / $8 Frozen Drinks / $9 Junkie Cup &amp; Coco Mango Cup  $7 Chips w/Salsa &amp; Guacamole, Giant Pretzel w/Honey Mustard &amp; Chipotle Cheese, Mozzarella Sticks / $8 Cauliflower Bites / $9 Nachos, Breaded Mac &amp; Cheese Balls / $10 Crispy Rock Shrimp, Carne Asada Fries, Chicken Tenders, Chicken Wings (bone-in or boneless): Smoked Whiskey BBQ, Classic Buffalo, Honey Jalapeño, Lemon Pepper or Cajun</t>
         </is>
       </c>
     </row>
@@ -3164,37 +3164,37 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Bussines hour: 3 Happy hour: 4:00 PM -  6:00 PM Today deal: 51% Off All Drinks [excludes top shelf and specialty cocktails] $9 Dueling Dips / $11 Brussels Sprouts w/Prosciutto, Margherita Flatbread / $12 Ahi Nachos, Prosciutto Flatbread / $13 Beijing Style or Nashville Wings, Home-Style Chicken Tenders w/Fries / $19 Garage Charcuterie Board</t>
+          <t>Bussines hour: 9:00 AM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: 51% Off All Drinks [excludes top shelf and specialty cocktails] $9 Dueling Dips / $11 Brussels Sprouts w/Prosciutto, Margherita Flatbread / $12 Ahi Nachos, Prosciutto Flatbread / $13 Beijing Style or Nashville Wings, Home-Style Chicken Tenders w/Fries / $19 Garage Charcuterie Board</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: Closed Today deal: 51% Off All Drinks [excludes top shelf and specialty cocktails] $9 Dueling Dips / $11 Brussels Sprouts w/Prosciutto, Margherita Flatbread / $12 Ahi Nachos, Prosciutto Flatbread / $13 Beijing Style or Nashville Wings, Home-Style Chicken Tenders w/Fries / $19 Garage Charcuterie Board</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: 51% Off All Drinks [excludes top shelf and specialty cocktails] $9 Dueling Dips / $11 Brussels Sprouts w/Prosciutto, Margherita Flatbread / $12 Ahi Nachos, Prosciutto Flatbread / $13 Beijing Style or Nashville Wings, Home-Style Chicken Tenders w/Fries / $19 Garage Charcuterie Board</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: 51% Off All Drinks [excludes top shelf and specialty cocktails] $9 Dueling Dips / $11 Brussels Sprouts w/Prosciutto, Margherita Flatbread / $12 Ahi Nachos, Prosciutto Flatbread / $13 Beijing Style or Nashville Wings, Home-Style Chicken Tenders w/Fries / $19 Garage Charcuterie Board</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: 51% Off All Drinks [excludes top shelf and specialty cocktails] $9 Dueling Dips / $11 Brussels Sprouts w/Prosciutto, Margherita Flatbread / $12 Ahi Nachos, Prosciutto Flatbread / $13 Beijing Style or Nashville Wings, Home-Style Chicken Tenders w/Fries / $19 Garage Charcuterie Board</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: 51% Off All Drinks [excludes top shelf and specialty cocktails] $9 Dueling Dips / $11 Brussels Sprouts w/Prosciutto, Margherita Flatbread / $12 Ahi Nachos, Prosciutto Flatbread / $13 Beijing Style or Nashville Wings, Home-Style Chicken Tenders w/Fries / $19 Garage Charcuterie Board</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 4:00 PM -  6:00 PM Today deal: 51% Off All Drinks [excludes top shelf and specialty cocktails] $9 Dueling Dips / $11 Brussels Sprouts w/Prosciutto, Margherita Flatbread / $12 Ahi Nachos, Prosciutto Flatbread / $13 Beijing Style or Nashville Wings, Home-Style Chicken Tenders w/Fries / $19 Garage Charcuterie Board</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: 51% Off All Drinks [excludes top shelf and specialty cocktails] $9 Dueling Dips / $11 Brussels Sprouts w/Prosciutto, Margherita Flatbread / $12 Ahi Nachos, Prosciutto Flatbread / $13 Beijing Style or Nashville Wings, Home-Style Chicken Tenders w/Fries / $19 Garage Charcuterie Board</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 4:00 PM -  6:00 PM Today deal: Closed</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: Closed</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: 4:00 PM -  6:00 PM Today deal: 51% Off All Drinks [excludes top shelf and specialty cocktails] $9 Dueling Dips / $11 Brussels Sprouts w/Prosciutto, Margherita Flatbread / $12 Ahi Nachos, Prosciutto Flatbread / $13 Beijing Style or Nashville Wings, Home-Style Chicken Tenders w/Fries / $19 Garage Charcuterie Board</t>
+          <t>Bussines hour: 9:00 AM - 12:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: 51% Off All Drinks [excludes top shelf and specialty cocktails] $9 Dueling Dips / $11 Brussels Sprouts w/Prosciutto, Margherita Flatbread / $12 Ahi Nachos, Prosciutto Flatbread / $13 Beijing Style or Nashville Wings, Home-Style Chicken Tenders w/Fries / $19 Garage Charcuterie Board</t>
         </is>
       </c>
     </row>
@@ -3219,43 +3219,43 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 2:00 PM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+          <t>Bussines hour: 10:00 AM - 10:00 PM Happy hour: 2:00 PM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
 [Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
 [Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
 [Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
 [Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
 [Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+          <t>Bussines hour: 11:00 AM -  1:00 AM Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
 [Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 2:00 PM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+          <t>Bussines hour: 10:00 AM -  1:00 AM Happy hour: 2:00 PM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
 [Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
@@ -3281,37 +3281,37 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 10:00 AM -  3:00 PM Today deal: $11 Michelada / $15 Bloody Mary / $16 Signature Drink $15 - $38 Brunch Menu</t>
+          <t>Bussines hour: 10:00 AM - 10:00 PM Happy hour: 10:00 AM -  3:00 PM Today deal: $11 Michelada / $15 Bloody Mary / $16 Signature Drink $15 - $38 Brunch Menu</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: Closed Today deal: $11 Michelada / $15 Bloody Mary / $16 Signature Drink $15 - $38 Brunch Menu</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 4:00 PM -  5:00 PM Today deal: $11 Michelada / $15 Bloody Mary / $16 Signature Drink $15 - $38 Brunch Menu</t>
+          <t>Bussines hour: 4:00 PM - 10:00 PM Happy hour: 4:00 PM -  5:00 PM Today deal: $11 Michelada / $15 Bloody Mary / $16 Signature Drink $15 - $38 Brunch Menu</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  5:00 PM Today deal: $11 Michelada / $15 Bloody Mary / $16 Signature Drink $15 - $38 Brunch Menu</t>
+          <t>Bussines hour: 4:00 PM - 10:00 PM Happy hour: 4:00 PM -  5:00 PM Today deal: $11 Michelada / $15 Bloody Mary / $16 Signature Drink $15 - $38 Brunch Menu</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  5:00 PM Today deal: Closed</t>
+          <t>Bussines hour: 4:00 PM - 10:00 PM Happy hour: 4:00 PM -  5:00 PM Today deal: Closed</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 4:00 PM -  5:00 PM Today deal: $10 Featured Red &amp; White Wines / $12 Select Signature Drinks $12 Za'atar Flatbread, Black Kale, Salmon Belly Crudo, Potato Leek Soup, Roasted Bone Marrow, Roasted Broccolini / $30 Charcuterie Board</t>
+          <t>Bussines hour: 4:00 PM - 12:00 AM Happy hour: 4:00 PM -  5:00 PM Today deal: $10 Featured Red &amp; White Wines / $12 Select Signature Drinks $12 Za'atar Flatbread, Black Kale, Salmon Belly Crudo, Potato Leek Soup, Roasted Bone Marrow, Roasted Broccolini / $30 Charcuterie Board</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 10:00 AM -  3:00 PM Today deal: $10 Featured Red &amp; White Wines / $12 Select Signature Drinks $12 Za'atar Flatbread, Black Kale, Salmon Belly Crudo, Potato Leek Soup, Roasted Bone Marrow, Roasted Broccolini / $30 Charcuterie Board</t>
+          <t>Bussines hour: 10:00 AM - 12:00 AM Happy hour: 10:00 AM -  3:00 PM Today deal: $10 Featured Red &amp; White Wines / $12 Select Signature Drinks $12 Za'atar Flatbread, Black Kale, Salmon Belly Crudo, Potato Leek Soup, Roasted Bone Marrow, Roasted Broccolini / $30 Charcuterie Board</t>
         </is>
       </c>
     </row>
@@ -3336,37 +3336,37 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 10:00 AM -  3:00 PM Today deal: $24 House Bubbles Bottle + Two Mixers (OJ, cranberry, mango, grapefruit, pineapple lavender or peach nectar) / $42 Pamplemousse Rose Pitcher / $43 Sangria Pitcher / $44 Blackberry Smash Pitcher / $47 Peach Blossom Pitcher $13 - $45 Brunch Menu</t>
+          <t>Bussines hour: 10:00 AM -  5:00 PM Happy hour: 10:00 AM -  3:00 PM Today deal: $24 House Bubbles Bottle + Two Mixers (OJ, cranberry, mango, grapefruit, pineapple lavender or peach nectar) / $42 Pamplemousse Rose Pitcher / $43 Sangria Pitcher / $44 Blackberry Smash Pitcher / $47 Peach Blossom Pitcher $13 - $45 Brunch Menu</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: Closed Today deal: $24 House Bubbles Bottle + Two Mixers (OJ, cranberry, mango, grapefruit, pineapple lavender or peach nectar) / $42 Pamplemousse Rose Pitcher / $43 Sangria Pitcher / $44 Blackberry Smash Pitcher / $47 Peach Blossom Pitcher $13 - $45 Brunch Menu</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 4:00 PM -  6:00 PM Today deal: $24 House Bubbles Bottle + Two Mixers (OJ, cranberry, mango, grapefruit, pineapple lavender or peach nectar) / $42 Pamplemousse Rose Pitcher / $43 Sangria Pitcher / $44 Blackberry Smash Pitcher / $47 Peach Blossom Pitcher $13 - $45 Brunch Menu</t>
+          <t>Bussines hour: 4:00 PM - 10:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $24 House Bubbles Bottle + Two Mixers (OJ, cranberry, mango, grapefruit, pineapple lavender or peach nectar) / $42 Pamplemousse Rose Pitcher / $43 Sangria Pitcher / $44 Blackberry Smash Pitcher / $47 Peach Blossom Pitcher $13 - $45 Brunch Menu</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: Closed</t>
+          <t>Bussines hour: 4:00 PM - 10:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: Closed</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: $6 - $7 Select Wines by the Glass / $8.50 - $10.50 Select Signature Cocktails </t>
+          <t xml:space="preserve">Bussines hour: 4:00 PM - 11:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $6 - $7 Select Wines by the Glass / $8.50 - $10.50 Select Signature Cocktails </t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour:   Happy hour: 4:00 PM -  6:00 PM Today deal: $6 - $7 Select Wines by the Glass / $8.50 - $10.50 Select Signature Cocktails </t>
+          <t xml:space="preserve">Bussines hour: 4:00 PM - 12:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: $6 - $7 Select Wines by the Glass / $8.50 - $10.50 Select Signature Cocktails </t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour: A Happy hour: 10:00 AM -  3:00 PM Today deal: $6 - $7 Select Wines by the Glass / $8.50 - $10.50 Select Signature Cocktails </t>
+          <t xml:space="preserve">Bussines hour: 10:00 AM - 12:00 AM Happy hour: 10:00 AM -  3:00 PM Today deal: $6 - $7 Select Wines by the Glass / $8.50 - $10.50 Select Signature Cocktails </t>
         </is>
       </c>
     </row>
@@ -3376,52 +3376,52 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>The Holding Company</t>
+          <t>Allegro</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>5046 Newport Ave. San Diego, CA 92107</t>
+          <t>1536 India Street San Diego, CA 92101</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>(619) 341-5898</t>
+          <t>(619) 310-6996</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 10:00 AM -  3:00 PM Today deal: $5 Peanut Butter Whiskey / $8 THC Mimosa (Classic, Watermelon, Passionfruit or Guava) / $10 House Bloody Mary or Morning Screw / $12 Loaded Bloody Mary, Breakfast Drink, Irish Coffee / $15 House Champagne Bottle $8 - $20 Brunch Menu</t>
+          <t>Bussines hour: 4:00 PM - 10:00 PM Happy hour: 4:00 PM -  6:30 PM Today deal: $5 Peroni Beer / $6 House White or Red Wine By The Glass / $8 Cocktail of the Month / $9 Aperol Spritz $5 Classic Bruschetta / $6 Parmesan Fries / $8 Grilled Artichoke, Garlic Knots / $9 Fig &amp; Prosciutto Crostini / $10 Calamari, Oysters on the Half Shell (6) / $15 Charcuterie Board (serves two), Oysters on the Half Shell (12)</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: Closed Today deal: $5 Peanut Butter Whiskey / $8 THC Mimosa (Classic, Watermelon, Passionfruit or Guava) / $10 House Bloody Mary or Morning Screw / $12 Loaded Bloody Mary, Breakfast Drink, Irish Coffee / $15 House Champagne Bottle $8 - $20 Brunch Menu</t>
+          <t>Bussines hour: 4:00 PM - 10:00 PM Happy hour: 4:00 PM -  6:30 PM Today deal: $5 Peroni Beer / $6 House White or Red Wine By The Glass / $8 Cocktail of the Month / $9 Aperol Spritz $5 Classic Bruschetta / $6 Parmesan Fries / $8 Grilled Artichoke, Garlic Knots / $9 Fig &amp; Prosciutto Crostini / $10 Calamari, Oysters on the Half Shell (6) / $15 Charcuterie Board (serves two), Oysters on the Half Shell (12)</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Peanut Butter Whiskey / $8 THC Mimosa (Classic, Watermelon, Passionfruit or Guava) / $10 House Bloody Mary or Morning Screw / $12 Loaded Bloody Mary, Breakfast Drink, Irish Coffee / $15 House Champagne Bottle $8 - $20 Brunch Menu</t>
+          <t>Bussines hour: 4:00 PM - 10:00 PM Happy hour: 4:00 PM -  6:30 PM Today deal: $5 Peroni Beer / $6 House White or Red Wine By The Glass / $8 Cocktail of the Month / $9 Aperol Spritz $5 Classic Bruschetta / $6 Parmesan Fries / $8 Grilled Artichoke, Garlic Knots / $9 Fig &amp; Prosciutto Crostini / $10 Calamari, Oysters on the Half Shell (6) / $15 Charcuterie Board (serves two), Oysters on the Half Shell (12)</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: Closed</t>
+          <t>Bussines hour: 4:00 PM - 10:00 PM Happy hour: 4:00 PM -  6:30 PM Today deal: $5 Peroni Beer / $6 House White or Red Wine By The Glass / $8 Cocktail of the Month / $9 Aperol Spritz $5 Classic Bruschetta / $6 Parmesan Fries / $8 Grilled Artichoke, Garlic Knots / $9 Fig &amp; Prosciutto Crostini / $10 Calamari, Oysters on the Half Shell (6) / $15 Charcuterie Board (serves two), Oysters on the Half Shell (12)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: 1/2 Off Select Drafts &amp; Most Spirits / $3 Skrewball Shots, Tully Shots / $4 Well Drinks / $5 Beer &amp; Shot / $15 Off Towers 30% Off Entire Food Menu</t>
+          <t>Bussines hour: 4:00 PM - 10:00 PM Happy hour: 4:00 PM -  6:30 PM Today deal: $5 Peroni Beer / $6 House White or Red Wine By The Glass / $8 Cocktail of the Month / $9 Aperol Spritz $5 Classic Bruschetta / $6 Parmesan Fries / $8 Grilled Artichoke, Garlic Knots / $9 Fig &amp; Prosciutto Crostini / $10 Calamari, Oysters on the Half Shell (6) / $15 Charcuterie Board (serves two), Oysters on the Half Shell (12)</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 4:00 PM -  6:00 PM Today deal: 1/2 Off Select Drafts &amp; Most Spirits / $3 Skrewball Shots, Tully Shots / $4 Well Drinks / $5 Beer &amp; Shot / $15 Off Towers 30% Off Entire Food Menu</t>
+          <t>Bussines hour: 4:00 PM - 11:00 PM Happy hour: 4:00 PM -  6:30 PM Today deal: $5 Peroni Beer / $6 House White or Red Wine By The Glass / $8 Cocktail of the Month / $9 Aperol Spritz $5 Classic Bruschetta / $6 Parmesan Fries / $8 Grilled Artichoke, Garlic Knots / $9 Fig &amp; Prosciutto Crostini / $10 Calamari, Oysters on the Half Shell (6) / $15 Charcuterie Board (serves two), Oysters on the Half Shell (12)</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 10:00 AM -  3:00 PM Today deal: 1/2 Off Select Drafts &amp; Most Spirits / $3 Skrewball Shots, Tully Shots / $4 Well Drinks / $5 Beer &amp; Shot / $15 Off Towers 30% Off Entire Food Menu</t>
+          <t>Bussines hour: 4:00 PM - 11:00 PM Happy hour: 4:00 PM -  6:30 PM Today deal: $5 Peroni Beer / $6 House White or Red Wine By The Glass / $8 Cocktail of the Month / $9 Aperol Spritz $5 Classic Bruschetta / $6 Parmesan Fries / $8 Grilled Artichoke, Garlic Knots / $9 Fig &amp; Prosciutto Crostini / $10 Calamari, Oysters on the Half Shell (6) / $15 Charcuterie Board (serves two), Oysters on the Half Shell (12)</t>
         </is>
       </c>
     </row>
@@ -3431,52 +3431,52 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Las Tres Catrinas</t>
+          <t>The Holding Company</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>555 Broadway Suite 1084 Chula Vista, CA 91910</t>
+          <t>5046 Newport Ave. San Diego, CA 92107</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>(619) 595-6096</t>
+          <t>(619) 341-5898</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 10:00 AM -  2:00 AM Happy hour: 10:00 AM -  3:00 PM Today deal: $5 Peanut Butter Whiskey / $8 THC Mimosa (Classic, Watermelon, Passionfruit or Guava) / $10 House Bloody Mary or Morning Screw / $12 Loaded Bloody Mary, Breakfast Drink, Irish Coffee / $15 House Champagne Bottle $8 - $20 Brunch Menu</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: No Specials</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower Free Chips &amp; Salsa / $3 Quesadilla La Diva / $4 Elote Ribs, Queso Dip / $6 Rolled Tacos, Catrinas' Guacamole, Empanadas, Queso Fundido, Catrinas' Kitchen Sink</t>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Peanut Butter Whiskey / $8 THC Mimosa (Classic, Watermelon, Passionfruit or Guava) / $10 House Bloody Mary or Morning Screw / $12 Loaded Bloody Mary, Breakfast Drink, Irish Coffee / $15 House Champagne Bottle $8 - $20 Brunch Menu</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower Free Chips &amp; Salsa / $3 Quesadilla La Diva / $4 Elote Ribs, Queso Dip / $6 Rolled Tacos, Catrinas' Guacamole, Empanadas, Queso Fundido, Catrinas' Kitchen Sink</t>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: Closed</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower Free Chips &amp; Salsa / $3 Quesadilla La Diva / $4 Elote Ribs, Queso Dip / $6 Rolled Tacos, Catrinas' Guacamole, Empanadas, Queso Fundido, Catrinas' Kitchen Sink</t>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: 1/2 Off Select Drafts &amp; Most Spirits / $3 Skrewball Shots, Tully Shots / $4 Well Drinks / $5 Beer &amp; Shot / $15 Off Towers 30% Off Entire Food Menu</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower Free Chips &amp; Salsa / $3 Quesadilla La Diva / $4 Elote Ribs, Queso Dip / $6 Rolled Tacos, Catrinas' Guacamole, Empanadas, Queso Fundido, Catrinas' Kitchen Sink</t>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: 1/2 Off Select Drafts &amp; Most Spirits / $3 Skrewball Shots, Tully Shots / $4 Well Drinks / $5 Beer &amp; Shot / $15 Off Towers 30% Off Entire Food Menu</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: Not Happy Hour Today deal: $1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower Free Chips &amp; Salsa / $3 Quesadilla La Diva / $4 Elote Ribs, Queso Dip / $6 Rolled Tacos, Catrinas' Guacamole, Empanadas, Queso Fundido, Catrinas' Kitchen Sink</t>
+          <t>Bussines hour: 10:00 AM -  2:00 AM Happy hour: 10:00 AM -  3:00 PM Today deal: 1/2 Off Select Drafts &amp; Most Spirits / $3 Skrewball Shots, Tully Shots / $4 Well Drinks / $5 Beer &amp; Shot / $15 Off Towers 30% Off Entire Food Menu</t>
         </is>
       </c>
     </row>
@@ -3486,52 +3486,52 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Allegro</t>
+          <t>Dirty Birds</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>1536 India Street San Diego, CA 92101</t>
+          <t>4656 Mission Blvd. San Diego, CA 92109</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>(619) 310-6996</t>
+          <t>(858) 274-2473</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Bussines hour: 4 Happy hour: 4:00 PM -  6:30 PM Today deal: $5 Peroni Beer / $6 House White or Red Wine By The Glass / $8 Cocktail of the Month / $9 Aperol Spritz $5 Classic Bruschetta / $6 Parmesan Fries / $8 Grilled Artichoke, Garlic Knots / $9 Fig &amp; Prosciutto Crostini / $10 Calamari, Oysters on the Half Shell (6) / $15 Charcuterie Board (serves two), Oysters on the Half Shell (12)</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 4:00 PM -  6:30 PM Today deal: $5 Peroni Beer / $6 House White or Red Wine By The Glass / $8 Cocktail of the Month / $9 Aperol Spritz $5 Classic Bruschetta / $6 Parmesan Fries / $8 Grilled Artichoke, Garlic Knots / $9 Fig &amp; Prosciutto Crostini / $10 Calamari, Oysters on the Half Shell (6) / $15 Charcuterie Board (serves two), Oysters on the Half Shell (12)</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:30 PM Today deal: $5 Peroni Beer / $6 House White or Red Wine By The Glass / $8 Cocktail of the Month / $9 Aperol Spritz $5 Classic Bruschetta / $6 Parmesan Fries / $8 Grilled Artichoke, Garlic Knots / $9 Fig &amp; Prosciutto Crostini / $10 Calamari, Oysters on the Half Shell (6) / $15 Charcuterie Board (serves two), Oysters on the Half Shell (12)</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 11:00 AM -  6:00 PM Today deal: 1/2 Priced Select Pitchers 1/2 Off Bone-In Wings</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:30 PM Today deal: $5 Peroni Beer / $6 House White or Red Wine By The Glass / $8 Cocktail of the Month / $9 Aperol Spritz $5 Classic Bruschetta / $6 Parmesan Fries / $8 Grilled Artichoke, Garlic Knots / $9 Fig &amp; Prosciutto Crostini / $10 Calamari, Oysters on the Half Shell (6) / $15 Charcuterie Board (serves two), Oysters on the Half Shell (12)</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: 1/2 Priced Select Pitchers 1/2 Off Bone-In Wings</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 4:00 PM -  6:30 PM Today deal: $5 Peroni Beer / $6 House White or Red Wine By The Glass / $8 Cocktail of the Month / $9 Aperol Spritz $5 Classic Bruschetta / $6 Parmesan Fries / $8 Grilled Artichoke, Garlic Knots / $9 Fig &amp; Prosciutto Crostini / $10 Calamari, Oysters on the Half Shell (6) / $15 Charcuterie Board (serves two), Oysters on the Half Shell (12)</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: 1/2 Priced Select Pitchers 1/2 Off Bone-In Wings</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 4:00 PM -  6:30 PM Today deal: $5 Peroni Beer / $6 House White or Red Wine By The Glass / $8 Cocktail of the Month / $9 Aperol Spritz $5 Classic Bruschetta / $6 Parmesan Fries / $8 Grilled Artichoke, Garlic Knots / $9 Fig &amp; Prosciutto Crostini / $10 Calamari, Oysters on the Half Shell (6) / $15 Charcuterie Board (serves two), Oysters on the Half Shell (12)</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: 1/2 Priced Select Pitchers 1/2 Off Bone-In Wings</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: 4:00 PM -  6:30 PM Today deal: $5 Peroni Beer / $6 House White or Red Wine By The Glass / $8 Cocktail of the Month / $9 Aperol Spritz $5 Classic Bruschetta / $6 Parmesan Fries / $8 Grilled Artichoke, Garlic Knots / $9 Fig &amp; Prosciutto Crostini / $10 Calamari, Oysters on the Half Shell (6) / $15 Charcuterie Board (serves two), Oysters on the Half Shell (12)</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: Not Happy Hour Today deal: 1/2 Priced Select Pitchers 1/2 Off Bone-In Wings</t>
         </is>
       </c>
     </row>
@@ -3556,37 +3556,37 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Bussines hour: 9 Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+          <t>Bussines hour: 9:30 AM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+          <t>Bussines hour: 3:00 PM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Bussines hour: 3 Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+          <t>Bussines hour: 3:00 PM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+          <t>Bussines hour: 9:30 AM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+          <t>Bussines hour: 9:30 AM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+          <t>Bussines hour: 9:30 AM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+          <t>Bussines hour: 9:30 AM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
     </row>
@@ -3596,52 +3596,52 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Mr. Peabody's</t>
+          <t>Steamy Piggy</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>136 Encinitas Blvd. Encinitas, CA 92024</t>
+          <t>4681 Convoy St. San Diego, CA 92111</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>(760) 753-7192</t>
+          <t>(858) 492-0401</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Bussines hour: 8 Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  9:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
         </is>
       </c>
     </row>
@@ -3666,37 +3666,37 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Bussines hour: 3 Happy hour: Closed Today deal: Closed</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour: : Happy hour: 3:00 PM -  7:00 PM Today deal: $3.50 Fireball Shooter / $4.75 - $5 Bottled Beer / $6 Draft Beer of the Day, Small Warm Sake / $7 House Select Wine by the Glass / $7 - $8.25 Draft Beer / $8.50 Martinis / $8.75 Beer Sampler: Three 5oz. Pours / $9 Specialty Cocktails $6.50 Beef Curry Dumplings, Side Salad, Garlic Edamame, Garlic Naan, Fries / $7.50 Steamed Pork or Fried Chicken Gyoza, XLB, Fried Brussels Sprouts, Waffle Fries, Veggie or Chicken Egg Rolls, Cream Cheese Wonton, Egg Fried Rice, Truffle Fries / $8.50 Seaweed Salad, Garlic Naan Bruschetta, Spicy Eggplant, Broccoli or Green Beans Sauté, Mixed Asian Greens, Yaki Soba (plain) / $9.50 Spicy Popcorn Chicken, Chicken or Vegetarian Lettuce Wraps, BBQ Pork Sliders, Dan Dan Noodles, Khan's Hot Dog, Dumpling Sampler, Tempura Shrimp / $10.50 Roasted Duck / $12.50 Seared Skirt Steak, Ginger Glazed or Panko Shrimp Basket, Sautéed Garlic Butter Shrimp, Peppery Fried or Firecracker Calamari / $13.50 Wings (Sriracha, Peppery Fried, Sweet &amp; Spicy), Pub Steak &amp; Fries, Aloha Loco Moco, Lamb or Steak Brochette, Khan's Teriyaki Glazed BLT Burger, Ahi Poke Salad, Seared Sesame Ahi Salad </t>
+          <t xml:space="preserve">Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $3.50 Fireball Shooter / $4.75 - $5 Bottled Beer / $6 Draft Beer of the Day, Small Warm Sake / $7 House Select Wine by the Glass / $7 - $8.25 Draft Beer / $8.50 Martinis / $8.75 Beer Sampler: Three 5oz. Pours / $9 Specialty Cocktails $6.50 Beef Curry Dumplings, Side Salad, Garlic Edamame, Garlic Naan, Fries / $7.50 Steamed Pork or Fried Chicken Gyoza, XLB, Fried Brussels Sprouts, Waffle Fries, Veggie or Chicken Egg Rolls, Cream Cheese Wonton, Egg Fried Rice, Truffle Fries / $8.50 Seaweed Salad, Garlic Naan Bruschetta, Spicy Eggplant, Broccoli or Green Beans Sauté, Mixed Asian Greens, Yaki Soba (plain) / $9.50 Spicy Popcorn Chicken, Chicken or Vegetarian Lettuce Wraps, BBQ Pork Sliders, Dan Dan Noodles, Khan's Hot Dog, Dumpling Sampler, Tempura Shrimp / $10.50 Roasted Duck / $12.50 Seared Skirt Steak, Ginger Glazed or Panko Shrimp Basket, Sautéed Garlic Butter Shrimp, Peppery Fried or Firecracker Calamari / $13.50 Wings (Sriracha, Peppery Fried, Sweet &amp; Spicy), Pub Steak &amp; Fries, Aloha Loco Moco, Lamb or Steak Brochette, Khan's Teriyaki Glazed BLT Burger, Ahi Poke Salad, Seared Sesame Ahi Salad </t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour: 3 Happy hour: 3:00 PM -  7:00 PM Today deal: $3.50 Fireball Shooter / $4.75 - $5 Bottled Beer / $6 Draft Beer of the Day, Small Warm Sake / $7 House Select Wine by the Glass / $7 - $8.25 Draft Beer / $8.50 Martinis / $8.75 Beer Sampler: Three 5oz. Pours / $9 Specialty Cocktails $6.50 Beef Curry Dumplings, Side Salad, Garlic Edamame, Garlic Naan, Fries / $7.50 Steamed Pork or Fried Chicken Gyoza, XLB, Fried Brussels Sprouts, Waffle Fries, Veggie or Chicken Egg Rolls, Cream Cheese Wonton, Egg Fried Rice, Truffle Fries / $8.50 Seaweed Salad, Garlic Naan Bruschetta, Spicy Eggplant, Broccoli or Green Beans Sauté, Mixed Asian Greens, Yaki Soba (plain) / $9.50 Spicy Popcorn Chicken, Chicken or Vegetarian Lettuce Wraps, BBQ Pork Sliders, Dan Dan Noodles, Khan's Hot Dog, Dumpling Sampler, Tempura Shrimp / $10.50 Roasted Duck / $12.50 Seared Skirt Steak, Ginger Glazed or Panko Shrimp Basket, Sautéed Garlic Butter Shrimp, Peppery Fried or Firecracker Calamari / $13.50 Wings (Sriracha, Peppery Fried, Sweet &amp; Spicy), Pub Steak &amp; Fries, Aloha Loco Moco, Lamb or Steak Brochette, Khan's Teriyaki Glazed BLT Burger, Ahi Poke Salad, Seared Sesame Ahi Salad </t>
+          <t xml:space="preserve">Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $3.50 Fireball Shooter / $4.75 - $5 Bottled Beer / $6 Draft Beer of the Day, Small Warm Sake / $7 House Select Wine by the Glass / $7 - $8.25 Draft Beer / $8.50 Martinis / $8.75 Beer Sampler: Three 5oz. Pours / $9 Specialty Cocktails $6.50 Beef Curry Dumplings, Side Salad, Garlic Edamame, Garlic Naan, Fries / $7.50 Steamed Pork or Fried Chicken Gyoza, XLB, Fried Brussels Sprouts, Waffle Fries, Veggie or Chicken Egg Rolls, Cream Cheese Wonton, Egg Fried Rice, Truffle Fries / $8.50 Seaweed Salad, Garlic Naan Bruschetta, Spicy Eggplant, Broccoli or Green Beans Sauté, Mixed Asian Greens, Yaki Soba (plain) / $9.50 Spicy Popcorn Chicken, Chicken or Vegetarian Lettuce Wraps, BBQ Pork Sliders, Dan Dan Noodles, Khan's Hot Dog, Dumpling Sampler, Tempura Shrimp / $10.50 Roasted Duck / $12.50 Seared Skirt Steak, Ginger Glazed or Panko Shrimp Basket, Sautéed Garlic Butter Shrimp, Peppery Fried or Firecracker Calamari / $13.50 Wings (Sriracha, Peppery Fried, Sweet &amp; Spicy), Pub Steak &amp; Fries, Aloha Loco Moco, Lamb or Steak Brochette, Khan's Teriyaki Glazed BLT Burger, Ahi Poke Salad, Seared Sesame Ahi Salad </t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $3.50 Fireball Shooter / $4.75 - $5 Bottled Beer / $6 Draft Beer of the Day, Small Warm Sake / $7 House Select Wine by the Glass / $7 - $8.25 Draft Beer / $8.50 Martinis / $8.75 Beer Sampler: Three 5oz. Pours / $9 Specialty Cocktails $6.50 Beef Curry Dumplings, Side Salad, Garlic Edamame, Garlic Naan, Fries / $7.50 Steamed Pork or Fried Chicken Gyoza, XLB, Fried Brussels Sprouts, Waffle Fries, Veggie or Chicken Egg Rolls, Cream Cheese Wonton, Egg Fried Rice, Truffle Fries / $8.50 Seaweed Salad, Garlic Naan Bruschetta, Spicy Eggplant, Broccoli or Green Beans Sauté, Mixed Asian Greens, Yaki Soba (plain) / $9.50 Spicy Popcorn Chicken, Chicken or Vegetarian Lettuce Wraps, BBQ Pork Sliders, Dan Dan Noodles, Khan's Hot Dog, Dumpling Sampler, Tempura Shrimp / $10.50 Roasted Duck / $12.50 Seared Skirt Steak, Ginger Glazed or Panko Shrimp Basket, Sautéed Garlic Butter Shrimp, Peppery Fried or Firecracker Calamari / $13.50 Wings (Sriracha, Peppery Fried, Sweet &amp; Spicy), Pub Steak &amp; Fries, Aloha Loco Moco, Lamb or Steak Brochette, Khan's Teriyaki Glazed BLT Burger, Ahi Poke Salad, Seared Sesame Ahi Salad </t>
+          <t xml:space="preserve">Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $3.50 Fireball Shooter / $4.75 - $5 Bottled Beer / $6 Draft Beer of the Day, Small Warm Sake / $7 House Select Wine by the Glass / $7 - $8.25 Draft Beer / $8.50 Martinis / $8.75 Beer Sampler: Three 5oz. Pours / $9 Specialty Cocktails $6.50 Beef Curry Dumplings, Side Salad, Garlic Edamame, Garlic Naan, Fries / $7.50 Steamed Pork or Fried Chicken Gyoza, XLB, Fried Brussels Sprouts, Waffle Fries, Veggie or Chicken Egg Rolls, Cream Cheese Wonton, Egg Fried Rice, Truffle Fries / $8.50 Seaweed Salad, Garlic Naan Bruschetta, Spicy Eggplant, Broccoli or Green Beans Sauté, Mixed Asian Greens, Yaki Soba (plain) / $9.50 Spicy Popcorn Chicken, Chicken or Vegetarian Lettuce Wraps, BBQ Pork Sliders, Dan Dan Noodles, Khan's Hot Dog, Dumpling Sampler, Tempura Shrimp / $10.50 Roasted Duck / $12.50 Seared Skirt Steak, Ginger Glazed or Panko Shrimp Basket, Sautéed Garlic Butter Shrimp, Peppery Fried or Firecracker Calamari / $13.50 Wings (Sriracha, Peppery Fried, Sweet &amp; Spicy), Pub Steak &amp; Fries, Aloha Loco Moco, Lamb or Steak Brochette, Khan's Teriyaki Glazed BLT Burger, Ahi Poke Salad, Seared Sesame Ahi Salad </t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour:   Happy hour: 3:00 PM -  7:00 PM Today deal: $3.50 Fireball Shooter / $4.75 - $5 Bottled Beer / $6 Draft Beer of the Day, Small Warm Sake / $7 House Select Wine by the Glass / $7 - $8.25 Draft Beer / $8.50 Martinis / $8.75 Beer Sampler: Three 5oz. Pours / $9 Specialty Cocktails $6.50 Beef Curry Dumplings, Side Salad, Garlic Edamame, Garlic Naan, Fries / $7.50 Steamed Pork or Fried Chicken Gyoza, XLB, Fried Brussels Sprouts, Waffle Fries, Veggie or Chicken Egg Rolls, Cream Cheese Wonton, Egg Fried Rice, Truffle Fries / $8.50 Seaweed Salad, Garlic Naan Bruschetta, Spicy Eggplant, Broccoli or Green Beans Sauté, Mixed Asian Greens, Yaki Soba (plain) / $9.50 Spicy Popcorn Chicken, Chicken or Vegetarian Lettuce Wraps, BBQ Pork Sliders, Dan Dan Noodles, Khan's Hot Dog, Dumpling Sampler, Tempura Shrimp / $10.50 Roasted Duck / $12.50 Seared Skirt Steak, Ginger Glazed or Panko Shrimp Basket, Sautéed Garlic Butter Shrimp, Peppery Fried or Firecracker Calamari / $13.50 Wings (Sriracha, Peppery Fried, Sweet &amp; Spicy), Pub Steak &amp; Fries, Aloha Loco Moco, Lamb or Steak Brochette, Khan's Teriyaki Glazed BLT Burger, Ahi Poke Salad, Seared Sesame Ahi Salad </t>
+          <t xml:space="preserve">Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $3.50 Fireball Shooter / $4.75 - $5 Bottled Beer / $6 Draft Beer of the Day, Small Warm Sake / $7 House Select Wine by the Glass / $7 - $8.25 Draft Beer / $8.50 Martinis / $8.75 Beer Sampler: Three 5oz. Pours / $9 Specialty Cocktails $6.50 Beef Curry Dumplings, Side Salad, Garlic Edamame, Garlic Naan, Fries / $7.50 Steamed Pork or Fried Chicken Gyoza, XLB, Fried Brussels Sprouts, Waffle Fries, Veggie or Chicken Egg Rolls, Cream Cheese Wonton, Egg Fried Rice, Truffle Fries / $8.50 Seaweed Salad, Garlic Naan Bruschetta, Spicy Eggplant, Broccoli or Green Beans Sauté, Mixed Asian Greens, Yaki Soba (plain) / $9.50 Spicy Popcorn Chicken, Chicken or Vegetarian Lettuce Wraps, BBQ Pork Sliders, Dan Dan Noodles, Khan's Hot Dog, Dumpling Sampler, Tempura Shrimp / $10.50 Roasted Duck / $12.50 Seared Skirt Steak, Ginger Glazed or Panko Shrimp Basket, Sautéed Garlic Butter Shrimp, Peppery Fried or Firecracker Calamari / $13.50 Wings (Sriracha, Peppery Fried, Sweet &amp; Spicy), Pub Steak &amp; Fries, Aloha Loco Moco, Lamb or Steak Brochette, Khan's Teriyaki Glazed BLT Burger, Ahi Poke Salad, Seared Sesame Ahi Salad </t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour: P Happy hour: 3:00 PM -  7:00 PM Today deal: $3.50 Fireball Shooter / $4.75 - $5 Bottled Beer / $6 Draft Beer of the Day, Small Warm Sake / $7 House Select Wine by the Glass / $7 - $8.25 Draft Beer / $8.50 Martinis / $8.75 Beer Sampler: Three 5oz. Pours / $9 Specialty Cocktails $6.50 Beef Curry Dumplings, Side Salad, Garlic Edamame, Garlic Naan, Fries / $7.50 Steamed Pork or Fried Chicken Gyoza, XLB, Fried Brussels Sprouts, Waffle Fries, Veggie or Chicken Egg Rolls, Cream Cheese Wonton, Egg Fried Rice, Truffle Fries / $8.50 Seaweed Salad, Garlic Naan Bruschetta, Spicy Eggplant, Broccoli or Green Beans Sauté, Mixed Asian Greens, Yaki Soba (plain) / $9.50 Spicy Popcorn Chicken, Chicken or Vegetarian Lettuce Wraps, BBQ Pork Sliders, Dan Dan Noodles, Khan's Hot Dog, Dumpling Sampler, Tempura Shrimp / $10.50 Roasted Duck / $12.50 Seared Skirt Steak, Ginger Glazed or Panko Shrimp Basket, Sautéed Garlic Butter Shrimp, Peppery Fried or Firecracker Calamari / $13.50 Wings (Sriracha, Peppery Fried, Sweet &amp; Spicy), Pub Steak &amp; Fries, Aloha Loco Moco, Lamb or Steak Brochette, Khan's Teriyaki Glazed BLT Burger, Ahi Poke Salad, Seared Sesame Ahi Salad </t>
+          <t xml:space="preserve">Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $3.50 Fireball Shooter / $4.75 - $5 Bottled Beer / $6 Draft Beer of the Day, Small Warm Sake / $7 House Select Wine by the Glass / $7 - $8.25 Draft Beer / $8.50 Martinis / $8.75 Beer Sampler: Three 5oz. Pours / $9 Specialty Cocktails $6.50 Beef Curry Dumplings, Side Salad, Garlic Edamame, Garlic Naan, Fries / $7.50 Steamed Pork or Fried Chicken Gyoza, XLB, Fried Brussels Sprouts, Waffle Fries, Veggie or Chicken Egg Rolls, Cream Cheese Wonton, Egg Fried Rice, Truffle Fries / $8.50 Seaweed Salad, Garlic Naan Bruschetta, Spicy Eggplant, Broccoli or Green Beans Sauté, Mixed Asian Greens, Yaki Soba (plain) / $9.50 Spicy Popcorn Chicken, Chicken or Vegetarian Lettuce Wraps, BBQ Pork Sliders, Dan Dan Noodles, Khan's Hot Dog, Dumpling Sampler, Tempura Shrimp / $10.50 Roasted Duck / $12.50 Seared Skirt Steak, Ginger Glazed or Panko Shrimp Basket, Sautéed Garlic Butter Shrimp, Peppery Fried or Firecracker Calamari / $13.50 Wings (Sriracha, Peppery Fried, Sweet &amp; Spicy), Pub Steak &amp; Fries, Aloha Loco Moco, Lamb or Steak Brochette, Khan's Teriyaki Glazed BLT Burger, Ahi Poke Salad, Seared Sesame Ahi Salad </t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour: M Happy hour: Not Happy Hour Today deal: $3.50 Fireball Shooter / $4.75 - $5 Bottled Beer / $6 Draft Beer of the Day, Small Warm Sake / $7 House Select Wine by the Glass / $7 - $8.25 Draft Beer / $8.50 Martinis / $8.75 Beer Sampler: Three 5oz. Pours / $9 Specialty Cocktails $6.50 Beef Curry Dumplings, Side Salad, Garlic Edamame, Garlic Naan, Fries / $7.50 Steamed Pork or Fried Chicken Gyoza, XLB, Fried Brussels Sprouts, Waffle Fries, Veggie or Chicken Egg Rolls, Cream Cheese Wonton, Egg Fried Rice, Truffle Fries / $8.50 Seaweed Salad, Garlic Naan Bruschetta, Spicy Eggplant, Broccoli or Green Beans Sauté, Mixed Asian Greens, Yaki Soba (plain) / $9.50 Spicy Popcorn Chicken, Chicken or Vegetarian Lettuce Wraps, BBQ Pork Sliders, Dan Dan Noodles, Khan's Hot Dog, Dumpling Sampler, Tempura Shrimp / $10.50 Roasted Duck / $12.50 Seared Skirt Steak, Ginger Glazed or Panko Shrimp Basket, Sautéed Garlic Butter Shrimp, Peppery Fried or Firecracker Calamari / $13.50 Wings (Sriracha, Peppery Fried, Sweet &amp; Spicy), Pub Steak &amp; Fries, Aloha Loco Moco, Lamb or Steak Brochette, Khan's Teriyaki Glazed BLT Burger, Ahi Poke Salad, Seared Sesame Ahi Salad </t>
+          <t xml:space="preserve">Bussines hour: 4:00 PM -  9:00 PM Happy hour: Not Happy Hour Today deal: $3.50 Fireball Shooter / $4.75 - $5 Bottled Beer / $6 Draft Beer of the Day, Small Warm Sake / $7 House Select Wine by the Glass / $7 - $8.25 Draft Beer / $8.50 Martinis / $8.75 Beer Sampler: Three 5oz. Pours / $9 Specialty Cocktails $6.50 Beef Curry Dumplings, Side Salad, Garlic Edamame, Garlic Naan, Fries / $7.50 Steamed Pork or Fried Chicken Gyoza, XLB, Fried Brussels Sprouts, Waffle Fries, Veggie or Chicken Egg Rolls, Cream Cheese Wonton, Egg Fried Rice, Truffle Fries / $8.50 Seaweed Salad, Garlic Naan Bruschetta, Spicy Eggplant, Broccoli or Green Beans Sauté, Mixed Asian Greens, Yaki Soba (plain) / $9.50 Spicy Popcorn Chicken, Chicken or Vegetarian Lettuce Wraps, BBQ Pork Sliders, Dan Dan Noodles, Khan's Hot Dog, Dumpling Sampler, Tempura Shrimp / $10.50 Roasted Duck / $12.50 Seared Skirt Steak, Ginger Glazed or Panko Shrimp Basket, Sautéed Garlic Butter Shrimp, Peppery Fried or Firecracker Calamari / $13.50 Wings (Sriracha, Peppery Fried, Sweet &amp; Spicy), Pub Steak &amp; Fries, Aloha Loco Moco, Lamb or Steak Brochette, Khan's Teriyaki Glazed BLT Burger, Ahi Poke Salad, Seared Sesame Ahi Salad </t>
         </is>
       </c>
     </row>
@@ -3706,52 +3706,54 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>On The Border</t>
+          <t>Redwing Bar &amp; Grill</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>10789 Westview Parkway San Diego, CA 92126</t>
+          <t>4012 30th Street San Diego, CA 92104</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>(858) 530-1130</t>
+          <t>(619) 281-8700</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 11:00 AM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+          <t>Bussines hour: 11:00 AM -  1:00 AM Happy hour: 11:00 AM -  2:00 PM Today deal: $15 Bottomless Mimosa 2:00 PM - 6:00 PM
+$2 12oz. Bud Light or Miller Lite / $12.50 Burger &amp; 12oz. Domestic Beer</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 11:00 AM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+          <t>Bussines hour: 11:00 AM -  1:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: $15 Bottomless Mimosa 2:00 PM - 6:00 PM
+$2 12oz. Bud Light or Miller Lite / $12.50 Burger &amp; 12oz. Domestic Beer</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+          <t>Bussines hour: 11:00 AM -  1:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: Closed</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+          <t xml:space="preserve">Bussines hour: 11:00 AM -  1:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: Half Size Appetizers: $4.25 Deep Fried Pickles / $4.50 Small Basket Case: Fries, Tots or Onion Rings / $4.75 Spicy Cauliflower, Chick-arrones / $5.25 Elote Corn Bites / $6 Chicken Fingers (2) &amp; Fries, 1/4 Wings &amp; Fries (Buffalo, House Made BBQ, Hot &amp; Sour Thai Chili, Garlic Ginger Teriyaki) / </t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+          <t xml:space="preserve">Bussines hour: 11:00 AM -  2:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: Half Size Appetizers: $4.25 Deep Fried Pickles / $4.50 Small Basket Case: Fries, Tots or Onion Rings / $4.75 Spicy Cauliflower, Chick-arrones / $5.25 Elote Corn Bites / $6 Chicken Fingers (2) &amp; Fries, 1/4 Wings &amp; Fries (Buffalo, House Made BBQ, Hot &amp; Sour Thai Chili, Garlic Ginger Teriyaki) / </t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+          <t>Bussines hour: 11:00 AM -  2:00 AM Happy hour: 11:00 AM -  6:00 PM Today deal: Half Size Appetizers: $4.25 Deep Fried Pickles / $4.50 Small Basket Case: Fries, Tots or Onion Rings / $4.75 Spicy Cauliflower, Chick-arrones / $5.25 Elote Corn Bites / $6 Chicken Fingers (2) &amp; Fries, 1/4 Wings &amp; Fries (Buffalo, House Made BBQ, Hot &amp; Sour Thai Chili, Garlic Ginger Teriyaki) /  $3 Bud Light or Miller Lite Drafts / $4.75 Well Drinks</t>
         </is>
       </c>
     </row>
@@ -3761,52 +3763,52 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Break Point Bar &amp; Restaurant </t>
+          <t>Hooters</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>945 Garnet Ave. San Diego, CA 92109</t>
+          <t>775 Center Drive San Marcos, CA 92069</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>(858) 274-4018</t>
+          <t>(858) 451-6000</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 10:00 PM - 12:00 AM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 4:00 PM -  7:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 4:00 PM -  7:00 PM Today deal: $2 Off Draft Beers / $5 Well Drinks, CK Mondavi Wine Varietals (Cabernet Sauvignon, Sauvignon Blanc, Chardonnay), Cazadores Blanco or Reposado Tequila Shot / $7 House Margarita $5 House Cut Fries / $7 Beer Battered Onion Rings / $8 Cheesy Garlic Bread / $10 Fried Calamari, Sweet 'n Spicy Cauliflower / $12 Hummus Board, Tomato Bacon Flatbread / $13 BBQ Chicken Flatbread / $14 Garlic Shrimp Fundido Dip / $15 Loaded Fries</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  7:00 PM Today deal: $2 Off Draft Beers / $5 Well Drinks, CK Mondavi Wine Varietals (Cabernet Sauvignon, Sauvignon Blanc, Chardonnay), Cazadores Blanco or Reposado Tequila Shot / $7 House Margarita $5 House Cut Fries / $7 Beer Battered Onion Rings / $8 Cheesy Garlic Bread / $10 Fried Calamari, Sweet 'n Spicy Cauliflower / $12 Hummus Board, Tomato Bacon Flatbread / $13 BBQ Chicken Flatbread / $14 Garlic Shrimp Fundido Dip / $15 Loaded Fries</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  7:00 PM Today deal: $2 Off Draft Beers / $5 Well Drinks, CK Mondavi Wine Varietals (Cabernet Sauvignon, Sauvignon Blanc, Chardonnay), Cazadores Blanco or Reposado Tequila Shot / $7 House Margarita $5 House Cut Fries / $7 Beer Battered Onion Rings / $8 Cheesy Garlic Bread / $10 Fried Calamari, Sweet 'n Spicy Cauliflower / $12 Hummus Board, Tomato Bacon Flatbread / $13 BBQ Chicken Flatbread / $14 Garlic Shrimp Fundido Dip / $15 Loaded Fries</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 4:00 PM -  7:00 PM Today deal: $2 Off Draft Beers / $5 Well Drinks, CK Mondavi Wine Varietals (Cabernet Sauvignon, Sauvignon Blanc, Chardonnay), Cazadores Blanco or Reposado Tequila Shot / $7 House Margarita $5 House Cut Fries / $7 Beer Battered Onion Rings / $8 Cheesy Garlic Bread / $10 Fried Calamari, Sweet 'n Spicy Cauliflower / $12 Hummus Board, Tomato Bacon Flatbread / $13 BBQ Chicken Flatbread / $14 Garlic Shrimp Fundido Dip / $15 Loaded Fries</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: Not Happy Hour Today deal: $2 Off Draft Beers / $5 Well Drinks, CK Mondavi Wine Varietals (Cabernet Sauvignon, Sauvignon Blanc, Chardonnay), Cazadores Blanco or Reposado Tequila Shot / $7 House Margarita $5 House Cut Fries / $7 Beer Battered Onion Rings / $8 Cheesy Garlic Bread / $10 Fried Calamari, Sweet 'n Spicy Cauliflower / $12 Hummus Board, Tomato Bacon Flatbread / $13 BBQ Chicken Flatbread / $14 Garlic Shrimp Fundido Dip / $15 Loaded Fries</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 10:00 PM - 12:00 AM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
     </row>
@@ -3816,52 +3818,52 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BJ's Restaurant and Brewery</t>
+          <t>BJ's Restaurant &amp; Brewery</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>5500 Grossmont Center Dr. La Mesa, CA 91941</t>
+          <t>1370 Frazee Rd. San Diego, CA 92108</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>(619) 589-7222</t>
+          <t>(619) 814-6350</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 9:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 9:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 4:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 4:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
     </row>
@@ -3871,52 +3873,52 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>BullsEye Bar @ Black Angus Steakhouse</t>
+          <t>Haig's Bar at Ocean's 11 Casino</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>707 E St. Chula Vista, CA 91910</t>
+          <t>121 Brooks St. Oceanside, CA 92054</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">(619) 426-9200 </t>
+          <t>(760) 439-6988</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Bussines hour: 3 Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: Not Happy Hour Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
         </is>
       </c>
     </row>
@@ -3926,52 +3928,52 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Wheat &amp; Water</t>
+          <t>BJ's Restaurant &amp; Brewery</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>5737 La Jolla Blvd. La Jolla, CA 92037</t>
+          <t>5613 Paseo Del Norte Carlsbad, CA 92008</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>(858) 291-8690</t>
+          <t>(760) 579-4440</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 4:00 PM -  8:00 PM Today deal: Buy Any Pizza, Get $10 Off Any Pitcher of Beer</t>
+          <t>Bussines hour: 10:00 AM - 12:00 AM Happy hour: 9:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bussines hour: 2 Happy hour: 4:00 PM -  6:00 PM Today deal: Buy Any Pizza, Get $10 Off Any Pitcher of Beer</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Select Beers / $7 House Wines by the Glass / $8 Well Spirits $5 BBQ Kalua Pig Slider, Carnitas Taco / $6 Fish Taco / $8 Butter Noodles / $9 Loaded Fries / $10 Carnitas Nachos, Red Sauce Noodles</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Select Beers / $7 House Wines by the Glass / $8 Well Spirits $5 BBQ Kalua Pig Slider, Carnitas Taco / $6 Fish Taco / $8 Butter Noodles / $9 Loaded Fries / $10 Carnitas Nachos, Red Sauce Noodles</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Select Beers / $7 House Wines by the Glass / $8 Well Spirits $5 BBQ Kalua Pig Slider, Carnitas Taco / $6 Fish Taco / $8 Butter Noodles / $9 Loaded Fries / $10 Carnitas Nachos, Red Sauce Noodles</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Select Beers / $7 House Wines by the Glass / $8 Well Spirits $5 BBQ Kalua Pig Slider, Carnitas Taco / $6 Fish Taco / $8 Butter Noodles / $9 Loaded Fries / $10 Carnitas Nachos, Red Sauce Noodles</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 8:00 PM - 10:00 PM Today deal: $5 Select Beers / $7 House Wines by the Glass / $8 Well Spirits $5 BBQ Kalua Pig Slider, Carnitas Taco / $6 Fish Taco / $8 Butter Noodles / $9 Loaded Fries / $10 Carnitas Nachos, Red Sauce Noodles</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 4:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
     </row>
@@ -3981,52 +3983,52 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Steamy Piggy</t>
+          <t>Hooters</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>4681 Convoy St. San Diego, CA 92111</t>
+          <t>1400 Camino De La Reina San Diego, CA 92108</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>(858) 492-0401</t>
+          <t>(619) 299-4668</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Bussines hour: 3 Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 10:00 PM - 12:00 AM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 10:00 PM - 12:00 AM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
     </row>
@@ -4051,37 +4053,37 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 11:00 AM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 11:00 AM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 11:00 AM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 11:00 AM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
     </row>
@@ -4091,52 +4093,52 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>BJ's Restaurant &amp; Brewery</t>
+          <t>Harley Gray Kitchen &amp; Bar</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>1370 Frazee Rd. San Diego, CA 92108</t>
+          <t>902 W. Washington St. San Diego, CA 92103</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>(619) 814-6350</t>
+          <t>(619) 955-8451</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Bussines hour: 4 Happy hour: 9:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 9:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 9:00 AM -  9:30 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: 4:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 9:00 AM -  9:30 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
         </is>
       </c>
     </row>
@@ -4146,52 +4148,52 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>BullsEye Bar @ Black Angus Steakhouse</t>
+          <t>On The Border</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>296 E. Via Rancho Parkway Escondido, CA 92025</t>
+          <t>10789 Westview Parkway San Diego, CA 92126</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>(760) 489-8420</t>
+          <t>(858) 530-1130</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 11:00 AM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Bussines hour: 2 Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 11:00 AM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: Not Happy Hour Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
     </row>
@@ -4201,55 +4203,52 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Redwing Bar &amp; Grill</t>
+          <t>BJ's Restaurant &amp; Brewery</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>4012 30th Street San Diego, CA 92104</t>
+          <t>204 E. Via Rancho Pkwy Escondido, CA 92025</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>(619) 281-8700</t>
+          <t xml:space="preserve">(760) 466-0700 </t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 11:00 AM -  2:00 PM Today deal: $15 Bottomless Mimosa 2:00 PM - 6:00 PM
-$2 12oz. Bud Light or Miller Lite / $12.50 Burger &amp; 12oz. Domestic Beer</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 9:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: Closed Today deal: $15 Bottomless Mimosa 2:00 PM - 6:00 PM
-$2 12oz. Bud Light or Miller Lite / $12.50 Burger &amp; 12oz. Domestic Beer</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 4:00 PM -  6:00 PM Today deal: $15 Bottomless Mimosa 2:00 PM - 6:00 PM
-$2 12oz. Bud Light or Miller Lite / $12.50 Burger &amp; 12oz. Domestic Beer</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: Closed</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour: 0 Happy hour: 4:00 PM -  6:00 PM Today deal: Half Size Appetizers: $4.25 Deep Fried Pickles / $4.50 Small Basket Case: Fries, Tots or Onion Rings / $4.75 Spicy Cauliflower, Chick-arrones / $5.25 Elote Corn Bites / $6 Chicken Fingers (2) &amp; Fries, 1/4 Wings &amp; Fries (Buffalo, House Made BBQ, Hot &amp; Sour Thai Chili, Garlic Ginger Teriyaki) / </t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour:   Happy hour: 4:00 PM -  6:00 PM Today deal: Half Size Appetizers: $4.25 Deep Fried Pickles / $4.50 Small Basket Case: Fries, Tots or Onion Rings / $4.75 Spicy Cauliflower, Chick-arrones / $5.25 Elote Corn Bites / $6 Chicken Fingers (2) &amp; Fries, 1/4 Wings &amp; Fries (Buffalo, House Made BBQ, Hot &amp; Sour Thai Chili, Garlic Ginger Teriyaki) / </t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 11:00 AM -  6:00 PM Today deal: Half Size Appetizers: $4.25 Deep Fried Pickles / $4.50 Small Basket Case: Fries, Tots or Onion Rings / $4.75 Spicy Cauliflower, Chick-arrones / $5.25 Elote Corn Bites / $6 Chicken Fingers (2) &amp; Fries, 1/4 Wings &amp; Fries (Buffalo, House Made BBQ, Hot &amp; Sour Thai Chili, Garlic Ginger Teriyaki) /  $3 Bud Light or Miller Lite Drafts / $4.75 Well Drinks</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 4:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
     </row>
@@ -4259,52 +4258,52 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>BJ's Restaurant &amp; Brewery</t>
+          <t>Pacific Beach Shore Club</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>8785 Villa La Jolla Dr. La Jolla, CA 92037</t>
+          <t>4343 Ocean Blvd. San Diego, CA 92109</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>(858) 257-3640</t>
+          <t>(858) 272-7873</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 9:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 9:00 AM - 12:00 AM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 10:00 AM - 12:00 AM Happy hour: 8:00 PM - 12:00 AM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 10:00 AM - 12:00 AM Happy hour: 4:00 PM - 12:00 AM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 10:00 AM -  2:00 AM Happy hour: 8:00 PM -  1:30 AM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 10:00 AM -  2:00 AM Happy hour: 4:00 PM -  1:30 AM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 10:00 AM -  2:00 AM Happy hour: 4:00 PM -  8:00 PM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 4:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t xml:space="preserve">Bussines hour: 9:00 AM -  2:00 AM Happy hour: Not Happy Hour Today deal: $3 All Drafts / $5 Ketel One &amp; Crown Royal $3 Hot Dogs </t>
         </is>
       </c>
     </row>
@@ -4314,52 +4313,52 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>West Coast Tavern</t>
+          <t>Yard House</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2895 University Ave. San Diego, CA 92104</t>
+          <t>2525 El Camino Real #210 Carlsbad, CA 92008</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>(619) 295-1688</t>
+          <t>(760) 434-1009</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 5:00 PM -  6:30 PM Today deal: $1 Off Draft Beer &amp; Specialty Cocktails / $9 Mules $9 Wings (5), Gastrique Fries, Disco Tots, Hummus, Nachos</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 10:00 PM - 11:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: Closed Today deal: $1 Off Draft Beer &amp; Specialty Cocktails / $9 Mules $9 Wings (5), Gastrique Fries, Disco Tots, Hummus, Nachos</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: Closed Today deal: $1 Off Draft Beer &amp; Specialty Cocktails / $9 Mules $9 Wings (5), Gastrique Fries, Disco Tots, Hummus, Nachos</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: Closed Today deal: $1 Off Draft Beer &amp; Specialty Cocktails / $9 Mules $9 Wings (5), Gastrique Fries, Disco Tots, Hummus, Nachos</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.99 - $18.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 5:00 PM -  6:30 PM Today deal: $1 Off Draft Beer &amp; Specialty Cocktails / $9 Mules $9 Wings (5), Gastrique Fries, Disco Tots, Hummus, Nachos</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.99 - $18.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 5:00 PM -  6:30 PM Today deal: $1 Off Draft Beer &amp; Specialty Cocktails / $9 Mules $9 Wings (5), Gastrique Fries, Disco Tots, Hummus, Nachos</t>
+          <t>Bussines hour: 11:00 AM - 11:30 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.99 - $18.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 5:00 PM -  6:30 PM Today deal: Closed</t>
+          <t>Bussines hour: 11:00 AM - 11:30 PM Happy hour: Not Happy Hour Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.99 - $18.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
     </row>
@@ -4369,52 +4368,52 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Yard House</t>
+          <t>BJ's Restaurant and Brewery</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2525 El Camino Real #210 Carlsbad, CA 92008</t>
+          <t>555 Broadway, Ste 1019 Chula Vista, CA 91910</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>(760) 434-1009</t>
+          <t>(619) 591-2490</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Bussines hour: 3 Happy hour: 10:00 PM - 11:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 9:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.99 - $18.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.99 - $18.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.99 - $18.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: Not Happy Hour Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.99 - $18.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 4:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
     </row>
@@ -4424,52 +4423,52 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Pacific Beach Shore Club</t>
+          <t>Mr. Peabody's</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>4343 Ocean Blvd. San Diego, CA 92109</t>
+          <t>136 Encinitas Blvd. Encinitas, CA 92024</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>(858) 272-7873</t>
+          <t>(760) 753-7192</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Bussines hour: 9 Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 8:00 PM - 12:00 AM Today deal: No Specials</t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM - 12:00 AM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 8:00 PM -  1:30 AM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 3:00 PM -  9:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 4:00 PM -  1:30 AM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 4:00 PM -  8:00 PM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour: M Happy hour: Not Happy Hour Today deal: $3 All Drafts / $5 Ketel One &amp; Crown Royal $3 Hot Dogs </t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
         </is>
       </c>
     </row>
@@ -4479,52 +4478,52 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Hooters</t>
+          <t>BullsEye Bar @ Black Angus Steakhouse</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1400 Camino De La Reina San Diego, CA 92108</t>
+          <t>1000 Graves Ave. El Cajon, CA 92021</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>(619) 299-4668</t>
+          <t>(619) 440-5055</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Bussines hour: 4 Happy hour: 10:00 PM - 12:00 AM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: 10:00 PM - 12:00 AM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: Not Happy Hour Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
     </row>
@@ -4534,52 +4533,52 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>BJ's Restaurant and Brewery</t>
+          <t>Wheat &amp; Water</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>555 Broadway, Ste 1019 Chula Vista, CA 91910</t>
+          <t>5737 La Jolla Blvd. La Jolla, CA 92037</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>(619) 591-2490</t>
+          <t>(858) 291-8690</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Bussines hour: 3 Happy hour: 9:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 12:00 PM -  9:00 PM Happy hour: 4:00 PM -  8:00 PM Today deal: Buy Any Pizza, Get $10 Off Any Pitcher of Beer</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 4:00 PM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: Buy Any Pizza, Get $10 Off Any Pitcher of Beer</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 4:00 PM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Select Beers / $7 House Wines by the Glass / $8 Well Spirits $5 BBQ Kalua Pig Slider, Carnitas Taco / $6 Fish Taco / $8 Butter Noodles / $9 Loaded Fries / $10 Carnitas Nachos, Red Sauce Noodles</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 4:00 PM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Select Beers / $7 House Wines by the Glass / $8 Well Spirits $5 BBQ Kalua Pig Slider, Carnitas Taco / $6 Fish Taco / $8 Butter Noodles / $9 Loaded Fries / $10 Carnitas Nachos, Red Sauce Noodles</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 4:00 PM - 10:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Select Beers / $7 House Wines by the Glass / $8 Well Spirits $5 BBQ Kalua Pig Slider, Carnitas Taco / $6 Fish Taco / $8 Butter Noodles / $9 Loaded Fries / $10 Carnitas Nachos, Red Sauce Noodles</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 12:00 PM - 11:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Select Beers / $7 House Wines by the Glass / $8 Well Spirits $5 BBQ Kalua Pig Slider, Carnitas Taco / $6 Fish Taco / $8 Butter Noodles / $9 Loaded Fries / $10 Carnitas Nachos, Red Sauce Noodles</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: 4:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: 8:00 PM - 10:00 PM Today deal: $5 Select Beers / $7 House Wines by the Glass / $8 Well Spirits $5 BBQ Kalua Pig Slider, Carnitas Taco / $6 Fish Taco / $8 Butter Noodles / $9 Loaded Fries / $10 Carnitas Nachos, Red Sauce Noodles</t>
         </is>
       </c>
     </row>
@@ -4589,52 +4588,52 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Hooters</t>
+          <t>BullsEye Bar @ Black Angus Steakhouse</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>775 Center Drive San Marcos, CA 92069</t>
+          <t>296 E. Via Rancho Parkway Escondido, CA 92025</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>(858) 451-6000</t>
+          <t>(760) 489-8420</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Bussines hour: 4 Happy hour: 10:00 PM - 12:00 AM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
+          <t>Bussines hour: 12:00 PM -  9:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
+          <t>Bussines hour: 3:00 PM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
+          <t>Bussines hour: 3:00 PM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
+          <t>Bussines hour: 3:00 PM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
+          <t>Bussines hour: 3:00 PM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: 10:00 PM - 12:00 AM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: Not Happy Hour Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
     </row>
@@ -4644,52 +4643,52 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BullsEye Bar @ Black Angus Steakhouse</t>
+          <t>BJ's Restaurant and Brewery</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>1000 Graves Ave. El Cajon, CA 92021</t>
+          <t>5500 Grossmont Center Dr. La Mesa, CA 91941</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>(619) 440-5055</t>
+          <t>(619) 589-7222</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 9:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Bussines hour: 2 Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: Not Happy Hour Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 4:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
     </row>
@@ -4699,52 +4698,52 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Yard House</t>
+          <t>BJ's Restaurant &amp; Brewery</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>1640 Camino del Rio North San Diego, CA 92108</t>
+          <t>8785 Villa La Jolla Dr. La Jolla, CA 92037</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>(619) 574-0468</t>
+          <t>(858) 257-3640</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Bussines hour: 4 Happy hour: 10:00 PM - 11:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 9:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: Not Happy Hour Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 4:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
     </row>
@@ -4754,52 +4753,52 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BJ's Restaurant &amp; Brewery</t>
+          <t>BullsEye Bar @ Black Angus Steakhouse</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>204 E. Via Rancho Pkwy Escondido, CA 92025</t>
+          <t>707 E St. Chula Vista, CA 91910</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve">(760) 466-0700 </t>
+          <t xml:space="preserve">(619) 426-9200 </t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 9:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 12:00 PM -  9:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 4:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: Not Happy Hour Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
     </row>
@@ -4809,52 +4808,52 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Baja Beach Cafe</t>
+          <t xml:space="preserve">Break Point Bar &amp; Restaurant </t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>701 Thomas Ave. San Diego, CA 92109</t>
+          <t>945 Garnet Ave. San Diego, CA 92109</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>(858) 230-6315</t>
+          <t>(858) 274-4018</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Bussines hour: 8 Happy hour: 10:30 PM - 12:30 AM Today deal: 2 for 1 Drinks</t>
+          <t>Bussines hour: 11:00 AM -  2:00 AM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 4:00 PM -  7:00 PM Today deal: 2 for 1 Drinks</t>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  7:00 PM Today deal: 2 for 1 Drinks 2 for 1 Drinks</t>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $2 Off Draft Beers / $5 Well Drinks, CK Mondavi Wine Varietals (Cabernet Sauvignon, Sauvignon Blanc, Chardonnay), Cazadores Blanco or Reposado Tequila Shot / $7 House Margarita $5 House Cut Fries / $7 Beer Battered Onion Rings / $8 Cheesy Garlic Bread / $10 Fried Calamari, Sweet 'n Spicy Cauliflower / $12 Hummus Board, Tomato Bacon Flatbread / $13 BBQ Chicken Flatbread / $14 Garlic Shrimp Fundido Dip / $15 Loaded Fries</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  7:00 PM Today deal: 2 for 1 Drinks 2 for 1 Drinks</t>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $2 Off Draft Beers / $5 Well Drinks, CK Mondavi Wine Varietals (Cabernet Sauvignon, Sauvignon Blanc, Chardonnay), Cazadores Blanco or Reposado Tequila Shot / $7 House Margarita $5 House Cut Fries / $7 Beer Battered Onion Rings / $8 Cheesy Garlic Bread / $10 Fried Calamari, Sweet 'n Spicy Cauliflower / $12 Hummus Board, Tomato Bacon Flatbread / $13 BBQ Chicken Flatbread / $14 Garlic Shrimp Fundido Dip / $15 Loaded Fries</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 4:00 PM -  7:00 PM Today deal: 2 for 1 Drinks 2 for 1 Drinks</t>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $2 Off Draft Beers / $5 Well Drinks, CK Mondavi Wine Varietals (Cabernet Sauvignon, Sauvignon Blanc, Chardonnay), Cazadores Blanco or Reposado Tequila Shot / $7 House Margarita $5 House Cut Fries / $7 Beer Battered Onion Rings / $8 Cheesy Garlic Bread / $10 Fried Calamari, Sweet 'n Spicy Cauliflower / $12 Hummus Board, Tomato Bacon Flatbread / $13 BBQ Chicken Flatbread / $14 Garlic Shrimp Fundido Dip / $15 Loaded Fries</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 4:00 PM -  7:00 PM Today deal: 2 for 1 Drinks 2 for 1 Drinks</t>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $2 Off Draft Beers / $5 Well Drinks, CK Mondavi Wine Varietals (Cabernet Sauvignon, Sauvignon Blanc, Chardonnay), Cazadores Blanco or Reposado Tequila Shot / $7 House Margarita $5 House Cut Fries / $7 Beer Battered Onion Rings / $8 Cheesy Garlic Bread / $10 Fried Calamari, Sweet 'n Spicy Cauliflower / $12 Hummus Board, Tomato Bacon Flatbread / $13 BBQ Chicken Flatbread / $14 Garlic Shrimp Fundido Dip / $15 Loaded Fries</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: 10:30 PM - 12:30 AM Today deal: 2 for 1 Drinks 2 for 1 Drinks</t>
+          <t>Bussines hour: 11:00 AM -  2:00 AM Happy hour: Not Happy Hour Today deal: $2 Off Draft Beers / $5 Well Drinks, CK Mondavi Wine Varietals (Cabernet Sauvignon, Sauvignon Blanc, Chardonnay), Cazadores Blanco or Reposado Tequila Shot / $7 House Margarita $5 House Cut Fries / $7 Beer Battered Onion Rings / $8 Cheesy Garlic Bread / $10 Fried Calamari, Sweet 'n Spicy Cauliflower / $12 Hummus Board, Tomato Bacon Flatbread / $13 BBQ Chicken Flatbread / $14 Garlic Shrimp Fundido Dip / $15 Loaded Fries</t>
         </is>
       </c>
     </row>
@@ -4864,59 +4863,52 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>King and Queen Cantina</t>
+          <t>Baja Beach Cafe</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>1490 Kettner Blvd. San Diego, CA 92101</t>
+          <t>701 Thomas Ave. San Diego, CA 92109</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>(619) 756-7864</t>
+          <t>(858) 230-6315</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Bussines hour: 1 Happy hour: 2:00 PM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
-[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
+          <t>Bussines hour: 8:00 AM - 12:30 AM Happy hour: 10:30 PM - 12:30 AM Today deal: 2 for 1 Drinks</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
-[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
+          <t>Bussines hour: 8:00 AM - 12:30 AM Happy hour: 4:00 PM -  7:00 PM Today deal: 2 for 1 Drinks</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
-[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
+          <t>Bussines hour: 8:00 AM - 12:30 AM Happy hour: 4:00 PM -  7:00 PM Today deal: 2 for 1 Drinks 2 for 1 Drinks</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
-[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
+          <t>Bussines hour: 8:00 AM - 12:30 AM Happy hour: 4:00 PM -  7:00 PM Today deal: 2 for 1 Drinks 2 for 1 Drinks</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
-[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
+          <t>Bussines hour: 8:00 AM - 12:30 AM Happy hour: 4:00 PM -  7:00 PM Today deal: 2 for 1 Drinks 2 for 1 Drinks</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
-[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: 2 for 1 Drinks 2 for 1 Drinks</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 2:00 PM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
-[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 10:30 PM - 12:30 AM Today deal: 2 for 1 Drinks 2 for 1 Drinks</t>
         </is>
       </c>
     </row>
@@ -4926,52 +4918,52 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Harley Gray Kitchen &amp; Bar</t>
+          <t>Yard House</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>902 W. Washington St. San Diego, CA 92103</t>
+          <t>1640 Camino del Rio North San Diego, CA 92108</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>(619) 955-8451</t>
+          <t>(619) 574-0468</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Bussines hour: 9 Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 10:00 PM - 11:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  5:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 3:00 PM -  5:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
+          <t>Bussines hour: 11:00 AM - 11:30 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
+          <t>Bussines hour: 11:00 AM - 11:30 PM Happy hour: Not Happy Hour Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
     </row>
@@ -4981,52 +4973,52 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BJ's Restaurant &amp; Brewery</t>
+          <t>West Coast Tavern</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>5613 Paseo Del Norte Carlsbad, CA 92008</t>
+          <t>2895 University Ave. San Diego, CA 92104</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>(760) 579-4440</t>
+          <t>(619) 295-1688</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Bussines hour: 3 Happy hour: 9:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 10:00 AM -  9:00 PM Happy hour: 5:00 PM -  6:30 PM Today deal: $1 Off Draft Beer &amp; Specialty Cocktails / $9 Mules $9 Wings (5), Gastrique Fries, Disco Tots, Hummus, Nachos</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 5:00 PM - 11:00 PM Happy hour: 5:00 PM -  6:30 PM Today deal: $1 Off Draft Beer &amp; Specialty Cocktails / $9 Mules $9 Wings (5), Gastrique Fries, Disco Tots, Hummus, Nachos</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Bussines hour: P Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 5:00 PM - 11:00 PM Happy hour: 5:00 PM -  6:30 PM Today deal: $1 Off Draft Beer &amp; Specialty Cocktails / $9 Mules $9 Wings (5), Gastrique Fries, Disco Tots, Hummus, Nachos</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: 4:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 10:00 AM - 11:00 PM Happy hour: 5:00 PM -  6:30 PM Today deal: Closed</t>
         </is>
       </c>
     </row>
@@ -5036,52 +5028,59 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Haig's Bar at Ocean's 11 Casino</t>
+          <t>King and Queen Cantina</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>121 Brooks St. Oceanside, CA 92054</t>
+          <t>1490 Kettner Blvd. San Diego, CA 92101</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>(760) 439-6988</t>
+          <t>(619) 756-7864</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Bussines hour: 8 Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
+          <t>Bussines hour: 10:00 AM - 10:00 PM Happy hour: 2:00 PM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Bussines hour: : Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Bussines hour: 0 Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Bussines hour:   Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Bussines hour: A Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
+          <t>Bussines hour: 11:00 AM -  1:00 AM Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Bussines hour: M Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
+          <t>Bussines hour: 10:00 AM -  1:00 AM Happy hour: 2:00 PM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
     </row>

--- a/King Happy Hour San Diego.xlsx
+++ b/King Happy Hour San Diego.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3486,52 +3486,52 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Dirty Birds</t>
+          <t>The Duck Dive</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>4656 Mission Blvd. San Diego, CA 92109</t>
+          <t>4650 Mission Blvd. San Diego, CA 92109</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>(858) 274-2473</t>
+          <t>(858) 273-3825</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t xml:space="preserve">Bussines hour: 9:00 AM - 10:00 PM Happy hour: 9:00 AM -  3:00 PM Today deal: $7 - $14 Brunch Cocktails / $17.50 Bottomless Mimosa w/Entrée Purchase $16 - $28 Brunch Menu </t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 11:00 AM -  6:00 PM Today deal: 1/2 Priced Select Pitchers 1/2 Off Bone-In Wings</t>
+          <t xml:space="preserve">Bussines hour: 10:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $7 - $14 Brunch Cocktails / $17.50 Bottomless Mimosa w/Entrée Purchase $16 - $28 Brunch Menu </t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: 1/2 Priced Select Pitchers 1/2 Off Bone-In Wings</t>
+          <t>Bussines hour: 10:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: Closed</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: 1/2 Priced Select Pitchers 1/2 Off Bone-In Wings</t>
+          <t>Bussines hour: 10:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $6 Select Signature Cocktails, Select Wines &amp; Drafts $6.50 Duck Fat Fries, Chips &amp; Guac / $7.50 Duck Dive Spinach Dip / $8 Chicken Tenders, Dive Wings / $8.50 Calamari &amp; Peppers</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: 1/2 Priced Select Pitchers 1/2 Off Bone-In Wings</t>
+          <t>Bussines hour: 10:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $6 Select Signature Cocktails, Select Wines &amp; Drafts $6.50 Duck Fat Fries, Chips &amp; Guac / $7.50 Duck Dive Spinach Dip / $8 Chicken Tenders, Dive Wings / $8.50 Calamari &amp; Peppers</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: Not Happy Hour Today deal: 1/2 Priced Select Pitchers 1/2 Off Bone-In Wings</t>
+          <t>Bussines hour: 9:00 AM - 10:00 PM Happy hour: 9:00 AM -  3:00 PM Today deal: $6 Select Signature Cocktails, Select Wines &amp; Drafts $6.50 Duck Fat Fries, Chips &amp; Guac / $7.50 Duck Dive Spinach Dip / $8 Chicken Tenders, Dive Wings / $8.50 Calamari &amp; Peppers</t>
         </is>
       </c>
     </row>
@@ -3541,52 +3541,52 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Taste &amp; Thirst</t>
+          <t>Yard House</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>715 Fourth Ave. San Diego, CA 92101</t>
+          <t>2525 El Camino Real #210 Carlsbad, CA 92008</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>(619) 955-5995</t>
+          <t>(760) 434-1009</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Bussines hour: 9:30 AM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 10:00 PM - 11:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Bussines hour: 3:00 PM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Bussines hour: 3:00 PM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Bussines hour: 9:30 AM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.99 - $18.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>Bussines hour: 9:30 AM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.99 - $18.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Bussines hour: 9:30 AM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+          <t>Bussines hour: 11:00 AM - 11:30 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.99 - $18.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Bussines hour: 9:30 AM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+          <t>Bussines hour: 11:00 AM - 11:30 PM Happy hour: Not Happy Hour Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.99 - $18.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
     </row>
@@ -3596,52 +3596,52 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Steamy Piggy</t>
+          <t>BJ's Restaurant &amp; Brewery</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>4681 Convoy St. San Diego, CA 92111</t>
+          <t>5613 Paseo Del Norte Carlsbad, CA 92008</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>(858) 492-0401</t>
+          <t>(760) 579-4440</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
+          <t>Bussines hour: 10:00 AM - 12:00 AM Happy hour: 9:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 4:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
     </row>
@@ -3651,52 +3651,52 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Khan's Cave Asian Tavern &amp; Grill</t>
+          <t>West Coast Tavern</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>9350 Clairemont Mesa Blvd., Ste F San Diego, CA 92123</t>
+          <t>2895 University Ave. San Diego, CA 92104</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>(858) 279-9799</t>
+          <t>(619) 295-1688</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
+          <t>Bussines hour: 10:00 AM -  9:00 PM Happy hour: 5:00 PM -  6:30 PM Today deal: $1 Off Draft Beer &amp; Specialty Cocktails / $9 Mules $9 Wings (5), Gastrique Fries, Disco Tots, Hummus, Nachos</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
           <t>Closed</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $3.50 Fireball Shooter / $4.75 - $5 Bottled Beer / $6 Draft Beer of the Day, Small Warm Sake / $7 House Select Wine by the Glass / $7 - $8.25 Draft Beer / $8.50 Martinis / $8.75 Beer Sampler: Three 5oz. Pours / $9 Specialty Cocktails $6.50 Beef Curry Dumplings, Side Salad, Garlic Edamame, Garlic Naan, Fries / $7.50 Steamed Pork or Fried Chicken Gyoza, XLB, Fried Brussels Sprouts, Waffle Fries, Veggie or Chicken Egg Rolls, Cream Cheese Wonton, Egg Fried Rice, Truffle Fries / $8.50 Seaweed Salad, Garlic Naan Bruschetta, Spicy Eggplant, Broccoli or Green Beans Sauté, Mixed Asian Greens, Yaki Soba (plain) / $9.50 Spicy Popcorn Chicken, Chicken or Vegetarian Lettuce Wraps, BBQ Pork Sliders, Dan Dan Noodles, Khan's Hot Dog, Dumpling Sampler, Tempura Shrimp / $10.50 Roasted Duck / $12.50 Seared Skirt Steak, Ginger Glazed or Panko Shrimp Basket, Sautéed Garlic Butter Shrimp, Peppery Fried or Firecracker Calamari / $13.50 Wings (Sriracha, Peppery Fried, Sweet &amp; Spicy), Pub Steak &amp; Fries, Aloha Loco Moco, Lamb or Steak Brochette, Khan's Teriyaki Glazed BLT Burger, Ahi Poke Salad, Seared Sesame Ahi Salad </t>
-        </is>
-      </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $3.50 Fireball Shooter / $4.75 - $5 Bottled Beer / $6 Draft Beer of the Day, Small Warm Sake / $7 House Select Wine by the Glass / $7 - $8.25 Draft Beer / $8.50 Martinis / $8.75 Beer Sampler: Three 5oz. Pours / $9 Specialty Cocktails $6.50 Beef Curry Dumplings, Side Salad, Garlic Edamame, Garlic Naan, Fries / $7.50 Steamed Pork or Fried Chicken Gyoza, XLB, Fried Brussels Sprouts, Waffle Fries, Veggie or Chicken Egg Rolls, Cream Cheese Wonton, Egg Fried Rice, Truffle Fries / $8.50 Seaweed Salad, Garlic Naan Bruschetta, Spicy Eggplant, Broccoli or Green Beans Sauté, Mixed Asian Greens, Yaki Soba (plain) / $9.50 Spicy Popcorn Chicken, Chicken or Vegetarian Lettuce Wraps, BBQ Pork Sliders, Dan Dan Noodles, Khan's Hot Dog, Dumpling Sampler, Tempura Shrimp / $10.50 Roasted Duck / $12.50 Seared Skirt Steak, Ginger Glazed or Panko Shrimp Basket, Sautéed Garlic Butter Shrimp, Peppery Fried or Firecracker Calamari / $13.50 Wings (Sriracha, Peppery Fried, Sweet &amp; Spicy), Pub Steak &amp; Fries, Aloha Loco Moco, Lamb or Steak Brochette, Khan's Teriyaki Glazed BLT Burger, Ahi Poke Salad, Seared Sesame Ahi Salad </t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $3.50 Fireball Shooter / $4.75 - $5 Bottled Beer / $6 Draft Beer of the Day, Small Warm Sake / $7 House Select Wine by the Glass / $7 - $8.25 Draft Beer / $8.50 Martinis / $8.75 Beer Sampler: Three 5oz. Pours / $9 Specialty Cocktails $6.50 Beef Curry Dumplings, Side Salad, Garlic Edamame, Garlic Naan, Fries / $7.50 Steamed Pork or Fried Chicken Gyoza, XLB, Fried Brussels Sprouts, Waffle Fries, Veggie or Chicken Egg Rolls, Cream Cheese Wonton, Egg Fried Rice, Truffle Fries / $8.50 Seaweed Salad, Garlic Naan Bruschetta, Spicy Eggplant, Broccoli or Green Beans Sauté, Mixed Asian Greens, Yaki Soba (plain) / $9.50 Spicy Popcorn Chicken, Chicken or Vegetarian Lettuce Wraps, BBQ Pork Sliders, Dan Dan Noodles, Khan's Hot Dog, Dumpling Sampler, Tempura Shrimp / $10.50 Roasted Duck / $12.50 Seared Skirt Steak, Ginger Glazed or Panko Shrimp Basket, Sautéed Garlic Butter Shrimp, Peppery Fried or Firecracker Calamari / $13.50 Wings (Sriracha, Peppery Fried, Sweet &amp; Spicy), Pub Steak &amp; Fries, Aloha Loco Moco, Lamb or Steak Brochette, Khan's Teriyaki Glazed BLT Burger, Ahi Poke Salad, Seared Sesame Ahi Salad </t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $3.50 Fireball Shooter / $4.75 - $5 Bottled Beer / $6 Draft Beer of the Day, Small Warm Sake / $7 House Select Wine by the Glass / $7 - $8.25 Draft Beer / $8.50 Martinis / $8.75 Beer Sampler: Three 5oz. Pours / $9 Specialty Cocktails $6.50 Beef Curry Dumplings, Side Salad, Garlic Edamame, Garlic Naan, Fries / $7.50 Steamed Pork or Fried Chicken Gyoza, XLB, Fried Brussels Sprouts, Waffle Fries, Veggie or Chicken Egg Rolls, Cream Cheese Wonton, Egg Fried Rice, Truffle Fries / $8.50 Seaweed Salad, Garlic Naan Bruschetta, Spicy Eggplant, Broccoli or Green Beans Sauté, Mixed Asian Greens, Yaki Soba (plain) / $9.50 Spicy Popcorn Chicken, Chicken or Vegetarian Lettuce Wraps, BBQ Pork Sliders, Dan Dan Noodles, Khan's Hot Dog, Dumpling Sampler, Tempura Shrimp / $10.50 Roasted Duck / $12.50 Seared Skirt Steak, Ginger Glazed or Panko Shrimp Basket, Sautéed Garlic Butter Shrimp, Peppery Fried or Firecracker Calamari / $13.50 Wings (Sriracha, Peppery Fried, Sweet &amp; Spicy), Pub Steak &amp; Fries, Aloha Loco Moco, Lamb or Steak Brochette, Khan's Teriyaki Glazed BLT Burger, Ahi Poke Salad, Seared Sesame Ahi Salad </t>
+          <t>Bussines hour: 5:00 PM - 11:00 PM Happy hour: 5:00 PM -  6:30 PM Today deal: $1 Off Draft Beer &amp; Specialty Cocktails / $9 Mules $9 Wings (5), Gastrique Fries, Disco Tots, Hummus, Nachos</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $3.50 Fireball Shooter / $4.75 - $5 Bottled Beer / $6 Draft Beer of the Day, Small Warm Sake / $7 House Select Wine by the Glass / $7 - $8.25 Draft Beer / $8.50 Martinis / $8.75 Beer Sampler: Three 5oz. Pours / $9 Specialty Cocktails $6.50 Beef Curry Dumplings, Side Salad, Garlic Edamame, Garlic Naan, Fries / $7.50 Steamed Pork or Fried Chicken Gyoza, XLB, Fried Brussels Sprouts, Waffle Fries, Veggie or Chicken Egg Rolls, Cream Cheese Wonton, Egg Fried Rice, Truffle Fries / $8.50 Seaweed Salad, Garlic Naan Bruschetta, Spicy Eggplant, Broccoli or Green Beans Sauté, Mixed Asian Greens, Yaki Soba (plain) / $9.50 Spicy Popcorn Chicken, Chicken or Vegetarian Lettuce Wraps, BBQ Pork Sliders, Dan Dan Noodles, Khan's Hot Dog, Dumpling Sampler, Tempura Shrimp / $10.50 Roasted Duck / $12.50 Seared Skirt Steak, Ginger Glazed or Panko Shrimp Basket, Sautéed Garlic Butter Shrimp, Peppery Fried or Firecracker Calamari / $13.50 Wings (Sriracha, Peppery Fried, Sweet &amp; Spicy), Pub Steak &amp; Fries, Aloha Loco Moco, Lamb or Steak Brochette, Khan's Teriyaki Glazed BLT Burger, Ahi Poke Salad, Seared Sesame Ahi Salad </t>
+          <t>Bussines hour: 5:00 PM - 11:00 PM Happy hour: 5:00 PM -  6:30 PM Today deal: $1 Off Draft Beer &amp; Specialty Cocktails / $9 Mules $9 Wings (5), Gastrique Fries, Disco Tots, Hummus, Nachos</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour: 4:00 PM -  9:00 PM Happy hour: Not Happy Hour Today deal: $3.50 Fireball Shooter / $4.75 - $5 Bottled Beer / $6 Draft Beer of the Day, Small Warm Sake / $7 House Select Wine by the Glass / $7 - $8.25 Draft Beer / $8.50 Martinis / $8.75 Beer Sampler: Three 5oz. Pours / $9 Specialty Cocktails $6.50 Beef Curry Dumplings, Side Salad, Garlic Edamame, Garlic Naan, Fries / $7.50 Steamed Pork or Fried Chicken Gyoza, XLB, Fried Brussels Sprouts, Waffle Fries, Veggie or Chicken Egg Rolls, Cream Cheese Wonton, Egg Fried Rice, Truffle Fries / $8.50 Seaweed Salad, Garlic Naan Bruschetta, Spicy Eggplant, Broccoli or Green Beans Sauté, Mixed Asian Greens, Yaki Soba (plain) / $9.50 Spicy Popcorn Chicken, Chicken or Vegetarian Lettuce Wraps, BBQ Pork Sliders, Dan Dan Noodles, Khan's Hot Dog, Dumpling Sampler, Tempura Shrimp / $10.50 Roasted Duck / $12.50 Seared Skirt Steak, Ginger Glazed or Panko Shrimp Basket, Sautéed Garlic Butter Shrimp, Peppery Fried or Firecracker Calamari / $13.50 Wings (Sriracha, Peppery Fried, Sweet &amp; Spicy), Pub Steak &amp; Fries, Aloha Loco Moco, Lamb or Steak Brochette, Khan's Teriyaki Glazed BLT Burger, Ahi Poke Salad, Seared Sesame Ahi Salad </t>
+          <t>Bussines hour: 10:00 AM - 11:00 PM Happy hour: 5:00 PM -  6:30 PM Today deal: Closed</t>
         </is>
       </c>
     </row>
@@ -3706,54 +3706,52 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Redwing Bar &amp; Grill</t>
+          <t>Haig's Bar at Ocean's 11 Casino</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>4012 30th Street San Diego, CA 92104</t>
+          <t>121 Brooks St. Oceanside, CA 92054</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>(619) 281-8700</t>
+          <t>(760) 439-6988</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM -  1:00 AM Happy hour: 11:00 AM -  2:00 PM Today deal: $15 Bottomless Mimosa 2:00 PM - 6:00 PM
-$2 12oz. Bud Light or Miller Lite / $12.50 Burger &amp; 12oz. Domestic Beer</t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Closed</t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM -  1:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: $15 Bottomless Mimosa 2:00 PM - 6:00 PM
-$2 12oz. Bud Light or Miller Lite / $12.50 Burger &amp; 12oz. Domestic Beer</t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM -  1:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: Closed</t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour: 11:00 AM -  1:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: Half Size Appetizers: $4.25 Deep Fried Pickles / $4.50 Small Basket Case: Fries, Tots or Onion Rings / $4.75 Spicy Cauliflower, Chick-arrones / $5.25 Elote Corn Bites / $6 Chicken Fingers (2) &amp; Fries, 1/4 Wings &amp; Fries (Buffalo, House Made BBQ, Hot &amp; Sour Thai Chili, Garlic Ginger Teriyaki) / </t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour: 11:00 AM -  2:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: Half Size Appetizers: $4.25 Deep Fried Pickles / $4.50 Small Basket Case: Fries, Tots or Onion Rings / $4.75 Spicy Cauliflower, Chick-arrones / $5.25 Elote Corn Bites / $6 Chicken Fingers (2) &amp; Fries, 1/4 Wings &amp; Fries (Buffalo, House Made BBQ, Hot &amp; Sour Thai Chili, Garlic Ginger Teriyaki) / </t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM -  2:00 AM Happy hour: 11:00 AM -  6:00 PM Today deal: Half Size Appetizers: $4.25 Deep Fried Pickles / $4.50 Small Basket Case: Fries, Tots or Onion Rings / $4.75 Spicy Cauliflower, Chick-arrones / $5.25 Elote Corn Bites / $6 Chicken Fingers (2) &amp; Fries, 1/4 Wings &amp; Fries (Buffalo, House Made BBQ, Hot &amp; Sour Thai Chili, Garlic Ginger Teriyaki) /  $3 Bud Light or Miller Lite Drafts / $4.75 Well Drinks</t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
         </is>
       </c>
     </row>
@@ -3763,52 +3761,52 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Hooters</t>
+          <t>Yard House</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>775 Center Drive San Marcos, CA 92069</t>
+          <t>1640 Camino del Rio North San Diego, CA 92108</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>(858) 451-6000</t>
+          <t>(619) 574-0468</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 10:00 PM - 12:00 AM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 10:00 PM - 11:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
+          <t>Bussines hour: 11:00 AM - 11:30 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 10:00 PM - 12:00 AM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
+          <t>Bussines hour: 11:00 AM - 11:30 PM Happy hour: Not Happy Hour Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
         </is>
       </c>
     </row>
@@ -3818,52 +3816,52 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>BJ's Restaurant &amp; Brewery</t>
+          <t>Khan's Cave Asian Tavern &amp; Grill</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>1370 Frazee Rd. San Diego, CA 92108</t>
+          <t>9350 Clairemont Mesa Blvd., Ste F San Diego, CA 92123</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>(619) 814-6350</t>
+          <t>(858) 279-9799</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 9:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t xml:space="preserve">Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $3.50 Fireball Shooter / $4.75 - $5 Bottled Beer / $6 Draft Beer of the Day, Small Warm Sake / $7 House Select Wine by the Glass / $7 - $8.25 Draft Beer / $8.50 Martinis / $8.75 Beer Sampler: Three 5oz. Pours / $9 Specialty Cocktails $6.50 Beef Curry Dumplings, Side Salad, Garlic Edamame, Garlic Naan, Fries / $7.50 Steamed Pork or Fried Chicken Gyoza, XLB, Fried Brussels Sprouts, Waffle Fries, Veggie or Chicken Egg Rolls, Cream Cheese Wonton, Egg Fried Rice, Truffle Fries / $8.50 Seaweed Salad, Garlic Naan Bruschetta, Spicy Eggplant, Broccoli or Green Beans Sauté, Mixed Asian Greens, Yaki Soba (plain) / $9.50 Spicy Popcorn Chicken, Chicken or Vegetarian Lettuce Wraps, BBQ Pork Sliders, Dan Dan Noodles, Khan's Hot Dog, Dumpling Sampler, Tempura Shrimp / $10.50 Roasted Duck / $12.50 Seared Skirt Steak, Ginger Glazed or Panko Shrimp Basket, Sautéed Garlic Butter Shrimp, Peppery Fried or Firecracker Calamari / $13.50 Wings (Sriracha, Peppery Fried, Sweet &amp; Spicy), Pub Steak &amp; Fries, Aloha Loco Moco, Lamb or Steak Brochette, Khan's Teriyaki Glazed BLT Burger, Ahi Poke Salad, Seared Sesame Ahi Salad </t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t xml:space="preserve">Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $3.50 Fireball Shooter / $4.75 - $5 Bottled Beer / $6 Draft Beer of the Day, Small Warm Sake / $7 House Select Wine by the Glass / $7 - $8.25 Draft Beer / $8.50 Martinis / $8.75 Beer Sampler: Three 5oz. Pours / $9 Specialty Cocktails $6.50 Beef Curry Dumplings, Side Salad, Garlic Edamame, Garlic Naan, Fries / $7.50 Steamed Pork or Fried Chicken Gyoza, XLB, Fried Brussels Sprouts, Waffle Fries, Veggie or Chicken Egg Rolls, Cream Cheese Wonton, Egg Fried Rice, Truffle Fries / $8.50 Seaweed Salad, Garlic Naan Bruschetta, Spicy Eggplant, Broccoli or Green Beans Sauté, Mixed Asian Greens, Yaki Soba (plain) / $9.50 Spicy Popcorn Chicken, Chicken or Vegetarian Lettuce Wraps, BBQ Pork Sliders, Dan Dan Noodles, Khan's Hot Dog, Dumpling Sampler, Tempura Shrimp / $10.50 Roasted Duck / $12.50 Seared Skirt Steak, Ginger Glazed or Panko Shrimp Basket, Sautéed Garlic Butter Shrimp, Peppery Fried or Firecracker Calamari / $13.50 Wings (Sriracha, Peppery Fried, Sweet &amp; Spicy), Pub Steak &amp; Fries, Aloha Loco Moco, Lamb or Steak Brochette, Khan's Teriyaki Glazed BLT Burger, Ahi Poke Salad, Seared Sesame Ahi Salad </t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t xml:space="preserve">Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $3.50 Fireball Shooter / $4.75 - $5 Bottled Beer / $6 Draft Beer of the Day, Small Warm Sake / $7 House Select Wine by the Glass / $7 - $8.25 Draft Beer / $8.50 Martinis / $8.75 Beer Sampler: Three 5oz. Pours / $9 Specialty Cocktails $6.50 Beef Curry Dumplings, Side Salad, Garlic Edamame, Garlic Naan, Fries / $7.50 Steamed Pork or Fried Chicken Gyoza, XLB, Fried Brussels Sprouts, Waffle Fries, Veggie or Chicken Egg Rolls, Cream Cheese Wonton, Egg Fried Rice, Truffle Fries / $8.50 Seaweed Salad, Garlic Naan Bruschetta, Spicy Eggplant, Broccoli or Green Beans Sauté, Mixed Asian Greens, Yaki Soba (plain) / $9.50 Spicy Popcorn Chicken, Chicken or Vegetarian Lettuce Wraps, BBQ Pork Sliders, Dan Dan Noodles, Khan's Hot Dog, Dumpling Sampler, Tempura Shrimp / $10.50 Roasted Duck / $12.50 Seared Skirt Steak, Ginger Glazed or Panko Shrimp Basket, Sautéed Garlic Butter Shrimp, Peppery Fried or Firecracker Calamari / $13.50 Wings (Sriracha, Peppery Fried, Sweet &amp; Spicy), Pub Steak &amp; Fries, Aloha Loco Moco, Lamb or Steak Brochette, Khan's Teriyaki Glazed BLT Burger, Ahi Poke Salad, Seared Sesame Ahi Salad </t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t xml:space="preserve">Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $3.50 Fireball Shooter / $4.75 - $5 Bottled Beer / $6 Draft Beer of the Day, Small Warm Sake / $7 House Select Wine by the Glass / $7 - $8.25 Draft Beer / $8.50 Martinis / $8.75 Beer Sampler: Three 5oz. Pours / $9 Specialty Cocktails $6.50 Beef Curry Dumplings, Side Salad, Garlic Edamame, Garlic Naan, Fries / $7.50 Steamed Pork or Fried Chicken Gyoza, XLB, Fried Brussels Sprouts, Waffle Fries, Veggie or Chicken Egg Rolls, Cream Cheese Wonton, Egg Fried Rice, Truffle Fries / $8.50 Seaweed Salad, Garlic Naan Bruschetta, Spicy Eggplant, Broccoli or Green Beans Sauté, Mixed Asian Greens, Yaki Soba (plain) / $9.50 Spicy Popcorn Chicken, Chicken or Vegetarian Lettuce Wraps, BBQ Pork Sliders, Dan Dan Noodles, Khan's Hot Dog, Dumpling Sampler, Tempura Shrimp / $10.50 Roasted Duck / $12.50 Seared Skirt Steak, Ginger Glazed or Panko Shrimp Basket, Sautéed Garlic Butter Shrimp, Peppery Fried or Firecracker Calamari / $13.50 Wings (Sriracha, Peppery Fried, Sweet &amp; Spicy), Pub Steak &amp; Fries, Aloha Loco Moco, Lamb or Steak Brochette, Khan's Teriyaki Glazed BLT Burger, Ahi Poke Salad, Seared Sesame Ahi Salad </t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t xml:space="preserve">Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $3.50 Fireball Shooter / $4.75 - $5 Bottled Beer / $6 Draft Beer of the Day, Small Warm Sake / $7 House Select Wine by the Glass / $7 - $8.25 Draft Beer / $8.50 Martinis / $8.75 Beer Sampler: Three 5oz. Pours / $9 Specialty Cocktails $6.50 Beef Curry Dumplings, Side Salad, Garlic Edamame, Garlic Naan, Fries / $7.50 Steamed Pork or Fried Chicken Gyoza, XLB, Fried Brussels Sprouts, Waffle Fries, Veggie or Chicken Egg Rolls, Cream Cheese Wonton, Egg Fried Rice, Truffle Fries / $8.50 Seaweed Salad, Garlic Naan Bruschetta, Spicy Eggplant, Broccoli or Green Beans Sauté, Mixed Asian Greens, Yaki Soba (plain) / $9.50 Spicy Popcorn Chicken, Chicken or Vegetarian Lettuce Wraps, BBQ Pork Sliders, Dan Dan Noodles, Khan's Hot Dog, Dumpling Sampler, Tempura Shrimp / $10.50 Roasted Duck / $12.50 Seared Skirt Steak, Ginger Glazed or Panko Shrimp Basket, Sautéed Garlic Butter Shrimp, Peppery Fried or Firecracker Calamari / $13.50 Wings (Sriracha, Peppery Fried, Sweet &amp; Spicy), Pub Steak &amp; Fries, Aloha Loco Moco, Lamb or Steak Brochette, Khan's Teriyaki Glazed BLT Burger, Ahi Poke Salad, Seared Sesame Ahi Salad </t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 4:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t xml:space="preserve">Bussines hour: 4:00 PM -  9:00 PM Happy hour: Not Happy Hour Today deal: $3.50 Fireball Shooter / $4.75 - $5 Bottled Beer / $6 Draft Beer of the Day, Small Warm Sake / $7 House Select Wine by the Glass / $7 - $8.25 Draft Beer / $8.50 Martinis / $8.75 Beer Sampler: Three 5oz. Pours / $9 Specialty Cocktails $6.50 Beef Curry Dumplings, Side Salad, Garlic Edamame, Garlic Naan, Fries / $7.50 Steamed Pork or Fried Chicken Gyoza, XLB, Fried Brussels Sprouts, Waffle Fries, Veggie or Chicken Egg Rolls, Cream Cheese Wonton, Egg Fried Rice, Truffle Fries / $8.50 Seaweed Salad, Garlic Naan Bruschetta, Spicy Eggplant, Broccoli or Green Beans Sauté, Mixed Asian Greens, Yaki Soba (plain) / $9.50 Spicy Popcorn Chicken, Chicken or Vegetarian Lettuce Wraps, BBQ Pork Sliders, Dan Dan Noodles, Khan's Hot Dog, Dumpling Sampler, Tempura Shrimp / $10.50 Roasted Duck / $12.50 Seared Skirt Steak, Ginger Glazed or Panko Shrimp Basket, Sautéed Garlic Butter Shrimp, Peppery Fried or Firecracker Calamari / $13.50 Wings (Sriracha, Peppery Fried, Sweet &amp; Spicy), Pub Steak &amp; Fries, Aloha Loco Moco, Lamb or Steak Brochette, Khan's Teriyaki Glazed BLT Burger, Ahi Poke Salad, Seared Sesame Ahi Salad </t>
         </is>
       </c>
     </row>
@@ -3873,52 +3871,52 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Haig's Bar at Ocean's 11 Casino</t>
+          <t xml:space="preserve">Break Point Bar &amp; Restaurant </t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>121 Brooks St. Oceanside, CA 92054</t>
+          <t>945 Garnet Ave. San Diego, CA 92109</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>(760) 439-6988</t>
+          <t>(858) 274-4018</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
+          <t>Bussines hour: 11:00 AM -  2:00 AM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $2 Off Draft Beers / $5 Well Drinks, CK Mondavi Wine Varietals (Cabernet Sauvignon, Sauvignon Blanc, Chardonnay), Cazadores Blanco or Reposado Tequila Shot / $7 House Margarita $5 House Cut Fries / $7 Beer Battered Onion Rings / $8 Cheesy Garlic Bread / $10 Fried Calamari, Sweet 'n Spicy Cauliflower / $12 Hummus Board, Tomato Bacon Flatbread / $13 BBQ Chicken Flatbread / $14 Garlic Shrimp Fundido Dip / $15 Loaded Fries</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $2 Off Draft Beers / $5 Well Drinks, CK Mondavi Wine Varietals (Cabernet Sauvignon, Sauvignon Blanc, Chardonnay), Cazadores Blanco or Reposado Tequila Shot / $7 House Margarita $5 House Cut Fries / $7 Beer Battered Onion Rings / $8 Cheesy Garlic Bread / $10 Fried Calamari, Sweet 'n Spicy Cauliflower / $12 Hummus Board, Tomato Bacon Flatbread / $13 BBQ Chicken Flatbread / $14 Garlic Shrimp Fundido Dip / $15 Loaded Fries</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $2 Off Draft Beers / $5 Well Drinks, CK Mondavi Wine Varietals (Cabernet Sauvignon, Sauvignon Blanc, Chardonnay), Cazadores Blanco or Reposado Tequila Shot / $7 House Margarita $5 House Cut Fries / $7 Beer Battered Onion Rings / $8 Cheesy Garlic Bread / $10 Fried Calamari, Sweet 'n Spicy Cauliflower / $12 Hummus Board, Tomato Bacon Flatbread / $13 BBQ Chicken Flatbread / $14 Garlic Shrimp Fundido Dip / $15 Loaded Fries</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $2 Off Draft Beers / $5 Well Drinks, CK Mondavi Wine Varietals (Cabernet Sauvignon, Sauvignon Blanc, Chardonnay), Cazadores Blanco or Reposado Tequila Shot / $7 House Margarita $5 House Cut Fries / $7 Beer Battered Onion Rings / $8 Cheesy Garlic Bread / $10 Fried Calamari, Sweet 'n Spicy Cauliflower / $12 Hummus Board, Tomato Bacon Flatbread / $13 BBQ Chicken Flatbread / $14 Garlic Shrimp Fundido Dip / $15 Loaded Fries</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $1 Off House Wines &amp; Draft Beers / $4 Well Drinks $1 Off House Wines &amp; Draft Beers / $4 Well Drinks</t>
+          <t>Bussines hour: 11:00 AM -  2:00 AM Happy hour: Not Happy Hour Today deal: $2 Off Draft Beers / $5 Well Drinks, CK Mondavi Wine Varietals (Cabernet Sauvignon, Sauvignon Blanc, Chardonnay), Cazadores Blanco or Reposado Tequila Shot / $7 House Margarita $5 House Cut Fries / $7 Beer Battered Onion Rings / $8 Cheesy Garlic Bread / $10 Fried Calamari, Sweet 'n Spicy Cauliflower / $12 Hummus Board, Tomato Bacon Flatbread / $13 BBQ Chicken Flatbread / $14 Garlic Shrimp Fundido Dip / $15 Loaded Fries</t>
         </is>
       </c>
     </row>
@@ -3928,52 +3926,52 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>BJ's Restaurant &amp; Brewery</t>
+          <t>BullsEye Bar @ Black Angus Steakhouse</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>5613 Paseo Del Norte Carlsbad, CA 92008</t>
+          <t>707 E St. Chula Vista, CA 91910</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>(760) 579-4440</t>
+          <t xml:space="preserve">(619) 426-9200 </t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Bussines hour: 10:00 AM - 12:00 AM Happy hour: 9:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 12:00 PM -  9:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 4:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: Not Happy Hour Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
     </row>
@@ -3983,52 +3981,52 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Hooters</t>
+          <t>On The Border</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>1400 Camino De La Reina San Diego, CA 92108</t>
+          <t>10789 Westview Parkway San Diego, CA 92126</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>(619) 299-4668</t>
+          <t>(858) 530-1130</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 10:00 PM - 12:00 AM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 11:00 AM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 11:00 AM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 10:00 PM - 12:00 AM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
     </row>
@@ -4038,52 +4036,52 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>On The Border</t>
+          <t>Wheat &amp; Water</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>298 East Via Rancho Pkwy Escondido, CA 92025</t>
+          <t>5737 La Jolla Blvd. La Jolla, CA 92037</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>(760) 233-9777</t>
+          <t>(858) 291-8690</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 11:00 AM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+          <t>Bussines hour: 12:00 PM -  9:00 PM Happy hour: 4:00 PM -  8:00 PM Today deal: Buy Any Pizza, Get $10 Off Any Pitcher of Beer</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 11:00 AM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+          <t>Bussines hour: 4:00 PM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: Buy Any Pizza, Get $10 Off Any Pitcher of Beer</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+          <t>Bussines hour: 4:00 PM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Select Beers / $7 House Wines by the Glass / $8 Well Spirits $5 BBQ Kalua Pig Slider, Carnitas Taco / $6 Fish Taco / $8 Butter Noodles / $9 Loaded Fries / $10 Carnitas Nachos, Red Sauce Noodles</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+          <t>Bussines hour: 4:00 PM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Select Beers / $7 House Wines by the Glass / $8 Well Spirits $5 BBQ Kalua Pig Slider, Carnitas Taco / $6 Fish Taco / $8 Butter Noodles / $9 Loaded Fries / $10 Carnitas Nachos, Red Sauce Noodles</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+          <t>Bussines hour: 4:00 PM - 10:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Select Beers / $7 House Wines by the Glass / $8 Well Spirits $5 BBQ Kalua Pig Slider, Carnitas Taco / $6 Fish Taco / $8 Butter Noodles / $9 Loaded Fries / $10 Carnitas Nachos, Red Sauce Noodles</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+          <t>Bussines hour: 12:00 PM - 11:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Select Beers / $7 House Wines by the Glass / $8 Well Spirits $5 BBQ Kalua Pig Slider, Carnitas Taco / $6 Fish Taco / $8 Butter Noodles / $9 Loaded Fries / $10 Carnitas Nachos, Red Sauce Noodles</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: 8:00 PM - 10:00 PM Today deal: $5 Select Beers / $7 House Wines by the Glass / $8 Well Spirits $5 BBQ Kalua Pig Slider, Carnitas Taco / $6 Fish Taco / $8 Butter Noodles / $9 Loaded Fries / $10 Carnitas Nachos, Red Sauce Noodles</t>
         </is>
       </c>
     </row>
@@ -4093,52 +4091,59 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Harley Gray Kitchen &amp; Bar</t>
+          <t>King and Queen Cantina</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>902 W. Washington St. San Diego, CA 92103</t>
+          <t>1490 Kettner Blvd. San Diego, CA 92101</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>(619) 955-8451</t>
+          <t>(619) 756-7864</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Bussines hour: 9:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
+          <t>Bussines hour: 10:00 AM - 10:00 PM Happy hour: 2:00 PM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Bussines hour: 9:00 AM -  9:30 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
+          <t>Bussines hour: 11:00 AM -  1:00 AM Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>Bussines hour: 9:00 AM -  9:30 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
+          <t>Bussines hour: 10:00 AM -  1:00 AM Happy hour: 2:00 PM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
+[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
         </is>
       </c>
     </row>
@@ -4148,52 +4153,52 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>On The Border</t>
+          <t>BJ's Restaurant and Brewery</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>10789 Westview Parkway San Diego, CA 92126</t>
+          <t>5500 Grossmont Center Dr. La Mesa, CA 91941</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>(858) 530-1130</t>
+          <t>(619) 589-7222</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 11:00 AM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 9:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 11:00 AM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 4:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
     </row>
@@ -4203,17 +4208,17 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>BJ's Restaurant &amp; Brewery</t>
+          <t>BJ's Restaurant and Brewery</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>204 E. Via Rancho Pkwy Escondido, CA 92025</t>
+          <t>555 Broadway, Ste 1019 Chula Vista, CA 91910</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">(760) 466-0700 </t>
+          <t>(619) 591-2490</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4258,52 +4263,52 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Pacific Beach Shore Club</t>
+          <t>Steamy Piggy</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>4343 Ocean Blvd. San Diego, CA 92109</t>
+          <t>4681 Convoy St. San Diego, CA 92111</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>(858) 272-7873</t>
+          <t>(858) 492-0401</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Bussines hour: 9:00 AM - 12:00 AM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Bussines hour: 10:00 AM - 12:00 AM Happy hour: 8:00 PM - 12:00 AM Today deal: No Specials</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Bussines hour: 10:00 AM - 12:00 AM Happy hour: 4:00 PM - 12:00 AM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Bussines hour: 10:00 AM -  2:00 AM Happy hour: 8:00 PM -  1:30 AM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>Bussines hour: 10:00 AM -  2:00 AM Happy hour: 4:00 PM -  1:30 AM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Bussines hour: 10:00 AM -  2:00 AM Happy hour: 4:00 PM -  8:00 PM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bussines hour: 9:00 AM -  2:00 AM Happy hour: Not Happy Hour Today deal: $3 All Drafts / $5 Ketel One &amp; Crown Royal $3 Hot Dogs </t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4.50 Sapporo or Tsingtao / $5.50 Select Specialty Cocktails / $10.50 Soju $11.50 Bulgogi Fries / $12.50 Salt N' Pepper Wings / $15 Bao or Taco Flight (3): Piggy, Bulgogi, Chicken</t>
         </is>
       </c>
     </row>
@@ -4313,52 +4318,52 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Yard House</t>
+          <t>BullsEye Bar @ Black Angus Steakhouse</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2525 El Camino Real #210 Carlsbad, CA 92008</t>
+          <t>296 E. Via Rancho Parkway Escondido, CA 92025</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>(760) 434-1009</t>
+          <t>(760) 489-8420</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 10:00 PM - 11:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
+          <t>Bussines hour: 12:00 PM -  9:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
+          <t>Bussines hour: 3:00 PM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
+          <t>Bussines hour: 3:00 PM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.99 - $18.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
+          <t>Bussines hour: 3:00 PM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.99 - $18.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
+          <t>Bussines hour: 3:00 PM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 11:30 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.99 - $18.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 11:30 PM Happy hour: Not Happy Hour Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.99 - $18.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: Not Happy Hour Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
     </row>
@@ -4368,52 +4373,52 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>BJ's Restaurant and Brewery</t>
+          <t>Taste &amp; Thirst</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>555 Broadway, Ste 1019 Chula Vista, CA 91910</t>
+          <t>715 Fourth Ave. San Diego, CA 92101</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>(619) 591-2490</t>
+          <t>(619) 955-5995</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 9:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 9:30 AM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 3:00 PM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 3:00 PM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 9:30 AM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 9:30 AM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 9:30 AM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 4:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 9:30 AM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
         </is>
       </c>
     </row>
@@ -4423,52 +4428,52 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Mr. Peabody's</t>
+          <t>Baja Beach Cafe</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>136 Encinitas Blvd. Encinitas, CA 92024</t>
+          <t>701 Thomas Ave. San Diego, CA 92109</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>(760) 753-7192</t>
+          <t>(858) 230-6315</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
+          <t>Bussines hour: 8:00 AM - 12:30 AM Happy hour: 10:30 PM - 12:30 AM Today deal: 2 for 1 Drinks</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
+          <t>Bussines hour: 8:00 AM - 12:30 AM Happy hour: 4:00 PM -  7:00 PM Today deal: 2 for 1 Drinks</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
+          <t>Bussines hour: 8:00 AM - 12:30 AM Happy hour: 4:00 PM -  7:00 PM Today deal: 2 for 1 Drinks 2 for 1 Drinks</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 3:00 PM -  9:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
+          <t>Bussines hour: 8:00 AM - 12:30 AM Happy hour: 4:00 PM -  7:00 PM Today deal: 2 for 1 Drinks 2 for 1 Drinks</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
+          <t>Bussines hour: 8:00 AM - 12:30 AM Happy hour: 4:00 PM -  7:00 PM Today deal: 2 for 1 Drinks 2 for 1 Drinks</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: 2 for 1 Drinks 2 for 1 Drinks</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 10:30 PM - 12:30 AM Today deal: 2 for 1 Drinks 2 for 1 Drinks</t>
         </is>
       </c>
     </row>
@@ -4478,52 +4483,52 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>BullsEye Bar @ Black Angus Steakhouse</t>
+          <t>Hooters</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>1000 Graves Ave. El Cajon, CA 92021</t>
+          <t>775 Center Drive San Marcos, CA 92069</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>(619) 440-5055</t>
+          <t>(858) 451-6000</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 10:00 PM - 12:00 AM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: Not Happy Hour Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 10:00 PM - 12:00 AM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
     </row>
@@ -4533,52 +4538,52 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Wheat &amp; Water</t>
+          <t>BJ's Restaurant &amp; Brewery</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>5737 La Jolla Blvd. La Jolla, CA 92037</t>
+          <t>8785 Villa La Jolla Dr. La Jolla, CA 92037</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>(858) 291-8690</t>
+          <t>(858) 257-3640</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Bussines hour: 12:00 PM -  9:00 PM Happy hour: 4:00 PM -  8:00 PM Today deal: Buy Any Pizza, Get $10 Off Any Pitcher of Beer</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 9:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Bussines hour: 4:00 PM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: Buy Any Pizza, Get $10 Off Any Pitcher of Beer</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Bussines hour: 4:00 PM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Select Beers / $7 House Wines by the Glass / $8 Well Spirits $5 BBQ Kalua Pig Slider, Carnitas Taco / $6 Fish Taco / $8 Butter Noodles / $9 Loaded Fries / $10 Carnitas Nachos, Red Sauce Noodles</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Bussines hour: 4:00 PM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Select Beers / $7 House Wines by the Glass / $8 Well Spirits $5 BBQ Kalua Pig Slider, Carnitas Taco / $6 Fish Taco / $8 Butter Noodles / $9 Loaded Fries / $10 Carnitas Nachos, Red Sauce Noodles</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>Bussines hour: 4:00 PM - 10:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Select Beers / $7 House Wines by the Glass / $8 Well Spirits $5 BBQ Kalua Pig Slider, Carnitas Taco / $6 Fish Taco / $8 Butter Noodles / $9 Loaded Fries / $10 Carnitas Nachos, Red Sauce Noodles</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Bussines hour: 12:00 PM - 11:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Select Beers / $7 House Wines by the Glass / $8 Well Spirits $5 BBQ Kalua Pig Slider, Carnitas Taco / $6 Fish Taco / $8 Butter Noodles / $9 Loaded Fries / $10 Carnitas Nachos, Red Sauce Noodles</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: 8:00 PM - 10:00 PM Today deal: $5 Select Beers / $7 House Wines by the Glass / $8 Well Spirits $5 BBQ Kalua Pig Slider, Carnitas Taco / $6 Fish Taco / $8 Butter Noodles / $9 Loaded Fries / $10 Carnitas Nachos, Red Sauce Noodles</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 4:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
     </row>
@@ -4593,42 +4598,42 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>296 E. Via Rancho Parkway Escondido, CA 92025</t>
+          <t>1000 Graves Ave. El Cajon, CA 92021</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>(760) 489-8420</t>
+          <t>(619) 440-5055</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Bussines hour: 12:00 PM -  9:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Bussines hour: 3:00 PM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Bussines hour: 3:00 PM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Bussines hour: 3:00 PM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>Bussines hour: 3:00 PM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4643,52 +4648,52 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>BJ's Restaurant and Brewery</t>
+          <t>Harley Gray Kitchen &amp; Bar</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>5500 Grossmont Center Dr. La Mesa, CA 91941</t>
+          <t>902 W. Washington St. San Diego, CA 92103</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>(619) 589-7222</t>
+          <t>(619) 955-8451</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 9:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 9:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 9:00 AM -  9:30 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 4:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 9:00 AM -  9:30 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Coors Light / $5 HG Lime Margarita / $6 Sangria / $7 Mojito / $8 Select Wine Glass / $9 Jalapeño Hot &amp; Hornitos Margarita / $28 Bottle of Bubbles + 1/2 Dozen Fresh Oysters on the Half Shell $4 Chips &amp; Salsa / $5 Dirty Fries / $8 Pulled Pork Sliders (3), Seasonal Hummus Plate / $9 Nachos or Tachos / $10 Ceviche</t>
         </is>
       </c>
     </row>
@@ -4698,52 +4703,52 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>BJ's Restaurant &amp; Brewery</t>
+          <t>On The Border</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>8785 Villa La Jolla Dr. La Jolla, CA 92037</t>
+          <t>298 East Via Rancho Pkwy Escondido, CA 92025</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>(858) 257-3640</t>
+          <t>(760) 233-9777</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 9:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 11:00 AM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 11:00 AM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 4:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
         </is>
       </c>
     </row>
@@ -4753,52 +4758,54 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>BullsEye Bar @ Black Angus Steakhouse</t>
+          <t>Redwing Bar &amp; Grill</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>707 E St. Chula Vista, CA 91910</t>
+          <t>4012 30th Street San Diego, CA 92104</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve">(619) 426-9200 </t>
+          <t>(619) 281-8700</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Bussines hour: 12:00 PM -  9:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 11:00 AM -  1:00 AM Happy hour: 11:00 AM -  2:00 PM Today deal: $15 Bottomless Mimosa 2:00 PM - 6:00 PM
+$2 12oz. Bud Light or Miller Lite / $12.50 Burger &amp; 12oz. Domestic Beer</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
+          <t>Closed</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 11:00 AM -  1:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: $15 Bottomless Mimosa 2:00 PM - 6:00 PM
+$2 12oz. Bud Light or Miller Lite / $12.50 Burger &amp; 12oz. Domestic Beer</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 11:00 AM -  1:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: Closed</t>
         </is>
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t xml:space="preserve">Bussines hour: 11:00 AM -  1:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: Half Size Appetizers: $4.25 Deep Fried Pickles / $4.50 Small Basket Case: Fries, Tots or Onion Rings / $4.75 Spicy Cauliflower, Chick-arrones / $5.25 Elote Corn Bites / $6 Chicken Fingers (2) &amp; Fries, 1/4 Wings &amp; Fries (Buffalo, House Made BBQ, Hot &amp; Sour Thai Chili, Garlic Ginger Teriyaki) / </t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t xml:space="preserve">Bussines hour: 11:00 AM -  2:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: Half Size Appetizers: $4.25 Deep Fried Pickles / $4.50 Small Basket Case: Fries, Tots or Onion Rings / $4.75 Spicy Cauliflower, Chick-arrones / $5.25 Elote Corn Bites / $6 Chicken Fingers (2) &amp; Fries, 1/4 Wings &amp; Fries (Buffalo, House Made BBQ, Hot &amp; Sour Thai Chili, Garlic Ginger Teriyaki) / </t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: Not Happy Hour Today deal: $2 Off Any 6oz. Wine Available by the Glass / $4 Select Draft Beer ($1 Off All Other 16oz. Draft Beer) / $6 Select Cocktails, All Well Drinks / $8.50 Messy Michelada $7 Loaded Potato Skins, Crispy Fried Garlic Pepper Zucchini, Shrimp Cocktail, Chicken Tenders (Chipotle-Buffalo or original), Baked Spinach &amp; Artichoke Dip, Three Cheese Garlic Bread / $11.99 Chili Lime Chicken Bites / $14.99 Wagon Wheel Sampler (Crispy Fried Garlic-Pepper Zucchini, Chipotle-Buffalo Chicken Tenders, Loaded Potato Skins &amp; Shrimp Cocktail)</t>
+          <t>Bussines hour: 11:00 AM -  2:00 AM Happy hour: 11:00 AM -  6:00 PM Today deal: Half Size Appetizers: $4.25 Deep Fried Pickles / $4.50 Small Basket Case: Fries, Tots or Onion Rings / $4.75 Spicy Cauliflower, Chick-arrones / $5.25 Elote Corn Bites / $6 Chicken Fingers (2) &amp; Fries, 1/4 Wings &amp; Fries (Buffalo, House Made BBQ, Hot &amp; Sour Thai Chili, Garlic Ginger Teriyaki) /  $3 Bud Light or Miller Lite Drafts / $4.75 Well Drinks</t>
         </is>
       </c>
     </row>
@@ -4808,52 +4815,52 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Break Point Bar &amp; Restaurant </t>
+          <t>BJ's Restaurant &amp; Brewery</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>945 Garnet Ave. San Diego, CA 92109</t>
+          <t>1370 Frazee Rd. San Diego, CA 92108</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>(858) 274-4018</t>
+          <t>(619) 814-6350</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM -  2:00 AM Happy hour: Not Happy Hour Today deal: No Specials</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 9:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: No Specials</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $2 Off Draft Beers / $5 Well Drinks, CK Mondavi Wine Varietals (Cabernet Sauvignon, Sauvignon Blanc, Chardonnay), Cazadores Blanco or Reposado Tequila Shot / $7 House Margarita $5 House Cut Fries / $7 Beer Battered Onion Rings / $8 Cheesy Garlic Bread / $10 Fried Calamari, Sweet 'n Spicy Cauliflower / $12 Hummus Board, Tomato Bacon Flatbread / $13 BBQ Chicken Flatbread / $14 Garlic Shrimp Fundido Dip / $15 Loaded Fries</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $2 Off Draft Beers / $5 Well Drinks, CK Mondavi Wine Varietals (Cabernet Sauvignon, Sauvignon Blanc, Chardonnay), Cazadores Blanco or Reposado Tequila Shot / $7 House Margarita $5 House Cut Fries / $7 Beer Battered Onion Rings / $8 Cheesy Garlic Bread / $10 Fried Calamari, Sweet 'n Spicy Cauliflower / $12 Hummus Board, Tomato Bacon Flatbread / $13 BBQ Chicken Flatbread / $14 Garlic Shrimp Fundido Dip / $15 Loaded Fries</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="I80" t="inlineStr">
         <is>
-          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $2 Off Draft Beers / $5 Well Drinks, CK Mondavi Wine Varietals (Cabernet Sauvignon, Sauvignon Blanc, Chardonnay), Cazadores Blanco or Reposado Tequila Shot / $7 House Margarita $5 House Cut Fries / $7 Beer Battered Onion Rings / $8 Cheesy Garlic Bread / $10 Fried Calamari, Sweet 'n Spicy Cauliflower / $12 Hummus Board, Tomato Bacon Flatbread / $13 BBQ Chicken Flatbread / $14 Garlic Shrimp Fundido Dip / $15 Loaded Fries</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: $2 Off Draft Beers / $5 Well Drinks, CK Mondavi Wine Varietals (Cabernet Sauvignon, Sauvignon Blanc, Chardonnay), Cazadores Blanco or Reposado Tequila Shot / $7 House Margarita $5 House Cut Fries / $7 Beer Battered Onion Rings / $8 Cheesy Garlic Bread / $10 Fried Calamari, Sweet 'n Spicy Cauliflower / $12 Hummus Board, Tomato Bacon Flatbread / $13 BBQ Chicken Flatbread / $14 Garlic Shrimp Fundido Dip / $15 Loaded Fries</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="K80" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM -  2:00 AM Happy hour: Not Happy Hour Today deal: $2 Off Draft Beers / $5 Well Drinks, CK Mondavi Wine Varietals (Cabernet Sauvignon, Sauvignon Blanc, Chardonnay), Cazadores Blanco or Reposado Tequila Shot / $7 House Margarita $5 House Cut Fries / $7 Beer Battered Onion Rings / $8 Cheesy Garlic Bread / $10 Fried Calamari, Sweet 'n Spicy Cauliflower / $12 Hummus Board, Tomato Bacon Flatbread / $13 BBQ Chicken Flatbread / $14 Garlic Shrimp Fundido Dip / $15 Loaded Fries</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 4:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks  $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
     </row>
@@ -4863,52 +4870,52 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Baja Beach Cafe</t>
+          <t>Pacific Beach Shore Club</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>701 Thomas Ave. San Diego, CA 92109</t>
+          <t>4343 Ocean Blvd. San Diego, CA 92109</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>(858) 230-6315</t>
+          <t>(858) 272-7873</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM - 12:30 AM Happy hour: 10:30 PM - 12:30 AM Today deal: 2 for 1 Drinks</t>
+          <t>Bussines hour: 9:00 AM - 12:00 AM Happy hour: Not Happy Hour Today deal: No Specials</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM - 12:30 AM Happy hour: 4:00 PM -  7:00 PM Today deal: 2 for 1 Drinks</t>
+          <t>Bussines hour: 10:00 AM - 12:00 AM Happy hour: 8:00 PM - 12:00 AM Today deal: No Specials</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM - 12:30 AM Happy hour: 4:00 PM -  7:00 PM Today deal: 2 for 1 Drinks 2 for 1 Drinks</t>
+          <t>Bussines hour: 10:00 AM - 12:00 AM Happy hour: 4:00 PM - 12:00 AM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM - 12:30 AM Happy hour: 4:00 PM -  7:00 PM Today deal: 2 for 1 Drinks 2 for 1 Drinks</t>
+          <t>Bussines hour: 10:00 AM -  2:00 AM Happy hour: 8:00 PM -  1:30 AM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM - 12:30 AM Happy hour: 4:00 PM -  7:00 PM Today deal: 2 for 1 Drinks 2 for 1 Drinks</t>
+          <t>Bussines hour: 10:00 AM -  2:00 AM Happy hour: 4:00 PM -  1:30 AM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 4:00 PM -  7:00 PM Today deal: 2 for 1 Drinks 2 for 1 Drinks</t>
+          <t>Bussines hour: 10:00 AM -  2:00 AM Happy hour: 4:00 PM -  8:00 PM Today deal: $5 Select Spirits ShoreVeza Mexican Lager: $5 (16 oz.) or $7 (20 oz.) / $10 Burger &amp; Beer</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 10:30 PM - 12:30 AM Today deal: 2 for 1 Drinks 2 for 1 Drinks</t>
+          <t xml:space="preserve">Bussines hour: 9:00 AM -  2:00 AM Happy hour: Not Happy Hour Today deal: $3 All Drafts / $5 Ketel One &amp; Crown Royal $3 Hot Dogs </t>
         </is>
       </c>
     </row>
@@ -4918,52 +4925,52 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Yard House</t>
+          <t>Hooters</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>1640 Camino del Rio North San Diego, CA 92108</t>
+          <t>1400 Camino De La Reina San Diego, CA 92108</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>(619) 574-0468</t>
+          <t>(619) 299-4668</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 10:00 PM - 11:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 10:00 PM - 12:00 AM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards [Happy Hour available for Dine-In only.]</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 11:30 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 11:30 PM Happy hour: Not Happy Hour Today deal: $2 Off All Draft Beer, Wine, Spirits &amp; Cocktails / $3 Off 9oz. Wine by the Glass / $4 Off Half Yards 1/2 Off Select Appetizers &amp; Pizzas (Reg. Price: $12.49 - $17.49): Hand Battered Chicken Tenders, Gardein or Boneless Wings (Buffalo, Whiskey Black Pepper, BBQ, Korean Chili Garlic, Lemon Pepper Dry Rub), Fried Calamari, Four Cheese Spinach Dip, Chicken Nachos, Chicken Lettuce Wraps, Wisconsin Fried Cheese Curds, Queso Dip, Classic Sliders, Poke Nachos, Blackened Ahi Sashimi, Pizza (Margherita, Three Cheese, BBQ Chicken, The Carnivore, Pepperoni &amp; Mushroom)</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 10:00 PM - 12:00 AM Today deal: $4 Seltzer: Truly, Bud Light or Topo Chico / $5 Skrewball Shot / $6 20oz. Domestic Draft Beer / $7 20oz. Craft Draft Beer $6 Fried Pickles, Chips &amp; Queso / $7 Mozzarella Sticks, Lots of Tots, Boneless Wings (6) / $8 Tex Mex Nachos, Sliders, Cheese &amp; Pretzels</t>
         </is>
       </c>
     </row>
@@ -4973,52 +4980,52 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>West Coast Tavern</t>
+          <t>Mr. Peabody's</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2895 University Ave. San Diego, CA 92104</t>
+          <t>136 Encinitas Blvd. Encinitas, CA 92024</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>(619) 295-1688</t>
+          <t>(760) 753-7192</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Bussines hour: 10:00 AM -  9:00 PM Happy hour: 5:00 PM -  6:30 PM Today deal: $1 Off Draft Beer &amp; Specialty Cocktails / $9 Mules $9 Wings (5), Gastrique Fries, Disco Tots, Hummus, Nachos</t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Closed</t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Closed</t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Closed</t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 3:00 PM -  9:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
         </is>
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>Bussines hour: 5:00 PM - 11:00 PM Happy hour: 5:00 PM -  6:30 PM Today deal: $1 Off Draft Beer &amp; Specialty Cocktails / $9 Mules $9 Wings (5), Gastrique Fries, Disco Tots, Hummus, Nachos</t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Bussines hour: 5:00 PM - 11:00 PM Happy hour: 5:00 PM -  6:30 PM Today deal: $1 Off Draft Beer &amp; Specialty Cocktails / $9 Mules $9 Wings (5), Gastrique Fries, Disco Tots, Hummus, Nachos</t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>Bussines hour: 10:00 AM - 11:00 PM Happy hour: 5:00 PM -  6:30 PM Today deal: Closed</t>
+          <t>Bussines hour: 8:00 AM -  2:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Cocktails, House Wine, Budweiser &amp; Coors Light $4 Fish Tacos (2), Baby Back Ribs (3), Buffalo Wings (3)</t>
         </is>
       </c>
     </row>
@@ -5028,59 +5035,3378 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>King and Queen Cantina</t>
+          <t>BJ's Restaurant &amp; Brewery</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>1490 Kettner Blvd. San Diego, CA 92101</t>
+          <t>204 E. Via Rancho Pkwy Escondido, CA 92025</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>(619) 756-7864</t>
+          <t xml:space="preserve">(760) 466-0700 </t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Bussines hour: 10:00 AM - 10:00 PM Happy hour: 2:00 PM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
-[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 9:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
-[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
-[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
-[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
-[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Bussines hour: 11:00 AM -  1:00 AM Happy hour: 11:00 AM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
-[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>Bussines hour: 10:00 AM -  1:00 AM Happy hour: 2:00 PM -  6:00 PM Today deal: $5 Non Craft &amp; Bottled Beers / $8 Sangria, Select Wines by the Glass / $10 Well Spirits / $12 Rocks Margaritas (Classic, Tamarindo, Watermelon, Cucumber, Strawberry, Pomegranate or Mango) / $30 Mr. Tempo Beer Bucket (6 Beers of Your Choice) $7 Fish Ceviche, Fresh Oysters (3), House Fries, Espy Fries, Chips &amp; Salsa / $10 Shrimp Ceviche, Dirty Fries, Stuffed Oysters / $13 Guac &amp; Chips, Veggie Rice, Pork Belly Bites, Cucarachos Crispy Shrimp, Nachos or Mucho Loco Fries, Tinga Taquitos, Pow Pow Wings, Los 3 Animals Tacos (Korean, Short Rib, Tinga), Chicken Enchiladas, Pressed Cheeseburger, Tacos de la Sierra (Bean &amp; Cheese), Tacos (3): Roasted Veggie, Korean, Fish or Asada		
-[Happy Hour not valid with special reservations or large groups 8+; not valid with any other coupon or offer; not valid on holidays.]</t>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 4:00 PM - 12:00 AM Today deal: $1 Off BJ's Seasonal &amp; Guest Draft Beers / $4 Domestic Bottles / $5 BJ's Handcrafted Beers (excludes seasonal and specialty beers) &amp; Dark Horse Wines / $6 Brewhouse Margarita &amp; Call Drinks $4 Chips &amp; Dips / $7 Select Appetizers, Mini Deep Dish Pizzas</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Puesto</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>789 West Harbor Dr. San Diego, CA 92101</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>(619) 233-8880</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Puesto Drafts / $9 Wines by the Glass / $10 Puesto Perfect Margarita 1/2 Off Snacks &amp; Shares: Chips &amp; Molcajete Salsa, Chicken Flautas, Shrimp Gobernador Quesadilla, Potato Taquitos, Chicharrones, Crispy Tuna Quesadilla</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Puesto Drafts / $9 Wines by the Glass / $10 Puesto Perfect Margarita 1/2 Off Snacks &amp; Shares: Chips &amp; Molcajete Salsa, Chicken Flautas, Shrimp Gobernador Quesadilla, Potato Taquitos, Chicharrones, Crispy Tuna Quesadilla</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Puesto Drafts / $9 Wines by the Glass / $10 Puesto Perfect Margarita 1/2 Off Snacks &amp; Shares: Chips &amp; Molcajete Salsa, Chicken Flautas, Shrimp Gobernador Quesadilla, Potato Taquitos, Chicharrones, Crispy Tuna Quesadilla</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Puesto Drafts / $9 Wines by the Glass / $10 Puesto Perfect Margarita 1/2 Off Snacks &amp; Shares: Chips &amp; Molcajete Salsa, Chicken Flautas, Shrimp Gobernador Quesadilla, Potato Taquitos, Chicharrones, Crispy Tuna Quesadilla</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: Not Happy Hour Today deal: $6 Puesto Drafts / $9 Wines by the Glass / $10 Puesto Perfect Margarita 1/2 Off Snacks &amp; Shares: Chips &amp; Molcajete Salsa, Chicken Flautas, Shrimp Gobernador Quesadilla, Potato Taquitos, Chicharrones, Crispy Tuna Quesadilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Downtown Cafe</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>182 E. Main St. El Cajon, CA 92020</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>(619) 440-5687</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:30 AM -  6:00 PM Happy hour: 2:00 PM -  6:00 PM Today deal: $1 Off Imported Drafts &amp; Crafts / $4.75 Domestic Drafts / $5.95 Margarita, Well Drinks, House Wines / $7.95 Long Island Iced Tea $3 Off All Appetizers / $4.25 Tacos, Cheeseburger / $7.75 Flatbreads</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Bussines hour: 2:00 PM -  8:00 PM Happy hour: 2:00 PM -  6:00 PM Today deal: $1 Off Imported Drafts &amp; Crafts / $4.75 Domestic Drafts / $5.95 Margarita, Well Drinks, House Wines / $7.95 Long Island Iced Tea $3 Off All Appetizers / $4.25 Tacos, Cheeseburger / $7.75 Flatbreads</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Bussines hour: 2:00 PM -  8:00 PM Happy hour: 2:00 PM -  6:00 PM Today deal: $1 Off Imported Drafts &amp; Crafts / $4.75 Domestic Drafts / $5.95 Margarita, Well Drinks, House Wines / $7.95 Long Island Iced Tea $3 Off All Appetizers / $4.25 Tacos, Cheeseburger / $7.75 Flatbreads</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>Bussines hour: 2:00 PM -  8:00 PM Happy hour: 2:00 PM -  6:00 PM Today deal: Closed</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>Bussines hour: 2:00 PM -  9:00 PM Happy hour: 2:00 PM -  6:00 PM Today deal: $1 Off Imported Drafts &amp; Crafts / $4.75 Domestic Drafts / $5.95 Margarita, Well Drinks, House Wines / $7.95 Long Island Iced Tea $3 Off All Appetizers / $4.25 Tacos, Cheeseburger / $7.75 Flatbreads</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>Bussines hour: 2:00 PM -  9:00 PM Happy hour: 2:00 PM -  6:00 PM Today deal: $1 Off Imported Drafts &amp; Crafts / $4.75 Domestic Drafts / $5.95 Margarita, Well Drinks, House Wines / $7.95 Long Island Iced Tea $3 Off All Appetizers / $4.25 Tacos, Cheeseburger / $7.75 Flatbreads</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Whiskey Girl</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>702 Fifth Ave. San Diego, CA 92101</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>(619) 236-1616</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  1:30 AM Happy hour: 11:00 AM -  1:00 PM Today deal: $8 - $14.50 Brunch Cocktails / $25 Bottles of Brut $14.50 - $19 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  1:30 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $8 - $14.50 Brunch Cocktails / $25 Bottles of Brut $14.50 - $19 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  1:30 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $8 - $14.50 Brunch Cocktails / $25 Bottles of Brut $14.50 - $19 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  1:30 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $5 Draft Beers, Well Drinks, House Wines / $6 Long Drink, Seltzers 1/2 Off Select Appetizers</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  1:30 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $5 Draft Beers, Well Drinks, House Wines / $6 Long Drink, Seltzers 1/2 Off Select Appetizers</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  1:30 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $5 Draft Beers, Well Drinks, House Wines / $6 Long Drink, Seltzers 1/2 Off Select Appetizers</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  1:30 AM Happy hour: 11:00 AM -  1:00 PM Today deal: $5 Draft Beers, Well Drinks, House Wines / $6 Long Drink, Seltzers 1/2 Off Select Appetizers</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>The Shout House</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>655 Fourth Ave. San Diego, CA 92101</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>(619) 231-6700</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 7:00 PM -  2:00 AM Happy hour: 7:00 PM -  1:30 AM Today deal: $6 Pacifico Drafts, Jameson or Cazadores $10 Cover Walk-Ins or Reservation Fee </t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 7:00 PM -  2:00 AM Happy hour: 7:00 PM -  1:30 AM Today deal: $6 Pacifico Drafts, Jameson or Cazadores $10 Cover Walk-Ins or Reservation Fee </t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 PM -  2:00 AM Happy hour: 7:00 PM -  1:30 AM Today deal: Closed</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 PM -  2:00 AM Happy hour: 7:00 PM -  1:30 AM Today deal: $7 Corona Bottles / $8 House Margarita / $19.42 Don Julio 1942  $3 Carne Asada or Carnitas Taco</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Bussines hour: 5:00 PM -  2:00 AM Happy hour: 6:00 PM -  7:00 PM Today deal: $7 Corona Bottles / $8 House Margarita / $19.42 Don Julio 1942  $3 Carne Asada or Carnitas Taco</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>Bussines hour: 6:00 PM -  2:00 AM Happy hour: 6:00 PM -  1:30 AM Today deal: $7 Corona Bottles / $8 House Margarita / $19.42 Don Julio 1942  $3 Carne Asada or Carnitas Taco</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Jose's Court Room</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>1037 Prospect St. La Jolla, CA 92037</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>(858) 454-7655</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5 House Margarita on the Rocks, Select Draft Pints / $18 Select Draft Pitchers / $21 Margarita on the Rocks Pitcher  20% Off All Appetizers (Reg. Price $12.49 - $16.49): Guacamole, Queso Dip, Eloté Dip, Chicken Taquitos, Nachos, Dip Trio, Shrimp Ceviche</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5 House Margarita on the Rocks, Select Draft Pints / $18 Select Draft Pitchers / $21 Margarita on the Rocks Pitcher  20% Off All Appetizers (Reg. Price $12.49 - $16.49): Guacamole, Queso Dip, Eloté Dip, Chicken Taquitos, Nachos, Dip Trio, Shrimp Ceviche</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5 House Margarita on the Rocks, Select Draft Pints / $18 Select Draft Pitchers / $21 Margarita on the Rocks Pitcher  20% Off All Appetizers (Reg. Price $12.49 - $16.49): Guacamole, Queso Dip, Eloté Dip, Chicken Taquitos, Nachos, Dip Trio, Shrimp Ceviche</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: Not Happy Hour Today deal: $5 House Margarita on the Rocks, Select Draft Pints / $18 Select Draft Pitchers / $21 Margarita on the Rocks Pitcher  20% Off All Appetizers (Reg. Price $12.49 - $16.49): Guacamole, Queso Dip, Eloté Dip, Chicken Taquitos, Nachos, Dip Trio, Shrimp Ceviche</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: Not Happy Hour Today deal: $5 House Margarita on the Rocks, Select Draft Pints / $18 Select Draft Pitchers / $21 Margarita on the Rocks Pitcher  $3 Street Taco</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Pacific Beach Ale House</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>721 Grand Ave. San Diego, CA 92109</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>(858) 581-2337</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:00 AM - 12:00 AM Happy hour: 10:00 AM -  2:00 PM Today deal: $9 Alehouse Michelada / $10 Alehouse Bloody Mary, Breakfast Shot / $14 Brunch Cocktails / $17.95 Bottomless Mimosa (2hr. limit) $10.95 - $27.50 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  5:00 PM Today deal: $9 Alehouse Michelada / $10 Alehouse Bloody Mary, Breakfast Shot / $14 Brunch Cocktails / $17.95 Bottomless Mimosa (2hr. limit) $10.95 - $27.50 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  5:00 PM Today deal: $9 Alehouse Michelada / $10 Alehouse Bloody Mary, Breakfast Shot / $14 Brunch Cocktails / $17.95 Bottomless Mimosa (2hr. limit) $10.95 - $27.50 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  5:00 PM Today deal: $9 Alehouse Michelada / $10 Alehouse Bloody Mary, Breakfast Shot / $14 Brunch Cocktails / $17.95 Bottomless Mimosa (2hr. limit) $10.95 - $27.50 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  2:00 AM Happy hour: 3:00 PM -  5:00 PM Today deal: 1/2 Off Wine Bottles / $5 House Draft Beers / $10 Featured Cocktail of the Week $5 Fried Pickles (5) / $7 Wings (5): Smoked Kansas City BBQ, Buffalo or Thai Chili, Half Flatbreads: Pesto Chicken, Italian, BBQ or Ricotta Spinach</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  2:00 AM Happy hour: 3:00 PM -  5:00 PM Today deal: 1/2 Off Wine Bottles / $5 House Draft Beers / $10 Featured Cocktail of the Week $5 Fried Pickles (5) / $7 Wings (5): Smoked Kansas City BBQ, Buffalo or Thai Chili, Half Flatbreads: Pesto Chicken, Italian, BBQ or Ricotta Spinach</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:00 AM -  2:00 AM Happy hour: 10:00 PM - 12:00 AM Today deal: 1/2 Off Wine Bottles / $5 House Draft Beers / $10 Featured Cocktail of the Week $5 Fried Pickles (5) / $7 Wings (5): Smoked Kansas City BBQ, Buffalo or Thai Chili, Half Flatbreads: Pesto Chicken, Italian, BBQ or Ricotta Spinach</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Pacifica Del Mar</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>1555 Camino Del Mar Del Mar, CA 92014</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>(858) 792-0476</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 4:00 PM -  6:30 PM Today deal: $5 Blackened Fish or Blackened Shrimp Taco / $12 Farfalle Pasta, Thai Chicken Salad / $14 Half Pound Burger, Sugar Spiced Salmon Sandwich / $17 Yellowfin Tuna Poke, Hamachi Crudo, Mussels in Thai Red Curry Coconut Broth, Crispy Calamari, Sugar Spiced Salmon Salad / $18 Jumbo Shrimp Cocktail / $20 Blue Lump Crab Cake $5 Blackened Fish or Blackened Shrimp Taco / $12 Farfalle Pasta, Thai Chicken Salad / $14 Half Pound Burger, Sugar Spiced Salmon Sandwich / $17 Yellowfin Tuna Poke, Hamachi Crudo, Mussels in Thai Red Curry Coconut Broth, Crispy Calamari, Sugar Spiced Salmon Salad / $18 Jumbo Shrimp Cocktail / $20 Blue Lump Crab Cake</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 4:00 PM -  6:30 PM Today deal: $5 Blackened Fish or Blackened Shrimp Taco / $12 Farfalle Pasta, Thai Chicken Salad / $14 Half Pound Burger, Sugar Spiced Salmon Sandwich / $17 Yellowfin Tuna Poke, Hamachi Crudo, Mussels in Thai Red Curry Coconut Broth, Crispy Calamari, Sugar Spiced Salmon Salad / $18 Jumbo Shrimp Cocktail / $20 Blue Lump Crab Cake $5 Blackened Fish or Blackened Shrimp Taco / $12 Farfalle Pasta, Thai Chicken Salad / $14 Half Pound Burger, Sugar Spiced Salmon Sandwich / $17 Yellowfin Tuna Poke, Hamachi Crudo, Mussels in Thai Red Curry Coconut Broth, Crispy Calamari, Sugar Spiced Salmon Salad / $18 Jumbo Shrimp Cocktail / $20 Blue Lump Crab Cake</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 4:00 PM -  6:30 PM Today deal: $5 Blackened Fish or Blackened Shrimp Taco / $12 Farfalle Pasta, Thai Chicken Salad / $14 Half Pound Burger, Sugar Spiced Salmon Sandwich / $17 Yellowfin Tuna Poke, Hamachi Crudo, Mussels in Thai Red Curry Coconut Broth, Crispy Calamari, Sugar Spiced Salmon Salad / $18 Jumbo Shrimp Cocktail / $20 Blue Lump Crab Cake $5 Blackened Fish or Blackened Shrimp Taco / $12 Farfalle Pasta, Thai Chicken Salad / $14 Half Pound Burger, Sugar Spiced Salmon Sandwich / $17 Yellowfin Tuna Poke, Hamachi Crudo, Mussels in Thai Red Curry Coconut Broth, Crispy Calamari, Sugar Spiced Salmon Salad / $18 Jumbo Shrimp Cocktail / $20 Blue Lump Crab Cake</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 4:00 PM -  6:30 PM Today deal: $5 Blackened Fish or Blackened Shrimp Taco / $12 Farfalle Pasta, Thai Chicken Salad / $14 Half Pound Burger, Sugar Spiced Salmon Sandwich / $17 Yellowfin Tuna Poke, Hamachi Crudo, Mussels in Thai Red Curry Coconut Broth, Crispy Calamari, Sugar Spiced Salmon Salad / $18 Jumbo Shrimp Cocktail / $20 Blue Lump Crab Cake $5 Blackened Fish or Blackened Shrimp Taco / $12 Farfalle Pasta, Thai Chicken Salad / $14 Half Pound Burger, Sugar Spiced Salmon Sandwich / $17 Yellowfin Tuna Poke, Hamachi Crudo, Mussels in Thai Red Curry Coconut Broth, Crispy Calamari, Sugar Spiced Salmon Salad / $18 Jumbo Shrimp Cocktail / $20 Blue Lump Crab Cake</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 4:00 PM -  6:30 PM Today deal: $5 Blackened Fish or Blackened Shrimp Taco / $12 Farfalle Pasta, Thai Chicken Salad / $14 Half Pound Burger, Sugar Spiced Salmon Sandwich / $17 Yellowfin Tuna Poke, Hamachi Crudo, Mussels in Thai Red Curry Coconut Broth, Crispy Calamari, Sugar Spiced Salmon Salad / $18 Jumbo Shrimp Cocktail / $20 Blue Lump Crab Cake $5 Blackened Fish or Blackened Shrimp Taco / $12 Farfalle Pasta, Thai Chicken Salad / $14 Half Pound Burger, Sugar Spiced Salmon Sandwich / $17 Yellowfin Tuna Poke, Hamachi Crudo, Mussels in Thai Red Curry Coconut Broth, Crispy Calamari, Sugar Spiced Salmon Salad / $18 Jumbo Shrimp Cocktail / $20 Blue Lump Crab Cake</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 4:00 PM -  6:30 PM Today deal: $5 Blackened Fish or Blackened Shrimp Taco / $12 Farfalle Pasta, Thai Chicken Salad / $14 Half Pound Burger, Sugar Spiced Salmon Sandwich / $17 Yellowfin Tuna Poke, Hamachi Crudo, Mussels in Thai Red Curry Coconut Broth, Crispy Calamari, Sugar Spiced Salmon Salad / $18 Jumbo Shrimp Cocktail / $20 Blue Lump Crab Cake $5 Blackened Fish or Blackened Shrimp Taco / $12 Farfalle Pasta, Thai Chicken Salad / $14 Half Pound Burger, Sugar Spiced Salmon Sandwich / $17 Yellowfin Tuna Poke, Hamachi Crudo, Mussels in Thai Red Curry Coconut Broth, Crispy Calamari, Sugar Spiced Salmon Salad / $18 Jumbo Shrimp Cocktail / $20 Blue Lump Crab Cake</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 4:00 PM -  6:30 PM Today deal: $5 Blackened Fish or Blackened Shrimp Taco / $12 Farfalle Pasta, Thai Chicken Salad / $14 Half Pound Burger, Sugar Spiced Salmon Sandwich / $17 Yellowfin Tuna Poke, Hamachi Crudo, Mussels in Thai Red Curry Coconut Broth, Crispy Calamari, Sugar Spiced Salmon Salad / $18 Jumbo Shrimp Cocktail / $20 Blue Lump Crab Cake $4 Select Beers / $9 Margarita Special</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Farmer's Table</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>8141 La Mesa Blvd. La Mesa, CA 91942</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>(619) 724-6465</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  9:30 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $6 Draft Beers / $7 House Red or White Wine by the Glass, Well &amp; House Cocktails, Sangria Glass / $13 Specialty Cocktails / $32 Sangria Pitcher $7 Truffle Fries / $9 Loaded Fries / $10 Caesar Salad / $11 Beef Sliders (3) / $12 Farmers Salad, Green Shrimp Aguachile, Duck Wings, Calamari, Pork Belly / $13 Ceviche of the Day / $14 Lobster Mac &amp; Cheese, Pizza (Mexican Style, Meat Lovers or Farmers Margherita), Short Rib Nachos / $15 Half Dozen Oysters / $17 Cheese Board / $25 Dozen Oysters</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Bussines hour: 9:00 AM -  9:30 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $6 Draft Beers / $7 House Red or White Wine by the Glass, Well &amp; House Cocktails, Sangria Glass / $13 Specialty Cocktails / $32 Sangria Pitcher $7 Truffle Fries / $9 Loaded Fries / $10 Caesar Salad / $11 Beef Sliders (3) / $12 Farmers Salad, Green Shrimp Aguachile, Duck Wings, Calamari, Pork Belly / $13 Ceviche of the Day / $14 Lobster Mac &amp; Cheese, Pizza (Mexican Style, Meat Lovers or Farmers Margherita), Short Rib Nachos / $15 Half Dozen Oysters / $17 Cheese Board / $25 Dozen Oysters</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Bussines hour: 9:00 AM -  9:30 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $6 Draft Beers / $7 House Red or White Wine by the Glass, Well &amp; House Cocktails, Sangria Glass / $13 Specialty Cocktails / $32 Sangria Pitcher $7 Truffle Fries / $9 Loaded Fries / $10 Caesar Salad / $11 Beef Sliders (3) / $12 Farmers Salad, Green Shrimp Aguachile, Duck Wings, Calamari, Pork Belly / $13 Ceviche of the Day / $14 Lobster Mac &amp; Cheese, Pizza (Mexican Style, Meat Lovers or Farmers Margherita), Short Rib Nachos / $15 Half Dozen Oysters / $17 Cheese Board / $25 Dozen Oysters</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Bussines hour: 9:00 AM -  9:30 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $6 Draft Beers / $7 House Red or White Wine by the Glass, Well &amp; House Cocktails, Sangria Glass / $13 Specialty Cocktails / $32 Sangria Pitcher $7 Truffle Fries / $9 Loaded Fries / $10 Caesar Salad / $11 Beef Sliders (3) / $12 Farmers Salad, Green Shrimp Aguachile, Duck Wings, Calamari, Pork Belly / $13 Ceviche of the Day / $14 Lobster Mac &amp; Cheese, Pizza (Mexican Style, Meat Lovers or Farmers Margherita), Short Rib Nachos / $15 Half Dozen Oysters / $17 Cheese Board / $25 Dozen Oysters</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>Bussines hour: 9:00 AM -  9:30 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $6 Draft Beers / $7 House Red or White Wine by the Glass, Well &amp; House Cocktails, Sangria Glass / $13 Specialty Cocktails / $32 Sangria Pitcher $7 Truffle Fries / $9 Loaded Fries / $10 Caesar Salad / $11 Beef Sliders (3) / $12 Farmers Salad, Green Shrimp Aguachile, Duck Wings, Calamari, Pork Belly / $13 Ceviche of the Day / $14 Lobster Mac &amp; Cheese, Pizza (Mexican Style, Meat Lovers or Farmers Margherita), Short Rib Nachos / $15 Half Dozen Oysters / $17 Cheese Board / $25 Dozen Oysters</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM - 10:00 PM Happy hour: 8:00 AM -  2:45 PM Today deal: $6 Draft Beers / $7 House Red or White Wine by the Glass, Well &amp; House Cocktails, Sangria Glass / $13 Specialty Cocktails / $32 Sangria Pitcher $7 Truffle Fries / $9 Loaded Fries / $10 Caesar Salad / $11 Beef Sliders (3) / $12 Farmers Salad, Green Shrimp Aguachile, Duck Wings, Calamari, Pork Belly / $13 Ceviche of the Day / $14 Lobster Mac &amp; Cheese, Pizza (Mexican Style, Meat Lovers or Farmers Margherita), Short Rib Nachos / $15 Half Dozen Oysters / $17 Cheese Board / $25 Dozen Oysters</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  9:30 PM Happy hour: 8:00 AM -  2:45 PM Today deal: $6 Draft Beers / $7 House Red or White Wine by the Glass, Well &amp; House Cocktails, Sangria Glass / $13 Specialty Cocktails / $32 Sangria Pitcher $7 Truffle Fries / $9 Loaded Fries / $10 Caesar Salad / $11 Beef Sliders (3) / $12 Farmers Salad, Green Shrimp Aguachile, Duck Wings, Calamari, Pork Belly / $13 Ceviche of the Day / $14 Lobster Mac &amp; Cheese, Pizza (Mexican Style, Meat Lovers or Farmers Margherita), Short Rib Nachos / $15 Half Dozen Oysters / $17 Cheese Board / $25 Dozen Oysters</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>The Press Box Sports Lounge</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2990 Jamacha Rd. El Cajon, CA 92019</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>(619) 713-6990</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 11:00 AM - 10:00 PM Happy hour: 11:00 AM -  7:00 PM Today deal: $6.50 Wine by the Glass ($20 Bottle) / $6.50 - $8.50 Signature Cocktails / $9.50 Select Martinis $5.50 Small Caesar Salad, Soup of the Day (cup) / $6.50 Guacamole &amp; Chips, Queso &amp; Chips, Garlic Parmesan Fries / $7.50 Half Wedge Salad, Blooming Onion, Potato Skins, Mediterranean Chicken Skewers / $8.50 Shrimp Cocktail, Crispy Brussels Sprouts, Baked Brie, Loaded Tots, Papa's Joes Meatballs (3), Mozzarella Sticks (5) / $9.50 Giant Pretzel w/Nacho Cheese Sauce, Hummus Plate, Trash Can Nachos  </t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 11:00 AM - 10:00 PM Happy hour: 11:00 AM -  7:00 PM Today deal: $6.50 Wine by the Glass ($20 Bottle) / $6.50 - $8.50 Signature Cocktails / $9.50 Select Martinis $5.50 Small Caesar Salad, Soup of the Day (cup) / $6.50 Guacamole &amp; Chips, Queso &amp; Chips, Garlic Parmesan Fries / $7.50 Half Wedge Salad, Blooming Onion, Potato Skins, Mediterranean Chicken Skewers / $8.50 Shrimp Cocktail, Crispy Brussels Sprouts, Baked Brie, Loaded Tots, Papa's Joes Meatballs (3), Mozzarella Sticks (5) / $9.50 Giant Pretzel w/Nacho Cheese Sauce, Hummus Plate, Trash Can Nachos  </t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 11:00 AM - 10:00 PM Happy hour: 11:00 AM -  7:00 PM Today deal: $6.50 Wine by the Glass ($20 Bottle) / $6.50 - $8.50 Signature Cocktails / $9.50 Select Martinis $5.50 Small Caesar Salad, Soup of the Day (cup) / $6.50 Guacamole &amp; Chips, Queso &amp; Chips, Garlic Parmesan Fries / $7.50 Half Wedge Salad, Blooming Onion, Potato Skins, Mediterranean Chicken Skewers / $8.50 Shrimp Cocktail, Crispy Brussels Sprouts, Baked Brie, Loaded Tots, Papa's Joes Meatballs (3), Mozzarella Sticks (5) / $9.50 Giant Pretzel w/Nacho Cheese Sauce, Hummus Plate, Trash Can Nachos  </t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 11:00 AM - 10:00 PM Happy hour: 11:00 AM -  7:00 PM Today deal: $6.50 Wine by the Glass ($20 Bottle) / $6.50 - $8.50 Signature Cocktails / $9.50 Select Martinis $5.50 Small Caesar Salad, Soup of the Day (cup) / $6.50 Guacamole &amp; Chips, Queso &amp; Chips, Garlic Parmesan Fries / $7.50 Half Wedge Salad, Blooming Onion, Potato Skins, Mediterranean Chicken Skewers / $8.50 Shrimp Cocktail, Crispy Brussels Sprouts, Baked Brie, Loaded Tots, Papa's Joes Meatballs (3), Mozzarella Sticks (5) / $9.50 Giant Pretzel w/Nacho Cheese Sauce, Hummus Plate, Trash Can Nachos  </t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 11:00 AM - 10:00 PM Happy hour: 11:00 AM -  7:00 PM Today deal: $6.50 Wine by the Glass ($20 Bottle) / $6.50 - $8.50 Signature Cocktails / $9.50 Select Martinis $5.50 Small Caesar Salad, Soup of the Day (cup) / $6.50 Guacamole &amp; Chips, Queso &amp; Chips, Garlic Parmesan Fries / $7.50 Half Wedge Salad, Blooming Onion, Potato Skins, Mediterranean Chicken Skewers / $8.50 Shrimp Cocktail, Crispy Brussels Sprouts, Baked Brie, Loaded Tots, Papa's Joes Meatballs (3), Mozzarella Sticks (5) / $9.50 Giant Pretzel w/Nacho Cheese Sauce, Hummus Plate, Trash Can Nachos  </t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 11:00 AM - 11:00 PM Happy hour: 11:00 AM -  7:00 PM Today deal: $6.50 Wine by the Glass ($20 Bottle) / $6.50 - $8.50 Signature Cocktails / $9.50 Select Martinis $5.50 Small Caesar Salad, Soup of the Day (cup) / $6.50 Guacamole &amp; Chips, Queso &amp; Chips, Garlic Parmesan Fries / $7.50 Half Wedge Salad, Blooming Onion, Potato Skins, Mediterranean Chicken Skewers / $8.50 Shrimp Cocktail, Crispy Brussels Sprouts, Baked Brie, Loaded Tots, Papa's Joes Meatballs (3), Mozzarella Sticks (5) / $9.50 Giant Pretzel w/Nacho Cheese Sauce, Hummus Plate, Trash Can Nachos  </t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 11:00 AM - 11:00 PM Happy hour: 11:00 AM -  2:00 PM Today deal: $6.50 Wine by the Glass ($20 Bottle) / $6.50 - $8.50 Signature Cocktails / $9.50 Select Martinis $5.50 Small Caesar Salad, Soup of the Day (cup) / $6.50 Guacamole &amp; Chips, Queso &amp; Chips, Garlic Parmesan Fries / $7.50 Half Wedge Salad, Blooming Onion, Potato Skins, Mediterranean Chicken Skewers / $8.50 Shrimp Cocktail, Crispy Brussels Sprouts, Baked Brie, Loaded Tots, Papa's Joes Meatballs (3), Mozzarella Sticks (5) / $9.50 Giant Pretzel w/Nacho Cheese Sauce, Hummus Plate, Trash Can Nachos  </t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Rockin' Baja Lobster Coastal Cantina</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>3890 Twiggs Street San Diego, CA 92110</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>(619) 260-0305</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 11:00 AM -  9:00 PM Today deal: $10 Tropical Sangria</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $10 Tropical Sangria</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5.50 14oz. Draft Beers (+$1 Sculpin), Well Drinks, Fireball Shots / $6.50 Jameson Shot, House Margaritas: Lime, Strawberry, Mango, Red Raspberry / $7.50 Tito's Vodka, Wine by the Glass, Jack Daniels, 25oz. Draft Beer (+$1.50 Sculpin) / $8.50 Moscow Mule, Mai Tai, Tropical Sangria, Long Island Tea $5.50 Mexican Street Corn, Chili Lime Fries, Taco: Blackened Fish, Chingones or Short Rib / $6.50 Quesadilla Reyados, Guacamole &amp; Chips, Street Tacos (4): Carne Asada, Grilled Chicken or Shredded Pork / $7.50 Nashville Hot Cauliflower, Queso Fundido, Cheese Quesadilla Especial / $8.50 Ahi Tuna Tostada, Tequila Lime Shrimp, Steamed Mussels w/Garlic Toast / $9.50 Bacon Wrapped Shrimp, Rockin' Works Burger &amp; Fries, Lobster &amp; Shrimp Bites, Carne Asada Fries, Crispy Calamari</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5.50 14oz. Draft Beers (+$1 Sculpin), Well Drinks, Fireball Shots / $6.50 Jameson Shot, House Margaritas: Lime, Strawberry, Mango, Red Raspberry / $7.50 Tito's Vodka, Wine by the Glass, Jack Daniels, 25oz. Draft Beer (+$1.50 Sculpin) / $8.50 Moscow Mule, Mai Tai, Tropical Sangria, Long Island Tea $5.50 Mexican Street Corn, Chili Lime Fries, Taco: Blackened Fish, Chingones or Short Rib / $6.50 Quesadilla Reyados, Guacamole &amp; Chips, Street Tacos (4): Carne Asada, Grilled Chicken or Shredded Pork / $7.50 Nashville Hot Cauliflower, Queso Fundido, Cheese Quesadilla Especial / $8.50 Ahi Tuna Tostada, Tequila Lime Shrimp, Steamed Mussels w/Garlic Toast / $9.50 Bacon Wrapped Shrimp, Rockin' Works Burger &amp; Fries, Lobster &amp; Shrimp Bites, Carne Asada Fries, Crispy Calamari</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5.50 14oz. Draft Beers (+$1 Sculpin), Well Drinks, Fireball Shots / $6.50 Jameson Shot, House Margaritas: Lime, Strawberry, Mango, Red Raspberry / $7.50 Tito's Vodka, Wine by the Glass, Jack Daniels, 25oz. Draft Beer (+$1.50 Sculpin) / $8.50 Moscow Mule, Mai Tai, Tropical Sangria, Long Island Tea $5.50 Mexican Street Corn, Chili Lime Fries, Taco: Blackened Fish, Chingones or Short Rib / $6.50 Quesadilla Reyados, Guacamole &amp; Chips, Street Tacos (4): Carne Asada, Grilled Chicken or Shredded Pork / $7.50 Nashville Hot Cauliflower, Queso Fundido, Cheese Quesadilla Especial / $8.50 Ahi Tuna Tostada, Tequila Lime Shrimp, Steamed Mussels w/Garlic Toast / $9.50 Bacon Wrapped Shrimp, Rockin' Works Burger &amp; Fries, Lobster &amp; Shrimp Bites, Carne Asada Fries, Crispy Calamari</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5.50 14oz. Draft Beers (+$1 Sculpin), Well Drinks, Fireball Shots / $6.50 Jameson Shot, House Margaritas: Lime, Strawberry, Mango, Red Raspberry / $7.50 Tito's Vodka, Wine by the Glass, Jack Daniels, 25oz. Draft Beer (+$1.50 Sculpin) / $8.50 Moscow Mule, Mai Tai, Tropical Sangria, Long Island Tea $5.50 Mexican Street Corn, Chili Lime Fries, Taco: Blackened Fish, Chingones or Short Rib / $6.50 Quesadilla Reyados, Guacamole &amp; Chips, Street Tacos (4): Carne Asada, Grilled Chicken or Shredded Pork / $7.50 Nashville Hot Cauliflower, Queso Fundido, Cheese Quesadilla Especial / $8.50 Ahi Tuna Tostada, Tequila Lime Shrimp, Steamed Mussels w/Garlic Toast / $9.50 Bacon Wrapped Shrimp, Rockin' Works Burger &amp; Fries, Lobster &amp; Shrimp Bites, Carne Asada Fries, Crispy Calamari</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 9:00 PM - 10:00 PM Today deal: $5.50 14oz. Draft Beers (+$1 Sculpin), Well Drinks, Fireball Shots / $6.50 Jameson Shot, House Margaritas: Lime, Strawberry, Mango, Red Raspberry / $7.50 Tito's Vodka, Wine by the Glass, Jack Daniels, 25oz. Draft Beer (+$1.50 Sculpin) / $8.50 Moscow Mule, Mai Tai, Tropical Sangria, Long Island Tea $5.50 Mexican Street Corn, Chili Lime Fries, Taco: Blackened Fish, Chingones or Short Rib / $6.50 Quesadilla Reyados, Guacamole &amp; Chips, Street Tacos (4): Carne Asada, Grilled Chicken or Shredded Pork / $7.50 Nashville Hot Cauliflower, Queso Fundido, Cheese Quesadilla Especial / $8.50 Ahi Tuna Tostada, Tequila Lime Shrimp, Steamed Mussels w/Garlic Toast / $9.50 Bacon Wrapped Shrimp, Rockin' Works Burger &amp; Fries, Lobster &amp; Shrimp Bites, Carne Asada Fries, Crispy Calamari</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Hooley's Public House</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>5500 Grossmont Center Dr. #227 La Mesa, CA 91942</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>(619) 713-6900</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:00 AM -  8:00 PM Happy hour: 10:00 AM -  2:00 PM Today deal: $10 Bottomless Champagne (w/ Entree Purchase) $15 - $18 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 11:00 AM - 10:00 PM Today deal: $10 Bottomless Champagne (w/ Entree Purchase) $15 - $18 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 11:00 PM -  9:00 PM Today deal: $10 Bottomless Champagne (w/ Entree Purchase) $15 - $18 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 11:00 PM -  9:00 PM Today deal: Closed</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5 House Margaritas $4+ Tacos </t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 11:00 AM - 11:00 PM Happy hour: 11:00 AM -  2:00 PM Today deal: $5 House Margaritas $4+ Tacos </t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Duke's La Jolla</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>1216 Prospect St. La Jolla, CA 92037</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>(858) 454-5888</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:00 AM -  9:00 PM Happy hour: 10:00 AM -  3:00 PM Today deal: $8 Mimosa (traditional or island style) / $9 Pog Slushie / $12 Black Salt Bloody Mary / $13 Aperol Sritz $13.50 - $23.50 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: Not Happy Hour Today deal: $8 Mimosa (traditional or island style) / $9 Pog Slushie / $12 Black Salt Bloody Mary / $13 Aperol Sritz $13.50 - $23.50 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  9:00 PM Today deal: $8 Mimosa (traditional or island style) / $9 Pog Slushie / $12 Black Salt Bloody Mary / $13 Aperol Sritz $13.50 - $23.50 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 5:00 PM -  9:00 PM Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5 Pacifico / $8 Duke's Margaritas 3:00 PM - 9:00 PM
+$14 Two Tacos w/Chips &amp; Salsa: Fresh Fish, Kalua Pork,  Chipotle Chicken or Togarashi Shrimp 
+[Special available in the Barefoot Bar]</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:00 AM -  9:00 PM Happy hour: 10:00 AM -  3:00 PM Today deal: $5 Pacifico / $8 Duke's Margaritas 3:00 PM - 9:00 PM
+$14 Two Tacos w/Chips &amp; Salsa: Fresh Fish, Kalua Pork,  Chipotle Chicken or Togarashi Shrimp 
+[Special available in the Barefoot Bar]</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Pillbox Tavern</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>117 W. Plaza St. Solana Beach, CA 92075</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>(858) 436-7016</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Draft Beer / $5 Select Tequila or Fireball Shots / $9 Select Wines by the Glass $7 Gringo or Ahi Tacos (2), Street Tacos (3): Carne Asada, Chicken, Al Pastor or Carnitas </t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Draft Beer / $5 Select Tequila or Fireball Shots / $9 Select Wines by the Glass $7 Gringo or Ahi Tacos (2), Street Tacos (3): Carne Asada, Chicken, Al Pastor or Carnitas </t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Draft Beer / $5 Select Tequila or Fireball Shots / $9 Select Wines by the Glass $7 Gringo or Ahi Tacos (2), Street Tacos (3): Carne Asada, Chicken, Al Pastor or Carnitas </t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Draft Beer / $5 Select Tequila or Fireball Shots / $9 Select Wines by the Glass $7 Gringo or Ahi Tacos (2), Street Tacos (3): Carne Asada, Chicken, Al Pastor or Carnitas </t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 11:00 AM -  9:00 PM Happy hour: Not Happy Hour Today deal: $2 Off Draft Beer / $5 Select Tequila or Fireball Shots / $9 Select Wines by the Glass $7 Gringo or Ahi Tacos (2), Street Tacos (3): Carne Asada, Chicken, Al Pastor or Carnitas </t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Old Town Mexican Cafe</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2489 San Diego Avenue San Diego, CA 92110</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>(619) 297-4330</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  9:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  9:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  9:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $5 Well Drinks, Bud Light Drafts / $6 House Margaritas, Tecate Cans, Dos XX Lager Draft / $7 Bravo Rita 1/2 Price Bar Menu Appetizers</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  9:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $5 Well Drinks, Bud Light Drafts / $6 House Margaritas, Tecate Cans, Dos XX Lager Draft / $7 Bravo Rita 1/2 Price Bar Menu Appetizers</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  9:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $5 Well Drinks, Bud Light Drafts / $6 House Margaritas, Tecate Cans, Dos XX Lager Draft / $7 Bravo Rita 1/2 Price Bar Menu Appetizers</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  9:30 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $5 Well Drinks, Bud Light Drafts / $6 House Margaritas, Tecate Cans, Dos XX Lager Draft / $7 Bravo Rita 1/2 Price Bar Menu Appetizers</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  9:30 PM Happy hour: Not Happy Hour Today deal: $5 Well Drinks, Bud Light Drafts / $6 House Margaritas, Tecate Cans, Dos XX Lager Draft / $7 Bravo Rita 1/2 Price Bar Menu Appetizers</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Tin Roof</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>401 G Street San Diego, CA 92101</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>(619) 230-8606</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Bussines hour: 9:00 AM -  2:00 AM Happy hour: 11:00 AM -  3:00 PM Today deal: $20 Bottomless Masons: Mimosa or Bloody Mary $11 - $14.50 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: $20 Bottomless Masons: Mimosa or Bloody Mary $11 - $14.50 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: Closed</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: 1/2 Off All Liquor &amp; Draft Beer $2.50 Salsa / $3.75 World Famous Queso, Fried Pickles / $4.50 Nashville Hot Chicken Dip / $5 Loaded Tots / $6.25 Sloppy Nachos</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: 1/2 Off All Liquor &amp; Draft Beer $2.50 Salsa / $3.75 World Famous Queso, Fried Pickles / $4.50 Nashville Hot Chicken Dip / $5 Loaded Tots / $6.25 Sloppy Nachos</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  2:00 AM Happy hour: 11:00 AM -  3:00 PM Today deal: 1/2 Off All Liquor &amp; Draft Beer $2.50 Salsa / $3.75 World Famous Queso, Fried Pickles / $4.50 Nashville Hot Chicken Dip / $5 Loaded Tots / $6.25 Sloppy Nachos</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Gaslamp Tavern</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>868 Fifth Ave. San Diego, CA 92101</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>(619) 239-3339</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Bussines hour: 9:00 AM - 10:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Draft Beers, Specialty Cocktails &amp; Wine / $6 Wells $2 Off Appetizers</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Draft Beers, Specialty Cocktails &amp; Wine / $6 Wells $2 Off Appetizers</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Draft Beers, Specialty Cocktails &amp; Wine / $6 Wells $2 Off Appetizers</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  2:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Draft Beers, Specialty Cocktails &amp; Wine / $6 Wells $2 Off Appetizers</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:00 AM -  2:00 AM Happy hour: Not Happy Hour Today deal: $2 Off Draft Beers, Specialty Cocktails &amp; Wine / $6 Wells $2 Off Appetizers</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Farmer's Table</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>330 F St. Chula Vista, CA 91910</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>(619) 207-0325</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  9:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $5 Beers / $6 House Red or White Wine by the Glass, Well Cocktails / $8 House Cocktails, Michelada / $25 Sangria Pitcher $9 Farmers or Caesar Salad, Loaded Fries / $12 Green Shrimp Aguachile, Ceviche of the Day, Half Dozen Oysters, Duck Wings, Calamari, Pizza (Mexican Style, Meat Lovers, Farmers or Margherita) / $26 Ranchero Molcajete</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Bussines hour: 9:00 AM -  8:30 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $5 Beers / $6 House Red or White Wine by the Glass, Well Cocktails / $8 House Cocktails, Michelada / $25 Sangria Pitcher $9 Farmers or Caesar Salad, Loaded Fries / $12 Green Shrimp Aguachile, Ceviche of the Day, Half Dozen Oysters, Duck Wings, Calamari, Pizza (Mexican Style, Meat Lovers, Farmers or Margherita) / $26 Ranchero Molcajete</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Bussines hour: 9:00 AM -  8:30 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $5 Beers / $6 House Red or White Wine by the Glass, Well Cocktails / $8 House Cocktails, Michelada / $25 Sangria Pitcher $9 Farmers or Caesar Salad, Loaded Fries / $12 Green Shrimp Aguachile, Ceviche of the Day, Half Dozen Oysters, Duck Wings, Calamari, Pizza (Mexican Style, Meat Lovers, Farmers or Margherita) / $26 Ranchero Molcajete</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Bussines hour: 9:00 AM -  8:30 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $5 Beers / $6 House Red or White Wine by the Glass, Well Cocktails / $8 House Cocktails, Michelada / $25 Sangria Pitcher $9 Farmers or Caesar Salad, Loaded Fries / $12 Green Shrimp Aguachile, Ceviche of the Day, Half Dozen Oysters, Duck Wings, Calamari, Pizza (Mexican Style, Meat Lovers, Farmers or Margherita) / $26 Ranchero Molcajete</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Bussines hour: 9:00 AM -  8:30 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $5 Beers / $6 House Red or White Wine by the Glass, Well Cocktails / $8 House Cocktails, Michelada / $25 Sangria Pitcher $9 Farmers or Caesar Salad, Loaded Fries / $12 Green Shrimp Aguachile, Ceviche of the Day, Half Dozen Oysters, Duck Wings, Calamari, Pizza (Mexican Style, Meat Lovers, Farmers or Margherita) / $26 Ranchero Molcajete</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  9:00 PM Happy hour: 8:00 AM -  2:00 PM Today deal: $5 Beers / $6 House Red or White Wine by the Glass, Well Cocktails / $8 House Cocktails, Michelada / $25 Sangria Pitcher $9 Farmers or Caesar Salad, Loaded Fries / $12 Green Shrimp Aguachile, Ceviche of the Day, Half Dozen Oysters, Duck Wings, Calamari, Pizza (Mexican Style, Meat Lovers, Farmers or Margherita) / $26 Ranchero Molcajete</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM -  9:00 PM Happy hour: 8:00 AM -  2:00 PM Today deal: $5 Beers / $6 House Red or White Wine by the Glass, Well Cocktails / $8 House Cocktails, Michelada / $25 Sangria Pitcher $9 Farmers or Caesar Salad, Loaded Fries / $12 Green Shrimp Aguachile, Ceviche of the Day, Half Dozen Oysters, Duck Wings, Calamari, Pizza (Mexican Style, Meat Lovers, Farmers or Margherita) / $26 Ranchero Molcajete</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>The Blind Burro</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>639 J Street San Diego, CA 92101</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>(619) 795-7880</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:00 AM -  9:00 PM Happy hour: 10:00 AM -  2:00 PM Today deal: $5 Buena Cerveza / $8 Sangria / $10 Featured Tequila / $12 Champagne Bottle / $15 Build-Your-Own Mimosa: Champagne Bottle + Fresh Juice Flight $14 - $19 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $5 Buena Cerveza / $8 Sangria / $10 Featured Tequila / $12 Champagne Bottle / $15 Build-Your-Own Mimosa: Champagne Bottle + Fresh Juice Flight $14 - $19 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $5 Buena Cerveza / $8 Sangria / $10 Featured Tequila / $12 Champagne Bottle / $15 Build-Your-Own Mimosa: Champagne Bottle + Fresh Juice Flight $14 - $19 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $5 Buena Cerveza / $8 Sangria / $10 Featured Tequila / $12 Champagne Bottle / $15 Build-Your-Own Mimosa: Champagne Bottle + Fresh Juice Flight $14 - $19 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $5 Buena Cerveza / $8 House Margarita, House Red or White Wine $7 Fish or Baja Shrimp Taco, TJ Dog w/Fries / $9 Flautas / $10 Queso Crisp / $11 Queso Especial / $12 Crispy Calamari / $13 Carne Asada or Carnitas Street Tacos (3)</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $5 Buena Cerveza / $8 House Margarita, House Red or White Wine $7 Fish or Baja Shrimp Taco, TJ Dog w/Fries / $9 Flautas / $10 Queso Crisp / $11 Queso Especial / $12 Crispy Calamari / $13 Carne Asada or Carnitas Street Tacos (3)</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 11:00 AM -  2:00 PM Today deal: $5 Buena Cerveza / $8 House Margarita, House Red or White Wine $7 Fish or Baja Shrimp Taco, TJ Dog w/Fries / $9 Flautas / $10 Queso Crisp / $11 Queso Especial / $12 Crispy Calamari / $13 Carne Asada or Carnitas Street Tacos (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Las Hadas Bar &amp; Grill</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>558 Fourth Ave. San Diego, CA 92101</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>(619) 232-1720</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM - 12:00 AM Happy hour: Not Happy Hour Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Bussines hour: 3:00 PM -  1:00 AM Happy hour: 4:00 PM -  9:00 PM Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 3:00 PM -  1:00 AM Happy hour: 4:00 PM -  9:00 PM Today deal: $5 Mexican Beers, Cazadores &amp; Patron Shots 1/2 Off All Cazadores Margaritas: Blood Orange, Call Her Rita, Carona- Rita, The Caddy Daddy, Fruit Cart or Watermelon </t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 3:00 PM -  1:00 AM Happy hour: Not Happy Hour Today deal: $5 Mexican Beers, Cazadores &amp; Patron Shots 1/2 Off All Cazadores Margaritas: Blood Orange, Call Her Rita, Carona- Rita, The Caddy Daddy, Fruit Cart or Watermelon </t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 3:00 PM -  1:00 AM Happy hour: Not Happy Hour Today deal: $5 Mexican Beers, Cazadores &amp; Patron Shots 1/2 Off All Cazadores Margaritas: Blood Orange, Call Her Rita, Carona- Rita, The Caddy Daddy, Fruit Cart or Watermelon </t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>Bussines hour: 3:00 PM -  1:00 AM Happy hour: Not Happy Hour Today deal: $10 Patron or Cazadores Margaritas 4:00 PM - 9:00 PM
+$3 Taco: Chicken, Carnitas or Fish / $4 Taco: Shrimp or Veggie</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM - 12:00 AM Happy hour: Not Happy Hour Today deal: $10 Patron or Cazadores Margaritas 4:00 PM - 9:00 PM
+$3 Taco: Chicken, Carnitas or Fish / $4 Taco: Shrimp or Veggie</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Voltaire Beach House</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>4934 Voltaire St. San Diego, CA 92107</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>(619) 955-8840</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:00 AM - 11:00 PM Happy hour: 6:00 PM -  9:00 PM Today deal: $2 Off Any Draft Beer / $4 House Wine / $5 Wells $5 Fried Fish Taco / $10 Bavarian Pretzel, Loaded Nachos / $14 Chicken Wings: Buffalo, Sweet Chili Glaze or Mango Habanero</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any Draft Beer / $4 House Wine / $5 Wells $5 Fried Fish Taco / $10 Bavarian Pretzel, Loaded Nachos / $14 Chicken Wings: Buffalo, Sweet Chili Glaze or Mango Habanero</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any Draft Beer / $4 House Wine / $5 Wells $5 Fried Fish Taco / $10 Bavarian Pretzel, Loaded Nachos / $14 Chicken Wings: Buffalo, Sweet Chili Glaze or Mango Habanero</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any Draft Beer / $4 House Wine / $5 Wells $5 Fried Fish Taco / $10 Bavarian Pretzel, Loaded Nachos / $14 Chicken Wings: Buffalo, Sweet Chili Glaze or Mango Habanero</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any Draft Beer / $4 House Wine / $5 Wells $5 Fried Fish Taco / $10 Bavarian Pretzel, Loaded Nachos / $14 Chicken Wings: Buffalo, Sweet Chili Glaze or Mango Habanero</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any Draft Beer / $4 House Wine / $5 Wells $5 Fried Fish Taco / $10 Bavarian Pretzel, Loaded Nachos / $14 Chicken Wings: Buffalo, Sweet Chili Glaze or Mango Habanero</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off Any Draft Beer / $4 House Wine / $5 Wells $5 Fried Fish Taco / $10 Bavarian Pretzel, Loaded Nachos / $14 Chicken Wings: Buffalo, Sweet Chili Glaze or Mango Habanero</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>El Chingón</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>560 Fifth Ave. San Diego, CA 92101</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>(619) 501-1919</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:00 AM -  2:00 AM Happy hour: Not Happy Hour Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  2:00 AM Happy hour: 2:00 PM -  6:00 PM Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  2:00 AM Happy hour: 2:00 PM -  6:00 PM Today deal: $6 House Margarita, Tequila Of The Month / $7 Off Any Bad Ass Cocktail / $9 Bad Ass Michelada $4 Elote a la Linea / $5 Rolled Tacos, Crispy Potato Tacos (3)</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  2:00 AM Happy hour: 2:00 PM -  6:00 PM Today deal: $6 House Margarita, Tequila Of The Month / $7 Off Any Bad Ass Cocktail / $9 Bad Ass Michelada $4 Elote a la Linea / $5 Rolled Tacos, Crispy Potato Tacos (3)</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  2:00 AM Happy hour: 2:00 PM -  6:00 PM Today deal: $6 House Margarita, Tequila Of The Month / $7 Off Any Bad Ass Cocktail / $9 Bad Ass Michelada $4 Elote a la Linea / $5 Rolled Tacos, Crispy Potato Tacos (3)</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  2:00 AM Happy hour: 2:00 PM -  6:00 PM Today deal: $6 House Margarita, Tequila Of The Month / $7 Off Any Bad Ass Cocktail / $9 Bad Ass Michelada $4 Elote a la Linea / $5 Rolled Tacos, Crispy Potato Tacos (3)</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  2:00 AM Happy hour: Not Happy Hour Today deal: $6 House Margarita, Tequila Of The Month / $7 Off Any Bad Ass Cocktail / $9 Bad Ass Michelada $4 Elote a la Linea / $5 Rolled Tacos, Crispy Potato Tacos (3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Bub's at the Beach</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>1030 Garnet Ave. San Diego, CA 92109</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>(858) 270-7269</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM - 11:00 PM Happy hour: 11:00 AM -  1:00 PM Today deal: $6 Twisted Tea Drafts / $7 Breakfast Shots / $9 House Bloody Mary / $16 Champagne Bottle</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM - 11:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Twisted Tea Drafts / $7 Breakfast Shots / $9 House Bloody Mary / $16 Champagne Bottle</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM - 11:00 PM Happy hour: 3:00 PM - 11:00 PM Today deal: $5 Select Drafts, Well Drinks  $1 Wings (increments of 5): 21 Flavors / $3 Tater Tots, Seasoned Fries / $3.50  Red Sweet Potato Tots, Onion Rings</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM - 11:00 PM Happy hour: 12:00 PM - 11:00 PM Today deal: $5 Select Drafts, Well Drinks  $1 Wings (increments of 5): 21 Flavors / $3 Tater Tots, Seasoned Fries / $3.50  Red Sweet Potato Tots, Onion Rings</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM - 11:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $5 Select Drafts, Well Drinks  $1 Wings (increments of 5): 21 Flavors / $3 Tater Tots, Seasoned Fries / $3.50  Red Sweet Potato Tots, Onion Rings</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM -  1:00 AM Happy hour: 3:00 PM -  5:00 PM Today deal: $5 Select Drafts, Well Drinks  $1 Wings (increments of 5): 21 Flavors / $3 Tater Tots, Seasoned Fries / $3.50  Red Sweet Potato Tots, Onion Rings</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM -  1:00 AM Happy hour: 10:00 PM - 12:30 AM Today deal: $5 Select Drafts, Well Drinks  $1 Wings (increments of 5): 21 Flavors / $3 Tater Tots, Seasoned Fries / $3.50  Red Sweet Potato Tots, Onion Rings</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Casa de Freds - Tacos y Tequila</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2470 San Diego Ave. San Diego, CA 92110</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>(619) 858-8226</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $7 El Perfecto Skinny, Paloma, Vodka Cantarito, Grande Mexican Lager, Shots: Corralejo Blanco, Real del Valle Reposado, Mexican Candy $7 Tres Street Tacos (chicken or adobada), Mini Quesadilla, Mini Adobada Fries, Not-So Mini Burrito, Mini Nachos</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:30 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $7 El Perfecto Skinny, Paloma, Vodka Cantarito, Grande Mexican Lager, Shots: Corralejo Blanco, Real del Valle Reposado, Mexican Candy $7 Tres Street Tacos (chicken or adobada), Mini Quesadilla, Mini Adobada Fries, Not-So Mini Burrito, Mini Nachos</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:30 AM -  9:30 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $7 El Perfecto Skinny, Paloma, Vodka Cantarito, Grande Mexican Lager, Shots: Corralejo Blanco, Real del Valle Reposado, Mexican Candy $7 Tres Street Tacos (chicken or adobada), Mini Quesadilla, Mini Adobada Fries, Not-So Mini Burrito, Mini Nachos</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:30 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $7 El Perfecto Skinny, Paloma, Vodka Cantarito, Grande Mexican Lager, Shots: Corralejo Blanco, Real del Valle Reposado, Mexican Candy $7 Tres Street Tacos (chicken or adobada), Mini Quesadilla, Mini Adobada Fries, Not-So Mini Burrito, Mini Nachos</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:30 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $7 El Perfecto Skinny, Paloma, Vodka Cantarito, Grande Mexican Lager, Shots: Corralejo Blanco, Real del Valle Reposado, Mexican Candy $7 Tres Street Tacos (chicken or adobada), Mini Quesadilla, Mini Adobada Fries, Not-So Mini Burrito, Mini Nachos</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:30 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $7 El Perfecto Skinny, Paloma, Vodka Cantarito, Grande Mexican Lager, Shots: Corralejo Blanco, Real del Valle Reposado, Mexican Candy $7 Tres Street Tacos (chicken or adobada), Mini Quesadilla, Mini Adobada Fries, Not-So Mini Burrito, Mini Nachos</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $7 El Perfecto Skinny, Paloma, Vodka Cantarito, Grande Mexican Lager, Shots: Corralejo Blanco, Real del Valle Reposado, Mexican Candy $7 Tres Street Tacos (chicken or adobada), Mini Quesadilla, Mini Adobada Fries, Not-So Mini Burrito, Mini Nachos</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Rockin' Baja Lobster Coastal Cantina</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>258 Harbor Drive South Oceanside, CA 92054</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>(760) 967-6199</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 11:00 AM -  9:00 PM Today deal: $10 Tropical Sangria [Tax, gratuity and surcharge not included; Dine-in only; Not valid on certain holidays or with any other discounts/coupons.]</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $10 Tropical Sangria [Tax, gratuity and surcharge not included; Dine-in only; Not valid on certain holidays or with any other discounts/coupons.]</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $10 Tropical Sangria [Tax, gratuity and surcharge not included; Dine-in only; Not valid on certain holidays or with any other discounts/coupons.]</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5.50 14oz. Draft Beers (+$1 Sculpin), Well Drinks, Fireball Shots / $6.50 Jameson Shot, House Margaritas: Lime, Strawberry, Mango, Red Raspberry / $7.50 Tito's Vodka, Wine by the Glass, Jack Daniels, 25oz. Draft Beer (+$1.50 Sculpin) / $8.50 Moscow Mule, Mai Tai, Tropical Sangria, Long Island Tea $5.50 Mexican Street Corn, Chili Lime Fries, Taco: Blackened Fish, Chingones or Short Rib / $6.50 Quesadilla Reyados, Guacamole &amp; Chips, Street Tacos (4): Carne Asada, Grilled Chicken or Shredded Pork / $7.50 Nashville Hot Cauliflower, Queso Fundido, Cheese Quesadilla Especial / $8.50 Ahi Tuna Tostada, Tequila Lime Shrimp, Steamed Mussels w/Garlic Toast / $9.50 Bacon Wrapped Shrimp, Rockin' Works Burger &amp; Fries, Lobster &amp; Shrimp Bites, Carne Asada Fries, Crispy Calamari</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5.50 14oz. Draft Beers (+$1 Sculpin), Well Drinks, Fireball Shots / $6.50 Jameson Shot, House Margaritas: Lime, Strawberry, Mango, Red Raspberry / $7.50 Tito's Vodka, Wine by the Glass, Jack Daniels, 25oz. Draft Beer (+$1.50 Sculpin) / $8.50 Moscow Mule, Mai Tai, Tropical Sangria, Long Island Tea $5.50 Mexican Street Corn, Chili Lime Fries, Taco: Blackened Fish, Chingones or Short Rib / $6.50 Quesadilla Reyados, Guacamole &amp; Chips, Street Tacos (4): Carne Asada, Grilled Chicken or Shredded Pork / $7.50 Nashville Hot Cauliflower, Queso Fundido, Cheese Quesadilla Especial / $8.50 Ahi Tuna Tostada, Tequila Lime Shrimp, Steamed Mussels w/Garlic Toast / $9.50 Bacon Wrapped Shrimp, Rockin' Works Burger &amp; Fries, Lobster &amp; Shrimp Bites, Carne Asada Fries, Crispy Calamari</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5.50 14oz. Draft Beers (+$1 Sculpin), Well Drinks, Fireball Shots / $6.50 Jameson Shot, House Margaritas: Lime, Strawberry, Mango, Red Raspberry / $7.50 Tito's Vodka, Wine by the Glass, Jack Daniels, 25oz. Draft Beer (+$1.50 Sculpin) / $8.50 Moscow Mule, Mai Tai, Tropical Sangria, Long Island Tea $5.50 Mexican Street Corn, Chili Lime Fries, Taco: Blackened Fish, Chingones or Short Rib / $6.50 Quesadilla Reyados, Guacamole &amp; Chips, Street Tacos (4): Carne Asada, Grilled Chicken or Shredded Pork / $7.50 Nashville Hot Cauliflower, Queso Fundido, Cheese Quesadilla Especial / $8.50 Ahi Tuna Tostada, Tequila Lime Shrimp, Steamed Mussels w/Garlic Toast / $9.50 Bacon Wrapped Shrimp, Rockin' Works Burger &amp; Fries, Lobster &amp; Shrimp Bites, Carne Asada Fries, Crispy Calamari</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 9:00 PM - 10:00 PM Today deal: $5.50 14oz. Draft Beers (+$1 Sculpin), Well Drinks, Fireball Shots / $6.50 Jameson Shot, House Margaritas: Lime, Strawberry, Mango, Red Raspberry / $7.50 Tito's Vodka, Wine by the Glass, Jack Daniels, 25oz. Draft Beer (+$1.50 Sculpin) / $8.50 Moscow Mule, Mai Tai, Tropical Sangria, Long Island Tea $5.50 Mexican Street Corn, Chili Lime Fries, Taco: Blackened Fish, Chingones or Short Rib / $6.50 Quesadilla Reyados, Guacamole &amp; Chips, Street Tacos (4): Carne Asada, Grilled Chicken or Shredded Pork / $7.50 Nashville Hot Cauliflower, Queso Fundido, Cheese Quesadilla Especial / $8.50 Ahi Tuna Tostada, Tequila Lime Shrimp, Steamed Mussels w/Garlic Toast / $9.50 Bacon Wrapped Shrimp, Rockin' Works Burger &amp; Fries, Lobster &amp; Shrimp Bites, Carne Asada Fries, Crispy Calamari</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Oggi's Pizza &amp; Brewing Co.</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>10155 Rancho Carmel Dr. San Diego, CA 92128</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>(858) 592-7883</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 11:00 AM -  4:00 PM Today deal: $1 Off Select Oggi's Beers &amp; Seltzers or Well Drinks   $5 Half Order Nachos, Mini Hummus (Southwestern, Roasted Garlic or Roasted Red Bell Pepper) w/Housemade Herb Chips / $6 Basket of Fries / $7 Oggi’s Cheese Bites, Lemon Pepper Zucchini Sticks, Crispy Fried Jalapeños &amp; Crispy Fried Pickles, Cauliflower Bites, Crispy Sriracha Brussels Sprouts, Sweet Potato Fries / $8 Traditional Oggi’s-Stix or Personal Pizza (add'l toppings extra), Oggi’s Boat of Meatballs / $9 Loaded Fries / $10 Oggi's Sliders (2): Beef, Buffalo Chicken, Pulled Pork or Quinoa / $12 Chicken Lettuce Wraps</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $1 Off Select Oggi's Beers &amp; Seltzers or Well Drinks   $5 Half Order Nachos, Mini Hummus (Southwestern, Roasted Garlic or Roasted Red Bell Pepper) w/Housemade Herb Chips / $6 Basket of Fries / $7 Oggi’s Cheese Bites, Lemon Pepper Zucchini Sticks, Crispy Fried Jalapeños &amp; Crispy Fried Pickles, Cauliflower Bites, Crispy Sriracha Brussels Sprouts, Sweet Potato Fries / $8 Traditional Oggi’s-Stix or Personal Pizza (add'l toppings extra), Oggi’s Boat of Meatballs / $9 Loaded Fries / $10 Oggi's Sliders (2): Beef, Buffalo Chicken, Pulled Pork or Quinoa / $12 Chicken Lettuce Wraps</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $1 Off Select Oggi's Beers &amp; Seltzers or Well Drinks   $5 Half Order Nachos, Mini Hummus (Southwestern, Roasted Garlic or Roasted Red Bell Pepper) w/Housemade Herb Chips / $6 Basket of Fries / $7 Oggi’s Cheese Bites, Lemon Pepper Zucchini Sticks, Crispy Fried Jalapeños &amp; Crispy Fried Pickles, Cauliflower Bites, Crispy Sriracha Brussels Sprouts, Sweet Potato Fries / $8 Traditional Oggi’s-Stix or Personal Pizza (add'l toppings extra), Oggi’s Boat of Meatballs / $9 Loaded Fries / $10 Oggi's Sliders (2): Beef, Buffalo Chicken, Pulled Pork or Quinoa / $12 Chicken Lettuce Wraps</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $1 Off Select Oggi's Beers &amp; Seltzers or Well Drinks   $5 Half Order Nachos, Mini Hummus (Southwestern, Roasted Garlic or Roasted Red Bell Pepper) w/Housemade Herb Chips / $6 Basket of Fries / $7 Oggi’s Cheese Bites, Lemon Pepper Zucchini Sticks, Crispy Fried Jalapeños &amp; Crispy Fried Pickles, Cauliflower Bites, Crispy Sriracha Brussels Sprouts, Sweet Potato Fries / $8 Traditional Oggi’s-Stix or Personal Pizza (add'l toppings extra), Oggi’s Boat of Meatballs / $9 Loaded Fries / $10 Oggi's Sliders (2): Beef, Buffalo Chicken, Pulled Pork or Quinoa / $12 Chicken Lettuce Wraps</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $1 Off Select Oggi's Beers &amp; Seltzers or Well Drinks $5 Half Order Nachos, Mini Hummus (Southwestern, Roasted Garlic or Roasted Red Bell Pepper) w/Housemade Herb Chips / $6 Basket of Fries / $7 Oggi’s Cheese Bites, Lemon Pepper Zucchini Sticks, Crispy Fried Jalapeños &amp; Crispy Fried Pickles, Cauliflower Bites, Crispy Sriracha Brussels Sprouts, Sweet Potato Fries / $8 Traditional Oggi’s-Stix or Personal Pizza (add'l toppings extra), Oggi’s Boat of Meatballs / $9 Loaded Fries / $10 Oggi's Sliders (2): Beef, Buffalo Chicken, Pulled Pork or Quinoa / $12 Chicken Lettuce Wraps</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:30 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $1 Off Select Oggi's Beers &amp; Seltzers or Well Drinks $5 Half Order Nachos, Mini Hummus (Southwestern, Roasted Garlic or Roasted Red Bell Pepper) w/Housemade Herb Chips / $6 Basket of Fries / $7 Oggi’s Cheese Bites, Lemon Pepper Zucchini Sticks, Crispy Fried Jalapeños &amp; Crispy Fried Pickles, Cauliflower Bites, Crispy Sriracha Brussels Sprouts, Sweet Potato Fries / $8 Traditional Oggi’s-Stix or Personal Pizza (add'l toppings extra), Oggi’s Boat of Meatballs / $9 Loaded Fries / $10 Oggi's Sliders (2): Beef, Buffalo Chicken, Pulled Pork or Quinoa / $12 Chicken Lettuce Wraps</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:30 PM Happy hour: 11:00 AM -  4:00 PM Today deal: $1 Off Select Oggi's Beers &amp; Seltzers or Well Drinks $5 Half Order Nachos, Mini Hummus (Southwestern, Roasted Garlic or Roasted Red Bell Pepper) w/Housemade Herb Chips / $6 Basket of Fries / $7 Oggi’s Cheese Bites, Lemon Pepper Zucchini Sticks, Crispy Fried Jalapeños &amp; Crispy Fried Pickles, Cauliflower Bites, Crispy Sriracha Brussels Sprouts, Sweet Potato Fries / $8 Traditional Oggi’s-Stix or Personal Pizza (add'l toppings extra), Oggi’s Boat of Meatballs / $9 Loaded Fries / $10 Oggi's Sliders (2): Beef, Buffalo Chicken, Pulled Pork or Quinoa / $12 Chicken Lettuce Wraps</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Puesto</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>5010 Mission Center Rd. San Diego, CA 92108</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>(619) 333-2167</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Puesto Drafts / $9 Wines by the Glass / $10 Puesto Perfect Margaritas 1/2 Off Snacks &amp; Shares: Chips &amp; Molcajete Salsa, Chicarrones, Potato Taquitos, Shrimp Gobernador, Chicken Taquitos</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Puesto Drafts / $9 Wines by the Glass / $10 Puesto Perfect Margaritas 1/2 Off Snacks &amp; Shares: Chips &amp; Molcajete Salsa, Chicarrones, Potato Taquitos, Shrimp Gobernador, Chicken Taquitos</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Puesto Drafts / $9 Wines by the Glass / $10 Puesto Perfect Margaritas 1/2 Off Snacks &amp; Shares: Chips &amp; Molcajete Salsa, Chicarrones, Potato Taquitos, Shrimp Gobernador, Chicken Taquitos</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Puesto Drafts / $9 Wines by the Glass / $10 Puesto Perfect Margaritas 1/2 Off Snacks &amp; Shares: Chips &amp; Molcajete Salsa, Chicarrones, Potato Taquitos, Shrimp Gobernador, Chicken Taquitos</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: Not Happy Hour Today deal: $6 Puesto Drafts / $9 Wines by the Glass / $10 Puesto Perfect Margaritas 1/2 Off Snacks &amp; Shares: Chips &amp; Molcajete Salsa, Chicarrones, Potato Taquitos, Shrimp Gobernador, Chicken Taquitos</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>El Torito</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>5024 Baltimore Dr. La Mesa, CA 91942</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>(619) 698-7404</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Bussines hour: 9:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4 Draft Pint, Well Drinks, House Wine / $6 Signature Margaritas (+$1 fruit flavors), Call Drinks, Real del Valle Shot / $8 Watermelon Candy Shot, Mojitos, Jalapeño Cucumber Margarita / $10 Margarita Flight (Signature, Mango &amp; Blackberry), Classic Paloma, Spicy Piña Margarita $4 Street Corn, Queso Dip, Papas Calientes / $6 Potato Chorizo Taquitos (4), Mini Tacos Steak &amp; Chorizo (4), Sopes Grilled Chicken (3) / $8 Beef Birria Tacos (3), BBQ Carnitas Sliders (3), Chicken Flautas (4) / $10 Shrimp Tacos Gobernador (3), Salmon Tacos (3), Mexican Pizza</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4 Draft Pint, Well Drinks, House Wine / $6 Signature Margaritas (+$1 fruit flavors), Call Drinks, Real del Valle Shot / $8 Watermelon Candy Shot, Mojitos, Jalapeño Cucumber Margarita / $10 Margarita Flight (Signature, Mango &amp; Blackberry), Classic Paloma, Spicy Piña Margarita $4 Street Corn, Queso Dip, Papas Calientes / $6 Potato Chorizo Taquitos (4), Mini Tacos Steak &amp; Chorizo (4), Sopes Grilled Chicken (3) / $8 Beef Birria Tacos (3), BBQ Carnitas Sliders (3), Chicken Flautas (4) / $10 Shrimp Tacos Gobernador (3), Salmon Tacos (3), Mexican Pizza</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4 Draft Pint, Well Drinks, House Wine / $6 Signature Margaritas (+$1 fruit flavors), Call Drinks, Real del Valle Shot / $8 Watermelon Candy Shot, Mojitos, Jalapeño Cucumber Margarita / $10 Margarita Flight (Signature, Mango &amp; Blackberry), Classic Paloma, Spicy Piña Margarita $4 Street Corn, Queso Dip, Papas Calientes / $6 Potato Chorizo Taquitos (4), Mini Tacos Steak &amp; Chorizo (4), Sopes Grilled Chicken (3) / $8 Beef Birria Tacos (3), BBQ Carnitas Sliders (3), Chicken Flautas (4) / $10 Shrimp Tacos Gobernador (3), Salmon Tacos (3), Mexican Pizza</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4 Draft Pint, Well Drinks, House Wine / $6 Signature Margaritas (+$1 fruit flavors), Call Drinks, Real del Valle Shot / $8 Watermelon Candy Shot, Mojitos, Jalapeño Cucumber Margarita / $10 Margarita Flight (Signature, Mango &amp; Blackberry), Classic Paloma, Spicy Piña Margarita $4 Street Corn, Queso Dip, Papas Calientes / $6 Potato Chorizo Taquitos (4), Mini Tacos Steak &amp; Chorizo (4), Sopes Grilled Chicken (3) / $8 Beef Birria Tacos (3), BBQ Carnitas Sliders (3), Chicken Flautas (4) / $10 Shrimp Tacos Gobernador (3), Salmon Tacos (3), Mexican Pizza</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4 Draft Pint, Well Drinks, House Wine / $6 Signature Margaritas (+$1 fruit flavors), Call Drinks, Real del Valle Shot / $8 Watermelon Candy Shot, Mojitos, Jalapeño Cucumber Margarita / $10 Margarita Flight (Signature, Mango &amp; Blackberry), Classic Paloma, Spicy Piña Margarita $4 Street Corn, Queso Dip, Papas Calientes / $6 Potato Chorizo Taquitos (4), Mini Tacos Steak &amp; Chorizo (4), Sopes Grilled Chicken (3) / $8 Beef Birria Tacos (3), BBQ Carnitas Sliders (3), Chicken Flautas (4) / $10 Shrimp Tacos Gobernador (3), Salmon Tacos (3), Mexican Pizza</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4 Draft Pint, Well Drinks, House Wine / $6 Signature Margaritas (+$1 fruit flavors), Call Drinks, Real del Valle Shot / $8 Watermelon Candy Shot, Mojitos, Jalapeño Cucumber Margarita / $10 Margarita Flight (Signature, Mango &amp; Blackberry), Classic Paloma, Spicy Piña Margarita $4 Street Corn, Queso Dip, Papas Calientes / $6 Potato Chorizo Taquitos (4), Mini Tacos Steak &amp; Chorizo (4), Sopes Grilled Chicken (3) / $8 Beef Birria Tacos (3), BBQ Carnitas Sliders (3), Chicken Flautas (4) / $10 Shrimp Tacos Gobernador (3), Salmon Tacos (3), Mexican Pizza</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM - 11:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4 Draft Pint, Well Drinks, House Wine / $6 Signature Margaritas (+$1 fruit flavors), Call Drinks, Real del Valle Shot / $8 Watermelon Candy Shot, Mojitos, Jalapeño Cucumber Margarita / $10 Margarita Flight (Signature, Mango &amp; Blackberry), Classic Paloma, Spicy Piña Margarita $4 Street Corn, Queso Dip, Papas Calientes / $6 Potato Chorizo Taquitos (4), Mini Tacos Steak &amp; Chorizo (4), Sopes Grilled Chicken (3) / $8 Beef Birria Tacos (3), BBQ Carnitas Sliders (3), Chicken Flautas (4) / $10 Shrimp Tacos Gobernador (3), Salmon Tacos (3), Mexican Pizza</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>The Duck Dive</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>4650 Mission Blvd. San Diego, CA 92109</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>(858) 273-3825</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 9:00 AM - 10:00 PM Happy hour: 9:00 AM -  3:00 PM Today deal: $7 - $14 Brunch Cocktails / $17.50 Bottomless Mimosa w/Entrée Purchase $16 - $28 Brunch Menu </t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 10:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $7 - $14 Brunch Cocktails / $17.50 Bottomless Mimosa w/Entrée Purchase $16 - $28 Brunch Menu </t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: Closed</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $6 Select Signature Cocktails, Select Wines &amp; Drafts $6.50 Duck Fat Fries, Chips &amp; Guac / $7.50 Duck Dive Spinach Dip / $8 Chicken Tenders, Dive Wings / $8.50 Calamari &amp; Peppers</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $6 Select Signature Cocktails, Select Wines &amp; Drafts $6.50 Duck Fat Fries, Chips &amp; Guac / $7.50 Duck Dive Spinach Dip / $8 Chicken Tenders, Dive Wings / $8.50 Calamari &amp; Peppers</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>Bussines hour: 9:00 AM - 10:00 PM Happy hour: 9:00 AM -  3:00 PM Today deal: $6 Select Signature Cocktails, Select Wines &amp; Drafts $6.50 Duck Fat Fries, Chips &amp; Guac / $7.50 Duck Dive Spinach Dip / $8 Chicken Tenders, Dive Wings / $8.50 Calamari &amp; Peppers</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>American Junkie</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>628 Fifth Ave. San Diego, CA 92101</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>(619) 255-1981</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Bussines hour: 5:00 PM -  2:00 AM Happy hour: 5:00 PM -  7:00 PM Today deal: Closed</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Bussines hour: 5:00 PM -  2:00 AM Happy hour: 5:00 PM -  7:00 PM Today deal: $4 Draft Coors Light, XX or Pacifico / $7 Cadillac Margarita, Not So Old Fashioned / $8 Frozen Drinks / $9 Junkie Cup &amp; Coco Mango Cup  $7 Chips w/Salsa &amp; Guacamole, Giant Pretzel w/Honey Mustard &amp; Chipotle Cheese, Mozzarella Sticks / $8 Cauliflower Bites / $9 Nachos, Breaded Mac &amp; Cheese Balls / $10 Crispy Rock Shrimp, Carne Asada Fries, Chicken Tenders, Chicken Wings (bone-in or boneless): Smoked Whiskey BBQ, Classic Buffalo, Honey Jalapeño, Lemon Pepper or Cajun</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>Bussines hour: 5:00 PM -  2:00 AM Happy hour: 5:00 PM -  7:00 PM Today deal: $4 Draft Coors Light, XX or Pacifico / $7 Cadillac Margarita, Not So Old Fashioned / $8 Frozen Drinks / $9 Junkie Cup &amp; Coco Mango Cup  $7 Chips w/Salsa &amp; Guacamole, Giant Pretzel w/Honey Mustard &amp; Chipotle Cheese, Mozzarella Sticks / $8 Cauliflower Bites / $9 Nachos, Breaded Mac &amp; Cheese Balls / $10 Crispy Rock Shrimp, Carne Asada Fries, Chicken Tenders, Chicken Wings (bone-in or boneless): Smoked Whiskey BBQ, Classic Buffalo, Honey Jalapeño, Lemon Pepper or Cajun</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>Bussines hour: 5:00 PM -  2:00 AM Happy hour: 5:00 PM -  8:00 PM Today deal: $4 Draft Coors Light, XX or Pacifico / $7 Cadillac Margarita, Not So Old Fashioned / $8 Frozen Drinks / $9 Junkie Cup &amp; Coco Mango Cup  $7 Chips w/Salsa &amp; Guacamole, Giant Pretzel w/Honey Mustard &amp; Chipotle Cheese, Mozzarella Sticks / $8 Cauliflower Bites / $9 Nachos, Breaded Mac &amp; Cheese Balls / $10 Crispy Rock Shrimp, Carne Asada Fries, Chicken Tenders, Chicken Wings (bone-in or boneless): Smoked Whiskey BBQ, Classic Buffalo, Honey Jalapeño, Lemon Pepper or Cajun</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>Bussines hour: 1:00 PM -  2:00 AM Happy hour: Not Happy Hour Today deal: $4 Draft Coors Light, XX or Pacifico / $7 Cadillac Margarita, Not So Old Fashioned / $8 Frozen Drinks / $9 Junkie Cup &amp; Coco Mango Cup  $7 Chips w/Salsa &amp; Guacamole, Giant Pretzel w/Honey Mustard &amp; Chipotle Cheese, Mozzarella Sticks / $8 Cauliflower Bites / $9 Nachos, Breaded Mac &amp; Cheese Balls / $10 Crispy Rock Shrimp, Carne Asada Fries, Chicken Tenders, Chicken Wings (bone-in or boneless): Smoked Whiskey BBQ, Classic Buffalo, Honey Jalapeño, Lemon Pepper or Cajun</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Las Tres Catrinas</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>555 Broadway Suite 1084 Chula Vista, CA 91910</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>(619) 595-6096</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Bussines hour: 9:00 AM -  9:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower Free Chips &amp; Salsa / $3 Quesadilla La Diva / $4 Elote Ribs, Queso Dip / $6 Rolled Tacos, Catrinas' Guacamole, Empanadas, Queso Fundido, Catrinas' Kitchen Sink</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower Free Chips &amp; Salsa / $3 Quesadilla La Diva / $4 Elote Ribs, Queso Dip / $6 Rolled Tacos, Catrinas' Guacamole, Empanadas, Queso Fundido, Catrinas' Kitchen Sink</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  1:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower Free Chips &amp; Salsa / $3 Quesadilla La Diva / $4 Elote Ribs, Queso Dip / $6 Rolled Tacos, Catrinas' Guacamole, Empanadas, Queso Fundido, Catrinas' Kitchen Sink</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower Free Chips &amp; Salsa / $3 Quesadilla La Diva / $4 Elote Ribs, Queso Dip / $6 Rolled Tacos, Catrinas' Guacamole, Empanadas, Queso Fundido, Catrinas' Kitchen Sink</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:00 AM - 11:00 PM Happy hour: Not Happy Hour Today deal: $1 Off Draft Beer / $3 Paleta Shot / $5 House Margarita, Tequila Of The Month / $25 Dos XX Beer Tower Free Chips &amp; Salsa / $3 Quesadilla La Diva / $4 Elote Ribs, Queso Dip / $6 Rolled Tacos, Catrinas' Guacamole, Empanadas, Queso Fundido, Catrinas' Kitchen Sink</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>The Smoking Gun</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>555 Market St. San Diego, CA 92101</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>(619) 233-3836</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  2:00 AM Happy hour: Not Happy Hour Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Bussines hour: 3:00 PM -  2:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Bussines hour: 3:00 PM -  2:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $6 Select Draft Beer, Jetway Wine Seltzer (white or rosé), Japanese Highball / $8 A Salt With a Deadly Weapon, Peach Pit, Mai Tai (max. 2 p/customer) / $10 Espresso Martini / $30 Punch Bowl (serves 4 people) $5.99 Fries, Tots or Thick Chips / $6.99 House Salad, Pretzel Balls / $7.99 Frito Pie, Charred Brussels Sprouts / $9.99 Wagyu Double Cheeseburger</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Bussines hour: 3:00 PM -  2:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $6 Select Draft Beer, Jetway Wine Seltzer (white or rosé), Japanese Highball / $8 A Salt With a Deadly Weapon, Peach Pit, Mai Tai (max. 2 p/customer) / $10 Espresso Martini / $30 Punch Bowl (serves 4 people) $5.99 Fries, Tots or Thick Chips / $6.99 House Salad, Pretzel Balls / $7.99 Frito Pie, Charred Brussels Sprouts / $9.99 Wagyu Double Cheeseburger</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>Bussines hour: 3:00 PM -  2:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $6 Select Draft Beer, Jetway Wine Seltzer (white or rosé), Japanese Highball / $8 A Salt With a Deadly Weapon, Peach Pit, Mai Tai (max. 2 p/customer) / $10 Espresso Martini / $30 Punch Bowl (serves 4 people) $5.99 Fries, Tots or Thick Chips / $6.99 House Salad, Pretzel Balls / $7.99 Frito Pie, Charred Brussels Sprouts / $9.99 Wagyu Double Cheeseburger</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>Bussines hour: 3:00 PM -  2:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $6 Select Draft Beer, Jetway Wine Seltzer (white or rosé), Japanese Highball / $8 A Salt With a Deadly Weapon, Peach Pit, Mai Tai (max. 2 p/customer) / $10 Espresso Martini / $30 Punch Bowl (serves 4 people) $5.99 Fries, Tots or Thick Chips / $6.99 House Salad, Pretzel Balls / $7.99 Frito Pie, Charred Brussels Sprouts / $9.99 Wagyu Double Cheeseburger</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  2:00 AM Happy hour: Not Happy Hour Today deal: $6 Select Draft Beer, Jetway Wine Seltzer (white or rosé), Japanese Highball / $8 A Salt With a Deadly Weapon, Peach Pit, Mai Tai (max. 2 p/customer) / $10 Espresso Martini / $30 Punch Bowl (serves 4 people) $5.99 Fries, Tots or Thick Chips / $6.99 House Salad, Pretzel Balls / $7.99 Frito Pie, Charred Brussels Sprouts / $9.99 Wagyu Double Cheeseburger</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>South Beach Bar &amp; Grille</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>5059 Newport Ave. San Diego, CA 92107</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>(619) 226-4577</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: 12:00 PM -  2:00 PM Today deal: $5 Bloody Marys / $8 Champagne Bottles</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5 Bloody Marys / $8 Champagne Bottles</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Fresh Cut Fries / $3.50 Clam Strips / $4 Guacamole w/Chips &amp; Salsa / $4.50 Jalapeño Poppers / $6 Peel &amp; Eat Shrimp / $6.50 Fried Calamari Strips, Chicken Nachos, Carne Asada Fries</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Fresh Cut Fries / $3.50 Clam Strips / $4 Guacamole w/Chips &amp; Salsa / $4.50 Jalapeño Poppers / $6 Peel &amp; Eat Shrimp / $6.50 Fried Calamari Strips, Chicken Nachos, Carne Asada Fries</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Fresh Cut Fries / $3.50 Clam Strips / $4 Guacamole w/Chips &amp; Salsa / $4.50 Jalapeño Poppers / $6 Peel &amp; Eat Shrimp / $6.50 Fried Calamari Strips, Chicken Nachos, Carne Asada Fries $3.95 All Tacos (excluding lobster) / $7 Patron Margarita</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Fresh Cut Fries / $3.50 Clam Strips / $4 Guacamole w/Chips &amp; Salsa / $4.50 Jalapeño Poppers / $6 Peel &amp; Eat Shrimp / $6.50 Fried Calamari Strips, Chicken Nachos, Carne Asada Fries $3.95 All Tacos (excluding lobster) / $7 Patron Margarita</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: 12:00 PM -  2:00 PM Today deal: $2 Fresh Cut Fries / $3.50 Clam Strips / $4 Guacamole w/Chips &amp; Salsa / $4.50 Jalapeño Poppers / $6 Peel &amp; Eat Shrimp / $6.50 Fried Calamari Strips, Chicken Nachos, Carne Asada Fries $3.95 All Tacos (excluding lobster) / $7 Patron Margarita</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>710 Beach Club</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>710 Garnet Ave. San Diego, CA 92109</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>(858) 483-7844</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:00 AM -  2:00 AM Happy hour: 10:30 AM -  2:00 PM Today deal: $26 All You Can Eat Brunch</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Bussines hour: 2:00 PM -  8:00 PM Happy hour: 2:00 PM -  9:00 PM Today deal: $26 All You Can Eat Brunch</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:30 AM -  2:00 AM Happy hour: 1:30 PM -  9:00 PM Today deal: $10 Cheese Pizza ALL DAY
+$7.10 Drink Specials</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:30 AM -  2:00 AM Happy hour: 1:30 PM -  9:00 PM Today deal: $10 Cheese Pizza ALL DAY
+$7.10 Drink Specials</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:30 AM -  2:00 AM Happy hour: 1:30 PM -  9:00 PM Today deal: $10 Cheese Pizza ALL DAY
+$7.10 Drink Specials</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:30 AM -  2:00 AM Happy hour: 1:30 PM -  9:00 PM Today deal: $7.10 Any Two Tacos ALL DAY
+2 for 1 Tequila Shots / $4 Dos XX, Pacifico / $7.10 Margaritas</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  2:00 AM Happy hour: 11:00 AM -  3:00 PM Today deal: $7.10 Any Two Tacos ALL DAY
+2 for 1 Tequila Shots / $4 Dos XX, Pacifico / $7.10 Margaritas</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Tidewater Tavern</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>221 N. Highway 101 Solana Beach, CA 92075</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>(858) 755-4115</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:00 AM - 10:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5 Select Draft Beer, Well Cocktail, House Margarita, Select Wine by the Glass $5 Calamari or Pollo Tacos (2), Crispy Calamari Strips, Veggie Hummus Plate, Beef Quesadilla</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5 Select Draft Beer, Well Cocktail, House Margarita, Select Wine by the Glass $5 Calamari or Pollo Tacos (2), Crispy Calamari Strips, Veggie Hummus Plate, Beef Quesadilla</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5 Select Draft Beer, Well Cocktail, House Margarita, Select Wine by the Glass $5 Calamari or Pollo Tacos (2), Crispy Calamari Strips, Veggie Hummus Plate, Beef Quesadilla</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $5 Select Draft Beer, Well Cocktail, House Margarita, Select Wine by the Glass $5 Calamari or Pollo Tacos (2), Crispy Calamari Strips, Veggie Hummus Plate, Beef Quesadilla</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:00 AM - 12:00 AM Happy hour: Not Happy Hour Today deal: $5 Select Draft Beer, Well Cocktail, House Margarita, Select Wine by the Glass $5 Calamari or Pollo Tacos (2), Crispy Calamari Strips, Veggie Hummus Plate, Beef Quesadilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Hooley's Public House</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2955 Jamacha Rd. #21 El Cajon, CA 92019</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>(619) 670-7468</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:00 AM -  8:00 PM Happy hour: 10:00 AM -  2:00 PM Today deal: $10 Bottomless Champagne (w/ Entree Purchase) $15 - $18 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Bussines hour: 4:00 PM - 10:00 PM Happy hour: 4:00 PM - 10:00 PM Today deal: $10 Bottomless Champagne (w/ Entree Purchase) $15 - $18 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Bussines hour: 4:00 PM - 10:00 PM Happy hour: 4:00 PM - 10:00 PM Today deal: $10 Bottomless Champagne (w/ Entree Purchase) $15 - $18 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Bussines hour: 4:00 PM - 10:00 PM Happy hour: 4:00 PM - 10:00 PM Today deal: Closed</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $6 House Margaritas $4+ Tacos </t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 11:00 AM - 11:00 PM Happy hour: Not Happy Hour Today deal: $6 House Margaritas $4+ Tacos </t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Single Fin Surf Grill</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>3844 Mission Blvd. San Diego, CA 92109</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>(858) 352-6611</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM - 10:00 PM Happy hour: 8:00 AM - 12:00 PM Today deal: $3 Breakfast w/Beverage Purchase (one per customer) 8:00 AM - 2:00 PM
+$16 Bottomless Mimosa w/Breakfast Entrée Purchase (min. $8) / $19 Cocktail Flight: Choice of three select cocktails</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Bussines hour: 3:00 PM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $3 Breakfast w/Beverage Purchase (one per customer) 8:00 AM - 2:00 PM
+$16 Bottomless Mimosa w/Breakfast Entrée Purchase (min. $8) / $19 Cocktail Flight: Choice of three select cocktails</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Bussines hour: 3:00 PM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $3 Breakfast w/Beverage Purchase (one per customer) 8:00 AM - 2:00 PM
+$16 Bottomless Mimosa w/Breakfast Entrée Purchase (min. $8) / $19 Cocktail Flight: Choice of three select cocktails</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Bussines hour: 3:00 PM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $3 Breakfast w/Beverage Purchase (one per customer) 8:00 AM - 2:00 PM
+$16 Bottomless Mimosa w/Breakfast Entrée Purchase (min. $8) / $19 Cocktail Flight: Choice of three select cocktails</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>Bussines hour: 3:00 PM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5 Drafts, Well Drinks &amp; Wines $2.50 Chips &amp; Salsa / $2.75 Fries / $4.75 Onion Rings / $6 Jalapeño Poppers / $7.50 Shrimp Ceviche</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>Bussines hour: 9:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5 Drafts, Well Drinks &amp; Wines $2.50 Chips &amp; Salsa / $2.75 Fries / $4.75 Onion Rings / $6 Jalapeño Poppers / $7.50 Shrimp Ceviche</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>Bussines hour: 8:00 AM - 10:00 PM Happy hour: 8:00 AM - 12:00 PM Today deal: $5 Drafts, Well Drinks &amp; Wines $2.50 Chips &amp; Salsa / $2.75 Fries / $4.75 Onion Rings / $6 Jalapeño Poppers / $7.50 Shrimp Ceviche</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Del's Hideout</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>5153 Adoble Falls Rd. San Diego, CA 92120</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>(619) 255-8175</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:30 AM -  8:00 PM Happy hour: 11:30 AM -  8:00 PM Today deal: $12 Tall Boy + Shot of Jack / $17 Bottle of Bubbles NFL SPECIAL (available during live games)
+$3 Off Select Beer Mugs / $25 Domestic Bucket of Beer / $30 Import Beer or Seltzer Bucket</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:30 AM -  8:00 PM Happy hour: 11:30 AM -  8:00 PM Today deal: $12 Tall Boy + Shot of Jack / $17 Bottle of Bubbles NFL SPECIAL (available during live games)
+$3 Off Select Beer Mugs / $25 Domestic Bucket of Beer / $30 Import Beer or Seltzer Bucket</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:30 AM -  8:00 PM Happy hour: 2:00 PM -  5:00 PM Today deal: $12 Tall Boy + Shot of Jack / $17 Bottle of Bubbles NFL SPECIAL (available during live games)
+$3 Off Select Beer Mugs / $25 Domestic Bucket of Beer / $30 Import Beer or Seltzer Bucket</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:30 AM -  8:00 PM Happy hour: 2:00 PM -  5:00 PM Today deal: $12 Tall Boy + Shot of Jack / $17 Bottle of Bubbles NFL SPECIAL (available during live games)
+$3 Off Select Beer Mugs / $25 Domestic Bucket of Beer / $30 Import Beer or Seltzer Bucket</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:30 AM -  8:00 PM Happy hour: 2:00 PM -  5:00 PM Today deal: $12 Tall Boy + Shot of Jack / $17 Bottle of Bubbles NFL SPECIAL (available during live games)
+$3 Off Select Beer Mugs / $25 Domestic Bucket of Beer / $30 Import Beer or Seltzer Bucket</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:30 AM -  9:00 PM Happy hour: 2:00 PM -  5:00 PM Today deal: $4 Featured House Cocktail, Domestic Drafts / $5 Well Drinks, Glasses of House Wines, Featured Drafts $8 Pulled Pork Sliders (2), Onion Rings, 24 Hour Wings (Buffalo, BBQ, Spicy BBQ, or Naked), Mac &amp; Cheese</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:30 AM -  9:00 PM Happy hour: Not Happy Hour Today deal: $4 Featured House Cocktail, Domestic Drafts / $5 Well Drinks, Glasses of House Wines, Featured Drafts $8 Pulled Pork Sliders (2), Onion Rings, 24 Hour Wings (Buffalo, BBQ, Spicy BBQ, or Naked), Mac &amp; Cheese</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Rockin' Baja Lobster Coastal Cantina</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>310 Fifth Ave. San Diego, CA 92101</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>(619) 234-6333</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 11:00 AM -  9:00 PM Today deal: $10 Tropical Sangria</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $10 Tropical Sangria</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5.50 14oz. Draft Beers (+$1 Sculpin), Well Drinks, Fireball Shots / $6.50 Jameson Shot, House Margaritas: Lime, Strawberry, Mango, Red Raspberry / $7.50 Tito's Vodka, Wine by the Glass, Jack Daniels, 25oz. Draft Beer (+$1.50 Sculpin) / $8.50 Moscow Mule, Mai Tai, Tropical Sangria, Long Island Tea $5.50 Mexican Street Corn, Chili Lime Fries, Taco: Blackened Fish, Chingones or Short Rib / $6.50 Quesadilla Reyados, Guacamole &amp; Chips, Street Tacos (4): Carne Asada, Grilled Chicken or Shredded Pork / $7.50 Nashville Hot Cauliflower, Queso Fundido, Cheese Quesadilla Especial / $8.50 Ahi Tuna Tostada, Tequila Lime Shrimp, Steamed Mussels w/Garlic Toast / $9.50 Bacon Wrapped Shrimp, Rockin' Works Burger &amp; Fries, Lobster &amp; Shrimp Bites, Carne Asada Fries, Crispy Calamari</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5.50 14oz. Draft Beers (+$1 Sculpin), Well Drinks, Fireball Shots / $6.50 Jameson Shot, House Margaritas: Lime, Strawberry, Mango, Red Raspberry / $7.50 Tito's Vodka, Wine by the Glass, Jack Daniels, 25oz. Draft Beer (+$1.50 Sculpin) / $8.50 Moscow Mule, Mai Tai, Tropical Sangria, Long Island Tea $5.50 Mexican Street Corn, Chili Lime Fries, Taco: Blackened Fish, Chingones or Short Rib / $6.50 Quesadilla Reyados, Guacamole &amp; Chips, Street Tacos (4): Carne Asada, Grilled Chicken or Shredded Pork / $7.50 Nashville Hot Cauliflower, Queso Fundido, Cheese Quesadilla Especial / $8.50 Ahi Tuna Tostada, Tequila Lime Shrimp, Steamed Mussels w/Garlic Toast / $9.50 Bacon Wrapped Shrimp, Rockin' Works Burger &amp; Fries, Lobster &amp; Shrimp Bites, Carne Asada Fries, Crispy Calamari</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5.50 14oz. Draft Beers (+$1 Sculpin), Well Drinks, Fireball Shots / $6.50 Jameson Shot, House Margaritas: Lime, Strawberry, Mango, Red Raspberry / $7.50 Tito's Vodka, Wine by the Glass, Jack Daniels, 25oz. Draft Beer (+$1.50 Sculpin) / $8.50 Moscow Mule, Mai Tai, Tropical Sangria, Long Island Tea $5.50 Mexican Street Corn, Chili Lime Fries, Taco: Blackened Fish, Chingones or Short Rib / $6.50 Quesadilla Reyados, Guacamole &amp; Chips, Street Tacos (4): Carne Asada, Grilled Chicken or Shredded Pork / $7.50 Nashville Hot Cauliflower, Queso Fundido, Cheese Quesadilla Especial / $8.50 Ahi Tuna Tostada, Tequila Lime Shrimp, Steamed Mussels w/Garlic Toast / $9.50 Bacon Wrapped Shrimp, Rockin' Works Burger &amp; Fries, Lobster &amp; Shrimp Bites, Carne Asada Fries, Crispy Calamari</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5.50 14oz. Draft Beers (+$1 Sculpin), Well Drinks, Fireball Shots / $6.50 Jameson Shot, House Margaritas: Lime, Strawberry, Mango, Red Raspberry / $7.50 Tito's Vodka, Wine by the Glass, Jack Daniels, 25oz. Draft Beer (+$1.50 Sculpin) / $8.50 Moscow Mule, Mai Tai, Tropical Sangria, Long Island Tea $5.50 Mexican Street Corn, Chili Lime Fries, Taco: Blackened Fish, Chingones or Short Rib / $6.50 Quesadilla Reyados, Guacamole &amp; Chips, Street Tacos (4): Carne Asada, Grilled Chicken or Shredded Pork / $7.50 Nashville Hot Cauliflower, Queso Fundido, Cheese Quesadilla Especial / $8.50 Ahi Tuna Tostada, Tequila Lime Shrimp, Steamed Mussels w/Garlic Toast / $9.50 Bacon Wrapped Shrimp, Rockin' Works Burger &amp; Fries, Lobster &amp; Shrimp Bites, Carne Asada Fries, Crispy Calamari</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 9:00 PM - 10:00 PM Today deal: $5.50 14oz. Draft Beers (+$1 Sculpin), Well Drinks, Fireball Shots / $6.50 Jameson Shot, House Margaritas: Lime, Strawberry, Mango, Red Raspberry / $7.50 Tito's Vodka, Wine by the Glass, Jack Daniels, 25oz. Draft Beer (+$1.50 Sculpin) / $8.50 Moscow Mule, Mai Tai, Tropical Sangria, Long Island Tea $5.50 Mexican Street Corn, Chili Lime Fries, Taco: Blackened Fish, Chingones or Short Rib / $6.50 Quesadilla Reyados, Guacamole &amp; Chips, Street Tacos (4): Carne Asada, Grilled Chicken or Shredded Pork / $7.50 Nashville Hot Cauliflower, Queso Fundido, Cheese Quesadilla Especial / $8.50 Ahi Tuna Tostada, Tequila Lime Shrimp, Steamed Mussels w/Garlic Toast / $9.50 Bacon Wrapped Shrimp, Rockin' Works Burger &amp; Fries, Lobster &amp; Shrimp Bites, Carne Asada Fries, Crispy Calamari</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>La Doña</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>1852 Bacon St. San Diego, CA 92107</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>(619) 269-6144</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:30 AM -  9:00 PM Happy hour: 10:30 AM -  1:30 PM Today deal: $12 - $14 Brunch Cocktails / $22 Mas Fi Brut Cava or Brut Rosé Bottle $10 - $17 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM -  9:00 PM Happy hour: 12:00 PM -  5:00 PM Today deal: $12 - $14 Brunch Cocktails / $22 Mas Fi Brut Cava or Brut Rosé Bottle $10 - $17 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM -  9:00 PM Happy hour: 12:00 PM -  9:00 PM Today deal: $12 - $14 Brunch Cocktails / $22 Mas Fi Brut Cava or Brut Rosé Bottle $10 - $17 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM -  9:00 PM Happy hour: 2:30 PM -  5:00 PM Today deal: $5 Calidad Cerveza (+$1 Make it a Michelada) / $7 La Doña Margarita, Amaras Verde Mezcal / $8 Volcan Reposado / $9 Radler Paloma, El Tesoro Blanco Tequila or Del Maguey Vida Mezcal $4 Spicy Carrot &amp; Cauliflower Escabeche / $7 Mini TJ Dogs (3) / $7.50 Street Nachos / $9 Ceviche Verde, Uno Taco Plate w/Rice &amp; Beans (Chile Relleno, Carne Asada, Pollo, Carnitas, Pescado, Camaron, A La Plancha, Quesa or Vegan) / $10 Vegetarian Rolled Tacos (6)</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM -  9:00 PM Happy hour: 2:30 PM -  5:00 PM Today deal: $5 Calidad Cerveza (+$1 Make it a Michelada) / $7 La Doña Margarita, Amaras Verde Mezcal / $8 Volcan Reposado / $9 Radler Paloma, El Tesoro Blanco Tequila or Del Maguey Vida Mezcal $4 Spicy Carrot &amp; Cauliflower Escabeche / $7 Mini TJ Dogs (3) / $7.50 Street Nachos / $9 Ceviche Verde, Uno Taco Plate w/Rice &amp; Beans (Chile Relleno, Carne Asada, Pollo, Carnitas, Pescado, Camaron, A La Plancha, Quesa or Vegan) / $10 Vegetarian Rolled Tacos (6)</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM - 10:00 PM Happy hour: 2:30 PM -  5:00 PM Today deal: $5 Calidad Cerveza (+$1 Make it a Michelada) / $7 La Doña Margarita, Amaras Verde Mezcal / $8 Volcan Reposado / $9 Radler Paloma, El Tesoro Blanco Tequila or Del Maguey Vida Mezcal $4 Spicy Carrot &amp; Cauliflower Escabeche / $7 Mini TJ Dogs (3) / $7.50 Street Nachos / $9 Ceviche Verde, Uno Taco Plate w/Rice &amp; Beans (Chile Relleno, Carne Asada, Pollo, Carnitas, Pescado, Camaron, A La Plancha, Quesa or Vegan) / $10 Vegetarian Rolled Tacos (6)</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:30 AM - 10:00 PM Happy hour: 10:30 AM -  1:30 PM Today deal: $5 Calidad Cerveza (+$1 Make it a Michelada) / $7 La Doña Margarita, Amaras Verde Mezcal / $8 Volcan Reposado / $9 Radler Paloma, El Tesoro Blanco Tequila or Del Maguey Vida Mezcal $4 Spicy Carrot &amp; Cauliflower Escabeche / $7 Mini TJ Dogs (3) / $7.50 Street Nachos / $9 Ceviche Verde, Uno Taco Plate w/Rice &amp; Beans (Chile Relleno, Carne Asada, Pollo, Carnitas, Pescado, Camaron, A La Plancha, Quesa or Vegan) / $10 Vegetarian Rolled Tacos (6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Nason's Beer Hall</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>550 J St. San Diego, CA 92101</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>(619) 738-7060</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:00 AM - 10:00 PM Happy hour: 10:00 AM -  2:00 PM Today deal: $25 Bottle of Campo Viejo &amp; OJ Carafe $7 - $37 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Bussines hour: 3:00 PM - 10:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $25 Bottle of Campo Viejo &amp; OJ Carafe $7 - $37 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Bussines hour: 3:00 PM - 10:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $25 Bottle of Campo Viejo &amp; OJ Carafe $7 - $37 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Bussines hour: 3:00 PM - 10:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $5 Draft Beers / $6 House Wines / $7 Well Cocktails $7 Animal Style Tots, Jalapeño Popper Cream Cheese Wonton (3), Chips &amp; Guacamole, Carnitas Nachos</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>Bussines hour: 3:00 PM - 10:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $5 Draft Beers / $6 House Wines / $7 Well Cocktails $7 Animal Style Tots, Jalapeño Popper Cream Cheese Wonton (3), Chips &amp; Guacamole, Carnitas Nachos</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>Bussines hour: 3:00 PM - 12:00 AM Happy hour: 3:00 PM -  5:00 PM Today deal: $5 Draft Beers / $6 House Wines / $7 Well Cocktails $7 Animal Style Tots, Jalapeño Popper Cream Cheese Wonton (3), Chips &amp; Guacamole, Carnitas Nachos</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:00 AM - 12:00 AM Happy hour: 10:00 AM -  2:00 PM Today deal: $5 Draft Beers / $6 House Wines / $7 Well Cocktails $7 Animal Style Tots, Jalapeño Popper Cream Cheese Wonton (3), Chips &amp; Guacamole, Carnitas Nachos</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pioneer BBQ </t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>8622 Lake Murray Blvd. San Diego, CA 92119</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>(619) 825-7787</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM -  8:00 PM Happy hour: 12:00 PM -  8:00 PM Today deal: $12 Tall Boy + Shot of Jack / $17 Bottle of Bubbles [A 5% surcharge will be added to all Guest checks to help cover increasing costs in employee wages / benefits.]</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Bussines hour: 4:00 PM -  8:00 PM Happy hour: 4:00 PM -  8:00 PM Today deal: $12 Tall Boy + Shot of Jack / $17 Bottle of Bubbles [A 5% surcharge will be added to all Guest checks to help cover increasing costs in employee wages / benefits.]</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Bussines hour: 4:00 PM -  8:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $12 Tall Boy + Shot of Jack / $17 Bottle of Bubbles [A 5% surcharge will be added to all Guest checks to help cover increasing costs in employee wages / benefits.]</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Bussines hour: 4:00 PM -  8:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Well Cocktails &amp; House Wines / $6 Select Drafts $8 Frito Pie / $9 Best Mac &amp; Cheese, BBQ Pulled Pork Sliders (2), Chicken &amp; Waffles / $15 Classic Burger w/Fries + a Draft Beer (add cheese +$1)</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>Bussines hour: 4:00 PM -  8:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Well Cocktails &amp; House Wines / $6 Select Drafts $8 Frito Pie / $9 Best Mac &amp; Cheese, BBQ Pulled Pork Sliders (2), Chicken &amp; Waffles / $15 Classic Burger w/Fries + a Draft Beer (add cheese +$1)</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM -  9:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $5 Well Cocktails &amp; House Wines / $6 Select Drafts $8 Frito Pie / $9 Best Mac &amp; Cheese, BBQ Pulled Pork Sliders (2), Chicken &amp; Waffles / $15 Classic Burger w/Fries + a Draft Beer (add cheese +$1)</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM -  9:00 PM Happy hour: 12:00 PM -  9:00 PM Today deal: $5 Well Cocktails &amp; House Wines / $6 Select Drafts $8 Frito Pie / $9 Best Mac &amp; Cheese, BBQ Pulled Pork Sliders (2), Chicken &amp; Waffles / $15 Classic Burger w/Fries + a Draft Beer (add cheese +$1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Guava Beach Bar &amp; Grill</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>3714 Mission Blvd. San Diego, CA 92109</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>(858) 488-6688</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  1:00 AM Happy hour: Not Happy Hour Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:30 AM -  1:00 AM Happy hour: 3:00 PM -  5:00 PM Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:30 AM -  1:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Drafts / $6 Wells, House Wines / $7 House Margaritas, Tito's Mules $10.50 Mozzarella Sticks w/House-made Marinara / $12.25 Guacamole w/Chips &amp; Salsa / $12.95 Balsamic Glazed Brussels Sprouts / $13.95 Nachos Grande / $14.50 Chicken Tenders / $14.75 Guava Wings: Beautiful Death Fuego Sauce, Honey Chipotle, Buffalo, BBQ or Dry Rub Jerk / $14.95 GB Ceviche, Jumbo Coco Shrimp / $17.50 Seared Cajun Ahi / $22.95 Appetizer Platter</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:30 AM -  1:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Drafts / $6 Wells, House Wines / $7 House Margaritas, Tito's Mules $10.50 Mozzarella Sticks w/House-made Marinara / $12.25 Guacamole w/Chips &amp; Salsa / $12.95 Balsamic Glazed Brussels Sprouts / $13.95 Nachos Grande / $14.50 Chicken Tenders / $14.75 Guava Wings: Beautiful Death Fuego Sauce, Honey Chipotle, Buffalo, BBQ or Dry Rub Jerk / $14.95 GB Ceviche, Jumbo Coco Shrimp / $17.50 Seared Cajun Ahi / $22.95 Appetizer Platter</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:30 AM -  1:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Drafts / $6 Wells, House Wines / $7 House Margaritas, Tito's Mules $10.50 Mozzarella Sticks w/House-made Marinara / $12.25 Guacamole w/Chips &amp; Salsa / $12.95 Balsamic Glazed Brussels Sprouts / $13.95 Nachos Grande / $14.50 Chicken Tenders / $14.75 Guava Wings: Beautiful Death Fuego Sauce, Honey Chipotle, Buffalo, BBQ or Dry Rub Jerk / $14.95 GB Ceviche, Jumbo Coco Shrimp / $17.50 Seared Cajun Ahi / $22.95 Appetizer Platter</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  1:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 Off All Drafts / $6 Wells, House Wines / $7 House Margaritas, Tito's Mules $10.50 Mozzarella Sticks w/House-made Marinara / $12.25 Guacamole w/Chips &amp; Salsa / $12.95 Balsamic Glazed Brussels Sprouts / $13.95 Nachos Grande / $14.50 Chicken Tenders / $14.75 Guava Wings: Beautiful Death Fuego Sauce, Honey Chipotle, Buffalo, BBQ or Dry Rub Jerk / $14.95 GB Ceviche, Jumbo Coco Shrimp / $17.50 Seared Cajun Ahi / $22.95 Appetizer Platter</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  1:00 AM Happy hour: Not Happy Hour Today deal: $2 Off All Drafts / $6 Wells, House Wines / $7 House Margaritas, Tito's Mules $10.50 Mozzarella Sticks w/House-made Marinara / $12.25 Guacamole w/Chips &amp; Salsa / $12.95 Balsamic Glazed Brussels Sprouts / $13.95 Nachos Grande / $14.50 Chicken Tenders / $14.75 Guava Wings: Beautiful Death Fuego Sauce, Honey Chipotle, Buffalo, BBQ or Dry Rub Jerk / $14.95 GB Ceviche, Jumbo Coco Shrimp / $17.50 Seared Cajun Ahi / $22.95 Appetizer Platter</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>On The Border</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>10789 Westview Parkway San Diego, CA 92126</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>(858) 530-1130</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 11:00 AM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 11:00 AM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Coaster Saloon</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>744 Ventura Pl. San Diego, CA 92109</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>(858) 488-4438</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  8:00 PM Happy hour: 11:00 AM -  1:00 PM Today deal: $8.95 - $13.95 Brunch Menu ALL DAY
+$3 Jager Shot w/Any Beer Purchase / $17 Bottle of Bubbles</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM -  8:00 PM Happy hour: 12:00 PM -  6:00 PM Today deal: $8.95 - $13.95 Brunch Menu ALL DAY
+$3 Jager Shot w/Any Beer Purchase / $17 Bottle of Bubbles</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM -  8:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $8.95 - $13.95 Brunch Menu ALL DAY
+$3 Jager Shot w/Any Beer Purchase / $17 Bottle of Bubbles</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM -  8:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $8.95 - $13.95 Brunch Menu ALL DAY
+$3 Jager Shot w/Any Beer Purchase / $17 Bottle of Bubbles</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 12:00 PM -  8:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $6 Well Drinks $4 Pulled Pork Slider ($11 for Three) / $5 Onion &amp; Bell Pepper Rings  / $6 Chicken Tenders (2) / $7 Coaster Frito Pie / $8 Mac &amp; Cheese </t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 12:00 PM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $6 Well Drinks $4 Pulled Pork Slider ($11 for Three) / $5 Onion &amp; Bell Pepper Rings  / $6 Chicken Tenders (2) / $7 Coaster Frito Pie / $8 Mac &amp; Cheese </t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 11:00 AM -  9:00 PM Happy hour: 11:00 AM -  1:00 PM Today deal: $6 Well Drinks $4 Pulled Pork Slider ($11 for Three) / $5 Onion &amp; Bell Pepper Rings  / $6 Chicken Tenders (2) / $7 Coaster Frito Pie / $8 Mac &amp; Cheese </t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Galley at the Marina</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>550 Marina Parkway Chula Vista, CA 91910</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>(619) 422-5714</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Bussines hour: 9:00 AM - 10:00 PM Happy hour: 9:00 AM - 12:00 PM Today deal: $11 - $24 Breakfast Menu</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $11 - $24 Breakfast Menu</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Wine by the Glass &amp; Domestic Drafts / $5  Well Drinks $5 Beef Taco, Jumbo Hot Dog, French Fries / $6 Chicken Taco, Jumbo "TJ" Hot Dog w/Bacon, Onion Rings / $7 Zucchini / $8 Potato Skins / $9 Nachos, Buffalo Wings </t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Wine by the Glass &amp; Domestic Drafts / $5  Well Drinks $5 Beef Taco, Jumbo Hot Dog, French Fries / $6 Chicken Taco, Jumbo "TJ" Hot Dog w/Bacon, Onion Rings / $7 Zucchini / $8 Potato Skins / $9 Nachos, Buffalo Wings </t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Wine by the Glass &amp; Domestic Drafts / $5  Well Drinks $5 Beef Taco, Jumbo Hot Dog, French Fries / $6 Chicken Taco, Jumbo "TJ" Hot Dog w/Bacon, Onion Rings / $7 Zucchini / $8 Potato Skins / $9 Nachos, Buffalo Wings </t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 11:00 AM - 12:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $4 House Wine by the Glass &amp; Domestic Drafts / $5  Well Drinks $5 Beef Taco, Jumbo Hot Dog, French Fries / $6 Chicken Taco, Jumbo "TJ" Hot Dog w/Bacon, Onion Rings / $7 Zucchini / $8 Potato Skins / $9 Nachos, Buffalo Wings </t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 9:00 AM - 10:00 PM Happy hour: 9:00 AM - 12:00 PM Today deal: $4 House Wine by the Glass &amp; Domestic Drafts / $5  Well Drinks $5 Beef Taco, Jumbo Hot Dog, French Fries / $6 Chicken Taco, Jumbo "TJ" Hot Dog w/Bacon, Onion Rings / $7 Zucchini / $8 Potato Skins / $9 Nachos, Buffalo Wings </t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Taste &amp; Thirst</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>715 Fourth Ave. San Diego, CA 92101</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>(619) 955-5995</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Bussines hour: 9:30 AM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Bussines hour: 3:00 PM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Bussines hour: 3:00 PM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Bussines hour: 9:30 AM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Bussines hour: 9:30 AM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>Bussines hour: 9:30 AM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>Bussines hour: 9:30 AM -  2:00 AM Happy hour: 3:00 PM -  8:00 PM Today deal: 1/2 Off All Drinks, Draft &amp; Bottled Beers $1 Off All Burgers / $2 Off Boneless Wings / $3 Off Quesadillas / $4 Chicharones / $5 Lemon Pepper Fries / $6 Truffle Tots</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Eastbound Bar &amp; Grill</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>10053 Maine Avenue San Diego, CA 92040</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>(619) 334-2566</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Bussines hour: 9:00 AM - 11:00 PM Happy hour: 9:00 AM -  1:00 PM Today deal: $9.95 - $14.95 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:00 AM - 11:00 PM Happy hour: 2:00 PM -  5:00 PM Today deal: Closed</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:00 AM - 11:00 PM Happy hour: 2:00 PM -  5:00 PM Today deal: $3 Domestic Bottles / $3.50 House Wines / $4 Drafts / Happy Hour Wheel Spin Every 30 minutes = Additional Special $24 Mix &amp; Match Buckets of Beer (5 bottles): Pacifico, Corona, Dos XX</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:00 AM - 11:00 PM Happy hour: 2:00 PM -  5:00 PM Today deal: $3 Domestic Bottles / $3.50 House Wines / $4 Drafts / Happy Hour Wheel Spin Every 30 minutes = Additional Special $24 Mix &amp; Match Buckets of Beer (5 bottles): Pacifico, Corona, Dos XX</t>
+        </is>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:00 AM - 11:00 PM Happy hour: 2:00 PM -  5:00 PM Today deal: $3 Domestic Bottles / $3.50 House Wines / $4 Drafts / Happy Hour Wheel Spin Every 30 minutes = Additional Special $24 Mix &amp; Match Buckets of Beer (5 bottles): Pacifico, Corona, Dos XX</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>Bussines hour: 9:00 AM - 11:00 PM Happy hour: 9:00 AM -  1:00 PM Today deal: $3 Domestic Bottles / $3.50 House Wines / $4 Drafts / Happy Hour Wheel Spin Every 30 minutes = Additional Special $24 Mix &amp; Match Buckets of Beer (5 bottles): Pacifico, Corona, Dos XX</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Smokey and The Brisket</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>5465 Lake Murray Blvd La Mesa, CA 91942</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>(619) 439-6544</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  8:00 PM Happy hour: 2:00 PM -  5:00 PM Today deal: $1 Off Glasses of Wine, Cans &amp; Bottles of Beer / $5 Draft Beers $10 Brisket Burnt Ends Jalapeño Mac n' Cheese / $11 Loaded Fries</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  8:00 PM Happy hour: 2:00 PM -  5:00 PM Today deal: $1 Off Glasses of Wine, Cans &amp; Bottles of Beer / $5 Draft Beers $10 Brisket Burnt Ends Jalapeño Mac n' Cheese / $11 Loaded Fries</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  8:00 PM Happy hour: 2:00 PM -  5:00 PM Today deal: $1 Off Glasses of Wine, Cans &amp; Bottles of Beer / $5 Draft Beers $10 Brisket Burnt Ends Jalapeño Mac n' Cheese / $11 Loaded Fries</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  8:00 PM Happy hour: 2:00 PM -  5:00 PM Today deal: Closed</t>
+        </is>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 2:00 PM -  5:00 PM Today deal: $1 Off Glasses of Wine, Cans &amp; Bottles of Beer / $5 Draft Beers $10 Brisket Burnt Ends Jalapeño Mac n' Cheese / $11 Loaded Fries</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 2:00 PM -  5:00 PM Today deal: $1 Off Glasses of Wine, Cans &amp; Bottles of Beer / $5 Draft Beers $10 Brisket Burnt Ends Jalapeño Mac n' Cheese / $11 Loaded Fries</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Bolt Brewery</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>1971 India St. San Diego, CA 92101</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>(619) 795-3012</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 11:00 AM -  6:00 PM Today deal: $5.50 Coors Light, Pacifico, Peroni, Seltzers / $6 - $6.50 Bolt Taps / $6.50 Classic Margarita, Well Drinks, Prosecco or Champagne Split, Sangria / $7 House Red or White Wine by the Glass $5 San Diego Classic Fish or Blackened Spicy Shrimp Taco / $6 Ballpark Garlic or Buffalo Blue Cheese Fries</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5.50 Coors Light, Pacifico, Peroni, Seltzers / $6 - $6.50 Bolt Taps / $6.50 Classic Margarita, Well Drinks, Prosecco or Champagne Split, Sangria / $7 House Red or White Wine by the Glass $5 San Diego Classic Fish or Blackened Spicy Shrimp Taco / $6 Ballpark Garlic or Buffalo Blue Cheese Fries</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $5.50 Coors Light, Pacifico, Peroni, Seltzers / $6 - $6.50 Bolt Taps / $6.50 Classic Margarita, Well Drinks, Prosecco or Champagne Split, Sangria / $7 House Red or White Wine by the Glass $5 San Diego Classic Fish or Blackened Spicy Shrimp Taco / $6 Ballpark Garlic or Buffalo Blue Cheese Fries</t>
+        </is>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  1:00 AM Happy hour: 3:00 PM -  6:00 PM Today deal: $5.50 Coors Light, Pacifico, Peroni, Seltzers / $6 - $6.50 Bolt Taps / $6.50 Classic Margarita, Well Drinks, Prosecco or Champagne Split, Sangria / $7 House Red or White Wine by the Glass $5 San Diego Classic Fish or Blackened Spicy Shrimp Taco / $6 Ballpark Garlic or Buffalo Blue Cheese Fries</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  1:00 AM Happy hour: 10:00 PM - 12:00 AM Today deal: $5.50 Coors Light, Pacifico, Peroni, Seltzers / $6 - $6.50 Bolt Taps / $6.50 Classic Margarita, Well Drinks, Prosecco or Champagne Split, Sangria / $7 House Red or White Wine by the Glass $5 San Diego Classic Fish or Blackened Spicy Shrimp Taco / $6 Ballpark Garlic or Buffalo Blue Cheese Fries</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Sandbar Sports Grill</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>718 Ventura Pl. San Diego, CA 92109</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>(858) 488-1274</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Bussines hour: 9:00 AM - 11:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Bussines hour: 9:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $6 14oz. Mexican Lager Draft / $8 Margarita / $9 22oz. Mexican Lager Draft  [A 4% surcharge will be added to all Guest checks to help cover increasing costs in employee wages/benefits; Happy Hour is not valid on holidays &amp; special events.]</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $6 14oz. Mexican Lager Draft / $8 Margarita / $9 22oz. Mexican Lager Draft  [A 4% surcharge will be added to all Guest checks to help cover increasing costs in employee wages/benefits; Happy Hour is not valid on holidays &amp; special events.]</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $6 14oz. Mexican Lager Draft / $8 Margarita / $9 22oz. Mexican Lager Draft  [A 4% surcharge will be added to all Guest checks to help cover increasing costs in employee wages/benefits; Happy Hour is not valid on holidays &amp; special events.]</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>Bussines hour: 9:00 AM - 11:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $6 14oz. Mexican Lager Draft / $8 Margarita / $9 22oz. Mexican Lager Draft  [A 4% surcharge will be added to all Guest checks to help cover increasing costs in employee wages/benefits; Happy Hour is not valid on holidays &amp; special events.]</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>Bussines hour: 9:00 AM - 11:00 PM Happy hour: Not Happy Hour Today deal: $6 14oz. Mexican Lager Draft / $8 Margarita / $9 22oz. Mexican Lager Draft  [A 4% surcharge will be added to all Guest checks to help cover increasing costs in employee wages/benefits; Happy Hour is not valid on holidays &amp; special events.]</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>The Corner Drafthouse</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>495 Laurel St. San Diego, CA 92101</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>(619) 255-2631</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:00 AM - 10:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $2 Off Draft Beer, Libations, Well Liquor, House Cabernet &amp; Chardonnay $4 Drafthouse Slider / $7.50 Traditional Bone-In Wings (6pc. drums &amp; flats): Buffalo, BBQ or Lemon Pepper / $10 Pretzel Bites, Frings / $12 Brussels Sprouts, Roasted Buffalo Cauliflower, Mini Short Rib Nachos / $13 Bert's Great 8 (mozzarella sticks)</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 11:00 AM -  6:00 PM Today deal: $2 Off Draft Beer, Libations, Well Liquor, House Cabernet &amp; Chardonnay $4 Drafthouse Slider / $7.50 Traditional Bone-In Wings (6pc. drums &amp; flats): Buffalo, BBQ or Lemon Pepper / $10 Pretzel Bites, Frings / $12 Brussels Sprouts, Roasted Buffalo Cauliflower, Mini Short Rib Nachos / $13 Bert's Great 8 (mozzarella sticks)</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $2 Off Draft Beer, Libations, Well Liquor, House Cabernet &amp; Chardonnay $4 Drafthouse Slider / $7.50 Traditional Bone-In Wings (6pc. drums &amp; flats): Buffalo, BBQ or Lemon Pepper / $10 Pretzel Bites, Frings / $12 Brussels Sprouts, Roasted Buffalo Cauliflower, Mini Short Rib Nachos / $13 Bert's Great 8 (mozzarella sticks)</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $2 Off Draft Beer, Libations, Well Liquor, House Cabernet &amp; Chardonnay $4 Drafthouse Slider / $7.50 Traditional Bone-In Wings (6pc. drums &amp; flats): Buffalo, BBQ or Lemon Pepper / $10 Pretzel Bites, Frings / $12 Brussels Sprouts, Roasted Buffalo Cauliflower, Mini Short Rib Nachos / $13 Bert's Great 8 (mozzarella sticks)</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 4:00 PM -  6:00 PM Today deal: $2 Off Draft Beer, Libations, Well Liquor, House Cabernet &amp; Chardonnay $4 Drafthouse Slider / $7.50 Traditional Bone-In Wings (6pc. drums &amp; flats): Buffalo, BBQ or Lemon Pepper / $10 Pretzel Bites, Frings / $12 Brussels Sprouts, Roasted Buffalo Cauliflower, Mini Short Rib Nachos / $13 Bert's Great 8 (mozzarella sticks)</t>
+        </is>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 12:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: $2 Off Draft Beer, Libations, Well Liquor, House Cabernet &amp; Chardonnay $4 Drafthouse Slider / $7.50 Traditional Bone-In Wings (6pc. drums &amp; flats): Buffalo, BBQ or Lemon Pepper / $10 Pretzel Bites, Frings / $12 Brussels Sprouts, Roasted Buffalo Cauliflower, Mini Short Rib Nachos / $13 Bert's Great 8 (mozzarella sticks)</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:00 AM - 12:00 AM Happy hour: 4:00 PM -  6:00 PM Today deal: $2 Off Draft Beer, Libations, Well Liquor, House Cabernet &amp; Chardonnay $4 Drafthouse Slider / $7.50 Traditional Bone-In Wings (6pc. drums &amp; flats): Buffalo, BBQ or Lemon Pepper / $10 Pretzel Bites, Frings / $12 Brussels Sprouts, Roasted Buffalo Cauliflower, Mini Short Rib Nachos / $13 Bert's Great 8 (mozzarella sticks)</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>On The Border</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>298 East Via Rancho Pkwy Escondido, CA 92025</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>(760) 233-9777</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 11:00 AM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 11:00 AM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+        </is>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  7:00 PM Today deal: $4.95 14oz. Bud Light or Coors Light Draft, Exotico Reposado Tequila, House Wine / $6 Cocktails: Jack Daniels, Captain Morgan's or Absolut / $6.50 House Margarita / $6.95 18oz. Dos XX Draft, 22oz. Domestic Draft, Long Island Iced Tea, Latitude 33 Blood Orange IPA / $8.95 Patron Silver Shot, Dos A'Rita, Borderita, Exotico Skinny Margarita, 27oz. Super Grande Margarita $4.95 Cup of Queso, Empanadas (3), Pork Mini Tacos (3), Chicken Chimis (2) / $6.95 Chicken Quesadilla, Rolled Tacos, Half Order Stacked Nachos, Fried Pickled Jalapeños, Guacamole Appetizer / $8.95 Queso Fries, California Tacos (2), Guac/Queso Duo</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Puesto</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>1026 Wall Street La Jolla, CA 92037</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>(858) 454-1260</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Puesto Drafts / $9 Wines by the Glass / $10 Puesto Perfect Margaritas 1/2 Off Snacks &amp; Shares: Chips &amp; Molcajete Salsa, Chicarrones, Potato Taquitos, Shrimp Gobernador Quesadilla, Chicken Flautas, Crispy Tuna Quesadilla</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Puesto Drafts / $9 Wines by the Glass / $10 Puesto Perfect Margaritas 1/2 Off Snacks &amp; Shares: Chips &amp; Molcajete Salsa, Chicarrones, Potato Taquitos, Shrimp Gobernador Quesadilla, Chicken Flautas, Crispy Tuna Quesadilla</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Puesto Drafts / $9 Wines by the Glass / $10 Puesto Perfect Margaritas 1/2 Off Snacks &amp; Shares: Chips &amp; Molcajete Salsa, Chicarrones, Potato Taquitos, Shrimp Gobernador Quesadilla, Chicken Flautas, Crispy Tuna Quesadilla</t>
+        </is>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $6 Puesto Drafts / $9 Wines by the Glass / $10 Puesto Perfect Margaritas 1/2 Off Snacks &amp; Shares: Chips &amp; Molcajete Salsa, Chicarrones, Potato Taquitos, Shrimp Gobernador Quesadilla, Chicken Flautas, Crispy Tuna Quesadilla</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: Not Happy Hour Today deal: $6 Puesto Drafts / $9 Wines by the Glass / $10 Puesto Perfect Margaritas 1/2 Off Snacks &amp; Shares: Chips &amp; Molcajete Salsa, Chicarrones, Potato Taquitos, Shrimp Gobernador Quesadilla, Chicken Flautas, Crispy Tuna Quesadilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>The Shack Bar &amp; Grill</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>6941 La Jolla Blvd. La Jolla, CA 92037</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>(858) 454-5280</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:30 AM -  2:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off All Well Cocktails, Draft Beer, Wine &amp; Champagne  $4.95 Classic Corn Dog, Buttered Soft Pretzel / $6.95 Basket of Fries or Tots: Regular or Garlic / $10.95 Cheese Quesadilla / $11.95 Chicken Tenders / $12.95 Chicken Caesar Salad</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:30 AM -  2:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off All Well Cocktails, Draft Beer, Wine &amp; Champagne  $4.95 Classic Corn Dog, Buttered Soft Pretzel / $6.95 Basket of Fries or Tots: Regular or Garlic / $10.95 Cheese Quesadilla / $11.95 Chicken Tenders / $12.95 Chicken Caesar Salad</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:30 AM -  2:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off All Well Cocktails, Draft Beer, Wine &amp; Champagne  $4.95 Classic Corn Dog, Buttered Soft Pretzel / $6.95 Basket of Fries or Tots: Regular or Garlic / $10.95 Cheese Quesadilla / $11.95 Chicken Tenders / $12.95 Chicken Caesar Salad</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:30 AM -  2:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off All Well Cocktails, Draft Beer, Wine &amp; Champagne  $4.95 Classic Corn Dog, Buttered Soft Pretzel / $6.95 Basket of Fries or Tots: Regular or Garlic / $10.95 Cheese Quesadilla / $11.95 Chicken Tenders / $12.95 Chicken Caesar Salad</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:30 AM -  2:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off All Well Cocktails, Draft Beer, Wine &amp; Champagne  $4.95 Classic Corn Dog, Buttered Soft Pretzel / $6.95 Basket of Fries or Tots: Regular or Garlic / $10.95 Cheese Quesadilla / $11.95 Chicken Tenders / $12.95 Chicken Caesar Salad</t>
+        </is>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:30 AM -  2:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off All Well Cocktails, Draft Beer, Wine &amp; Champagne  $4.95 Classic Corn Dog, Buttered Soft Pretzel / $6.95 Basket of Fries or Tots: Regular or Garlic / $10.95 Cheese Quesadilla / $11.95 Chicken Tenders / $12.95 Chicken Caesar Salad</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:30 AM -  2:00 AM Happy hour: 3:00 PM -  7:00 PM Today deal: $2 Off All Well Cocktails, Draft Beer, Wine &amp; Champagne  $4.95 Classic Corn Dog, Buttered Soft Pretzel / $6.95 Basket of Fries or Tots: Regular or Garlic / $10.95 Cheese Quesadilla / $11.95 Chicken Tenders / $12.95 Chicken Caesar Salad</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Baja Betty's</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>1421 University Ave. San Diego, CA 92103</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>(619) 269-8510</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:00 AM -  9:00 PM Happy hour: 10:00 AM -  2:00 PM Today deal: $10 House Bloody Mary or Maria / $15 Bottomless Mimosa, Sangria Pitcher $12.75 - $16.75 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 2:00 PM -  6:00 PM Today deal: $10 House Bloody Mary or Maria / $15 Bottomless Mimosa, Sangria Pitcher $12.75 - $16.75 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 2:00 PM -  6:00 PM Today deal: $10 House Bloody Mary or Maria / $15 Bottomless Mimosa, Sangria Pitcher $12.75 - $16.75 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 2:00 PM -  6:00 PM Today deal: $6 House Cocktails, Select Draft &amp; Bottled Beer, House Shots, House Wine &amp; Sangria, Mi Casa Margarita Rocks / $7 Mi Casa Margarita Frozen, Su Casa Mezcal-arita $6 Dip (Queso, Bean or House Guacamole), Cucumbers, House Caesar Salad, House Salad, TJ Street Tacos (2): Carnitas, Chicken Adobado or Battered Fish, Mexican Pizza, Cheese Quesadilla</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 2:00 PM -  6:00 PM Today deal: $6 House Cocktails, Select Draft &amp; Bottled Beer, House Shots, House Wine &amp; Sangria, Mi Casa Margarita Rocks / $7 Mi Casa Margarita Frozen, Su Casa Mezcal-arita $6 Dip (Queso, Bean or House Guacamole), Cucumbers, House Caesar Salad, House Salad, TJ Street Tacos (2): Carnitas, Chicken Adobado or Battered Fish, Mexican Pizza, Cheese Quesadilla</t>
+        </is>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 2:00 PM -  6:00 PM Today deal: $6 House Cocktails, Select Draft &amp; Bottled Beer, House Shots, House Wine &amp; Sangria, Mi Casa Margarita Rocks / $7 Mi Casa Margarita Frozen, Su Casa Mezcal-arita $6 Dip (Queso, Bean or House Guacamole), Cucumbers, House Caesar Salad, House Salad, TJ Street Tacos (2): Carnitas, Chicken Adobado or Battered Fish, Mexican Pizza, Cheese Quesadilla</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>Bussines hour: 10:00 AM - 10:00 PM Happy hour: 10:00 AM -  2:00 PM Today deal: $6 House Cocktails, Select Draft &amp; Bottled Beer, House Shots, House Wine &amp; Sangria, Mi Casa Margarita Rocks / $7 Mi Casa Margarita Frozen, Su Casa Mezcal-arita $6 Dip (Queso, Bean or House Guacamole), Cucumbers, House Caesar Salad, House Salad, TJ Street Tacos (2): Carnitas, Chicken Adobado or Battered Fish, Mexican Pizza, Cheese Quesadilla</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>O'Brien's Pub</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>4646 Convoy St San Diego, CA 921111</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>(858) 715-1745</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Bussines hour: 12:00 PM -  6:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $1 Off All Pints</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $1 Off All Pints</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 10:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $1 Off All Pints $4+ Craft Tacos</t>
+        </is>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: 3:00 PM -  5:00 PM Today deal: $1 Off All Pints $4+ Craft Tacos</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM - 11:00 PM Happy hour: Not Happy Hour Today deal: $1 Off All Pints $4+ Craft Tacos</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Bay Park Fish Company</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>4121 Ashton St. San Diego, CA 92110</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>(619) 276-3474</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 0ff All Drafts, Wines by the Glass &amp; Select Cocktails $2 Single Oysters on the Half Shell / 20% Off All Appetizers (Reg. Price $7 - $20): Edamame, Edamame Chile-Garlic, Brussel Sprouts, Coconut Shrimp, Smoked Fish Stack, Shrimp Ceviche, Lemon Pepper Shrimp, Shrimp Cocktail, Steamed Clams, Coconut Mussels, Ahi Poke, Campechana, Crispy Calamari, Haliboat, Seared Ahi Wonton, Crab Cakes</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  8:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 0ff All Drafts, Wines by the Glass &amp; Select Cocktails $2 Single Oysters on the Half Shell / 20% Off All Appetizers (Reg. Price $7 - $20): Edamame, Edamame Chile-Garlic, Brussel Sprouts, Coconut Shrimp, Smoked Fish Stack, Shrimp Ceviche, Lemon Pepper Shrimp, Shrimp Cocktail, Steamed Clams, Coconut Mussels, Ahi Poke, Campechana, Crispy Calamari, Haliboat, Seared Ahi Wonton, Crab Cakes</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 0ff All Drafts, Wines by the Glass &amp; Select Cocktails $2 Single Oysters on the Half Shell / 20% Off All Appetizers (Reg. Price $7 - $20): Edamame, Edamame Chile-Garlic, Brussel Sprouts, Coconut Shrimp, Smoked Fish Stack, Shrimp Ceviche, Lemon Pepper Shrimp, Shrimp Cocktail, Steamed Clams, Coconut Mussels, Ahi Poke, Campechana, Crispy Calamari, Haliboat, Seared Ahi Wonton, Crab Cakes</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 0ff All Drafts, Wines by the Glass &amp; Select Cocktails $2 Single Oysters on the Half Shell / 20% Off All Appetizers (Reg. Price $7 - $20): Edamame, Edamame Chile-Garlic, Brussel Sprouts, Coconut Shrimp, Smoked Fish Stack, Shrimp Ceviche, Lemon Pepper Shrimp, Shrimp Cocktail, Steamed Clams, Coconut Mussels, Ahi Poke, Campechana, Crispy Calamari, Haliboat, Seared Ahi Wonton, Crab Cakes</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 0ff All Drafts, Wines by the Glass &amp; Select Cocktails $2 Single Oysters on the Half Shell / 20% Off All Appetizers (Reg. Price $7 - $20): Edamame, Edamame Chile-Garlic, Brussel Sprouts, Coconut Shrimp, Smoked Fish Stack, Shrimp Ceviche, Lemon Pepper Shrimp, Shrimp Cocktail, Steamed Clams, Coconut Mussels, Ahi Poke, Campechana, Crispy Calamari, Haliboat, Seared Ahi Wonton, Crab Cakes</t>
+        </is>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 0ff All Drafts, Wines by the Glass &amp; Select Cocktails $2 Single Oysters on the Half Shell / 20% Off All Appetizers (Reg. Price $7 - $20): Edamame, Edamame Chile-Garlic, Brussel Sprouts, Coconut Shrimp, Smoked Fish Stack, Shrimp Ceviche, Lemon Pepper Shrimp, Shrimp Cocktail, Steamed Clams, Coconut Mussels, Ahi Poke, Campechana, Crispy Calamari, Haliboat, Seared Ahi Wonton, Crab Cakes</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $2 0ff All Drafts, Wines by the Glass &amp; Select Cocktails $2 Single Oysters on the Half Shell / 20% Off All Appetizers (Reg. Price $7 - $20): Edamame, Edamame Chile-Garlic, Brussel Sprouts, Coconut Shrimp, Smoked Fish Stack, Shrimp Ceviche, Lemon Pepper Shrimp, Shrimp Cocktail, Steamed Clams, Coconut Mussels, Ahi Poke, Campechana, Crispy Calamari, Haliboat, Seared Ahi Wonton, Crab Cakes</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>The Islander</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>1015 Orange Ave.   Coronado, CA 92118</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>(619) 437-6087</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM - 10:00 PM Happy hour: 9:00 AM -  3:00 PM Today deal: $12 - $18 Signature Brunch Cocktails $6 - $22 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $12 - $18 Signature Brunch Cocktails $6 - $22 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Bussines hour: 7:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $12 - $18 Signature Brunch Cocktails $6 - $22 Brunch Menu</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 7:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $3 Pacifico / $5 Craft Drafts / $7 Mai Tais, Margaritas, Select Wine By The Glass $3 Crispy Beef Taco / $6  Volcano Fries, Taco: North Shore Garlic Shrimp, Achiote Cauliflower, Chili Crunch Chicken, Grilled Fish or Kalua Pork / $7 West Pac Eggrolls / $8 Chicken Satay / $9 Fresh Ahi Poke Taco </t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 7:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $3 Pacifico / $5 Craft Drafts / $7 Mai Tais, Margaritas, Select Wine By The Glass $3 Crispy Beef Taco / $6  Volcano Fries, Taco: North Shore Garlic Shrimp, Achiote Cauliflower, Chili Crunch Chicken, Grilled Fish or Kalua Pork / $7 West Pac Eggrolls / $8 Chicken Satay / $9 Fresh Ahi Poke Taco </t>
+        </is>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 7:00 AM - 10:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $3 Pacifico / $5 Craft Drafts / $7 Mai Tais, Margaritas, Select Wine By The Glass $3 Crispy Beef Taco / $6  Volcano Fries, Taco: North Shore Garlic Shrimp, Achiote Cauliflower, Chili Crunch Chicken, Grilled Fish or Kalua Pork / $7 West Pac Eggrolls / $8 Chicken Satay / $9 Fresh Ahi Poke Taco </t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bussines hour: 7:00 AM - 10:00 PM Happy hour: 9:00 AM -  3:00 PM Today deal: $3 Pacifico / $5 Craft Drafts / $7 Mai Tais, Margaritas, Select Wine By The Glass $3 Crispy Beef Taco / $6  Volcano Fries, Taco: North Shore Garlic Shrimp, Achiote Cauliflower, Chili Crunch Chicken, Grilled Fish or Kalua Pork / $7 West Pac Eggrolls / $8 Chicken Satay / $9 Fresh Ahi Poke Taco </t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Hello Betty</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>211 Mission Avenue Oceanside, CA 92054</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>(760) 722-1008</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: Not Happy Hour Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Bussines hour: 3:00 PM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: No Specials</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Bussines hour: 3:00 PM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $6 O'side Rita, La Paloma, Pacifico, Modelo, Wine by the Glass (house red, white, sparkling or sangria) / $10 Cocktail of the Day $1 Off Street Tacos / $5 Chips &amp; Salsa / $12 Fish &amp; Chips</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $6 O'side Rita, La Paloma, Pacifico, Modelo, Wine by the Glass (house red, white, sparkling or sangria) / $10 Cocktail of the Day $1 Off Street Tacos / $5 Chips &amp; Salsa / $12 Fish &amp; Chips</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $6 O'side Rita, La Paloma, Pacifico, Modelo, Wine by the Glass (house red, white, sparkling or sangria) / $10 Cocktail of the Day $1 Off Street Tacos / $5 Chips &amp; Salsa / $12 Fish &amp; Chips</t>
+        </is>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: 3:00 PM -  6:00 PM Today deal: $6 O'side Rita, La Paloma, Pacifico, Modelo, Wine by the Glass (house red, white, sparkling or sangria) / $10 Cocktail of the Day $1 Off Street Tacos / $5 Chips &amp; Salsa / $12 Fish &amp; Chips</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>Bussines hour: 11:00 AM -  9:00 PM Happy hour: Not Happy Hour Today deal: $6 O'side Rita, La Paloma, Pacifico, Modelo, Wine by the Glass (house red, white, sparkling or sangria) / $10 Cocktail of the Day $1 Off Street Tacos / $5 Chips &amp; Salsa / $12 Fish &amp; Chips</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Society PB</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>1051 Garnet Ave.  San Diego, CA 92109</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>(858) 272-7665</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Bussines hour: 1:00 PM -  2:00 AM Happy hour: 1:00 PM -  4:00 PM Today deal: $6 Micheladas, Bud Light Draft, Mimosas (Orange, Mango, Strawberry, Pomegranate, Watermelon) / $8 Bloody Marys / $23 Champagne Bottle 4:00 PM - 2:00 AM
+Industry Special: 30% off All Service Industry Tabs / One Hour Free Pool w/One Hour Purchased</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Closed</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  8:00 PM Today deal: $6 Micheladas, Bud Light Draft, Mimosas (Orange, Mango, Strawberry, Pomegranate, Watermelon) / $8 Bloody Marys / $23 Champagne Bottle 4:00 PM - 2:00 AM
+Industry Special: 30% off All Service Industry Tabs / One Hour Free Pool w/One Hour Purchased</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  8:00 PM Today deal: Closed</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  8:00 PM Today deal: $2 Off All Drafts &amp; Well Cocktails 20% Off Shareables &amp; Starters (Reg. Price: $10 - $25): Hummus, Baba Ghanoush, Sliders (Hamburger, Crispy Chicken or Pulled Pork), Wings (BBQ, Buffalo or Salt &amp; Pepper), Potato Skins (Buffalo Chicken, Pulled Pork or Double Potato), Bruschetta Flatbread, Chicken Strips 'N Fries, Loaded Chicken or Carnitas Nachos or Fries, Mixed Dip Plate, Meat &amp; Cheese Charcuterie, Wings Rings &amp; Things</t>
+        </is>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>Bussines hour: 4:00 PM -  2:00 AM Happy hour: 4:00 PM -  8:00 PM Today deal: $2 Off All Drafts &amp; Well Cocktails 20% Off Shareables &amp; Starters (Reg. Price: $10 - $25): Hummus, Baba Ghanoush, Sliders (Hamburger, Crispy Chicken or Pulled Pork), Wings (BBQ, Buffalo or Salt &amp; Pepper), Potato Skins (Buffalo Chicken, Pulled Pork or Double Potato), Bruschetta Flatbread, Chicken Strips 'N Fries, Loaded Chicken or Carnitas Nachos or Fries, Mixed Dip Plate, Meat &amp; Cheese Charcuterie, Wings Rings &amp; Things</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>Bussines hour: 1:00 PM -  2:00 AM Happy hour: 11:30 AM -  4:00 PM Today deal: $2 Off All Drafts &amp; Well Cocktails 20% Off Shareables &amp; Starters (Reg. Price: $10 - $25): Hummus, Baba Ghanoush, Sliders (Hamburger, Crispy Chicken or Pulled Pork), Wings (BBQ, Buffalo or Salt &amp; Pepper), Potato Skins (Buffalo Chicken, Pulled Pork or Double Potato), Bruschetta Flatbread, Chicken Strips 'N Fries, Loaded Chicken or Carnitas Nachos or Fries, Mixed Dip Plate, Meat &amp; Cheese Charcuterie, Wings Rings &amp; Things</t>
         </is>
       </c>
     </row>
